--- a/MergedFile.xlsx
+++ b/MergedFile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ChiliLado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77ABACFB-38E3-421A-9464-26E4D2086E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DCF5DB-E6D2-4B51-99EF-26154F5F2BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,18 +496,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V124"/>
+  <dimension ref="A1:V154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="23" width="12" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +572,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45047</v>
       </c>
@@ -8936,6 +8933,2046 @@
         <v>5.8799999999999998E-2</v>
       </c>
       <c r="V124" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B125" s="3">
+        <v>115</v>
+      </c>
+      <c r="C125" s="3">
+        <v>212</v>
+      </c>
+      <c r="D125" s="3">
+        <v>3</v>
+      </c>
+      <c r="E125" s="3">
+        <v>33</v>
+      </c>
+      <c r="F125" s="4">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="G125" s="3">
+        <v>31</v>
+      </c>
+      <c r="H125" s="3">
+        <v>4</v>
+      </c>
+      <c r="I125" s="3">
+        <v>34</v>
+      </c>
+      <c r="J125" s="3">
+        <v>103</v>
+      </c>
+      <c r="K125" s="4">
+        <v>0.29570000000000002</v>
+      </c>
+      <c r="L125" s="3">
+        <v>10</v>
+      </c>
+      <c r="M125" s="3">
+        <v>13</v>
+      </c>
+      <c r="N125" s="3">
+        <v>1</v>
+      </c>
+      <c r="O125" s="3">
+        <v>372.52</v>
+      </c>
+      <c r="P125" s="4">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="Q125" s="3">
+        <v>10</v>
+      </c>
+      <c r="R125" s="3">
+        <v>13</v>
+      </c>
+      <c r="S125" s="3">
+        <v>1</v>
+      </c>
+      <c r="T125" s="3">
+        <v>372.52</v>
+      </c>
+      <c r="U125" s="4">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="V125" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>45171</v>
+      </c>
+      <c r="B126" s="3">
+        <v>66</v>
+      </c>
+      <c r="C126" s="3">
+        <v>113</v>
+      </c>
+      <c r="D126" s="3">
+        <v>1</v>
+      </c>
+      <c r="E126" s="3">
+        <v>10</v>
+      </c>
+      <c r="F126" s="4">
+        <v>0.1515</v>
+      </c>
+      <c r="G126" s="3">
+        <v>27</v>
+      </c>
+      <c r="H126" s="3">
+        <v>2</v>
+      </c>
+      <c r="I126" s="3">
+        <v>22</v>
+      </c>
+      <c r="J126" s="3">
+        <v>36</v>
+      </c>
+      <c r="K126" s="4">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="L126" s="3">
+        <v>8</v>
+      </c>
+      <c r="M126" s="3">
+        <v>17</v>
+      </c>
+      <c r="N126" s="3">
+        <v>1</v>
+      </c>
+      <c r="O126" s="3">
+        <v>413.4</v>
+      </c>
+      <c r="P126" s="4">
+        <v>0.1212</v>
+      </c>
+      <c r="Q126" s="3">
+        <v>7</v>
+      </c>
+      <c r="R126" s="3">
+        <v>16</v>
+      </c>
+      <c r="S126" s="3">
+        <v>1</v>
+      </c>
+      <c r="T126" s="3">
+        <v>372.5</v>
+      </c>
+      <c r="U126" s="4">
+        <v>0.1061</v>
+      </c>
+      <c r="V126" s="4">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>45172</v>
+      </c>
+      <c r="B127" s="3">
+        <v>65</v>
+      </c>
+      <c r="C127" s="3">
+        <v>107</v>
+      </c>
+      <c r="D127" s="3">
+        <v>1</v>
+      </c>
+      <c r="E127" s="3">
+        <v>23</v>
+      </c>
+      <c r="F127" s="4">
+        <v>0.3538</v>
+      </c>
+      <c r="G127" s="3">
+        <v>17</v>
+      </c>
+      <c r="H127" s="3">
+        <v>1</v>
+      </c>
+      <c r="I127" s="3">
+        <v>7</v>
+      </c>
+      <c r="J127" s="3">
+        <v>6</v>
+      </c>
+      <c r="K127" s="4">
+        <v>0.1077</v>
+      </c>
+      <c r="L127" s="3">
+        <v>5</v>
+      </c>
+      <c r="M127" s="3">
+        <v>7</v>
+      </c>
+      <c r="N127" s="3">
+        <v>1</v>
+      </c>
+      <c r="O127" s="3">
+        <v>230.49</v>
+      </c>
+      <c r="P127" s="4">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="Q127" s="3">
+        <v>6</v>
+      </c>
+      <c r="R127" s="3">
+        <v>8</v>
+      </c>
+      <c r="S127" s="3">
+        <v>1</v>
+      </c>
+      <c r="T127" s="3">
+        <v>271.39</v>
+      </c>
+      <c r="U127" s="4">
+        <v>9.2299999999999993E-2</v>
+      </c>
+      <c r="V127" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>45173</v>
+      </c>
+      <c r="B128" s="3">
+        <v>56</v>
+      </c>
+      <c r="C128" s="3">
+        <v>111</v>
+      </c>
+      <c r="D128" s="3">
+        <v>1</v>
+      </c>
+      <c r="E128" s="3">
+        <v>18</v>
+      </c>
+      <c r="F128" s="4">
+        <v>0.32140000000000002</v>
+      </c>
+      <c r="G128" s="3">
+        <v>15</v>
+      </c>
+      <c r="H128" s="3">
+        <v>3</v>
+      </c>
+      <c r="I128" s="3">
+        <v>11</v>
+      </c>
+      <c r="J128" s="3">
+        <v>13</v>
+      </c>
+      <c r="K128" s="4">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="L128" s="3">
+        <v>4</v>
+      </c>
+      <c r="M128" s="3">
+        <v>5</v>
+      </c>
+      <c r="N128" s="3">
+        <v>1</v>
+      </c>
+      <c r="O128" s="3">
+        <v>118.57</v>
+      </c>
+      <c r="P128" s="4">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="Q128" s="3">
+        <v>4</v>
+      </c>
+      <c r="R128" s="3">
+        <v>5</v>
+      </c>
+      <c r="S128" s="3">
+        <v>1</v>
+      </c>
+      <c r="T128" s="3">
+        <v>118.57</v>
+      </c>
+      <c r="U128" s="4">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="V128" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>45174</v>
+      </c>
+      <c r="B129" s="3">
+        <v>105</v>
+      </c>
+      <c r="C129" s="3">
+        <v>214</v>
+      </c>
+      <c r="D129" s="3">
+        <v>1</v>
+      </c>
+      <c r="E129" s="3">
+        <v>22</v>
+      </c>
+      <c r="F129" s="4">
+        <v>0.20949999999999999</v>
+      </c>
+      <c r="G129" s="3">
+        <v>37</v>
+      </c>
+      <c r="H129" s="3">
+        <v>1</v>
+      </c>
+      <c r="I129" s="3">
+        <v>40</v>
+      </c>
+      <c r="J129" s="3">
+        <v>60</v>
+      </c>
+      <c r="K129" s="4">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="L129" s="3">
+        <v>12</v>
+      </c>
+      <c r="M129" s="3">
+        <v>17</v>
+      </c>
+      <c r="N129" s="3">
+        <v>1</v>
+      </c>
+      <c r="O129" s="3">
+        <v>363.6</v>
+      </c>
+      <c r="P129" s="4">
+        <v>0.1143</v>
+      </c>
+      <c r="Q129" s="3">
+        <v>11</v>
+      </c>
+      <c r="R129" s="3">
+        <v>16</v>
+      </c>
+      <c r="S129" s="3">
+        <v>1</v>
+      </c>
+      <c r="T129" s="3">
+        <v>340.7</v>
+      </c>
+      <c r="U129" s="4">
+        <v>0.1048</v>
+      </c>
+      <c r="V129" s="4">
+        <v>0.91669999999999996</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>45175</v>
+      </c>
+      <c r="B130" s="3">
+        <v>112</v>
+      </c>
+      <c r="C130" s="3">
+        <v>210</v>
+      </c>
+      <c r="D130" s="3">
+        <v>1</v>
+      </c>
+      <c r="E130" s="3">
+        <v>24</v>
+      </c>
+      <c r="F130" s="4">
+        <v>0.21429999999999999</v>
+      </c>
+      <c r="G130" s="3">
+        <v>34</v>
+      </c>
+      <c r="H130" s="3">
+        <v>4</v>
+      </c>
+      <c r="I130" s="3">
+        <v>30</v>
+      </c>
+      <c r="J130" s="3">
+        <v>47</v>
+      </c>
+      <c r="K130" s="4">
+        <v>0.26790000000000003</v>
+      </c>
+      <c r="L130" s="3">
+        <v>3</v>
+      </c>
+      <c r="M130" s="3">
+        <v>5</v>
+      </c>
+      <c r="N130" s="3">
+        <v>1</v>
+      </c>
+      <c r="O130" s="3">
+        <v>104.7</v>
+      </c>
+      <c r="P130" s="4">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="Q130" s="3">
+        <v>3</v>
+      </c>
+      <c r="R130" s="3">
+        <v>5</v>
+      </c>
+      <c r="S130" s="3">
+        <v>1</v>
+      </c>
+      <c r="T130" s="3">
+        <v>104.7</v>
+      </c>
+      <c r="U130" s="4">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="V130" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>45176</v>
+      </c>
+      <c r="B131" s="3">
+        <v>55</v>
+      </c>
+      <c r="C131" s="3">
+        <v>113</v>
+      </c>
+      <c r="D131" s="3">
+        <v>1</v>
+      </c>
+      <c r="E131" s="3">
+        <v>10</v>
+      </c>
+      <c r="F131" s="4">
+        <v>0.18179999999999999</v>
+      </c>
+      <c r="G131" s="3">
+        <v>21</v>
+      </c>
+      <c r="H131" s="3">
+        <v>0</v>
+      </c>
+      <c r="I131" s="3">
+        <v>14</v>
+      </c>
+      <c r="J131" s="3">
+        <v>21</v>
+      </c>
+      <c r="K131" s="4">
+        <v>0.2545</v>
+      </c>
+      <c r="L131" s="3">
+        <v>9</v>
+      </c>
+      <c r="M131" s="3">
+        <v>19</v>
+      </c>
+      <c r="N131" s="3">
+        <v>1</v>
+      </c>
+      <c r="O131" s="3">
+        <v>386.29</v>
+      </c>
+      <c r="P131" s="4">
+        <v>0.1636</v>
+      </c>
+      <c r="Q131" s="3">
+        <v>8</v>
+      </c>
+      <c r="R131" s="3">
+        <v>18</v>
+      </c>
+      <c r="S131" s="3">
+        <v>1</v>
+      </c>
+      <c r="T131" s="3">
+        <v>377.18</v>
+      </c>
+      <c r="U131" s="4">
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="V131" s="4">
+        <v>0.88890000000000002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>45177</v>
+      </c>
+      <c r="B132" s="3">
+        <v>49</v>
+      </c>
+      <c r="C132" s="3">
+        <v>79</v>
+      </c>
+      <c r="D132" s="3">
+        <v>1</v>
+      </c>
+      <c r="E132" s="3">
+        <v>11</v>
+      </c>
+      <c r="F132" s="4">
+        <v>0.22450000000000001</v>
+      </c>
+      <c r="G132" s="3">
+        <v>18</v>
+      </c>
+      <c r="H132" s="3">
+        <v>0</v>
+      </c>
+      <c r="I132" s="3">
+        <v>17</v>
+      </c>
+      <c r="J132" s="3">
+        <v>19</v>
+      </c>
+      <c r="K132" s="4">
+        <v>0.34689999999999999</v>
+      </c>
+      <c r="L132" s="3">
+        <v>7</v>
+      </c>
+      <c r="M132" s="3">
+        <v>9</v>
+      </c>
+      <c r="N132" s="3">
+        <v>1</v>
+      </c>
+      <c r="O132" s="3">
+        <v>227.36</v>
+      </c>
+      <c r="P132" s="4">
+        <v>0.1429</v>
+      </c>
+      <c r="Q132" s="3">
+        <v>7</v>
+      </c>
+      <c r="R132" s="3">
+        <v>9</v>
+      </c>
+      <c r="S132" s="3">
+        <v>1</v>
+      </c>
+      <c r="T132" s="3">
+        <v>227.36</v>
+      </c>
+      <c r="U132" s="4">
+        <v>0.1429</v>
+      </c>
+      <c r="V132" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>45178</v>
+      </c>
+      <c r="B133" s="3">
+        <v>47</v>
+      </c>
+      <c r="C133" s="3">
+        <v>98</v>
+      </c>
+      <c r="D133" s="3">
+        <v>1</v>
+      </c>
+      <c r="E133" s="3">
+        <v>10</v>
+      </c>
+      <c r="F133" s="4">
+        <v>0.21279999999999999</v>
+      </c>
+      <c r="G133" s="3">
+        <v>12</v>
+      </c>
+      <c r="H133" s="3">
+        <v>2</v>
+      </c>
+      <c r="I133" s="3">
+        <v>14</v>
+      </c>
+      <c r="J133" s="3">
+        <v>18</v>
+      </c>
+      <c r="K133" s="4">
+        <v>0.2979</v>
+      </c>
+      <c r="L133" s="3">
+        <v>16</v>
+      </c>
+      <c r="M133" s="3">
+        <v>23</v>
+      </c>
+      <c r="N133" s="3">
+        <v>1</v>
+      </c>
+      <c r="O133" s="3">
+        <v>553.73</v>
+      </c>
+      <c r="P133" s="4">
+        <v>0.34039999999999998</v>
+      </c>
+      <c r="Q133" s="3">
+        <v>16</v>
+      </c>
+      <c r="R133" s="3">
+        <v>22</v>
+      </c>
+      <c r="S133" s="3">
+        <v>1</v>
+      </c>
+      <c r="T133" s="3">
+        <v>530.83000000000004</v>
+      </c>
+      <c r="U133" s="4">
+        <v>0.34039999999999998</v>
+      </c>
+      <c r="V133" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>45179</v>
+      </c>
+      <c r="B134" s="3">
+        <v>39</v>
+      </c>
+      <c r="C134" s="3">
+        <v>66</v>
+      </c>
+      <c r="D134" s="3">
+        <v>1</v>
+      </c>
+      <c r="E134" s="3">
+        <v>11</v>
+      </c>
+      <c r="F134" s="4">
+        <v>0.28210000000000002</v>
+      </c>
+      <c r="G134" s="3">
+        <v>14</v>
+      </c>
+      <c r="H134" s="3">
+        <v>0</v>
+      </c>
+      <c r="I134" s="3">
+        <v>9</v>
+      </c>
+      <c r="J134" s="3">
+        <v>8</v>
+      </c>
+      <c r="K134" s="4">
+        <v>0.23080000000000001</v>
+      </c>
+      <c r="L134" s="3">
+        <v>3</v>
+      </c>
+      <c r="M134" s="3">
+        <v>3</v>
+      </c>
+      <c r="N134" s="3">
+        <v>1</v>
+      </c>
+      <c r="O134" s="3">
+        <v>104.21</v>
+      </c>
+      <c r="P134" s="4">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="Q134" s="3">
+        <v>3</v>
+      </c>
+      <c r="R134" s="3">
+        <v>3</v>
+      </c>
+      <c r="S134" s="3">
+        <v>1</v>
+      </c>
+      <c r="T134" s="3">
+        <v>104.21</v>
+      </c>
+      <c r="U134" s="4">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="V134" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B135" s="3">
+        <v>87</v>
+      </c>
+      <c r="C135" s="3">
+        <v>146</v>
+      </c>
+      <c r="D135" s="3">
+        <v>1</v>
+      </c>
+      <c r="E135" s="3">
+        <v>19</v>
+      </c>
+      <c r="F135" s="4">
+        <v>0.21840000000000001</v>
+      </c>
+      <c r="G135" s="3">
+        <v>18</v>
+      </c>
+      <c r="H135" s="3">
+        <v>0</v>
+      </c>
+      <c r="I135" s="3">
+        <v>21</v>
+      </c>
+      <c r="J135" s="3">
+        <v>26</v>
+      </c>
+      <c r="K135" s="4">
+        <v>0.2414</v>
+      </c>
+      <c r="L135" s="3">
+        <v>9</v>
+      </c>
+      <c r="M135" s="3">
+        <v>11</v>
+      </c>
+      <c r="N135" s="3">
+        <v>1</v>
+      </c>
+      <c r="O135" s="3">
+        <v>276.62</v>
+      </c>
+      <c r="P135" s="4">
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="Q135" s="3">
+        <v>9</v>
+      </c>
+      <c r="R135" s="3">
+        <v>11</v>
+      </c>
+      <c r="S135" s="3">
+        <v>1</v>
+      </c>
+      <c r="T135" s="3">
+        <v>276.62</v>
+      </c>
+      <c r="U135" s="4">
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="V135" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>45181</v>
+      </c>
+      <c r="B136" s="3">
+        <v>42</v>
+      </c>
+      <c r="C136" s="3">
+        <v>61</v>
+      </c>
+      <c r="D136" s="3">
+        <v>3</v>
+      </c>
+      <c r="E136" s="3">
+        <v>15</v>
+      </c>
+      <c r="F136" s="4">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="G136" s="3">
+        <v>10</v>
+      </c>
+      <c r="H136" s="3">
+        <v>2</v>
+      </c>
+      <c r="I136" s="3">
+        <v>5</v>
+      </c>
+      <c r="J136" s="3">
+        <v>6</v>
+      </c>
+      <c r="K136" s="4">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="L136" s="3">
+        <v>3</v>
+      </c>
+      <c r="M136" s="3">
+        <v>4</v>
+      </c>
+      <c r="N136" s="3">
+        <v>1</v>
+      </c>
+      <c r="O136" s="3">
+        <v>150.94</v>
+      </c>
+      <c r="P136" s="4">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="Q136" s="3">
+        <v>3</v>
+      </c>
+      <c r="R136" s="3">
+        <v>4</v>
+      </c>
+      <c r="S136" s="3">
+        <v>1</v>
+      </c>
+      <c r="T136" s="3">
+        <v>150.94</v>
+      </c>
+      <c r="U136" s="4">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="V136" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>45182</v>
+      </c>
+      <c r="B137" s="3">
+        <v>30</v>
+      </c>
+      <c r="C137" s="3">
+        <v>48</v>
+      </c>
+      <c r="D137" s="3">
+        <v>3</v>
+      </c>
+      <c r="E137" s="3">
+        <v>8</v>
+      </c>
+      <c r="F137" s="4">
+        <v>0.26669999999999999</v>
+      </c>
+      <c r="G137" s="3">
+        <v>16</v>
+      </c>
+      <c r="H137" s="3">
+        <v>0</v>
+      </c>
+      <c r="I137" s="3">
+        <v>9</v>
+      </c>
+      <c r="J137" s="3">
+        <v>8</v>
+      </c>
+      <c r="K137" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="L137" s="3">
+        <v>4</v>
+      </c>
+      <c r="M137" s="3">
+        <v>5</v>
+      </c>
+      <c r="N137" s="3">
+        <v>1</v>
+      </c>
+      <c r="O137" s="3">
+        <v>145.6</v>
+      </c>
+      <c r="P137" s="4">
+        <v>0.1333</v>
+      </c>
+      <c r="Q137" s="3">
+        <v>4</v>
+      </c>
+      <c r="R137" s="3">
+        <v>5</v>
+      </c>
+      <c r="S137" s="3">
+        <v>1</v>
+      </c>
+      <c r="T137" s="3">
+        <v>145.6</v>
+      </c>
+      <c r="U137" s="4">
+        <v>0.1333</v>
+      </c>
+      <c r="V137" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>45183</v>
+      </c>
+      <c r="B138" s="3">
+        <v>192</v>
+      </c>
+      <c r="C138" s="3">
+        <v>519</v>
+      </c>
+      <c r="D138" s="3">
+        <v>3</v>
+      </c>
+      <c r="E138" s="3">
+        <v>29</v>
+      </c>
+      <c r="F138" s="4">
+        <v>0.151</v>
+      </c>
+      <c r="G138" s="3">
+        <v>66</v>
+      </c>
+      <c r="H138" s="3">
+        <v>0</v>
+      </c>
+      <c r="I138" s="3">
+        <v>159</v>
+      </c>
+      <c r="J138" s="3">
+        <v>449</v>
+      </c>
+      <c r="K138" s="4">
+        <v>0.82809999999999995</v>
+      </c>
+      <c r="L138" s="3">
+        <v>95</v>
+      </c>
+      <c r="M138" s="3">
+        <v>115</v>
+      </c>
+      <c r="N138" s="3">
+        <v>1</v>
+      </c>
+      <c r="O138" s="5">
+        <v>1893.45</v>
+      </c>
+      <c r="P138" s="4">
+        <v>0.49480000000000002</v>
+      </c>
+      <c r="Q138" s="3">
+        <v>88</v>
+      </c>
+      <c r="R138" s="3">
+        <v>103</v>
+      </c>
+      <c r="S138" s="3">
+        <v>1</v>
+      </c>
+      <c r="T138" s="5">
+        <v>1680.87</v>
+      </c>
+      <c r="U138" s="4">
+        <v>0.45829999999999999</v>
+      </c>
+      <c r="V138" s="4">
+        <v>0.92630000000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>45184</v>
+      </c>
+      <c r="B139" s="3">
+        <v>450</v>
+      </c>
+      <c r="C139" s="3">
+        <v>1439</v>
+      </c>
+      <c r="D139" s="3">
+        <v>3</v>
+      </c>
+      <c r="E139" s="3">
+        <v>53</v>
+      </c>
+      <c r="F139" s="4">
+        <v>0.1178</v>
+      </c>
+      <c r="G139" s="3">
+        <v>147</v>
+      </c>
+      <c r="H139" s="3">
+        <v>4</v>
+      </c>
+      <c r="I139" s="3">
+        <v>504</v>
+      </c>
+      <c r="J139" s="3">
+        <v>1338</v>
+      </c>
+      <c r="K139" s="4">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="L139" s="3">
+        <v>205</v>
+      </c>
+      <c r="M139" s="3">
+        <v>232</v>
+      </c>
+      <c r="N139" s="3">
+        <v>1</v>
+      </c>
+      <c r="O139" s="5">
+        <v>3703.58</v>
+      </c>
+      <c r="P139" s="4">
+        <v>0.4556</v>
+      </c>
+      <c r="Q139" s="3">
+        <v>187</v>
+      </c>
+      <c r="R139" s="3">
+        <v>210</v>
+      </c>
+      <c r="S139" s="3">
+        <v>1</v>
+      </c>
+      <c r="T139" s="5">
+        <v>3252.82</v>
+      </c>
+      <c r="U139" s="4">
+        <v>0.41560000000000002</v>
+      </c>
+      <c r="V139" s="4">
+        <v>0.91220000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>45185</v>
+      </c>
+      <c r="B140" s="3">
+        <v>142</v>
+      </c>
+      <c r="C140" s="3">
+        <v>290</v>
+      </c>
+      <c r="D140" s="3">
+        <v>3</v>
+      </c>
+      <c r="E140" s="3">
+        <v>32</v>
+      </c>
+      <c r="F140" s="4">
+        <v>0.22539999999999999</v>
+      </c>
+      <c r="G140" s="3">
+        <v>49</v>
+      </c>
+      <c r="H140" s="3">
+        <v>0</v>
+      </c>
+      <c r="I140" s="3">
+        <v>53</v>
+      </c>
+      <c r="J140" s="3">
+        <v>63</v>
+      </c>
+      <c r="K140" s="4">
+        <v>0.37319999999999998</v>
+      </c>
+      <c r="L140" s="3">
+        <v>5</v>
+      </c>
+      <c r="M140" s="3">
+        <v>5</v>
+      </c>
+      <c r="N140" s="3">
+        <v>1</v>
+      </c>
+      <c r="O140" s="3">
+        <v>137.44999999999999</v>
+      </c>
+      <c r="P140" s="4">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="Q140" s="3">
+        <v>10</v>
+      </c>
+      <c r="R140" s="3">
+        <v>10</v>
+      </c>
+      <c r="S140" s="3">
+        <v>1</v>
+      </c>
+      <c r="T140" s="3">
+        <v>193.54</v>
+      </c>
+      <c r="U140" s="4">
+        <v>7.0400000000000004E-2</v>
+      </c>
+      <c r="V140" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>45186</v>
+      </c>
+      <c r="B141" s="3">
+        <v>66</v>
+      </c>
+      <c r="C141" s="3">
+        <v>131</v>
+      </c>
+      <c r="D141" s="3">
+        <v>3</v>
+      </c>
+      <c r="E141" s="3">
+        <v>14</v>
+      </c>
+      <c r="F141" s="4">
+        <v>0.21210000000000001</v>
+      </c>
+      <c r="G141" s="3">
+        <v>25</v>
+      </c>
+      <c r="H141" s="3">
+        <v>3</v>
+      </c>
+      <c r="I141" s="3">
+        <v>17</v>
+      </c>
+      <c r="J141" s="3">
+        <v>21</v>
+      </c>
+      <c r="K141" s="4">
+        <v>0.2576</v>
+      </c>
+      <c r="L141" s="3">
+        <v>3</v>
+      </c>
+      <c r="M141" s="3">
+        <v>3</v>
+      </c>
+      <c r="N141" s="3">
+        <v>1</v>
+      </c>
+      <c r="O141" s="3">
+        <v>95.7</v>
+      </c>
+      <c r="P141" s="4">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="Q141" s="3">
+        <v>5</v>
+      </c>
+      <c r="R141" s="3">
+        <v>5</v>
+      </c>
+      <c r="S141" s="3">
+        <v>1</v>
+      </c>
+      <c r="T141" s="3">
+        <v>112.7</v>
+      </c>
+      <c r="U141" s="4">
+        <v>7.5800000000000006E-2</v>
+      </c>
+      <c r="V141" s="4">
+        <v>1.6667000000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
+        <v>45187</v>
+      </c>
+      <c r="B142" s="3">
+        <v>52</v>
+      </c>
+      <c r="C142" s="3">
+        <v>94</v>
+      </c>
+      <c r="D142" s="3">
+        <v>3</v>
+      </c>
+      <c r="E142" s="3">
+        <v>16</v>
+      </c>
+      <c r="F142" s="4">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="G142" s="3">
+        <v>17</v>
+      </c>
+      <c r="H142" s="3">
+        <v>0</v>
+      </c>
+      <c r="I142" s="3">
+        <v>8</v>
+      </c>
+      <c r="J142" s="3">
+        <v>8</v>
+      </c>
+      <c r="K142" s="4">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="L142" s="3">
+        <v>2</v>
+      </c>
+      <c r="M142" s="3">
+        <v>2</v>
+      </c>
+      <c r="N142" s="3">
+        <v>1</v>
+      </c>
+      <c r="O142" s="3">
+        <v>63.77</v>
+      </c>
+      <c r="P142" s="4">
+        <v>3.85E-2</v>
+      </c>
+      <c r="Q142" s="3">
+        <v>2</v>
+      </c>
+      <c r="R142" s="3">
+        <v>2</v>
+      </c>
+      <c r="S142" s="3">
+        <v>1</v>
+      </c>
+      <c r="T142" s="3">
+        <v>63.77</v>
+      </c>
+      <c r="U142" s="4">
+        <v>3.85E-2</v>
+      </c>
+      <c r="V142" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>45188</v>
+      </c>
+      <c r="B143" s="3">
+        <v>94</v>
+      </c>
+      <c r="C143" s="3">
+        <v>190</v>
+      </c>
+      <c r="D143" s="3">
+        <v>3</v>
+      </c>
+      <c r="E143" s="3">
+        <v>19</v>
+      </c>
+      <c r="F143" s="4">
+        <v>0.2021</v>
+      </c>
+      <c r="G143" s="3">
+        <v>32</v>
+      </c>
+      <c r="H143" s="3">
+        <v>0</v>
+      </c>
+      <c r="I143" s="3">
+        <v>24</v>
+      </c>
+      <c r="J143" s="3">
+        <v>27</v>
+      </c>
+      <c r="K143" s="4">
+        <v>0.25530000000000003</v>
+      </c>
+      <c r="L143" s="3">
+        <v>7</v>
+      </c>
+      <c r="M143" s="3">
+        <v>8</v>
+      </c>
+      <c r="N143" s="3">
+        <v>1</v>
+      </c>
+      <c r="O143" s="3">
+        <v>217.13</v>
+      </c>
+      <c r="P143" s="4">
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="Q143" s="3">
+        <v>7</v>
+      </c>
+      <c r="R143" s="3">
+        <v>8</v>
+      </c>
+      <c r="S143" s="3">
+        <v>1</v>
+      </c>
+      <c r="T143" s="3">
+        <v>217.13</v>
+      </c>
+      <c r="U143" s="4">
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="V143" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>45189</v>
+      </c>
+      <c r="B144" s="3">
+        <v>164</v>
+      </c>
+      <c r="C144" s="3">
+        <v>480</v>
+      </c>
+      <c r="D144" s="3">
+        <v>3</v>
+      </c>
+      <c r="E144" s="3">
+        <v>25</v>
+      </c>
+      <c r="F144" s="4">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="G144" s="3">
+        <v>46</v>
+      </c>
+      <c r="H144" s="3">
+        <v>2</v>
+      </c>
+      <c r="I144" s="3">
+        <v>152</v>
+      </c>
+      <c r="J144" s="3">
+        <v>434</v>
+      </c>
+      <c r="K144" s="4">
+        <v>0.92679999999999996</v>
+      </c>
+      <c r="L144" s="3">
+        <v>77</v>
+      </c>
+      <c r="M144" s="3">
+        <v>120</v>
+      </c>
+      <c r="N144" s="3">
+        <v>1</v>
+      </c>
+      <c r="O144" s="5">
+        <v>1536.21</v>
+      </c>
+      <c r="P144" s="4">
+        <v>0.46949999999999997</v>
+      </c>
+      <c r="Q144" s="3">
+        <v>69</v>
+      </c>
+      <c r="R144" s="3">
+        <v>101</v>
+      </c>
+      <c r="S144" s="3">
+        <v>1</v>
+      </c>
+      <c r="T144" s="5">
+        <v>1274.22</v>
+      </c>
+      <c r="U144" s="4">
+        <v>0.42070000000000002</v>
+      </c>
+      <c r="V144" s="4">
+        <v>0.89610000000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>45190</v>
+      </c>
+      <c r="B145" s="3">
+        <v>191</v>
+      </c>
+      <c r="C145" s="3">
+        <v>553</v>
+      </c>
+      <c r="D145" s="3">
+        <v>3</v>
+      </c>
+      <c r="E145" s="3">
+        <v>25</v>
+      </c>
+      <c r="F145" s="4">
+        <v>0.13089999999999999</v>
+      </c>
+      <c r="G145" s="3">
+        <v>82</v>
+      </c>
+      <c r="H145" s="3">
+        <v>1</v>
+      </c>
+      <c r="I145" s="3">
+        <v>117</v>
+      </c>
+      <c r="J145" s="3">
+        <v>337</v>
+      </c>
+      <c r="K145" s="4">
+        <v>0.61260000000000003</v>
+      </c>
+      <c r="L145" s="3">
+        <v>45</v>
+      </c>
+      <c r="M145" s="3">
+        <v>55</v>
+      </c>
+      <c r="N145" s="3">
+        <v>1</v>
+      </c>
+      <c r="O145" s="3">
+        <v>836.85</v>
+      </c>
+      <c r="P145" s="4">
+        <v>0.2356</v>
+      </c>
+      <c r="Q145" s="3">
+        <v>38</v>
+      </c>
+      <c r="R145" s="3">
+        <v>45</v>
+      </c>
+      <c r="S145" s="3">
+        <v>1</v>
+      </c>
+      <c r="T145" s="3">
+        <v>695.25</v>
+      </c>
+      <c r="U145" s="4">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="V145" s="4">
+        <v>0.84440000000000004</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>45191</v>
+      </c>
+      <c r="B146" s="3">
+        <v>152</v>
+      </c>
+      <c r="C146" s="3">
+        <v>367</v>
+      </c>
+      <c r="D146" s="3">
+        <v>3</v>
+      </c>
+      <c r="E146" s="3">
+        <v>28</v>
+      </c>
+      <c r="F146" s="4">
+        <v>0.1842</v>
+      </c>
+      <c r="G146" s="3">
+        <v>54</v>
+      </c>
+      <c r="H146" s="3">
+        <v>2</v>
+      </c>
+      <c r="I146" s="3">
+        <v>139</v>
+      </c>
+      <c r="J146" s="3">
+        <v>271</v>
+      </c>
+      <c r="K146" s="4">
+        <v>0.91449999999999998</v>
+      </c>
+      <c r="L146" s="3">
+        <v>67</v>
+      </c>
+      <c r="M146" s="3">
+        <v>73</v>
+      </c>
+      <c r="N146" s="3">
+        <v>1</v>
+      </c>
+      <c r="O146" s="5">
+        <v>1090.29</v>
+      </c>
+      <c r="P146" s="4">
+        <v>0.44080000000000003</v>
+      </c>
+      <c r="Q146" s="3">
+        <v>57</v>
+      </c>
+      <c r="R146" s="3">
+        <v>61</v>
+      </c>
+      <c r="S146" s="3">
+        <v>1</v>
+      </c>
+      <c r="T146" s="3">
+        <v>952.79</v>
+      </c>
+      <c r="U146" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="V146" s="4">
+        <v>0.85070000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>45192</v>
+      </c>
+      <c r="B147" s="3">
+        <v>151</v>
+      </c>
+      <c r="C147" s="3">
+        <v>349</v>
+      </c>
+      <c r="D147" s="3">
+        <v>1</v>
+      </c>
+      <c r="E147" s="3">
+        <v>32</v>
+      </c>
+      <c r="F147" s="4">
+        <v>0.21190000000000001</v>
+      </c>
+      <c r="G147" s="3">
+        <v>42</v>
+      </c>
+      <c r="H147" s="3">
+        <v>0</v>
+      </c>
+      <c r="I147" s="3">
+        <v>97</v>
+      </c>
+      <c r="J147" s="3">
+        <v>194</v>
+      </c>
+      <c r="K147" s="4">
+        <v>0.64239999999999997</v>
+      </c>
+      <c r="L147" s="3">
+        <v>46</v>
+      </c>
+      <c r="M147" s="3">
+        <v>48</v>
+      </c>
+      <c r="N147" s="3">
+        <v>1</v>
+      </c>
+      <c r="O147" s="3">
+        <v>826.34</v>
+      </c>
+      <c r="P147" s="4">
+        <v>0.30459999999999998</v>
+      </c>
+      <c r="Q147" s="3">
+        <v>44</v>
+      </c>
+      <c r="R147" s="3">
+        <v>45</v>
+      </c>
+      <c r="S147" s="3">
+        <v>1</v>
+      </c>
+      <c r="T147" s="3">
+        <v>794.69</v>
+      </c>
+      <c r="U147" s="4">
+        <v>0.29139999999999999</v>
+      </c>
+      <c r="V147" s="4">
+        <v>0.95650000000000002</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
+        <v>45193</v>
+      </c>
+      <c r="B148" s="3">
+        <v>152</v>
+      </c>
+      <c r="C148" s="3">
+        <v>364</v>
+      </c>
+      <c r="D148" s="3">
+        <v>3</v>
+      </c>
+      <c r="E148" s="3">
+        <v>32</v>
+      </c>
+      <c r="F148" s="4">
+        <v>0.21049999999999999</v>
+      </c>
+      <c r="G148" s="3">
+        <v>48</v>
+      </c>
+      <c r="H148" s="3">
+        <v>1</v>
+      </c>
+      <c r="I148" s="3">
+        <v>126</v>
+      </c>
+      <c r="J148" s="3">
+        <v>262</v>
+      </c>
+      <c r="K148" s="4">
+        <v>0.82889999999999997</v>
+      </c>
+      <c r="L148" s="3">
+        <v>53</v>
+      </c>
+      <c r="M148" s="3">
+        <v>59</v>
+      </c>
+      <c r="N148" s="3">
+        <v>1</v>
+      </c>
+      <c r="O148" s="5">
+        <v>1084.54</v>
+      </c>
+      <c r="P148" s="4">
+        <v>0.34870000000000001</v>
+      </c>
+      <c r="Q148" s="3">
+        <v>48</v>
+      </c>
+      <c r="R148" s="3">
+        <v>53</v>
+      </c>
+      <c r="S148" s="3">
+        <v>1</v>
+      </c>
+      <c r="T148" s="3">
+        <v>965.29</v>
+      </c>
+      <c r="U148" s="4">
+        <v>0.31580000000000003</v>
+      </c>
+      <c r="V148" s="4">
+        <v>0.90569999999999995</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
+        <v>45194</v>
+      </c>
+      <c r="B149" s="3">
+        <v>405</v>
+      </c>
+      <c r="C149" s="3">
+        <v>1151</v>
+      </c>
+      <c r="D149" s="3">
+        <v>3</v>
+      </c>
+      <c r="E149" s="3">
+        <v>52</v>
+      </c>
+      <c r="F149" s="4">
+        <v>0.12839999999999999</v>
+      </c>
+      <c r="G149" s="3">
+        <v>122</v>
+      </c>
+      <c r="H149" s="3">
+        <v>3</v>
+      </c>
+      <c r="I149" s="3">
+        <v>486</v>
+      </c>
+      <c r="J149" s="3">
+        <v>1265</v>
+      </c>
+      <c r="K149" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="L149" s="3">
+        <v>266</v>
+      </c>
+      <c r="M149" s="3">
+        <v>293</v>
+      </c>
+      <c r="N149" s="3">
+        <v>1</v>
+      </c>
+      <c r="O149" s="5">
+        <v>3796.13</v>
+      </c>
+      <c r="P149" s="4">
+        <v>0.65680000000000005</v>
+      </c>
+      <c r="Q149" s="3">
+        <v>236</v>
+      </c>
+      <c r="R149" s="3">
+        <v>259</v>
+      </c>
+      <c r="S149" s="3">
+        <v>1</v>
+      </c>
+      <c r="T149" s="5">
+        <v>3246.27</v>
+      </c>
+      <c r="U149" s="4">
+        <v>0.5827</v>
+      </c>
+      <c r="V149" s="4">
+        <v>0.88719999999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
+        <v>45195</v>
+      </c>
+      <c r="B150" s="3">
+        <v>222</v>
+      </c>
+      <c r="C150" s="3">
+        <v>497</v>
+      </c>
+      <c r="D150" s="3">
+        <v>1</v>
+      </c>
+      <c r="E150" s="3">
+        <v>22</v>
+      </c>
+      <c r="F150" s="4">
+        <v>9.9099999999999994E-2</v>
+      </c>
+      <c r="G150" s="3">
+        <v>67</v>
+      </c>
+      <c r="H150" s="3">
+        <v>1</v>
+      </c>
+      <c r="I150" s="3">
+        <v>194</v>
+      </c>
+      <c r="J150" s="3">
+        <v>345</v>
+      </c>
+      <c r="K150" s="4">
+        <v>0.87390000000000001</v>
+      </c>
+      <c r="L150" s="3">
+        <v>78</v>
+      </c>
+      <c r="M150" s="3">
+        <v>84</v>
+      </c>
+      <c r="N150" s="3">
+        <v>1</v>
+      </c>
+      <c r="O150" s="5">
+        <v>1420.45</v>
+      </c>
+      <c r="P150" s="4">
+        <v>0.35139999999999999</v>
+      </c>
+      <c r="Q150" s="3">
+        <v>73</v>
+      </c>
+      <c r="R150" s="3">
+        <v>79</v>
+      </c>
+      <c r="S150" s="3">
+        <v>1</v>
+      </c>
+      <c r="T150" s="5">
+        <v>1305.3</v>
+      </c>
+      <c r="U150" s="4">
+        <v>0.32879999999999998</v>
+      </c>
+      <c r="V150" s="4">
+        <v>0.93589999999999995</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
+        <v>45196</v>
+      </c>
+      <c r="B151" s="3">
+        <v>140</v>
+      </c>
+      <c r="C151" s="3">
+        <v>284</v>
+      </c>
+      <c r="D151" s="3">
+        <v>3</v>
+      </c>
+      <c r="E151" s="3">
+        <v>28</v>
+      </c>
+      <c r="F151" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G151" s="3">
+        <v>30</v>
+      </c>
+      <c r="H151" s="3">
+        <v>5</v>
+      </c>
+      <c r="I151" s="3">
+        <v>79</v>
+      </c>
+      <c r="J151" s="3">
+        <v>147</v>
+      </c>
+      <c r="K151" s="4">
+        <v>0.56430000000000002</v>
+      </c>
+      <c r="L151" s="3">
+        <v>26</v>
+      </c>
+      <c r="M151" s="3">
+        <v>38</v>
+      </c>
+      <c r="N151" s="3">
+        <v>1</v>
+      </c>
+      <c r="O151" s="3">
+        <v>599.34</v>
+      </c>
+      <c r="P151" s="4">
+        <v>0.1857</v>
+      </c>
+      <c r="Q151" s="3">
+        <v>26</v>
+      </c>
+      <c r="R151" s="3">
+        <v>32</v>
+      </c>
+      <c r="S151" s="3">
+        <v>1</v>
+      </c>
+      <c r="T151" s="3">
+        <v>502.69</v>
+      </c>
+      <c r="U151" s="4">
+        <v>0.1857</v>
+      </c>
+      <c r="V151" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
+        <v>45197</v>
+      </c>
+      <c r="B152" s="3">
+        <v>150</v>
+      </c>
+      <c r="C152" s="3">
+        <v>359</v>
+      </c>
+      <c r="D152" s="3">
+        <v>3</v>
+      </c>
+      <c r="E152" s="3">
+        <v>25</v>
+      </c>
+      <c r="F152" s="4">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="G152" s="3">
+        <v>41</v>
+      </c>
+      <c r="H152" s="3">
+        <v>5</v>
+      </c>
+      <c r="I152" s="3">
+        <v>118</v>
+      </c>
+      <c r="J152" s="3">
+        <v>222</v>
+      </c>
+      <c r="K152" s="4">
+        <v>0.78669999999999995</v>
+      </c>
+      <c r="L152" s="3">
+        <v>36</v>
+      </c>
+      <c r="M152" s="3">
+        <v>38</v>
+      </c>
+      <c r="N152" s="3">
+        <v>1</v>
+      </c>
+      <c r="O152" s="3">
+        <v>706.92</v>
+      </c>
+      <c r="P152" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="Q152" s="3">
+        <v>33</v>
+      </c>
+      <c r="R152" s="3">
+        <v>34</v>
+      </c>
+      <c r="S152" s="3">
+        <v>1</v>
+      </c>
+      <c r="T152" s="3">
+        <v>629.91999999999996</v>
+      </c>
+      <c r="U152" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="V152" s="4">
+        <v>0.91669999999999996</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B153" s="3">
+        <v>149</v>
+      </c>
+      <c r="C153" s="3">
+        <v>275</v>
+      </c>
+      <c r="D153" s="3">
+        <v>1</v>
+      </c>
+      <c r="E153" s="3">
+        <v>34</v>
+      </c>
+      <c r="F153" s="4">
+        <v>0.22819999999999999</v>
+      </c>
+      <c r="G153" s="3">
+        <v>30</v>
+      </c>
+      <c r="H153" s="3">
+        <v>2</v>
+      </c>
+      <c r="I153" s="3">
+        <v>89</v>
+      </c>
+      <c r="J153" s="3">
+        <v>150</v>
+      </c>
+      <c r="K153" s="4">
+        <v>0.59730000000000005</v>
+      </c>
+      <c r="L153" s="3">
+        <v>21</v>
+      </c>
+      <c r="M153" s="3">
+        <v>25</v>
+      </c>
+      <c r="N153" s="3">
+        <v>1</v>
+      </c>
+      <c r="O153" s="3">
+        <v>484.73</v>
+      </c>
+      <c r="P153" s="4">
+        <v>0.1409</v>
+      </c>
+      <c r="Q153" s="3">
+        <v>20</v>
+      </c>
+      <c r="R153" s="3">
+        <v>23</v>
+      </c>
+      <c r="S153" s="3">
+        <v>1</v>
+      </c>
+      <c r="T153" s="3">
+        <v>433.53</v>
+      </c>
+      <c r="U153" s="4">
+        <v>0.13420000000000001</v>
+      </c>
+      <c r="V153" s="4">
+        <v>0.95240000000000002</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
+        <v>45199</v>
+      </c>
+      <c r="B154" s="3">
+        <v>121</v>
+      </c>
+      <c r="C154" s="3">
+        <v>232</v>
+      </c>
+      <c r="D154" s="3">
+        <v>1</v>
+      </c>
+      <c r="E154" s="3">
+        <v>28</v>
+      </c>
+      <c r="F154" s="4">
+        <v>0.23139999999999999</v>
+      </c>
+      <c r="G154" s="3">
+        <v>22</v>
+      </c>
+      <c r="H154" s="3">
+        <v>2</v>
+      </c>
+      <c r="I154" s="3">
+        <v>58</v>
+      </c>
+      <c r="J154" s="3">
+        <v>102</v>
+      </c>
+      <c r="K154" s="4">
+        <v>0.4793</v>
+      </c>
+      <c r="L154" s="3">
+        <v>6</v>
+      </c>
+      <c r="M154" s="3">
+        <v>6</v>
+      </c>
+      <c r="N154" s="3">
+        <v>1</v>
+      </c>
+      <c r="O154" s="3">
+        <v>155.72</v>
+      </c>
+      <c r="P154" s="4">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="Q154" s="3">
+        <v>6</v>
+      </c>
+      <c r="R154" s="3">
+        <v>6</v>
+      </c>
+      <c r="S154" s="3">
+        <v>1</v>
+      </c>
+      <c r="T154" s="3">
+        <v>155.72</v>
+      </c>
+      <c r="U154" s="4">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="V154" s="4">
         <v>1</v>
       </c>
     </row>

--- a/MergedFile.xlsx
+++ b/MergedFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ChiliLado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FC3EAC-905B-4AFA-A254-E353B1CB535B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E6A252-C947-47DD-9404-BB069FBDB725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,6 +120,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="[$-14409]yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -193,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -201,12 +204,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,17 +555,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="23" width="12" customWidth="1"/>
+    <col min="1" max="1" width="12" style="10" customWidth="1"/>
+    <col min="2" max="23" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -633,15 +641,15 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="9">
         <v>45047</v>
       </c>
       <c r="B2" s="2">
@@ -707,26 +715,26 @@
       <c r="V2" s="3">
         <v>0</v>
       </c>
-      <c r="W2" s="6">
-        <v>0</v>
-      </c>
-      <c r="X2" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="8">
+      <c r="W2" s="5">
+        <v>0</v>
+      </c>
+      <c r="X2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="7">
         <f>IF(W2=0,0,X2/W2)</f>
         <v>0</v>
       </c>
-      <c r="AA2" s="8">
+      <c r="AA2" s="7">
         <f>IF(W2=0,0,Y2/W2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="9">
         <v>45048</v>
       </c>
       <c r="B3" s="2">
@@ -792,26 +800,26 @@
       <c r="V3" s="3">
         <v>1</v>
       </c>
-      <c r="W3" s="6">
-        <v>1</v>
-      </c>
-      <c r="X3" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="8">
+      <c r="W3" s="5">
+        <v>1</v>
+      </c>
+      <c r="X3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="7">
         <f t="shared" ref="Z3:Z66" si="0">IF(W3=0,0,X3/W3)</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="8">
+      <c r="AA3" s="7">
         <f t="shared" ref="AA3:AA66" si="1">IF(W3=0,0,Y3/W3)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="9">
         <v>45049</v>
       </c>
       <c r="B4" s="2">
@@ -877,26 +885,26 @@
       <c r="V4" s="3">
         <v>0</v>
       </c>
-      <c r="W4" s="6">
-        <v>0</v>
-      </c>
-      <c r="X4" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="8">
+      <c r="W4" s="5">
+        <v>0</v>
+      </c>
+      <c r="X4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA4" s="8">
+      <c r="AA4" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="9">
         <v>45050</v>
       </c>
       <c r="B5" s="2">
@@ -962,26 +970,26 @@
       <c r="V5" s="3">
         <v>0</v>
       </c>
-      <c r="W5" s="6">
-        <v>0</v>
-      </c>
-      <c r="X5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="8">
+      <c r="W5" s="5">
+        <v>0</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA5" s="8">
+      <c r="AA5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="9">
         <v>45051</v>
       </c>
       <c r="B6" s="2">
@@ -1047,26 +1055,26 @@
       <c r="V6" s="3">
         <v>0</v>
       </c>
-      <c r="W6" s="6">
-        <v>0</v>
-      </c>
-      <c r="X6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="8">
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA6" s="8">
+      <c r="AA6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="9">
         <v>45052</v>
       </c>
       <c r="B7" s="2">
@@ -1132,26 +1140,26 @@
       <c r="V7" s="3">
         <v>0</v>
       </c>
-      <c r="W7" s="6">
-        <v>0</v>
-      </c>
-      <c r="X7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="8">
+      <c r="W7" s="5">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA7" s="8">
+      <c r="AA7" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="9">
         <v>45053</v>
       </c>
       <c r="B8" s="2">
@@ -1217,26 +1225,26 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-      <c r="W8" s="6">
-        <v>0</v>
-      </c>
-      <c r="X8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="8">
+      <c r="W8" s="5">
+        <v>0</v>
+      </c>
+      <c r="X8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA8" s="8">
+      <c r="AA8" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="9">
         <v>45054</v>
       </c>
       <c r="B9" s="2">
@@ -1302,26 +1310,26 @@
       <c r="V9" s="3">
         <v>0</v>
       </c>
-      <c r="W9" s="6">
-        <v>0</v>
-      </c>
-      <c r="X9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="8">
+      <c r="W9" s="5">
+        <v>0</v>
+      </c>
+      <c r="X9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA9" s="8">
+      <c r="AA9" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="9">
         <v>45055</v>
       </c>
       <c r="B10" s="2">
@@ -1387,26 +1395,26 @@
       <c r="V10" s="3">
         <v>0</v>
       </c>
-      <c r="W10" s="6">
-        <v>0</v>
-      </c>
-      <c r="X10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="8">
+      <c r="W10" s="5">
+        <v>0</v>
+      </c>
+      <c r="X10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA10" s="8">
+      <c r="AA10" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="9">
         <v>45056</v>
       </c>
       <c r="B11" s="2">
@@ -1472,26 +1480,26 @@
       <c r="V11" s="3">
         <v>0</v>
       </c>
-      <c r="W11" s="6">
-        <v>0</v>
-      </c>
-      <c r="X11" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="8">
+      <c r="W11" s="5">
+        <v>0</v>
+      </c>
+      <c r="X11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA11" s="8">
+      <c r="AA11" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="A12" s="9">
         <v>45057</v>
       </c>
       <c r="B12" s="2">
@@ -1557,26 +1565,26 @@
       <c r="V12" s="3">
         <v>1</v>
       </c>
-      <c r="W12" s="6">
-        <v>1</v>
-      </c>
-      <c r="X12" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="8">
+      <c r="W12" s="5">
+        <v>1</v>
+      </c>
+      <c r="X12" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA12" s="8">
+      <c r="AA12" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="A13" s="9">
         <v>45058</v>
       </c>
       <c r="B13" s="2">
@@ -1642,26 +1650,26 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-      <c r="W13" s="6">
-        <v>0</v>
-      </c>
-      <c r="X13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="8">
+      <c r="W13" s="5">
+        <v>0</v>
+      </c>
+      <c r="X13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA13" s="8">
+      <c r="AA13" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="A14" s="9">
         <v>45059</v>
       </c>
       <c r="B14" s="2">
@@ -1727,26 +1735,26 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="6">
-        <v>0</v>
-      </c>
-      <c r="X14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="8">
+      <c r="W14" s="5">
+        <v>0</v>
+      </c>
+      <c r="X14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA14" s="8">
+      <c r="AA14" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="A15" s="9">
         <v>45060</v>
       </c>
       <c r="B15" s="2">
@@ -1812,26 +1820,26 @@
       <c r="V15" s="3">
         <v>0.8</v>
       </c>
-      <c r="W15" s="6">
+      <c r="W15" s="5">
         <v>4</v>
       </c>
-      <c r="X15" s="6">
+      <c r="X15" s="5">
         <v>4</v>
       </c>
-      <c r="Y15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="8">
+      <c r="Y15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA15" s="8">
+      <c r="AA15" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="A16" s="9">
         <v>45061</v>
       </c>
       <c r="B16" s="2">
@@ -1897,26 +1905,26 @@
       <c r="V16" s="3">
         <v>1</v>
       </c>
-      <c r="W16" s="6">
-        <v>1</v>
-      </c>
-      <c r="X16" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="8">
+      <c r="W16" s="5">
+        <v>1</v>
+      </c>
+      <c r="X16" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA16" s="8">
+      <c r="AA16" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="A17" s="9">
         <v>45062</v>
       </c>
       <c r="B17" s="2">
@@ -1982,26 +1990,26 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-      <c r="W17" s="6">
-        <v>0</v>
-      </c>
-      <c r="X17" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="8">
+      <c r="W17" s="5">
+        <v>0</v>
+      </c>
+      <c r="X17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA17" s="8">
+      <c r="AA17" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="A18" s="9">
         <v>45063</v>
       </c>
       <c r="B18" s="2">
@@ -2067,26 +2075,26 @@
       <c r="V18" s="3">
         <v>0.5</v>
       </c>
-      <c r="W18" s="6">
-        <v>1</v>
-      </c>
-      <c r="X18" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="8">
+      <c r="W18" s="5">
+        <v>1</v>
+      </c>
+      <c r="X18" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA18" s="8">
+      <c r="AA18" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+      <c r="A19" s="9">
         <v>45064</v>
       </c>
       <c r="B19" s="2">
@@ -2152,26 +2160,26 @@
       <c r="V19" s="3">
         <v>0</v>
       </c>
-      <c r="W19" s="6">
-        <v>0</v>
-      </c>
-      <c r="X19" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="8">
+      <c r="W19" s="5">
+        <v>0</v>
+      </c>
+      <c r="X19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA19" s="8">
+      <c r="AA19" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="A20" s="9">
         <v>45065</v>
       </c>
       <c r="B20" s="2">
@@ -2237,26 +2245,26 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-      <c r="W20" s="6">
-        <v>0</v>
-      </c>
-      <c r="X20" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="8">
+      <c r="W20" s="5">
+        <v>0</v>
+      </c>
+      <c r="X20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA20" s="8">
+      <c r="AA20" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+      <c r="A21" s="9">
         <v>45066</v>
       </c>
       <c r="B21" s="2">
@@ -2322,26 +2330,26 @@
       <c r="V21" s="3">
         <v>0</v>
       </c>
-      <c r="W21" s="6">
-        <v>0</v>
-      </c>
-      <c r="X21" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="8">
+      <c r="W21" s="5">
+        <v>0</v>
+      </c>
+      <c r="X21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA21" s="8">
+      <c r="AA21" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+      <c r="A22" s="9">
         <v>45067</v>
       </c>
       <c r="B22" s="2">
@@ -2407,26 +2415,26 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="6">
-        <v>0</v>
-      </c>
-      <c r="X22" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="8">
+      <c r="W22" s="5">
+        <v>0</v>
+      </c>
+      <c r="X22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA22" s="8">
+      <c r="AA22" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+      <c r="A23" s="9">
         <v>45068</v>
       </c>
       <c r="B23" s="2">
@@ -2492,26 +2500,26 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-      <c r="W23" s="6">
-        <v>0</v>
-      </c>
-      <c r="X23" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="8">
+      <c r="W23" s="5">
+        <v>0</v>
+      </c>
+      <c r="X23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA23" s="8">
+      <c r="AA23" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+      <c r="A24" s="9">
         <v>45069</v>
       </c>
       <c r="B24" s="2">
@@ -2577,26 +2585,26 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-      <c r="W24" s="6">
-        <v>0</v>
-      </c>
-      <c r="X24" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="8">
+      <c r="W24" s="5">
+        <v>0</v>
+      </c>
+      <c r="X24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA24" s="8">
+      <c r="AA24" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+      <c r="A25" s="9">
         <v>45070</v>
       </c>
       <c r="B25" s="2">
@@ -2662,26 +2670,26 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-      <c r="W25" s="6">
-        <v>0</v>
-      </c>
-      <c r="X25" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="8">
+      <c r="W25" s="5">
+        <v>0</v>
+      </c>
+      <c r="X25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA25" s="8">
+      <c r="AA25" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+      <c r="A26" s="9">
         <v>45071</v>
       </c>
       <c r="B26" s="2">
@@ -2747,26 +2755,26 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-      <c r="W26" s="6">
-        <v>0</v>
-      </c>
-      <c r="X26" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="8">
+      <c r="W26" s="5">
+        <v>0</v>
+      </c>
+      <c r="X26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA26" s="8">
+      <c r="AA26" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+      <c r="A27" s="9">
         <v>45072</v>
       </c>
       <c r="B27" s="2">
@@ -2832,26 +2840,26 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-      <c r="W27" s="6">
-        <v>0</v>
-      </c>
-      <c r="X27" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="8">
+      <c r="W27" s="5">
+        <v>0</v>
+      </c>
+      <c r="X27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA27" s="8">
+      <c r="AA27" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+      <c r="A28" s="9">
         <v>45073</v>
       </c>
       <c r="B28" s="2">
@@ -2917,26 +2925,26 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-      <c r="W28" s="6">
-        <v>0</v>
-      </c>
-      <c r="X28" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="8">
+      <c r="W28" s="5">
+        <v>0</v>
+      </c>
+      <c r="X28" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA28" s="8">
+      <c r="AA28" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
+      <c r="A29" s="9">
         <v>45074</v>
       </c>
       <c r="B29" s="2">
@@ -3002,26 +3010,26 @@
       <c r="V29" s="3">
         <v>1</v>
       </c>
-      <c r="W29" s="6">
-        <v>1</v>
-      </c>
-      <c r="X29" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="8">
+      <c r="W29" s="5">
+        <v>1</v>
+      </c>
+      <c r="X29" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA29" s="8">
+      <c r="AA29" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
+      <c r="A30" s="9">
         <v>45075</v>
       </c>
       <c r="B30" s="2">
@@ -3087,26 +3095,26 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-      <c r="W30" s="6">
-        <v>0</v>
-      </c>
-      <c r="X30" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="8">
+      <c r="W30" s="5">
+        <v>0</v>
+      </c>
+      <c r="X30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA30" s="8">
+      <c r="AA30" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
+      <c r="A31" s="9">
         <v>45076</v>
       </c>
       <c r="B31" s="2">
@@ -3172,26 +3180,26 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-      <c r="W31" s="6">
-        <v>0</v>
-      </c>
-      <c r="X31" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="8">
+      <c r="W31" s="5">
+        <v>0</v>
+      </c>
+      <c r="X31" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA31" s="8">
+      <c r="AA31" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
+      <c r="A32" s="9">
         <v>45077</v>
       </c>
       <c r="B32" s="2">
@@ -3257,26 +3265,26 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-      <c r="W32" s="6">
-        <v>0</v>
-      </c>
-      <c r="X32" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="8">
+      <c r="W32" s="5">
+        <v>0</v>
+      </c>
+      <c r="X32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA32" s="8">
+      <c r="AA32" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
+      <c r="A33" s="9">
         <v>45078</v>
       </c>
       <c r="B33" s="2">
@@ -3342,26 +3350,26 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-      <c r="W33" s="6">
-        <v>0</v>
-      </c>
-      <c r="X33" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="8">
+      <c r="W33" s="5">
+        <v>0</v>
+      </c>
+      <c r="X33" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA33" s="8">
+      <c r="AA33" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
+      <c r="A34" s="9">
         <v>45079</v>
       </c>
       <c r="B34" s="2">
@@ -3427,26 +3435,26 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-      <c r="W34" s="6">
-        <v>0</v>
-      </c>
-      <c r="X34" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="8">
+      <c r="W34" s="5">
+        <v>0</v>
+      </c>
+      <c r="X34" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA34" s="8">
+      <c r="AA34" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
+      <c r="A35" s="9">
         <v>45080</v>
       </c>
       <c r="B35" s="2">
@@ -3512,26 +3520,26 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-      <c r="W35" s="6">
-        <v>0</v>
-      </c>
-      <c r="X35" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="8">
+      <c r="W35" s="5">
+        <v>0</v>
+      </c>
+      <c r="X35" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA35" s="8">
+      <c r="AA35" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
+      <c r="A36" s="9">
         <v>45081</v>
       </c>
       <c r="B36" s="2">
@@ -3597,26 +3605,26 @@
       <c r="V36" s="3">
         <v>0</v>
       </c>
-      <c r="W36" s="6">
-        <v>0</v>
-      </c>
-      <c r="X36" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="8">
+      <c r="W36" s="5">
+        <v>0</v>
+      </c>
+      <c r="X36" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA36" s="8">
+      <c r="AA36" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
+      <c r="A37" s="9">
         <v>45082</v>
       </c>
       <c r="B37" s="2">
@@ -3682,26 +3690,26 @@
       <c r="V37" s="3">
         <v>1</v>
       </c>
-      <c r="W37" s="6">
-        <v>1</v>
-      </c>
-      <c r="X37" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y37" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="8">
+      <c r="W37" s="5">
+        <v>1</v>
+      </c>
+      <c r="X37" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA37" s="8">
+      <c r="AA37" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
+      <c r="A38" s="9">
         <v>45083</v>
       </c>
       <c r="B38" s="2">
@@ -3767,26 +3775,26 @@
       <c r="V38" s="3">
         <v>0</v>
       </c>
-      <c r="W38" s="6">
-        <v>0</v>
-      </c>
-      <c r="X38" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="8">
+      <c r="W38" s="5">
+        <v>0</v>
+      </c>
+      <c r="X38" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA38" s="8">
+      <c r="AA38" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
+      <c r="A39" s="9">
         <v>45084</v>
       </c>
       <c r="B39" s="2">
@@ -3852,26 +3860,26 @@
       <c r="V39" s="3">
         <v>0</v>
       </c>
-      <c r="W39" s="6">
-        <v>0</v>
-      </c>
-      <c r="X39" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="8">
+      <c r="W39" s="5">
+        <v>0</v>
+      </c>
+      <c r="X39" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA39" s="8">
+      <c r="AA39" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A40" s="5">
+      <c r="A40" s="9">
         <v>45085</v>
       </c>
       <c r="B40" s="2">
@@ -3937,26 +3945,26 @@
       <c r="V40" s="3">
         <v>0</v>
       </c>
-      <c r="W40" s="6">
-        <v>0</v>
-      </c>
-      <c r="X40" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="8">
+      <c r="W40" s="5">
+        <v>0</v>
+      </c>
+      <c r="X40" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA40" s="8">
+      <c r="AA40" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
+      <c r="A41" s="9">
         <v>45086</v>
       </c>
       <c r="B41" s="2">
@@ -4022,26 +4030,26 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-      <c r="W41" s="6">
-        <v>0</v>
-      </c>
-      <c r="X41" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="8">
+      <c r="W41" s="5">
+        <v>0</v>
+      </c>
+      <c r="X41" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA41" s="8">
+      <c r="AA41" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A42" s="5">
+      <c r="A42" s="9">
         <v>45087</v>
       </c>
       <c r="B42" s="2">
@@ -4107,26 +4115,26 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-      <c r="W42" s="6">
-        <v>0</v>
-      </c>
-      <c r="X42" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="8">
+      <c r="W42" s="5">
+        <v>0</v>
+      </c>
+      <c r="X42" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA42" s="8">
+      <c r="AA42" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
+      <c r="A43" s="9">
         <v>45088</v>
       </c>
       <c r="B43" s="2">
@@ -4192,26 +4200,26 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-      <c r="W43" s="6">
-        <v>0</v>
-      </c>
-      <c r="X43" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="8">
+      <c r="W43" s="5">
+        <v>0</v>
+      </c>
+      <c r="X43" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA43" s="8">
+      <c r="AA43" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
+      <c r="A44" s="9">
         <v>45089</v>
       </c>
       <c r="B44" s="2">
@@ -4277,26 +4285,26 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-      <c r="W44" s="6">
-        <v>0</v>
-      </c>
-      <c r="X44" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="8">
+      <c r="W44" s="5">
+        <v>0</v>
+      </c>
+      <c r="X44" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA44" s="8">
+      <c r="AA44" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
+      <c r="A45" s="9">
         <v>45090</v>
       </c>
       <c r="B45" s="2">
@@ -4362,26 +4370,26 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-      <c r="W45" s="6">
-        <v>0</v>
-      </c>
-      <c r="X45" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="8">
+      <c r="W45" s="5">
+        <v>0</v>
+      </c>
+      <c r="X45" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA45" s="8">
+      <c r="AA45" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
+      <c r="A46" s="9">
         <v>45091</v>
       </c>
       <c r="B46" s="2">
@@ -4447,26 +4455,26 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-      <c r="W46" s="6">
-        <v>0</v>
-      </c>
-      <c r="X46" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="8">
+      <c r="W46" s="5">
+        <v>0</v>
+      </c>
+      <c r="X46" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA46" s="8">
+      <c r="AA46" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
+      <c r="A47" s="9">
         <v>45092</v>
       </c>
       <c r="B47" s="2">
@@ -4532,26 +4540,26 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-      <c r="W47" s="6">
-        <v>0</v>
-      </c>
-      <c r="X47" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="8">
+      <c r="W47" s="5">
+        <v>0</v>
+      </c>
+      <c r="X47" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA47" s="8">
+      <c r="AA47" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
+      <c r="A48" s="9">
         <v>45093</v>
       </c>
       <c r="B48" s="2">
@@ -4617,26 +4625,26 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-      <c r="W48" s="6">
-        <v>0</v>
-      </c>
-      <c r="X48" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="8">
+      <c r="W48" s="5">
+        <v>0</v>
+      </c>
+      <c r="X48" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA48" s="8">
+      <c r="AA48" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
+      <c r="A49" s="9">
         <v>45094</v>
       </c>
       <c r="B49" s="2">
@@ -4702,26 +4710,26 @@
       <c r="V49" s="3">
         <v>1</v>
       </c>
-      <c r="W49" s="6">
+      <c r="W49" s="5">
         <v>2</v>
       </c>
-      <c r="X49" s="6">
+      <c r="X49" s="5">
         <v>2</v>
       </c>
-      <c r="Y49" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="8">
+      <c r="Y49" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA49" s="8">
+      <c r="AA49" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
+      <c r="A50" s="9">
         <v>45095</v>
       </c>
       <c r="B50" s="2">
@@ -4787,26 +4795,26 @@
       <c r="V50" s="3">
         <v>0.5</v>
       </c>
-      <c r="W50" s="6">
-        <v>1</v>
-      </c>
-      <c r="X50" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z50" s="8">
+      <c r="W50" s="5">
+        <v>1</v>
+      </c>
+      <c r="X50" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z50" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA50" s="8">
+      <c r="AA50" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A51" s="5">
+      <c r="A51" s="9">
         <v>45096</v>
       </c>
       <c r="B51" s="2">
@@ -4872,26 +4880,26 @@
       <c r="V51" s="3">
         <v>0.92310000000000003</v>
       </c>
-      <c r="W51" s="6">
+      <c r="W51" s="5">
         <v>22</v>
       </c>
-      <c r="X51" s="6">
+      <c r="X51" s="5">
         <v>22</v>
       </c>
-      <c r="Y51" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="8">
+      <c r="Y51" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA51" s="8">
+      <c r="AA51" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
+      <c r="A52" s="9">
         <v>45097</v>
       </c>
       <c r="B52" s="2">
@@ -4957,26 +4965,26 @@
       <c r="V52" s="3">
         <v>0.8125</v>
       </c>
-      <c r="W52" s="6">
+      <c r="W52" s="5">
         <v>12</v>
       </c>
-      <c r="X52" s="6">
+      <c r="X52" s="5">
         <v>12</v>
       </c>
-      <c r="Y52" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="8">
+      <c r="Y52" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA52" s="8">
+      <c r="AA52" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
+      <c r="A53" s="9">
         <v>45098</v>
       </c>
       <c r="B53" s="2">
@@ -5042,26 +5050,26 @@
       <c r="V53" s="3">
         <v>0.96550000000000002</v>
       </c>
-      <c r="W53" s="6">
+      <c r="W53" s="5">
         <v>26</v>
       </c>
-      <c r="X53" s="6">
+      <c r="X53" s="5">
         <v>26</v>
       </c>
-      <c r="Y53" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="8">
+      <c r="Y53" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA53" s="8">
+      <c r="AA53" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A54" s="5">
+      <c r="A54" s="9">
         <v>45099</v>
       </c>
       <c r="B54" s="2">
@@ -5127,26 +5135,26 @@
       <c r="V54" s="3">
         <v>0.92310000000000003</v>
       </c>
-      <c r="W54" s="6">
+      <c r="W54" s="5">
         <v>47</v>
       </c>
-      <c r="X54" s="6">
+      <c r="X54" s="5">
         <v>45</v>
       </c>
-      <c r="Y54" s="6">
+      <c r="Y54" s="5">
         <v>2</v>
       </c>
-      <c r="Z54" s="8">
+      <c r="Z54" s="7">
         <f t="shared" si="0"/>
         <v>0.95744680851063835</v>
       </c>
-      <c r="AA54" s="8">
+      <c r="AA54" s="7">
         <f t="shared" si="1"/>
         <v>4.2553191489361701E-2</v>
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+      <c r="A55" s="9">
         <v>45100</v>
       </c>
       <c r="B55" s="2">
@@ -5212,26 +5220,26 @@
       <c r="V55" s="3">
         <v>0.86539999999999995</v>
       </c>
-      <c r="W55" s="6">
+      <c r="W55" s="5">
         <v>45</v>
       </c>
-      <c r="X55" s="6">
+      <c r="X55" s="5">
         <v>44</v>
       </c>
-      <c r="Y55" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z55" s="8">
+      <c r="Y55" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z55" s="7">
         <f t="shared" si="0"/>
         <v>0.97777777777777775</v>
       </c>
-      <c r="AA55" s="8">
+      <c r="AA55" s="7">
         <f t="shared" si="1"/>
         <v>2.2222222222222223E-2</v>
       </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
+      <c r="A56" s="9">
         <v>45101</v>
       </c>
       <c r="B56" s="2">
@@ -5297,26 +5305,26 @@
       <c r="V56" s="3">
         <v>0.94289999999999996</v>
       </c>
-      <c r="W56" s="6">
+      <c r="W56" s="5">
         <v>32</v>
       </c>
-      <c r="X56" s="6">
+      <c r="X56" s="5">
         <v>30</v>
       </c>
-      <c r="Y56" s="6">
+      <c r="Y56" s="5">
         <v>2</v>
       </c>
-      <c r="Z56" s="8">
+      <c r="Z56" s="7">
         <f t="shared" si="0"/>
         <v>0.9375</v>
       </c>
-      <c r="AA56" s="8">
+      <c r="AA56" s="7">
         <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
+      <c r="A57" s="9">
         <v>45102</v>
       </c>
       <c r="B57" s="2">
@@ -5382,26 +5390,26 @@
       <c r="V57" s="3">
         <v>0.9375</v>
       </c>
-      <c r="W57" s="6">
+      <c r="W57" s="5">
         <v>16</v>
       </c>
-      <c r="X57" s="6">
+      <c r="X57" s="5">
         <v>15</v>
       </c>
-      <c r="Y57" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z57" s="8">
+      <c r="Y57" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z57" s="7">
         <f t="shared" si="0"/>
         <v>0.9375</v>
       </c>
-      <c r="AA57" s="8">
+      <c r="AA57" s="7">
         <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A58" s="5">
+      <c r="A58" s="9">
         <v>45103</v>
       </c>
       <c r="B58" s="2">
@@ -5467,26 +5475,26 @@
       <c r="V58" s="3">
         <v>0.83330000000000004</v>
       </c>
-      <c r="W58" s="6">
+      <c r="W58" s="5">
         <v>13</v>
       </c>
-      <c r="X58" s="6">
+      <c r="X58" s="5">
         <v>12</v>
       </c>
-      <c r="Y58" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z58" s="8">
+      <c r="Y58" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z58" s="7">
         <f t="shared" si="0"/>
         <v>0.92307692307692313</v>
       </c>
-      <c r="AA58" s="8">
+      <c r="AA58" s="7">
         <f t="shared" si="1"/>
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A59" s="5">
+      <c r="A59" s="9">
         <v>45104</v>
       </c>
       <c r="B59" s="2">
@@ -5552,26 +5560,26 @@
       <c r="V59" s="3">
         <v>1</v>
       </c>
-      <c r="W59" s="6">
+      <c r="W59" s="5">
         <v>10</v>
       </c>
-      <c r="X59" s="6">
+      <c r="X59" s="5">
         <v>9</v>
       </c>
-      <c r="Y59" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z59" s="8">
+      <c r="Y59" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z59" s="7">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="AA59" s="8">
+      <c r="AA59" s="7">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A60" s="5">
+      <c r="A60" s="9">
         <v>45105</v>
       </c>
       <c r="B60" s="2">
@@ -5637,26 +5645,26 @@
       <c r="V60" s="3">
         <v>1</v>
       </c>
-      <c r="W60" s="6">
+      <c r="W60" s="5">
         <v>4</v>
       </c>
-      <c r="X60" s="6">
+      <c r="X60" s="5">
         <v>2</v>
       </c>
-      <c r="Y60" s="6">
+      <c r="Y60" s="5">
         <v>2</v>
       </c>
-      <c r="Z60" s="8">
+      <c r="Z60" s="7">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="AA60" s="8">
+      <c r="AA60" s="7">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A61" s="5">
+      <c r="A61" s="9">
         <v>45106</v>
       </c>
       <c r="B61" s="2">
@@ -5722,26 +5730,26 @@
       <c r="V61" s="3">
         <v>0.9</v>
       </c>
-      <c r="W61" s="6">
+      <c r="W61" s="5">
         <v>9</v>
       </c>
-      <c r="X61" s="6">
+      <c r="X61" s="5">
         <v>9</v>
       </c>
-      <c r="Y61" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="8">
+      <c r="Y61" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA61" s="8">
+      <c r="AA61" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A62" s="5">
+      <c r="A62" s="9">
         <v>45107</v>
       </c>
       <c r="B62" s="2">
@@ -5807,26 +5815,26 @@
       <c r="V62" s="3">
         <v>1</v>
       </c>
-      <c r="W62" s="6">
+      <c r="W62" s="5">
         <v>17</v>
       </c>
-      <c r="X62" s="6">
+      <c r="X62" s="5">
         <v>16</v>
       </c>
-      <c r="Y62" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z62" s="8">
+      <c r="Y62" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z62" s="7">
         <f t="shared" si="0"/>
         <v>0.94117647058823528</v>
       </c>
-      <c r="AA62" s="8">
+      <c r="AA62" s="7">
         <f t="shared" si="1"/>
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A63" s="5">
+      <c r="A63" s="9">
         <v>45108</v>
       </c>
       <c r="B63" s="2">
@@ -5892,26 +5900,26 @@
       <c r="V63" s="3">
         <v>1</v>
       </c>
-      <c r="W63" s="6">
+      <c r="W63" s="5">
         <v>17</v>
       </c>
-      <c r="X63" s="6">
+      <c r="X63" s="5">
         <v>17</v>
       </c>
-      <c r="Y63" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="8">
+      <c r="Y63" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA63" s="8">
+      <c r="AA63" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
+      <c r="A64" s="9">
         <v>45109</v>
       </c>
       <c r="B64" s="2">
@@ -5977,26 +5985,26 @@
       <c r="V64" s="3">
         <v>0.86670000000000003</v>
       </c>
-      <c r="W64" s="6">
+      <c r="W64" s="5">
         <v>13</v>
       </c>
-      <c r="X64" s="6">
+      <c r="X64" s="5">
         <v>12</v>
       </c>
-      <c r="Y64" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z64" s="8">
+      <c r="Y64" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z64" s="7">
         <f t="shared" si="0"/>
         <v>0.92307692307692313</v>
       </c>
-      <c r="AA64" s="8">
+      <c r="AA64" s="7">
         <f t="shared" si="1"/>
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A65" s="5">
+      <c r="A65" s="9">
         <v>45110</v>
       </c>
       <c r="B65" s="2">
@@ -6062,26 +6070,26 @@
       <c r="V65" s="3">
         <v>1</v>
       </c>
-      <c r="W65" s="6">
-        <v>1</v>
-      </c>
-      <c r="X65" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y65" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="8">
+      <c r="W65" s="5">
+        <v>1</v>
+      </c>
+      <c r="X65" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y65" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA65" s="8">
+      <c r="AA65" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A66" s="5">
+      <c r="A66" s="9">
         <v>45111</v>
       </c>
       <c r="B66" s="2">
@@ -6147,26 +6155,26 @@
       <c r="V66" s="3">
         <v>0</v>
       </c>
-      <c r="W66" s="6">
-        <v>0</v>
-      </c>
-      <c r="X66" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y66" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z66" s="8">
+      <c r="W66" s="5">
+        <v>0</v>
+      </c>
+      <c r="X66" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA66" s="8">
+      <c r="AA66" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A67" s="5">
+      <c r="A67" s="9">
         <v>45112</v>
       </c>
       <c r="B67" s="2">
@@ -6232,26 +6240,26 @@
       <c r="V67" s="3">
         <v>0</v>
       </c>
-      <c r="W67" s="6">
-        <v>0</v>
-      </c>
-      <c r="X67" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="8">
+      <c r="W67" s="5">
+        <v>0</v>
+      </c>
+      <c r="X67" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="7">
         <f t="shared" ref="Z67:Z130" si="2">IF(W67=0,0,X67/W67)</f>
         <v>0</v>
       </c>
-      <c r="AA67" s="8">
+      <c r="AA67" s="7">
         <f t="shared" ref="AA67:AA130" si="3">IF(W67=0,0,Y67/W67)</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A68" s="5">
+      <c r="A68" s="9">
         <v>45113</v>
       </c>
       <c r="B68" s="2">
@@ -6317,26 +6325,26 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-      <c r="W68" s="6">
-        <v>0</v>
-      </c>
-      <c r="X68" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y68" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="8">
+      <c r="W68" s="5">
+        <v>0</v>
+      </c>
+      <c r="X68" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA68" s="8">
+      <c r="AA68" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A69" s="5">
+      <c r="A69" s="9">
         <v>45114</v>
       </c>
       <c r="B69" s="2">
@@ -6402,26 +6410,26 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-      <c r="W69" s="6">
-        <v>0</v>
-      </c>
-      <c r="X69" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y69" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="8">
+      <c r="W69" s="5">
+        <v>0</v>
+      </c>
+      <c r="X69" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA69" s="8">
+      <c r="AA69" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A70" s="5">
+      <c r="A70" s="9">
         <v>45115</v>
       </c>
       <c r="B70" s="2">
@@ -6487,26 +6495,26 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-      <c r="W70" s="6">
-        <v>0</v>
-      </c>
-      <c r="X70" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="8">
+      <c r="W70" s="5">
+        <v>0</v>
+      </c>
+      <c r="X70" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA70" s="8">
+      <c r="AA70" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A71" s="5">
+      <c r="A71" s="9">
         <v>45116</v>
       </c>
       <c r="B71" s="2">
@@ -6572,26 +6580,26 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-      <c r="W71" s="6">
-        <v>0</v>
-      </c>
-      <c r="X71" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y71" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z71" s="8">
+      <c r="W71" s="5">
+        <v>0</v>
+      </c>
+      <c r="X71" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA71" s="8">
+      <c r="AA71" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A72" s="5">
+      <c r="A72" s="9">
         <v>45117</v>
       </c>
       <c r="B72" s="2">
@@ -6657,26 +6665,26 @@
       <c r="V72" s="3">
         <v>0.98360000000000003</v>
       </c>
-      <c r="W72" s="6">
+      <c r="W72" s="5">
         <v>60</v>
       </c>
-      <c r="X72" s="6">
+      <c r="X72" s="5">
         <v>53</v>
       </c>
-      <c r="Y72" s="6">
+      <c r="Y72" s="5">
         <v>7</v>
       </c>
-      <c r="Z72" s="8">
+      <c r="Z72" s="7">
         <f t="shared" si="2"/>
         <v>0.8833333333333333</v>
       </c>
-      <c r="AA72" s="8">
+      <c r="AA72" s="7">
         <f t="shared" si="3"/>
         <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A73" s="5">
+      <c r="A73" s="9">
         <v>45118</v>
       </c>
       <c r="B73" s="2">
@@ -6742,26 +6750,26 @@
       <c r="V73" s="3">
         <v>0.98</v>
       </c>
-      <c r="W73" s="6">
+      <c r="W73" s="5">
         <v>49</v>
       </c>
-      <c r="X73" s="6">
+      <c r="X73" s="5">
         <v>44</v>
       </c>
-      <c r="Y73" s="6">
+      <c r="Y73" s="5">
         <v>5</v>
       </c>
-      <c r="Z73" s="8">
+      <c r="Z73" s="7">
         <f t="shared" si="2"/>
         <v>0.89795918367346939</v>
       </c>
-      <c r="AA73" s="8">
+      <c r="AA73" s="7">
         <f t="shared" si="3"/>
         <v>0.10204081632653061</v>
       </c>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A74" s="5">
+      <c r="A74" s="9">
         <v>45119</v>
       </c>
       <c r="B74" s="2">
@@ -6827,26 +6835,26 @@
       <c r="V74" s="3">
         <v>1</v>
       </c>
-      <c r="W74" s="6">
+      <c r="W74" s="5">
         <v>8</v>
       </c>
-      <c r="X74" s="6">
+      <c r="X74" s="5">
         <v>8</v>
       </c>
-      <c r="Y74" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z74" s="8">
+      <c r="Y74" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AA74" s="8">
+      <c r="AA74" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A75" s="5">
+      <c r="A75" s="9">
         <v>45120</v>
       </c>
       <c r="B75" s="2">
@@ -6912,26 +6920,26 @@
       <c r="V75" s="3">
         <v>0.97299999999999998</v>
       </c>
-      <c r="W75" s="6">
+      <c r="W75" s="5">
         <v>36</v>
       </c>
-      <c r="X75" s="6">
+      <c r="X75" s="5">
         <v>35</v>
       </c>
-      <c r="Y75" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z75" s="8">
+      <c r="Y75" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z75" s="7">
         <f t="shared" si="2"/>
         <v>0.97222222222222221</v>
       </c>
-      <c r="AA75" s="8">
+      <c r="AA75" s="7">
         <f t="shared" si="3"/>
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A76" s="5">
+      <c r="A76" s="9">
         <v>45121</v>
       </c>
       <c r="B76" s="2">
@@ -6997,26 +7005,26 @@
       <c r="V76" s="3">
         <v>0.92310000000000003</v>
       </c>
-      <c r="W76" s="6">
+      <c r="W76" s="5">
         <v>12</v>
       </c>
-      <c r="X76" s="6">
+      <c r="X76" s="5">
         <v>10</v>
       </c>
-      <c r="Y76" s="6">
+      <c r="Y76" s="5">
         <v>2</v>
       </c>
-      <c r="Z76" s="8">
+      <c r="Z76" s="7">
         <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="AA76" s="8">
+      <c r="AA76" s="7">
         <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A77" s="5">
+      <c r="A77" s="9">
         <v>45122</v>
       </c>
       <c r="B77" s="2">
@@ -7082,26 +7090,26 @@
       <c r="V77" s="3">
         <v>0.93330000000000002</v>
       </c>
-      <c r="W77" s="6">
+      <c r="W77" s="5">
         <v>14</v>
       </c>
-      <c r="X77" s="6">
+      <c r="X77" s="5">
         <v>13</v>
       </c>
-      <c r="Y77" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z77" s="8">
+      <c r="Y77" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z77" s="7">
         <f t="shared" si="2"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="AA77" s="8">
+      <c r="AA77" s="7">
         <f t="shared" si="3"/>
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A78" s="5">
+      <c r="A78" s="9">
         <v>45123</v>
       </c>
       <c r="B78" s="2">
@@ -7167,26 +7175,26 @@
       <c r="V78" s="3">
         <v>1</v>
       </c>
-      <c r="W78" s="6">
+      <c r="W78" s="5">
         <v>5</v>
       </c>
-      <c r="X78" s="6">
-        <v>3</v>
-      </c>
-      <c r="Y78" s="6">
+      <c r="X78" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y78" s="5">
         <v>2</v>
       </c>
-      <c r="Z78" s="8">
+      <c r="Z78" s="7">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="AA78" s="8">
+      <c r="AA78" s="7">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A79" s="5">
+      <c r="A79" s="9">
         <v>45124</v>
       </c>
       <c r="B79" s="2">
@@ -7252,26 +7260,26 @@
       <c r="V79" s="3">
         <v>0.9</v>
       </c>
-      <c r="W79" s="6">
+      <c r="W79" s="5">
         <v>9</v>
       </c>
-      <c r="X79" s="6">
+      <c r="X79" s="5">
         <v>7</v>
       </c>
-      <c r="Y79" s="6">
+      <c r="Y79" s="5">
         <v>2</v>
       </c>
-      <c r="Z79" s="8">
+      <c r="Z79" s="7">
         <f t="shared" si="2"/>
         <v>0.77777777777777779</v>
       </c>
-      <c r="AA79" s="8">
+      <c r="AA79" s="7">
         <f t="shared" si="3"/>
         <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A80" s="5">
+      <c r="A80" s="9">
         <v>45125</v>
       </c>
       <c r="B80" s="2">
@@ -7337,26 +7345,26 @@
       <c r="V80" s="3">
         <v>1</v>
       </c>
-      <c r="W80" s="6">
+      <c r="W80" s="5">
         <v>16</v>
       </c>
-      <c r="X80" s="6">
+      <c r="X80" s="5">
         <v>14</v>
       </c>
-      <c r="Y80" s="6">
+      <c r="Y80" s="5">
         <v>2</v>
       </c>
-      <c r="Z80" s="8">
+      <c r="Z80" s="7">
         <f t="shared" si="2"/>
         <v>0.875</v>
       </c>
-      <c r="AA80" s="8">
+      <c r="AA80" s="7">
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A81" s="5">
+      <c r="A81" s="9">
         <v>45126</v>
       </c>
       <c r="B81" s="2">
@@ -7422,26 +7430,26 @@
       <c r="V81" s="3">
         <v>0.875</v>
       </c>
-      <c r="W81" s="6">
+      <c r="W81" s="5">
         <v>7</v>
       </c>
-      <c r="X81" s="6">
+      <c r="X81" s="5">
         <v>7</v>
       </c>
-      <c r="Y81" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z81" s="8">
+      <c r="Y81" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AA81" s="8">
+      <c r="AA81" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A82" s="5">
+      <c r="A82" s="9">
         <v>45127</v>
       </c>
       <c r="B82" s="2">
@@ -7507,26 +7515,26 @@
       <c r="V82" s="3">
         <v>0.9375</v>
       </c>
-      <c r="W82" s="6">
+      <c r="W82" s="5">
         <v>15</v>
       </c>
-      <c r="X82" s="6">
+      <c r="X82" s="5">
         <v>13</v>
       </c>
-      <c r="Y82" s="6">
+      <c r="Y82" s="5">
         <v>2</v>
       </c>
-      <c r="Z82" s="8">
+      <c r="Z82" s="7">
         <f t="shared" si="2"/>
         <v>0.8666666666666667</v>
       </c>
-      <c r="AA82" s="8">
+      <c r="AA82" s="7">
         <f t="shared" si="3"/>
         <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A83" s="5">
+      <c r="A83" s="9">
         <v>45128</v>
       </c>
       <c r="B83" s="2">
@@ -7592,26 +7600,26 @@
       <c r="V83" s="3">
         <v>1</v>
       </c>
-      <c r="W83" s="6">
+      <c r="W83" s="5">
         <v>10</v>
       </c>
-      <c r="X83" s="6">
+      <c r="X83" s="5">
         <v>9</v>
       </c>
-      <c r="Y83" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z83" s="8">
+      <c r="Y83" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z83" s="7">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="AA83" s="8">
+      <c r="AA83" s="7">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A84" s="5">
+      <c r="A84" s="9">
         <v>45129</v>
       </c>
       <c r="B84" s="2">
@@ -7677,26 +7685,26 @@
       <c r="V84" s="3">
         <v>0.8</v>
       </c>
-      <c r="W84" s="6">
+      <c r="W84" s="5">
         <v>4</v>
       </c>
-      <c r="X84" s="6">
-        <v>3</v>
-      </c>
-      <c r="Y84" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z84" s="8">
+      <c r="X84" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y84" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z84" s="7">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="AA84" s="8">
+      <c r="AA84" s="7">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A85" s="5">
+      <c r="A85" s="9">
         <v>45130</v>
       </c>
       <c r="B85" s="2">
@@ -7762,26 +7770,26 @@
       <c r="V85" s="3">
         <v>0.88890000000000002</v>
       </c>
-      <c r="W85" s="6">
+      <c r="W85" s="5">
         <v>16</v>
       </c>
-      <c r="X85" s="6">
+      <c r="X85" s="5">
         <v>13</v>
       </c>
-      <c r="Y85" s="6">
-        <v>3</v>
-      </c>
-      <c r="Z85" s="8">
+      <c r="Y85" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z85" s="7">
         <f t="shared" si="2"/>
         <v>0.8125</v>
       </c>
-      <c r="AA85" s="8">
+      <c r="AA85" s="7">
         <f t="shared" si="3"/>
         <v>0.1875</v>
       </c>
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A86" s="5">
+      <c r="A86" s="9">
         <v>45131</v>
       </c>
       <c r="B86" s="2">
@@ -7847,26 +7855,26 @@
       <c r="V86" s="3">
         <v>1</v>
       </c>
-      <c r="W86" s="6">
+      <c r="W86" s="5">
         <v>21</v>
       </c>
-      <c r="X86" s="6">
+      <c r="X86" s="5">
         <v>16</v>
       </c>
-      <c r="Y86" s="6">
+      <c r="Y86" s="5">
         <v>5</v>
       </c>
-      <c r="Z86" s="8">
+      <c r="Z86" s="7">
         <f t="shared" si="2"/>
         <v>0.76190476190476186</v>
       </c>
-      <c r="AA86" s="8">
+      <c r="AA86" s="7">
         <f t="shared" si="3"/>
         <v>0.23809523809523808</v>
       </c>
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A87" s="5">
+      <c r="A87" s="9">
         <v>45132</v>
       </c>
       <c r="B87" s="2">
@@ -7932,26 +7940,26 @@
       <c r="V87" s="3">
         <v>0.84619999999999995</v>
       </c>
-      <c r="W87" s="6">
+      <c r="W87" s="5">
         <v>11</v>
       </c>
-      <c r="X87" s="6">
+      <c r="X87" s="5">
         <v>9</v>
       </c>
-      <c r="Y87" s="6">
+      <c r="Y87" s="5">
         <v>2</v>
       </c>
-      <c r="Z87" s="8">
+      <c r="Z87" s="7">
         <f t="shared" si="2"/>
         <v>0.81818181818181823</v>
       </c>
-      <c r="AA87" s="8">
+      <c r="AA87" s="7">
         <f t="shared" si="3"/>
         <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A88" s="5">
+      <c r="A88" s="9">
         <v>45133</v>
       </c>
       <c r="B88" s="2">
@@ -8017,26 +8025,26 @@
       <c r="V88" s="3">
         <v>0.9</v>
       </c>
-      <c r="W88" s="6">
+      <c r="W88" s="5">
         <v>18</v>
       </c>
-      <c r="X88" s="6">
+      <c r="X88" s="5">
         <v>15</v>
       </c>
-      <c r="Y88" s="6">
-        <v>3</v>
-      </c>
-      <c r="Z88" s="8">
+      <c r="Y88" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z88" s="7">
         <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="AA88" s="8">
+      <c r="AA88" s="7">
         <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A89" s="5">
+      <c r="A89" s="9">
         <v>45134</v>
       </c>
       <c r="B89" s="2">
@@ -8102,26 +8110,26 @@
       <c r="V89" s="3">
         <v>1</v>
       </c>
-      <c r="W89" s="6">
+      <c r="W89" s="5">
         <v>4</v>
       </c>
-      <c r="X89" s="6">
+      <c r="X89" s="5">
         <v>4</v>
       </c>
-      <c r="Y89" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z89" s="8">
+      <c r="Y89" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AA89" s="8">
+      <c r="AA89" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A90" s="5">
+      <c r="A90" s="9">
         <v>45135</v>
       </c>
       <c r="B90" s="2">
@@ -8187,26 +8195,26 @@
       <c r="V90" s="3">
         <v>0.9375</v>
       </c>
-      <c r="W90" s="6">
+      <c r="W90" s="5">
         <v>15</v>
       </c>
-      <c r="X90" s="6">
+      <c r="X90" s="5">
         <v>12</v>
       </c>
-      <c r="Y90" s="6">
-        <v>3</v>
-      </c>
-      <c r="Z90" s="8">
+      <c r="Y90" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z90" s="7">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="AA90" s="8">
+      <c r="AA90" s="7">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A91" s="5">
+      <c r="A91" s="9">
         <v>45136</v>
       </c>
       <c r="B91" s="2">
@@ -8272,26 +8280,26 @@
       <c r="V91" s="3">
         <v>1</v>
       </c>
-      <c r="W91" s="6">
+      <c r="W91" s="5">
         <v>6</v>
       </c>
-      <c r="X91" s="6">
+      <c r="X91" s="5">
         <v>6</v>
       </c>
-      <c r="Y91" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z91" s="8">
+      <c r="Y91" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AA91" s="8">
+      <c r="AA91" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A92" s="5">
+      <c r="A92" s="9">
         <v>45137</v>
       </c>
       <c r="B92" s="2">
@@ -8357,26 +8365,26 @@
       <c r="V92" s="3">
         <v>0.66669999999999996</v>
       </c>
-      <c r="W92" s="6">
+      <c r="W92" s="5">
         <v>2</v>
       </c>
-      <c r="X92" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y92" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z92" s="8">
+      <c r="X92" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y92" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z92" s="7">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="AA92" s="8">
+      <c r="AA92" s="7">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A93" s="5">
+      <c r="A93" s="9">
         <v>45138</v>
       </c>
       <c r="B93" s="2">
@@ -8442,26 +8450,26 @@
       <c r="V93" s="3">
         <v>0.83330000000000004</v>
       </c>
-      <c r="W93" s="6">
+      <c r="W93" s="5">
         <v>5</v>
       </c>
-      <c r="X93" s="6">
+      <c r="X93" s="5">
         <v>4</v>
       </c>
-      <c r="Y93" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z93" s="8">
+      <c r="Y93" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z93" s="7">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="AA93" s="8">
+      <c r="AA93" s="7">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A94" s="5">
+      <c r="A94" s="9">
         <v>45139</v>
       </c>
       <c r="B94" s="2">
@@ -8527,26 +8535,26 @@
       <c r="V94" s="3">
         <v>0.77780000000000005</v>
       </c>
-      <c r="W94" s="6">
+      <c r="W94" s="5">
         <v>7</v>
       </c>
-      <c r="X94" s="6">
+      <c r="X94" s="5">
         <v>6</v>
       </c>
-      <c r="Y94" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z94" s="8">
+      <c r="Y94" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z94" s="7">
         <f t="shared" si="2"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="AA94" s="8">
+      <c r="AA94" s="7">
         <f t="shared" si="3"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A95" s="5">
+      <c r="A95" s="9">
         <v>45140</v>
       </c>
       <c r="B95" s="2">
@@ -8612,26 +8620,26 @@
       <c r="V95" s="3">
         <v>1</v>
       </c>
-      <c r="W95" s="6">
+      <c r="W95" s="5">
         <v>18</v>
       </c>
-      <c r="X95" s="6">
+      <c r="X95" s="5">
         <v>15</v>
       </c>
-      <c r="Y95" s="6">
-        <v>3</v>
-      </c>
-      <c r="Z95" s="8">
+      <c r="Y95" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z95" s="7">
         <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="AA95" s="8">
+      <c r="AA95" s="7">
         <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A96" s="5">
+      <c r="A96" s="9">
         <v>45141</v>
       </c>
       <c r="B96" s="2">
@@ -8697,26 +8705,26 @@
       <c r="V96" s="3">
         <v>1</v>
       </c>
-      <c r="W96" s="6">
+      <c r="W96" s="5">
         <v>6</v>
       </c>
-      <c r="X96" s="6">
+      <c r="X96" s="5">
         <v>5</v>
       </c>
-      <c r="Y96" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z96" s="8">
+      <c r="Y96" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z96" s="7">
         <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="AA96" s="8">
+      <c r="AA96" s="7">
         <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A97" s="5">
+      <c r="A97" s="9">
         <v>45142</v>
       </c>
       <c r="B97" s="2">
@@ -8782,26 +8790,26 @@
       <c r="V97" s="3">
         <v>1</v>
       </c>
-      <c r="W97" s="6">
+      <c r="W97" s="5">
         <v>5</v>
       </c>
-      <c r="X97" s="6">
-        <v>3</v>
-      </c>
-      <c r="Y97" s="6">
+      <c r="X97" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y97" s="5">
         <v>2</v>
       </c>
-      <c r="Z97" s="8">
+      <c r="Z97" s="7">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="AA97" s="8">
+      <c r="AA97" s="7">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A98" s="5">
+      <c r="A98" s="9">
         <v>45143</v>
       </c>
       <c r="B98" s="2">
@@ -8867,26 +8875,26 @@
       <c r="V98" s="3">
         <v>1</v>
       </c>
-      <c r="W98" s="6">
+      <c r="W98" s="5">
         <v>5</v>
       </c>
-      <c r="X98" s="6">
+      <c r="X98" s="5">
         <v>2</v>
       </c>
-      <c r="Y98" s="6">
-        <v>3</v>
-      </c>
-      <c r="Z98" s="8">
+      <c r="Y98" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z98" s="7">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="AA98" s="8">
+      <c r="AA98" s="7">
         <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A99" s="5">
+      <c r="A99" s="9">
         <v>45144</v>
       </c>
       <c r="B99" s="2">
@@ -8952,26 +8960,26 @@
       <c r="V99" s="3">
         <v>1</v>
       </c>
-      <c r="W99" s="6">
+      <c r="W99" s="5">
         <v>5</v>
       </c>
-      <c r="X99" s="6">
+      <c r="X99" s="5">
         <v>5</v>
       </c>
-      <c r="Y99" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z99" s="8">
+      <c r="Y99" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AA99" s="8">
+      <c r="AA99" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A100" s="5">
+      <c r="A100" s="9">
         <v>45145</v>
       </c>
       <c r="B100" s="2">
@@ -9037,26 +9045,26 @@
       <c r="V100" s="3">
         <v>0.84619999999999995</v>
       </c>
-      <c r="W100" s="6">
+      <c r="W100" s="5">
         <v>11</v>
       </c>
-      <c r="X100" s="6">
+      <c r="X100" s="5">
         <v>10</v>
       </c>
-      <c r="Y100" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z100" s="8">
+      <c r="Y100" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z100" s="7">
         <f t="shared" si="2"/>
         <v>0.90909090909090906</v>
       </c>
-      <c r="AA100" s="8">
+      <c r="AA100" s="7">
         <f t="shared" si="3"/>
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A101" s="5">
+      <c r="A101" s="9">
         <v>45146</v>
       </c>
       <c r="B101" s="2">
@@ -9122,26 +9130,26 @@
       <c r="V101" s="3">
         <v>0.94740000000000002</v>
       </c>
-      <c r="W101" s="6">
+      <c r="W101" s="5">
         <v>18</v>
       </c>
-      <c r="X101" s="6">
+      <c r="X101" s="5">
         <v>16</v>
       </c>
-      <c r="Y101" s="6">
+      <c r="Y101" s="5">
         <v>2</v>
       </c>
-      <c r="Z101" s="8">
+      <c r="Z101" s="7">
         <f t="shared" si="2"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="AA101" s="8">
+      <c r="AA101" s="7">
         <f t="shared" si="3"/>
         <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A102" s="5">
+      <c r="A102" s="9">
         <v>45147</v>
       </c>
       <c r="B102" s="2">
@@ -9207,26 +9215,26 @@
       <c r="V102" s="3">
         <v>1</v>
       </c>
-      <c r="W102" s="6">
+      <c r="W102" s="5">
         <v>4</v>
       </c>
-      <c r="X102" s="6">
+      <c r="X102" s="5">
         <v>4</v>
       </c>
-      <c r="Y102" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z102" s="8">
+      <c r="Y102" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AA102" s="8">
+      <c r="AA102" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A103" s="5">
+      <c r="A103" s="9">
         <v>45148</v>
       </c>
       <c r="B103" s="2">
@@ -9292,26 +9300,26 @@
       <c r="V103" s="3">
         <v>1</v>
       </c>
-      <c r="W103" s="6">
+      <c r="W103" s="5">
         <v>2</v>
       </c>
-      <c r="X103" s="6">
+      <c r="X103" s="5">
         <v>2</v>
       </c>
-      <c r="Y103" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z103" s="8">
+      <c r="Y103" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z103" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AA103" s="8">
+      <c r="AA103" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A104" s="5">
+      <c r="A104" s="9">
         <v>45149</v>
       </c>
       <c r="B104" s="2">
@@ -9377,26 +9385,26 @@
       <c r="V104" s="3">
         <v>1</v>
       </c>
-      <c r="W104" s="6">
-        <v>3</v>
-      </c>
-      <c r="X104" s="6">
-        <v>3</v>
-      </c>
-      <c r="Y104" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z104" s="8">
+      <c r="W104" s="5">
+        <v>3</v>
+      </c>
+      <c r="X104" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y104" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z104" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AA104" s="8">
+      <c r="AA104" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A105" s="5">
+      <c r="A105" s="9">
         <v>45150</v>
       </c>
       <c r="B105" s="2">
@@ -9462,26 +9470,26 @@
       <c r="V105" s="3">
         <v>1</v>
       </c>
-      <c r="W105" s="6">
+      <c r="W105" s="5">
         <v>2</v>
       </c>
-      <c r="X105" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y105" s="6">
+      <c r="X105" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y105" s="5">
         <v>2</v>
       </c>
-      <c r="Z105" s="8">
+      <c r="Z105" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA105" s="8">
+      <c r="AA105" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A106" s="5">
+      <c r="A106" s="9">
         <v>45151</v>
       </c>
       <c r="B106" s="2">
@@ -9547,26 +9555,26 @@
       <c r="V106" s="3">
         <v>1</v>
       </c>
-      <c r="W106" s="6">
-        <v>1</v>
-      </c>
-      <c r="X106" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y106" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z106" s="8">
+      <c r="W106" s="5">
+        <v>1</v>
+      </c>
+      <c r="X106" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y106" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z106" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AA106" s="8">
+      <c r="AA106" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A107" s="5">
+      <c r="A107" s="9">
         <v>45152</v>
       </c>
       <c r="B107" s="2">
@@ -9632,26 +9640,26 @@
       <c r="V107" s="3">
         <v>1</v>
       </c>
-      <c r="W107" s="6">
+      <c r="W107" s="5">
         <v>11</v>
       </c>
-      <c r="X107" s="6">
+      <c r="X107" s="5">
         <v>9</v>
       </c>
-      <c r="Y107" s="6">
+      <c r="Y107" s="5">
         <v>2</v>
       </c>
-      <c r="Z107" s="8">
+      <c r="Z107" s="7">
         <f t="shared" si="2"/>
         <v>0.81818181818181823</v>
       </c>
-      <c r="AA107" s="8">
+      <c r="AA107" s="7">
         <f t="shared" si="3"/>
         <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A108" s="5">
+      <c r="A108" s="9">
         <v>45153</v>
       </c>
       <c r="B108" s="2">
@@ -9717,26 +9725,26 @@
       <c r="V108" s="3">
         <v>1</v>
       </c>
-      <c r="W108" s="6">
+      <c r="W108" s="5">
         <v>4</v>
       </c>
-      <c r="X108" s="6">
+      <c r="X108" s="5">
         <v>4</v>
       </c>
-      <c r="Y108" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z108" s="8">
+      <c r="Y108" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z108" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AA108" s="8">
+      <c r="AA108" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A109" s="5">
+      <c r="A109" s="9">
         <v>45154</v>
       </c>
       <c r="B109" s="2">
@@ -9802,26 +9810,26 @@
       <c r="V109" s="3">
         <v>1</v>
       </c>
-      <c r="W109" s="6">
+      <c r="W109" s="5">
         <v>5</v>
       </c>
-      <c r="X109" s="6">
+      <c r="X109" s="5">
         <v>5</v>
       </c>
-      <c r="Y109" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z109" s="8">
+      <c r="Y109" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z109" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AA109" s="8">
+      <c r="AA109" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A110" s="5">
+      <c r="A110" s="9">
         <v>45155</v>
       </c>
       <c r="B110" s="2">
@@ -9887,26 +9895,26 @@
       <c r="V110" s="3">
         <v>1</v>
       </c>
-      <c r="W110" s="6">
-        <v>3</v>
-      </c>
-      <c r="X110" s="6">
-        <v>3</v>
-      </c>
-      <c r="Y110" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z110" s="8">
+      <c r="W110" s="5">
+        <v>3</v>
+      </c>
+      <c r="X110" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y110" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z110" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AA110" s="8">
+      <c r="AA110" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A111" s="5">
+      <c r="A111" s="9">
         <v>45156</v>
       </c>
       <c r="B111" s="2">
@@ -9972,26 +9980,26 @@
       <c r="V111" s="3">
         <v>0.8</v>
       </c>
-      <c r="W111" s="6">
+      <c r="W111" s="5">
         <v>4</v>
       </c>
-      <c r="X111" s="6">
-        <v>3</v>
-      </c>
-      <c r="Y111" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z111" s="8">
+      <c r="X111" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y111" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z111" s="7">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="AA111" s="8">
+      <c r="AA111" s="7">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A112" s="5">
+      <c r="A112" s="9">
         <v>45157</v>
       </c>
       <c r="B112" s="2">
@@ -10057,26 +10065,26 @@
       <c r="V112" s="3">
         <v>1</v>
       </c>
-      <c r="W112" s="6">
-        <v>3</v>
-      </c>
-      <c r="X112" s="6">
+      <c r="W112" s="5">
+        <v>3</v>
+      </c>
+      <c r="X112" s="5">
         <v>2</v>
       </c>
-      <c r="Y112" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z112" s="8">
+      <c r="Y112" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z112" s="7">
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AA112" s="8">
+      <c r="AA112" s="7">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A113" s="5">
+      <c r="A113" s="9">
         <v>45158</v>
       </c>
       <c r="B113" s="2">
@@ -10142,26 +10150,26 @@
       <c r="V113" s="3">
         <v>1</v>
       </c>
-      <c r="W113" s="6">
+      <c r="W113" s="5">
         <v>5</v>
       </c>
-      <c r="X113" s="6">
-        <v>3</v>
-      </c>
-      <c r="Y113" s="6">
+      <c r="X113" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y113" s="5">
         <v>2</v>
       </c>
-      <c r="Z113" s="8">
+      <c r="Z113" s="7">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="AA113" s="8">
+      <c r="AA113" s="7">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A114" s="5">
+      <c r="A114" s="9">
         <v>45159</v>
       </c>
       <c r="B114" s="2">
@@ -10227,26 +10235,26 @@
       <c r="V114" s="3">
         <v>1</v>
       </c>
-      <c r="W114" s="6">
+      <c r="W114" s="5">
         <v>2</v>
       </c>
-      <c r="X114" s="6">
+      <c r="X114" s="5">
         <v>2</v>
       </c>
-      <c r="Y114" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z114" s="8">
+      <c r="Y114" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z114" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AA114" s="8">
+      <c r="AA114" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A115" s="5">
+      <c r="A115" s="9">
         <v>45160</v>
       </c>
       <c r="B115" s="2">
@@ -10312,26 +10320,26 @@
       <c r="V115" s="3">
         <v>1</v>
       </c>
-      <c r="W115" s="6">
+      <c r="W115" s="5">
         <v>5</v>
       </c>
-      <c r="X115" s="6">
+      <c r="X115" s="5">
         <v>4</v>
       </c>
-      <c r="Y115" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z115" s="8">
+      <c r="Y115" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z115" s="7">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="AA115" s="8">
+      <c r="AA115" s="7">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A116" s="5">
+      <c r="A116" s="9">
         <v>45161</v>
       </c>
       <c r="B116" s="2">
@@ -10397,26 +10405,26 @@
       <c r="V116" s="3">
         <v>0.92</v>
       </c>
-      <c r="W116" s="6">
+      <c r="W116" s="5">
         <v>23</v>
       </c>
-      <c r="X116" s="6">
+      <c r="X116" s="5">
         <v>18</v>
       </c>
-      <c r="Y116" s="6">
+      <c r="Y116" s="5">
         <v>5</v>
       </c>
-      <c r="Z116" s="8">
+      <c r="Z116" s="7">
         <f t="shared" si="2"/>
         <v>0.78260869565217395</v>
       </c>
-      <c r="AA116" s="8">
+      <c r="AA116" s="7">
         <f t="shared" si="3"/>
         <v>0.21739130434782608</v>
       </c>
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A117" s="5">
+      <c r="A117" s="9">
         <v>45162</v>
       </c>
       <c r="B117" s="2">
@@ -10482,26 +10490,26 @@
       <c r="V117" s="3">
         <v>0.75</v>
       </c>
-      <c r="W117" s="6">
+      <c r="W117" s="5">
         <v>6</v>
       </c>
-      <c r="X117" s="6">
+      <c r="X117" s="5">
         <v>5</v>
       </c>
-      <c r="Y117" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z117" s="8">
+      <c r="Y117" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z117" s="7">
         <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="AA117" s="8">
+      <c r="AA117" s="7">
         <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A118" s="5">
+      <c r="A118" s="9">
         <v>45163</v>
       </c>
       <c r="B118" s="2">
@@ -10567,26 +10575,26 @@
       <c r="V118" s="3">
         <v>0.95240000000000002</v>
       </c>
-      <c r="W118" s="6">
+      <c r="W118" s="5">
         <v>20</v>
       </c>
-      <c r="X118" s="6">
+      <c r="X118" s="5">
         <v>17</v>
       </c>
-      <c r="Y118" s="6">
-        <v>3</v>
-      </c>
-      <c r="Z118" s="8">
+      <c r="Y118" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z118" s="7">
         <f t="shared" si="2"/>
         <v>0.85</v>
       </c>
-      <c r="AA118" s="8">
+      <c r="AA118" s="7">
         <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A119" s="5">
+      <c r="A119" s="9">
         <v>45164</v>
       </c>
       <c r="B119" s="2">
@@ -10652,26 +10660,26 @@
       <c r="V119" s="3">
         <v>0.6</v>
       </c>
-      <c r="W119" s="6">
-        <v>3</v>
-      </c>
-      <c r="X119" s="6">
+      <c r="W119" s="5">
+        <v>3</v>
+      </c>
+      <c r="X119" s="5">
         <v>2</v>
       </c>
-      <c r="Y119" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z119" s="8">
+      <c r="Y119" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z119" s="7">
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AA119" s="8">
+      <c r="AA119" s="7">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A120" s="5">
+      <c r="A120" s="9">
         <v>45165</v>
       </c>
       <c r="B120" s="2">
@@ -10737,26 +10745,26 @@
       <c r="V120" s="3">
         <v>1</v>
       </c>
-      <c r="W120" s="6">
+      <c r="W120" s="5">
         <v>8</v>
       </c>
-      <c r="X120" s="6">
+      <c r="X120" s="5">
         <v>8</v>
       </c>
-      <c r="Y120" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z120" s="8">
+      <c r="Y120" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z120" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AA120" s="8">
+      <c r="AA120" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A121" s="5">
+      <c r="A121" s="9">
         <v>45166</v>
       </c>
       <c r="B121" s="2">
@@ -10822,26 +10830,26 @@
       <c r="V121" s="3">
         <v>0.90910000000000002</v>
       </c>
-      <c r="W121" s="6">
+      <c r="W121" s="5">
         <v>10</v>
       </c>
-      <c r="X121" s="6">
+      <c r="X121" s="5">
         <v>4</v>
       </c>
-      <c r="Y121" s="6">
+      <c r="Y121" s="5">
         <v>6</v>
       </c>
-      <c r="Z121" s="8">
+      <c r="Z121" s="7">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="AA121" s="8">
+      <c r="AA121" s="7">
         <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A122" s="5">
+      <c r="A122" s="9">
         <v>45167</v>
       </c>
       <c r="B122" s="2">
@@ -10907,26 +10915,26 @@
       <c r="V122" s="3">
         <v>1</v>
       </c>
-      <c r="W122" s="6">
-        <v>1</v>
-      </c>
-      <c r="X122" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y122" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z122" s="8">
+      <c r="W122" s="5">
+        <v>1</v>
+      </c>
+      <c r="X122" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y122" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z122" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AA122" s="8">
+      <c r="AA122" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A123" s="5">
+      <c r="A123" s="9">
         <v>45168</v>
       </c>
       <c r="B123" s="2">
@@ -10992,26 +11000,26 @@
       <c r="V123" s="3">
         <v>0.88890000000000002</v>
       </c>
-      <c r="W123" s="6">
+      <c r="W123" s="5">
         <v>16</v>
       </c>
-      <c r="X123" s="6">
+      <c r="X123" s="5">
         <v>14</v>
       </c>
-      <c r="Y123" s="6">
+      <c r="Y123" s="5">
         <v>2</v>
       </c>
-      <c r="Z123" s="8">
+      <c r="Z123" s="7">
         <f t="shared" si="2"/>
         <v>0.875</v>
       </c>
-      <c r="AA123" s="8">
+      <c r="AA123" s="7">
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A124" s="5">
+      <c r="A124" s="9">
         <v>45169</v>
       </c>
       <c r="B124" s="2">
@@ -11077,26 +11085,26 @@
       <c r="V124" s="3">
         <v>1</v>
       </c>
-      <c r="W124" s="6">
+      <c r="W124" s="5">
         <v>4</v>
       </c>
-      <c r="X124" s="6">
-        <v>3</v>
-      </c>
-      <c r="Y124" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z124" s="8">
+      <c r="X124" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y124" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z124" s="7">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="AA124" s="8">
+      <c r="AA124" s="7">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A125" s="5">
+      <c r="A125" s="9">
         <v>45170</v>
       </c>
       <c r="B125" s="2">
@@ -11162,26 +11170,26 @@
       <c r="V125" s="3">
         <v>1</v>
       </c>
-      <c r="W125" s="6">
+      <c r="W125" s="5">
         <v>10</v>
       </c>
-      <c r="X125" s="6">
+      <c r="X125" s="5">
         <v>6</v>
       </c>
-      <c r="Y125" s="6">
+      <c r="Y125" s="5">
         <v>4</v>
       </c>
-      <c r="Z125" s="8">
+      <c r="Z125" s="7">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="AA125" s="8">
+      <c r="AA125" s="7">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A126" s="5">
+      <c r="A126" s="9">
         <v>45171</v>
       </c>
       <c r="B126" s="2">
@@ -11247,26 +11255,26 @@
       <c r="V126" s="3">
         <v>0.875</v>
       </c>
-      <c r="W126" s="6">
+      <c r="W126" s="5">
         <v>7</v>
       </c>
-      <c r="X126" s="6">
+      <c r="X126" s="5">
         <v>7</v>
       </c>
-      <c r="Y126" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z126" s="8">
+      <c r="Y126" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z126" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AA126" s="8">
+      <c r="AA126" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A127" s="5">
+      <c r="A127" s="9">
         <v>45172</v>
       </c>
       <c r="B127" s="2">
@@ -11332,26 +11340,26 @@
       <c r="V127" s="3">
         <v>1.2</v>
       </c>
-      <c r="W127" s="6">
+      <c r="W127" s="5">
         <v>6</v>
       </c>
-      <c r="X127" s="6">
+      <c r="X127" s="5">
         <v>5</v>
       </c>
-      <c r="Y127" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z127" s="8">
+      <c r="Y127" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z127" s="7">
         <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="AA127" s="8">
+      <c r="AA127" s="7">
         <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A128" s="5">
+      <c r="A128" s="9">
         <v>45173</v>
       </c>
       <c r="B128" s="2">
@@ -11417,26 +11425,26 @@
       <c r="V128" s="3">
         <v>1</v>
       </c>
-      <c r="W128" s="6">
+      <c r="W128" s="5">
         <v>4</v>
       </c>
-      <c r="X128" s="6">
+      <c r="X128" s="5">
         <v>2</v>
       </c>
-      <c r="Y128" s="6">
+      <c r="Y128" s="5">
         <v>2</v>
       </c>
-      <c r="Z128" s="8">
+      <c r="Z128" s="7">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="AA128" s="8">
+      <c r="AA128" s="7">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="129" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A129" s="5">
+      <c r="A129" s="9">
         <v>45174</v>
       </c>
       <c r="B129" s="2">
@@ -11502,26 +11510,26 @@
       <c r="V129" s="3">
         <v>0.91669999999999996</v>
       </c>
-      <c r="W129" s="6">
+      <c r="W129" s="5">
         <v>11</v>
       </c>
-      <c r="X129" s="6">
+      <c r="X129" s="5">
         <v>11</v>
       </c>
-      <c r="Y129" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z129" s="8">
+      <c r="Y129" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z129" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AA129" s="8">
+      <c r="AA129" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A130" s="5">
+      <c r="A130" s="9">
         <v>45175</v>
       </c>
       <c r="B130" s="2">
@@ -11587,26 +11595,26 @@
       <c r="V130" s="3">
         <v>1</v>
       </c>
-      <c r="W130" s="6">
-        <v>3</v>
-      </c>
-      <c r="X130" s="6">
+      <c r="W130" s="5">
+        <v>3</v>
+      </c>
+      <c r="X130" s="5">
         <v>2</v>
       </c>
-      <c r="Y130" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z130" s="8">
+      <c r="Y130" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z130" s="7">
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AA130" s="8">
+      <c r="AA130" s="7">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="131" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A131" s="5">
+      <c r="A131" s="9">
         <v>45176</v>
       </c>
       <c r="B131" s="2">
@@ -11672,26 +11680,26 @@
       <c r="V131" s="3">
         <v>0.88890000000000002</v>
       </c>
-      <c r="W131" s="6">
+      <c r="W131" s="5">
         <v>8</v>
       </c>
-      <c r="X131" s="6">
+      <c r="X131" s="5">
         <v>6</v>
       </c>
-      <c r="Y131" s="6">
+      <c r="Y131" s="5">
         <v>2</v>
       </c>
-      <c r="Z131" s="8">
+      <c r="Z131" s="7">
         <f t="shared" ref="Z131:Z154" si="4">IF(W131=0,0,X131/W131)</f>
         <v>0.75</v>
       </c>
-      <c r="AA131" s="8">
+      <c r="AA131" s="7">
         <f t="shared" ref="AA131:AA154" si="5">IF(W131=0,0,Y131/W131)</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="132" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A132" s="5">
+      <c r="A132" s="9">
         <v>45177</v>
       </c>
       <c r="B132" s="2">
@@ -11757,26 +11765,26 @@
       <c r="V132" s="3">
         <v>1</v>
       </c>
-      <c r="W132" s="6">
+      <c r="W132" s="5">
         <v>7</v>
       </c>
-      <c r="X132" s="6">
+      <c r="X132" s="5">
         <v>5</v>
       </c>
-      <c r="Y132" s="6">
+      <c r="Y132" s="5">
         <v>2</v>
       </c>
-      <c r="Z132" s="8">
+      <c r="Z132" s="7">
         <f t="shared" si="4"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="AA132" s="8">
+      <c r="AA132" s="7">
         <f t="shared" si="5"/>
         <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="133" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A133" s="5">
+      <c r="A133" s="9">
         <v>45178</v>
       </c>
       <c r="B133" s="2">
@@ -11842,26 +11850,26 @@
       <c r="V133" s="3">
         <v>1</v>
       </c>
-      <c r="W133" s="6">
+      <c r="W133" s="5">
         <v>16</v>
       </c>
-      <c r="X133" s="6">
+      <c r="X133" s="5">
         <v>13</v>
       </c>
-      <c r="Y133" s="6">
-        <v>3</v>
-      </c>
-      <c r="Z133" s="8">
+      <c r="Y133" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z133" s="7">
         <f t="shared" si="4"/>
         <v>0.8125</v>
       </c>
-      <c r="AA133" s="8">
+      <c r="AA133" s="7">
         <f t="shared" si="5"/>
         <v>0.1875</v>
       </c>
     </row>
     <row r="134" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A134" s="5">
+      <c r="A134" s="9">
         <v>45179</v>
       </c>
       <c r="B134" s="2">
@@ -11927,26 +11935,26 @@
       <c r="V134" s="3">
         <v>1</v>
       </c>
-      <c r="W134" s="6">
-        <v>3</v>
-      </c>
-      <c r="X134" s="6">
-        <v>3</v>
-      </c>
-      <c r="Y134" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z134" s="8">
+      <c r="W134" s="5">
+        <v>3</v>
+      </c>
+      <c r="X134" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y134" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z134" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AA134" s="8">
+      <c r="AA134" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A135" s="5">
+      <c r="A135" s="9">
         <v>45180</v>
       </c>
       <c r="B135" s="2">
@@ -12012,26 +12020,26 @@
       <c r="V135" s="3">
         <v>1</v>
       </c>
-      <c r="W135" s="6">
+      <c r="W135" s="5">
         <v>9</v>
       </c>
-      <c r="X135" s="6">
+      <c r="X135" s="5">
         <v>7</v>
       </c>
-      <c r="Y135" s="6">
+      <c r="Y135" s="5">
         <v>2</v>
       </c>
-      <c r="Z135" s="8">
+      <c r="Z135" s="7">
         <f t="shared" si="4"/>
         <v>0.77777777777777779</v>
       </c>
-      <c r="AA135" s="8">
+      <c r="AA135" s="7">
         <f t="shared" si="5"/>
         <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="136" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A136" s="5">
+      <c r="A136" s="9">
         <v>45181</v>
       </c>
       <c r="B136" s="2">
@@ -12097,26 +12105,26 @@
       <c r="V136" s="3">
         <v>1</v>
       </c>
-      <c r="W136" s="6">
-        <v>3</v>
-      </c>
-      <c r="X136" s="6">
+      <c r="W136" s="5">
+        <v>3</v>
+      </c>
+      <c r="X136" s="5">
         <v>2</v>
       </c>
-      <c r="Y136" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z136" s="8">
+      <c r="Y136" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z136" s="7">
         <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AA136" s="8">
+      <c r="AA136" s="7">
         <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="137" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A137" s="5">
+      <c r="A137" s="9">
         <v>45182</v>
       </c>
       <c r="B137" s="2">
@@ -12182,26 +12190,26 @@
       <c r="V137" s="3">
         <v>1</v>
       </c>
-      <c r="W137" s="6">
+      <c r="W137" s="5">
         <v>4</v>
       </c>
-      <c r="X137" s="6">
-        <v>3</v>
-      </c>
-      <c r="Y137" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z137" s="8">
+      <c r="X137" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y137" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z137" s="7">
         <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
-      <c r="AA137" s="8">
+      <c r="AA137" s="7">
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="138" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A138" s="5">
+      <c r="A138" s="9">
         <v>45183</v>
       </c>
       <c r="B138" s="2">
@@ -12267,26 +12275,26 @@
       <c r="V138" s="3">
         <v>0.92630000000000001</v>
       </c>
-      <c r="W138" s="6">
+      <c r="W138" s="5">
         <v>88</v>
       </c>
-      <c r="X138" s="6">
+      <c r="X138" s="5">
         <v>68</v>
       </c>
-      <c r="Y138" s="6">
+      <c r="Y138" s="5">
         <v>20</v>
       </c>
-      <c r="Z138" s="8">
+      <c r="Z138" s="7">
         <f t="shared" si="4"/>
         <v>0.77272727272727271</v>
       </c>
-      <c r="AA138" s="8">
+      <c r="AA138" s="7">
         <f t="shared" si="5"/>
         <v>0.22727272727272727</v>
       </c>
     </row>
     <row r="139" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A139" s="5">
+      <c r="A139" s="9">
         <v>45184</v>
       </c>
       <c r="B139" s="2">
@@ -12352,26 +12360,26 @@
       <c r="V139" s="3">
         <v>0.91220000000000001</v>
       </c>
-      <c r="W139" s="6">
+      <c r="W139" s="5">
         <v>187</v>
       </c>
-      <c r="X139" s="6">
+      <c r="X139" s="5">
         <v>168</v>
       </c>
-      <c r="Y139" s="6">
+      <c r="Y139" s="5">
         <v>19</v>
       </c>
-      <c r="Z139" s="8">
+      <c r="Z139" s="7">
         <f t="shared" si="4"/>
         <v>0.89839572192513373</v>
       </c>
-      <c r="AA139" s="8">
+      <c r="AA139" s="7">
         <f t="shared" si="5"/>
         <v>0.10160427807486631</v>
       </c>
     </row>
     <row r="140" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A140" s="5">
+      <c r="A140" s="9">
         <v>45185</v>
       </c>
       <c r="B140" s="2">
@@ -12437,26 +12445,26 @@
       <c r="V140" s="3">
         <v>2</v>
       </c>
-      <c r="W140" s="6">
+      <c r="W140" s="5">
         <v>10</v>
       </c>
-      <c r="X140" s="6">
+      <c r="X140" s="5">
         <v>9</v>
       </c>
-      <c r="Y140" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z140" s="8">
+      <c r="Y140" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z140" s="7">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="AA140" s="8">
+      <c r="AA140" s="7">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="141" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A141" s="5">
+      <c r="A141" s="9">
         <v>45186</v>
       </c>
       <c r="B141" s="2">
@@ -12522,26 +12530,26 @@
       <c r="V141" s="3">
         <v>1.6667000000000001</v>
       </c>
-      <c r="W141" s="6">
+      <c r="W141" s="5">
         <v>5</v>
       </c>
-      <c r="X141" s="6">
+      <c r="X141" s="5">
         <v>5</v>
       </c>
-      <c r="Y141" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z141" s="8">
+      <c r="Y141" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z141" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AA141" s="8">
+      <c r="AA141" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A142" s="5">
+      <c r="A142" s="9">
         <v>45187</v>
       </c>
       <c r="B142" s="2">
@@ -12607,26 +12615,26 @@
       <c r="V142" s="3">
         <v>1</v>
       </c>
-      <c r="W142" s="6">
+      <c r="W142" s="5">
         <v>2</v>
       </c>
-      <c r="X142" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y142" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z142" s="8">
+      <c r="X142" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y142" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z142" s="7">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="AA142" s="8">
+      <c r="AA142" s="7">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="143" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A143" s="5">
+      <c r="A143" s="9">
         <v>45188</v>
       </c>
       <c r="B143" s="2">
@@ -12692,26 +12700,26 @@
       <c r="V143" s="3">
         <v>1</v>
       </c>
-      <c r="W143" s="6">
+      <c r="W143" s="5">
         <v>7</v>
       </c>
-      <c r="X143" s="6">
+      <c r="X143" s="5">
         <v>6</v>
       </c>
-      <c r="Y143" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z143" s="8">
+      <c r="Y143" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z143" s="7">
         <f t="shared" si="4"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="AA143" s="8">
+      <c r="AA143" s="7">
         <f t="shared" si="5"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="144" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A144" s="5">
+      <c r="A144" s="9">
         <v>45189</v>
       </c>
       <c r="B144" s="2">
@@ -12777,26 +12785,26 @@
       <c r="V144" s="3">
         <v>0.89610000000000001</v>
       </c>
-      <c r="W144" s="6">
+      <c r="W144" s="5">
         <v>69</v>
       </c>
-      <c r="X144" s="6">
+      <c r="X144" s="5">
         <v>55</v>
       </c>
-      <c r="Y144" s="6">
+      <c r="Y144" s="5">
         <v>14</v>
       </c>
-      <c r="Z144" s="8">
+      <c r="Z144" s="7">
         <f t="shared" si="4"/>
         <v>0.79710144927536231</v>
       </c>
-      <c r="AA144" s="8">
+      <c r="AA144" s="7">
         <f t="shared" si="5"/>
         <v>0.20289855072463769</v>
       </c>
     </row>
     <row r="145" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A145" s="5">
+      <c r="A145" s="9">
         <v>45190</v>
       </c>
       <c r="B145" s="2">
@@ -12862,26 +12870,26 @@
       <c r="V145" s="3">
         <v>0.84440000000000004</v>
       </c>
-      <c r="W145" s="6">
+      <c r="W145" s="5">
         <v>38</v>
       </c>
-      <c r="X145" s="6">
+      <c r="X145" s="5">
         <v>34</v>
       </c>
-      <c r="Y145" s="6">
+      <c r="Y145" s="5">
         <v>4</v>
       </c>
-      <c r="Z145" s="8">
+      <c r="Z145" s="7">
         <f t="shared" si="4"/>
         <v>0.89473684210526316</v>
       </c>
-      <c r="AA145" s="8">
+      <c r="AA145" s="7">
         <f t="shared" si="5"/>
         <v>0.10526315789473684</v>
       </c>
     </row>
     <row r="146" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A146" s="5">
+      <c r="A146" s="9">
         <v>45191</v>
       </c>
       <c r="B146" s="2">
@@ -12947,26 +12955,26 @@
       <c r="V146" s="3">
         <v>0.85070000000000001</v>
       </c>
-      <c r="W146" s="6">
+      <c r="W146" s="5">
         <v>57</v>
       </c>
-      <c r="X146" s="6">
+      <c r="X146" s="5">
         <v>41</v>
       </c>
-      <c r="Y146" s="6">
+      <c r="Y146" s="5">
         <v>16</v>
       </c>
-      <c r="Z146" s="8">
+      <c r="Z146" s="7">
         <f t="shared" si="4"/>
         <v>0.7192982456140351</v>
       </c>
-      <c r="AA146" s="8">
+      <c r="AA146" s="7">
         <f t="shared" si="5"/>
         <v>0.2807017543859649</v>
       </c>
     </row>
     <row r="147" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A147" s="5">
+      <c r="A147" s="9">
         <v>45192</v>
       </c>
       <c r="B147" s="2">
@@ -13032,26 +13040,26 @@
       <c r="V147" s="3">
         <v>0.95650000000000002</v>
       </c>
-      <c r="W147" s="6">
+      <c r="W147" s="5">
         <v>44</v>
       </c>
-      <c r="X147" s="6">
+      <c r="X147" s="5">
         <v>32</v>
       </c>
-      <c r="Y147" s="6">
+      <c r="Y147" s="5">
         <v>12</v>
       </c>
-      <c r="Z147" s="8">
+      <c r="Z147" s="7">
         <f t="shared" si="4"/>
         <v>0.72727272727272729</v>
       </c>
-      <c r="AA147" s="8">
+      <c r="AA147" s="7">
         <f t="shared" si="5"/>
         <v>0.27272727272727271</v>
       </c>
     </row>
     <row r="148" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A148" s="5">
+      <c r="A148" s="9">
         <v>45193</v>
       </c>
       <c r="B148" s="2">
@@ -13117,26 +13125,26 @@
       <c r="V148" s="3">
         <v>0.90569999999999995</v>
       </c>
-      <c r="W148" s="6">
+      <c r="W148" s="5">
         <v>48</v>
       </c>
-      <c r="X148" s="6">
+      <c r="X148" s="5">
         <v>36</v>
       </c>
-      <c r="Y148" s="6">
+      <c r="Y148" s="5">
         <v>12</v>
       </c>
-      <c r="Z148" s="8">
+      <c r="Z148" s="7">
         <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
-      <c r="AA148" s="8">
+      <c r="AA148" s="7">
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="149" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A149" s="5">
+      <c r="A149" s="9">
         <v>45194</v>
       </c>
       <c r="B149" s="2">
@@ -13202,26 +13210,26 @@
       <c r="V149" s="3">
         <v>0.88719999999999999</v>
       </c>
-      <c r="W149" s="6">
+      <c r="W149" s="5">
         <v>236</v>
       </c>
-      <c r="X149" s="6">
+      <c r="X149" s="5">
         <v>182</v>
       </c>
-      <c r="Y149" s="6">
+      <c r="Y149" s="5">
         <v>54</v>
       </c>
-      <c r="Z149" s="8">
+      <c r="Z149" s="7">
         <f t="shared" si="4"/>
         <v>0.77118644067796616</v>
       </c>
-      <c r="AA149" s="8">
+      <c r="AA149" s="7">
         <f t="shared" si="5"/>
         <v>0.2288135593220339</v>
       </c>
     </row>
     <row r="150" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A150" s="5">
+      <c r="A150" s="9">
         <v>45195</v>
       </c>
       <c r="B150" s="2">
@@ -13287,26 +13295,26 @@
       <c r="V150" s="3">
         <v>0.93589999999999995</v>
       </c>
-      <c r="W150" s="6">
+      <c r="W150" s="5">
         <v>73</v>
       </c>
-      <c r="X150" s="6">
+      <c r="X150" s="5">
         <v>54</v>
       </c>
-      <c r="Y150" s="6">
+      <c r="Y150" s="5">
         <v>19</v>
       </c>
-      <c r="Z150" s="8">
+      <c r="Z150" s="7">
         <f t="shared" si="4"/>
         <v>0.73972602739726023</v>
       </c>
-      <c r="AA150" s="8">
+      <c r="AA150" s="7">
         <f t="shared" si="5"/>
         <v>0.26027397260273971</v>
       </c>
     </row>
     <row r="151" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A151" s="5">
+      <c r="A151" s="9">
         <v>45196</v>
       </c>
       <c r="B151" s="2">
@@ -13372,26 +13380,26 @@
       <c r="V151" s="3">
         <v>1</v>
       </c>
-      <c r="W151" s="6">
+      <c r="W151" s="5">
         <v>26</v>
       </c>
-      <c r="X151" s="6">
+      <c r="X151" s="5">
         <v>18</v>
       </c>
-      <c r="Y151" s="6">
+      <c r="Y151" s="5">
         <v>8</v>
       </c>
-      <c r="Z151" s="8">
+      <c r="Z151" s="7">
         <f t="shared" si="4"/>
         <v>0.69230769230769229</v>
       </c>
-      <c r="AA151" s="8">
+      <c r="AA151" s="7">
         <f t="shared" si="5"/>
         <v>0.30769230769230771</v>
       </c>
     </row>
     <row r="152" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A152" s="5">
+      <c r="A152" s="9">
         <v>45197</v>
       </c>
       <c r="B152" s="2">
@@ -13457,26 +13465,26 @@
       <c r="V152" s="3">
         <v>0.91669999999999996</v>
       </c>
-      <c r="W152" s="6">
+      <c r="W152" s="5">
         <v>33</v>
       </c>
-      <c r="X152" s="6">
+      <c r="X152" s="5">
         <v>27</v>
       </c>
-      <c r="Y152" s="6">
+      <c r="Y152" s="5">
         <v>6</v>
       </c>
-      <c r="Z152" s="8">
+      <c r="Z152" s="7">
         <f t="shared" si="4"/>
         <v>0.81818181818181823</v>
       </c>
-      <c r="AA152" s="8">
+      <c r="AA152" s="7">
         <f t="shared" si="5"/>
         <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="153" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A153" s="5">
+      <c r="A153" s="9">
         <v>45198</v>
       </c>
       <c r="B153" s="2">
@@ -13542,26 +13550,26 @@
       <c r="V153" s="3">
         <v>0.95240000000000002</v>
       </c>
-      <c r="W153" s="6">
+      <c r="W153" s="5">
         <v>20</v>
       </c>
-      <c r="X153" s="6">
+      <c r="X153" s="5">
         <v>15</v>
       </c>
-      <c r="Y153" s="6">
+      <c r="Y153" s="5">
         <v>5</v>
       </c>
-      <c r="Z153" s="8">
+      <c r="Z153" s="7">
         <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
-      <c r="AA153" s="8">
+      <c r="AA153" s="7">
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="154" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A154" s="5">
+      <c r="A154" s="9">
         <v>45199</v>
       </c>
       <c r="B154" s="2">
@@ -13627,20 +13635,20 @@
       <c r="V154" s="3">
         <v>1</v>
       </c>
-      <c r="W154" s="6">
+      <c r="W154" s="5">
         <v>6</v>
       </c>
-      <c r="X154" s="6">
+      <c r="X154" s="5">
         <v>4</v>
       </c>
-      <c r="Y154" s="6">
+      <c r="Y154" s="5">
         <v>2</v>
       </c>
-      <c r="Z154" s="8">
+      <c r="Z154" s="7">
         <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AA154" s="8">
+      <c r="AA154" s="7">
         <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>

--- a/MergedFile.xlsx
+++ b/MergedFile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ChiliLado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\CiliLado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E6A252-C947-47DD-9404-BB069FBDB725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9627A1E2-4341-43B3-9938-C2FBE14A6BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,7 +121,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[$-14409]yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="[$-14409]yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -196,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -209,11 +209,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,16 +560,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA154"/>
+  <dimension ref="A1:AA185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y162" sqref="Y162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="10" customWidth="1"/>
-    <col min="2" max="23" width="12" customWidth="1"/>
+    <col min="2" max="19" width="12" customWidth="1"/>
+    <col min="20" max="20" width="12" style="13" customWidth="1"/>
+    <col min="21" max="23" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -623,7 +632,7 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="11" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
@@ -706,7 +715,7 @@
       <c r="S2" s="2">
         <v>0</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="12">
         <v>0</v>
       </c>
       <c r="U2" s="3">
@@ -791,7 +800,7 @@
       <c r="S3" s="2">
         <v>1</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="12">
         <v>58.9</v>
       </c>
       <c r="U3" s="3">
@@ -876,7 +885,7 @@
       <c r="S4" s="2">
         <v>0</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="12">
         <v>0</v>
       </c>
       <c r="U4" s="3">
@@ -961,7 +970,7 @@
       <c r="S5" s="2">
         <v>0</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="12">
         <v>0</v>
       </c>
       <c r="U5" s="3">
@@ -1046,7 +1055,7 @@
       <c r="S6" s="2">
         <v>0</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="12">
         <v>0</v>
       </c>
       <c r="U6" s="3">
@@ -1131,7 +1140,7 @@
       <c r="S7" s="2">
         <v>0</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="12">
         <v>0</v>
       </c>
       <c r="U7" s="3">
@@ -1216,7 +1225,7 @@
       <c r="S8" s="2">
         <v>0</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="12">
         <v>0</v>
       </c>
       <c r="U8" s="3">
@@ -1301,7 +1310,7 @@
       <c r="S9" s="2">
         <v>0</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T9" s="12">
         <v>0</v>
       </c>
       <c r="U9" s="3">
@@ -1386,7 +1395,7 @@
       <c r="S10" s="2">
         <v>0</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T10" s="12">
         <v>0</v>
       </c>
       <c r="U10" s="3">
@@ -1471,7 +1480,7 @@
       <c r="S11" s="2">
         <v>0</v>
       </c>
-      <c r="T11" s="2">
+      <c r="T11" s="12">
         <v>0</v>
       </c>
       <c r="U11" s="3">
@@ -1556,7 +1565,7 @@
       <c r="S12" s="2">
         <v>1</v>
       </c>
-      <c r="T12" s="2">
+      <c r="T12" s="12">
         <v>51.9</v>
       </c>
       <c r="U12" s="3">
@@ -1641,7 +1650,7 @@
       <c r="S13" s="2">
         <v>0</v>
       </c>
-      <c r="T13" s="2">
+      <c r="T13" s="12">
         <v>0</v>
       </c>
       <c r="U13" s="3">
@@ -1726,7 +1735,7 @@
       <c r="S14" s="2">
         <v>0</v>
       </c>
-      <c r="T14" s="2">
+      <c r="T14" s="12">
         <v>0</v>
       </c>
       <c r="U14" s="3">
@@ -1811,7 +1820,7 @@
       <c r="S15" s="2">
         <v>1</v>
       </c>
-      <c r="T15" s="2">
+      <c r="T15" s="12">
         <v>113.4</v>
       </c>
       <c r="U15" s="3">
@@ -1896,7 +1905,7 @@
       <c r="S16" s="2">
         <v>1</v>
       </c>
-      <c r="T16" s="2">
+      <c r="T16" s="12">
         <v>17.899999999999999</v>
       </c>
       <c r="U16" s="3">
@@ -1981,7 +1990,7 @@
       <c r="S17" s="2">
         <v>0</v>
       </c>
-      <c r="T17" s="2">
+      <c r="T17" s="12">
         <v>0</v>
       </c>
       <c r="U17" s="3">
@@ -2066,7 +2075,7 @@
       <c r="S18" s="2">
         <v>1</v>
       </c>
-      <c r="T18" s="2">
+      <c r="T18" s="12">
         <v>17.899999999999999</v>
       </c>
       <c r="U18" s="3">
@@ -2151,7 +2160,7 @@
       <c r="S19" s="2">
         <v>0</v>
       </c>
-      <c r="T19" s="2">
+      <c r="T19" s="12">
         <v>0</v>
       </c>
       <c r="U19" s="3">
@@ -2236,7 +2245,7 @@
       <c r="S20" s="2">
         <v>0</v>
       </c>
-      <c r="T20" s="2">
+      <c r="T20" s="12">
         <v>0</v>
       </c>
       <c r="U20" s="3">
@@ -2321,7 +2330,7 @@
       <c r="S21" s="2">
         <v>0</v>
       </c>
-      <c r="T21" s="2">
+      <c r="T21" s="12">
         <v>0</v>
       </c>
       <c r="U21" s="3">
@@ -2406,7 +2415,7 @@
       <c r="S22" s="2">
         <v>0</v>
       </c>
-      <c r="T22" s="2">
+      <c r="T22" s="12">
         <v>0</v>
       </c>
       <c r="U22" s="3">
@@ -2491,7 +2500,7 @@
       <c r="S23" s="2">
         <v>0</v>
       </c>
-      <c r="T23" s="2">
+      <c r="T23" s="12">
         <v>0</v>
       </c>
       <c r="U23" s="3">
@@ -2576,7 +2585,7 @@
       <c r="S24" s="2">
         <v>0</v>
       </c>
-      <c r="T24" s="2">
+      <c r="T24" s="12">
         <v>0</v>
       </c>
       <c r="U24" s="3">
@@ -2661,7 +2670,7 @@
       <c r="S25" s="2">
         <v>0</v>
       </c>
-      <c r="T25" s="2">
+      <c r="T25" s="12">
         <v>0</v>
       </c>
       <c r="U25" s="3">
@@ -2746,7 +2755,7 @@
       <c r="S26" s="2">
         <v>0</v>
       </c>
-      <c r="T26" s="2">
+      <c r="T26" s="12">
         <v>0</v>
       </c>
       <c r="U26" s="3">
@@ -2831,7 +2840,7 @@
       <c r="S27" s="2">
         <v>0</v>
       </c>
-      <c r="T27" s="2">
+      <c r="T27" s="12">
         <v>0</v>
       </c>
       <c r="U27" s="3">
@@ -2916,7 +2925,7 @@
       <c r="S28" s="2">
         <v>0</v>
       </c>
-      <c r="T28" s="2">
+      <c r="T28" s="12">
         <v>0</v>
       </c>
       <c r="U28" s="3">
@@ -3001,7 +3010,7 @@
       <c r="S29" s="2">
         <v>1</v>
       </c>
-      <c r="T29" s="2">
+      <c r="T29" s="12">
         <v>22.9</v>
       </c>
       <c r="U29" s="3">
@@ -3086,7 +3095,7 @@
       <c r="S30" s="2">
         <v>0</v>
       </c>
-      <c r="T30" s="2">
+      <c r="T30" s="12">
         <v>0</v>
       </c>
       <c r="U30" s="3">
@@ -3171,7 +3180,7 @@
       <c r="S31" s="2">
         <v>0</v>
       </c>
-      <c r="T31" s="2">
+      <c r="T31" s="12">
         <v>0</v>
       </c>
       <c r="U31" s="3">
@@ -3256,7 +3265,7 @@
       <c r="S32" s="2">
         <v>0</v>
       </c>
-      <c r="T32" s="2">
+      <c r="T32" s="12">
         <v>0</v>
       </c>
       <c r="U32" s="3">
@@ -3341,7 +3350,7 @@
       <c r="S33" s="2">
         <v>0</v>
       </c>
-      <c r="T33" s="2">
+      <c r="T33" s="12">
         <v>0</v>
       </c>
       <c r="U33" s="3">
@@ -3426,7 +3435,7 @@
       <c r="S34" s="2">
         <v>0</v>
       </c>
-      <c r="T34" s="2">
+      <c r="T34" s="12">
         <v>0</v>
       </c>
       <c r="U34" s="3">
@@ -3511,7 +3520,7 @@
       <c r="S35" s="2">
         <v>0</v>
       </c>
-      <c r="T35" s="2">
+      <c r="T35" s="12">
         <v>0</v>
       </c>
       <c r="U35" s="3">
@@ -3596,7 +3605,7 @@
       <c r="S36" s="2">
         <v>0</v>
       </c>
-      <c r="T36" s="2">
+      <c r="T36" s="12">
         <v>0</v>
       </c>
       <c r="U36" s="3">
@@ -3681,7 +3690,7 @@
       <c r="S37" s="2">
         <v>1</v>
       </c>
-      <c r="T37" s="2">
+      <c r="T37" s="12">
         <v>22.9</v>
       </c>
       <c r="U37" s="3">
@@ -3766,7 +3775,7 @@
       <c r="S38" s="2">
         <v>0</v>
       </c>
-      <c r="T38" s="2">
+      <c r="T38" s="12">
         <v>0</v>
       </c>
       <c r="U38" s="3">
@@ -3851,7 +3860,7 @@
       <c r="S39" s="2">
         <v>0</v>
       </c>
-      <c r="T39" s="2">
+      <c r="T39" s="12">
         <v>0</v>
       </c>
       <c r="U39" s="3">
@@ -3936,7 +3945,7 @@
       <c r="S40" s="2">
         <v>0</v>
       </c>
-      <c r="T40" s="2">
+      <c r="T40" s="12">
         <v>0</v>
       </c>
       <c r="U40" s="3">
@@ -4021,7 +4030,7 @@
       <c r="S41" s="2">
         <v>0</v>
       </c>
-      <c r="T41" s="2">
+      <c r="T41" s="12">
         <v>0</v>
       </c>
       <c r="U41" s="3">
@@ -4106,7 +4115,7 @@
       <c r="S42" s="2">
         <v>0</v>
       </c>
-      <c r="T42" s="2">
+      <c r="T42" s="12">
         <v>0</v>
       </c>
       <c r="U42" s="3">
@@ -4191,7 +4200,7 @@
       <c r="S43" s="2">
         <v>0</v>
       </c>
-      <c r="T43" s="2">
+      <c r="T43" s="12">
         <v>0</v>
       </c>
       <c r="U43" s="3">
@@ -4276,7 +4285,7 @@
       <c r="S44" s="2">
         <v>0</v>
       </c>
-      <c r="T44" s="2">
+      <c r="T44" s="12">
         <v>0</v>
       </c>
       <c r="U44" s="3">
@@ -4361,7 +4370,7 @@
       <c r="S45" s="2">
         <v>0</v>
       </c>
-      <c r="T45" s="2">
+      <c r="T45" s="12">
         <v>0</v>
       </c>
       <c r="U45" s="3">
@@ -4446,7 +4455,7 @@
       <c r="S46" s="2">
         <v>0</v>
       </c>
-      <c r="T46" s="2">
+      <c r="T46" s="12">
         <v>0</v>
       </c>
       <c r="U46" s="3">
@@ -4531,7 +4540,7 @@
       <c r="S47" s="2">
         <v>0</v>
       </c>
-      <c r="T47" s="2">
+      <c r="T47" s="12">
         <v>0</v>
       </c>
       <c r="U47" s="3">
@@ -4616,7 +4625,7 @@
       <c r="S48" s="2">
         <v>0</v>
       </c>
-      <c r="T48" s="2">
+      <c r="T48" s="12">
         <v>0</v>
       </c>
       <c r="U48" s="3">
@@ -4701,7 +4710,7 @@
       <c r="S49" s="2">
         <v>1</v>
       </c>
-      <c r="T49" s="2">
+      <c r="T49" s="12">
         <v>81.8</v>
       </c>
       <c r="U49" s="3">
@@ -4786,7 +4795,7 @@
       <c r="S50" s="2">
         <v>1</v>
       </c>
-      <c r="T50" s="2">
+      <c r="T50" s="12">
         <v>40.9</v>
       </c>
       <c r="U50" s="3">
@@ -4871,7 +4880,7 @@
       <c r="S51" s="2">
         <v>2</v>
       </c>
-      <c r="T51" s="2">
+      <c r="T51" s="12">
         <v>823.2</v>
       </c>
       <c r="U51" s="3">
@@ -4956,7 +4965,7 @@
       <c r="S52" s="2">
         <v>1</v>
       </c>
-      <c r="T52" s="2">
+      <c r="T52" s="12">
         <v>456.85</v>
       </c>
       <c r="U52" s="3">
@@ -5041,7 +5050,7 @@
       <c r="S53" s="2">
         <v>2</v>
       </c>
-      <c r="T53" s="2">
+      <c r="T53" s="12">
         <v>921.97</v>
       </c>
       <c r="U53" s="3">
@@ -5126,7 +5135,7 @@
       <c r="S54" s="2">
         <v>2</v>
       </c>
-      <c r="T54" s="4">
+      <c r="T54" s="12">
         <v>1491.01</v>
       </c>
       <c r="U54" s="3">
@@ -5211,7 +5220,7 @@
       <c r="S55" s="2">
         <v>2</v>
       </c>
-      <c r="T55" s="4">
+      <c r="T55" s="12">
         <v>1444.74</v>
       </c>
       <c r="U55" s="3">
@@ -5296,7 +5305,7 @@
       <c r="S56" s="2">
         <v>2</v>
       </c>
-      <c r="T56" s="4">
+      <c r="T56" s="12">
         <v>1275.9000000000001</v>
       </c>
       <c r="U56" s="3">
@@ -5381,7 +5390,7 @@
       <c r="S57" s="2">
         <v>1</v>
       </c>
-      <c r="T57" s="2">
+      <c r="T57" s="12">
         <v>572.87</v>
       </c>
       <c r="U57" s="3">
@@ -5466,7 +5475,7 @@
       <c r="S58" s="2">
         <v>1</v>
       </c>
-      <c r="T58" s="2">
+      <c r="T58" s="12">
         <v>324.10000000000002</v>
       </c>
       <c r="U58" s="3">
@@ -5551,7 +5560,7 @@
       <c r="S59" s="2">
         <v>2</v>
       </c>
-      <c r="T59" s="2">
+      <c r="T59" s="12">
         <v>306.10000000000002</v>
       </c>
       <c r="U59" s="3">
@@ -5636,7 +5645,7 @@
       <c r="S60" s="2">
         <v>1</v>
       </c>
-      <c r="T60" s="2">
+      <c r="T60" s="12">
         <v>153.6</v>
       </c>
       <c r="U60" s="3">
@@ -5721,7 +5730,7 @@
       <c r="S61" s="2">
         <v>1</v>
       </c>
-      <c r="T61" s="2">
+      <c r="T61" s="12">
         <v>331.83</v>
       </c>
       <c r="U61" s="3">
@@ -5806,7 +5815,7 @@
       <c r="S62" s="2">
         <v>1</v>
       </c>
-      <c r="T62" s="2">
+      <c r="T62" s="12">
         <v>501</v>
       </c>
       <c r="U62" s="3">
@@ -5891,7 +5900,7 @@
       <c r="S63" s="2">
         <v>1</v>
       </c>
-      <c r="T63" s="2">
+      <c r="T63" s="12">
         <v>623.29999999999995</v>
       </c>
       <c r="U63" s="3">
@@ -5976,7 +5985,7 @@
       <c r="S64" s="2">
         <v>2</v>
       </c>
-      <c r="T64" s="2">
+      <c r="T64" s="12">
         <v>287.7</v>
       </c>
       <c r="U64" s="3">
@@ -6061,7 +6070,7 @@
       <c r="S65" s="2">
         <v>1</v>
       </c>
-      <c r="T65" s="2">
+      <c r="T65" s="12">
         <v>22.9</v>
       </c>
       <c r="U65" s="3">
@@ -6146,7 +6155,7 @@
       <c r="S66" s="2">
         <v>0</v>
       </c>
-      <c r="T66" s="2">
+      <c r="T66" s="12">
         <v>0</v>
       </c>
       <c r="U66" s="3">
@@ -6231,7 +6240,7 @@
       <c r="S67" s="2">
         <v>0</v>
       </c>
-      <c r="T67" s="2">
+      <c r="T67" s="12">
         <v>0</v>
       </c>
       <c r="U67" s="3">
@@ -6316,7 +6325,7 @@
       <c r="S68" s="2">
         <v>0</v>
       </c>
-      <c r="T68" s="2">
+      <c r="T68" s="12">
         <v>0</v>
       </c>
       <c r="U68" s="3">
@@ -6401,7 +6410,7 @@
       <c r="S69" s="2">
         <v>0</v>
       </c>
-      <c r="T69" s="2">
+      <c r="T69" s="12">
         <v>0</v>
       </c>
       <c r="U69" s="3">
@@ -6486,7 +6495,7 @@
       <c r="S70" s="2">
         <v>0</v>
       </c>
-      <c r="T70" s="2">
+      <c r="T70" s="12">
         <v>0</v>
       </c>
       <c r="U70" s="3">
@@ -6571,7 +6580,7 @@
       <c r="S71" s="2">
         <v>0</v>
       </c>
-      <c r="T71" s="2">
+      <c r="T71" s="12">
         <v>0</v>
       </c>
       <c r="U71" s="3">
@@ -6656,7 +6665,7 @@
       <c r="S72" s="2">
         <v>2</v>
       </c>
-      <c r="T72" s="4">
+      <c r="T72" s="12">
         <v>2256.1</v>
       </c>
       <c r="U72" s="3">
@@ -6741,7 +6750,7 @@
       <c r="S73" s="2">
         <v>1</v>
       </c>
-      <c r="T73" s="4">
+      <c r="T73" s="12">
         <v>1802.29</v>
       </c>
       <c r="U73" s="3">
@@ -6826,7 +6835,7 @@
       <c r="S74" s="2">
         <v>1</v>
       </c>
-      <c r="T74" s="2">
+      <c r="T74" s="12">
         <v>255.2</v>
       </c>
       <c r="U74" s="3">
@@ -6911,7 +6920,7 @@
       <c r="S75" s="2">
         <v>1</v>
       </c>
-      <c r="T75" s="4">
+      <c r="T75" s="12">
         <v>1086.8</v>
       </c>
       <c r="U75" s="3">
@@ -6996,7 +7005,7 @@
       <c r="S76" s="2">
         <v>1</v>
       </c>
-      <c r="T76" s="2">
+      <c r="T76" s="12">
         <v>340.5</v>
       </c>
       <c r="U76" s="3">
@@ -7081,7 +7090,7 @@
       <c r="S77" s="2">
         <v>1</v>
       </c>
-      <c r="T77" s="2">
+      <c r="T77" s="12">
         <v>554.66999999999996</v>
       </c>
       <c r="U77" s="3">
@@ -7166,7 +7175,7 @@
       <c r="S78" s="2">
         <v>1</v>
       </c>
-      <c r="T78" s="2">
+      <c r="T78" s="12">
         <v>264.5</v>
       </c>
       <c r="U78" s="3">
@@ -7251,7 +7260,7 @@
       <c r="S79" s="2">
         <v>1</v>
       </c>
-      <c r="T79" s="2">
+      <c r="T79" s="12">
         <v>296.10000000000002</v>
       </c>
       <c r="U79" s="3">
@@ -7336,7 +7345,7 @@
       <c r="S80" s="2">
         <v>1</v>
       </c>
-      <c r="T80" s="2">
+      <c r="T80" s="12">
         <v>500.26</v>
       </c>
       <c r="U80" s="3">
@@ -7421,7 +7430,7 @@
       <c r="S81" s="2">
         <v>1</v>
       </c>
-      <c r="T81" s="2">
+      <c r="T81" s="12">
         <v>268.3</v>
       </c>
       <c r="U81" s="3">
@@ -7506,7 +7515,7 @@
       <c r="S82" s="2">
         <v>1</v>
       </c>
-      <c r="T82" s="2">
+      <c r="T82" s="12">
         <v>521.66999999999996</v>
       </c>
       <c r="U82" s="3">
@@ -7591,7 +7600,7 @@
       <c r="S83" s="2">
         <v>1</v>
       </c>
-      <c r="T83" s="2">
+      <c r="T83" s="12">
         <v>344.5</v>
       </c>
       <c r="U83" s="3">
@@ -7676,7 +7685,7 @@
       <c r="S84" s="2">
         <v>1</v>
       </c>
-      <c r="T84" s="2">
+      <c r="T84" s="12">
         <v>171.6</v>
       </c>
       <c r="U84" s="3">
@@ -7761,7 +7770,7 @@
       <c r="S85" s="2">
         <v>1</v>
       </c>
-      <c r="T85" s="2">
+      <c r="T85" s="12">
         <v>503.52</v>
       </c>
       <c r="U85" s="3">
@@ -7846,7 +7855,7 @@
       <c r="S86" s="2">
         <v>1</v>
       </c>
-      <c r="T86" s="2">
+      <c r="T86" s="12">
         <v>720.53</v>
       </c>
       <c r="U86" s="3">
@@ -7931,7 +7940,7 @@
       <c r="S87" s="2">
         <v>1</v>
       </c>
-      <c r="T87" s="2">
+      <c r="T87" s="12">
         <v>372.86</v>
       </c>
       <c r="U87" s="3">
@@ -8016,7 +8025,7 @@
       <c r="S88" s="2">
         <v>1</v>
       </c>
-      <c r="T88" s="2">
+      <c r="T88" s="12">
         <v>626.54999999999995</v>
       </c>
       <c r="U88" s="3">
@@ -8101,7 +8110,7 @@
       <c r="S89" s="2">
         <v>1</v>
       </c>
-      <c r="T89" s="2">
+      <c r="T89" s="12">
         <v>145.6</v>
       </c>
       <c r="U89" s="3">
@@ -8186,7 +8195,7 @@
       <c r="S90" s="2">
         <v>1</v>
       </c>
-      <c r="T90" s="2">
+      <c r="T90" s="12">
         <v>458.19</v>
       </c>
       <c r="U90" s="3">
@@ -8271,7 +8280,7 @@
       <c r="S91" s="2">
         <v>1</v>
       </c>
-      <c r="T91" s="2">
+      <c r="T91" s="12">
         <v>218.9</v>
       </c>
       <c r="U91" s="3">
@@ -8356,7 +8365,7 @@
       <c r="S92" s="2">
         <v>1</v>
       </c>
-      <c r="T92" s="2">
+      <c r="T92" s="12">
         <v>63.8</v>
       </c>
       <c r="U92" s="3">
@@ -8441,7 +8450,7 @@
       <c r="S93" s="2">
         <v>1</v>
       </c>
-      <c r="T93" s="2">
+      <c r="T93" s="12">
         <v>224.5</v>
       </c>
       <c r="U93" s="3">
@@ -8526,7 +8535,7 @@
       <c r="S94" s="2">
         <v>1</v>
       </c>
-      <c r="T94" s="2">
+      <c r="T94" s="12">
         <v>180.3</v>
       </c>
       <c r="U94" s="3">
@@ -8611,7 +8620,7 @@
       <c r="S95" s="2">
         <v>1</v>
       </c>
-      <c r="T95" s="2">
+      <c r="T95" s="12">
         <v>449.9</v>
       </c>
       <c r="U95" s="3">
@@ -8696,7 +8705,7 @@
       <c r="S96" s="2">
         <v>1</v>
       </c>
-      <c r="T96" s="2">
+      <c r="T96" s="12">
         <v>135.75</v>
       </c>
       <c r="U96" s="3">
@@ -8781,7 +8790,7 @@
       <c r="S97" s="2">
         <v>1</v>
       </c>
-      <c r="T97" s="2">
+      <c r="T97" s="12">
         <v>197.55</v>
       </c>
       <c r="U97" s="3">
@@ -8866,7 +8875,7 @@
       <c r="S98" s="2">
         <v>1</v>
       </c>
-      <c r="T98" s="2">
+      <c r="T98" s="12">
         <v>166.7</v>
       </c>
       <c r="U98" s="3">
@@ -8951,7 +8960,7 @@
       <c r="S99" s="2">
         <v>1</v>
       </c>
-      <c r="T99" s="2">
+      <c r="T99" s="12">
         <v>199.6</v>
       </c>
       <c r="U99" s="3">
@@ -9036,7 +9045,7 @@
       <c r="S100" s="2">
         <v>1</v>
       </c>
-      <c r="T100" s="2">
+      <c r="T100" s="12">
         <v>295.33</v>
       </c>
       <c r="U100" s="3">
@@ -9121,7 +9130,7 @@
       <c r="S101" s="2">
         <v>1</v>
       </c>
-      <c r="T101" s="2">
+      <c r="T101" s="12">
         <v>539.86</v>
       </c>
       <c r="U101" s="3">
@@ -9206,7 +9215,7 @@
       <c r="S102" s="2">
         <v>1</v>
       </c>
-      <c r="T102" s="2">
+      <c r="T102" s="12">
         <v>114.9</v>
       </c>
       <c r="U102" s="3">
@@ -9291,7 +9300,7 @@
       <c r="S103" s="2">
         <v>1</v>
       </c>
-      <c r="T103" s="2">
+      <c r="T103" s="12">
         <v>76.900000000000006</v>
       </c>
       <c r="U103" s="3">
@@ -9376,7 +9385,7 @@
       <c r="S104" s="2">
         <v>1</v>
       </c>
-      <c r="T104" s="2">
+      <c r="T104" s="12">
         <v>106.79</v>
       </c>
       <c r="U104" s="3">
@@ -9461,7 +9470,7 @@
       <c r="S105" s="2">
         <v>1</v>
       </c>
-      <c r="T105" s="2">
+      <c r="T105" s="12">
         <v>130.9</v>
       </c>
       <c r="U105" s="3">
@@ -9546,7 +9555,7 @@
       <c r="S106" s="2">
         <v>1</v>
       </c>
-      <c r="T106" s="2">
+      <c r="T106" s="12">
         <v>40.9</v>
       </c>
       <c r="U106" s="3">
@@ -9631,7 +9640,7 @@
       <c r="S107" s="2">
         <v>1</v>
       </c>
-      <c r="T107" s="2">
+      <c r="T107" s="12">
         <v>629.39</v>
       </c>
       <c r="U107" s="3">
@@ -9716,7 +9725,7 @@
       <c r="S108" s="2">
         <v>1</v>
       </c>
-      <c r="T108" s="2">
+      <c r="T108" s="12">
         <v>128.82</v>
       </c>
       <c r="U108" s="3">
@@ -9801,7 +9810,7 @@
       <c r="S109" s="2">
         <v>1</v>
       </c>
-      <c r="T109" s="2">
+      <c r="T109" s="12">
         <v>171.8</v>
       </c>
       <c r="U109" s="3">
@@ -9886,7 +9895,7 @@
       <c r="S110" s="2">
         <v>1</v>
       </c>
-      <c r="T110" s="2">
+      <c r="T110" s="12">
         <v>144</v>
       </c>
       <c r="U110" s="3">
@@ -9971,7 +9980,7 @@
       <c r="S111" s="2">
         <v>1</v>
       </c>
-      <c r="T111" s="2">
+      <c r="T111" s="12">
         <v>130.30000000000001</v>
       </c>
       <c r="U111" s="3">
@@ -10056,7 +10065,7 @@
       <c r="S112" s="2">
         <v>1</v>
       </c>
-      <c r="T112" s="2">
+      <c r="T112" s="12">
         <v>112.9</v>
       </c>
       <c r="U112" s="3">
@@ -10141,7 +10150,7 @@
       <c r="S113" s="2">
         <v>1</v>
       </c>
-      <c r="T113" s="2">
+      <c r="T113" s="12">
         <v>144</v>
       </c>
       <c r="U113" s="3">
@@ -10226,7 +10235,7 @@
       <c r="S114" s="2">
         <v>1</v>
       </c>
-      <c r="T114" s="2">
+      <c r="T114" s="12">
         <v>45.8</v>
       </c>
       <c r="U114" s="3">
@@ -10311,7 +10320,7 @@
       <c r="S115" s="2">
         <v>1</v>
       </c>
-      <c r="T115" s="2">
+      <c r="T115" s="12">
         <v>158.69999999999999</v>
       </c>
       <c r="U115" s="3">
@@ -10396,7 +10405,7 @@
       <c r="S116" s="2">
         <v>1</v>
       </c>
-      <c r="T116" s="2">
+      <c r="T116" s="12">
         <v>854.55</v>
       </c>
       <c r="U116" s="3">
@@ -10481,7 +10490,7 @@
       <c r="S117" s="2">
         <v>1</v>
       </c>
-      <c r="T117" s="2">
+      <c r="T117" s="12">
         <v>171.8</v>
       </c>
       <c r="U117" s="3">
@@ -10566,7 +10575,7 @@
       <c r="S118" s="2">
         <v>1</v>
       </c>
-      <c r="T118" s="2">
+      <c r="T118" s="12">
         <v>758.45</v>
       </c>
       <c r="U118" s="3">
@@ -10651,7 +10660,7 @@
       <c r="S119" s="2">
         <v>1</v>
       </c>
-      <c r="T119" s="2">
+      <c r="T119" s="12">
         <v>111.05</v>
       </c>
       <c r="U119" s="3">
@@ -10736,7 +10745,7 @@
       <c r="S120" s="2">
         <v>1</v>
       </c>
-      <c r="T120" s="2">
+      <c r="T120" s="12">
         <v>247.23</v>
       </c>
       <c r="U120" s="3">
@@ -10821,7 +10830,7 @@
       <c r="S121" s="2">
         <v>1</v>
       </c>
-      <c r="T121" s="2">
+      <c r="T121" s="12">
         <v>359.27</v>
       </c>
       <c r="U121" s="3">
@@ -10906,7 +10915,7 @@
       <c r="S122" s="2">
         <v>1</v>
       </c>
-      <c r="T122" s="2">
+      <c r="T122" s="12">
         <v>51.4</v>
       </c>
       <c r="U122" s="3">
@@ -10991,7 +11000,7 @@
       <c r="S123" s="2">
         <v>1</v>
       </c>
-      <c r="T123" s="2">
+      <c r="T123" s="12">
         <v>630.76</v>
       </c>
       <c r="U123" s="3">
@@ -11076,7 +11085,7 @@
       <c r="S124" s="2">
         <v>1</v>
       </c>
-      <c r="T124" s="2">
+      <c r="T124" s="12">
         <v>163.57</v>
       </c>
       <c r="U124" s="3">
@@ -11161,7 +11170,7 @@
       <c r="S125" s="2">
         <v>1</v>
       </c>
-      <c r="T125" s="2">
+      <c r="T125" s="12">
         <v>372.52</v>
       </c>
       <c r="U125" s="3">
@@ -11246,7 +11255,7 @@
       <c r="S126" s="2">
         <v>1</v>
       </c>
-      <c r="T126" s="2">
+      <c r="T126" s="12">
         <v>372.5</v>
       </c>
       <c r="U126" s="3">
@@ -11331,7 +11340,7 @@
       <c r="S127" s="2">
         <v>1</v>
       </c>
-      <c r="T127" s="2">
+      <c r="T127" s="12">
         <v>271.39</v>
       </c>
       <c r="U127" s="3">
@@ -11416,7 +11425,7 @@
       <c r="S128" s="2">
         <v>1</v>
       </c>
-      <c r="T128" s="2">
+      <c r="T128" s="12">
         <v>118.57</v>
       </c>
       <c r="U128" s="3">
@@ -11501,7 +11510,7 @@
       <c r="S129" s="2">
         <v>1</v>
       </c>
-      <c r="T129" s="2">
+      <c r="T129" s="12">
         <v>340.7</v>
       </c>
       <c r="U129" s="3">
@@ -11586,7 +11595,7 @@
       <c r="S130" s="2">
         <v>1</v>
       </c>
-      <c r="T130" s="2">
+      <c r="T130" s="12">
         <v>104.7</v>
       </c>
       <c r="U130" s="3">
@@ -11671,7 +11680,7 @@
       <c r="S131" s="2">
         <v>1</v>
       </c>
-      <c r="T131" s="2">
+      <c r="T131" s="12">
         <v>377.18</v>
       </c>
       <c r="U131" s="3">
@@ -11756,7 +11765,7 @@
       <c r="S132" s="2">
         <v>1</v>
       </c>
-      <c r="T132" s="2">
+      <c r="T132" s="12">
         <v>227.36</v>
       </c>
       <c r="U132" s="3">
@@ -11841,7 +11850,7 @@
       <c r="S133" s="2">
         <v>1</v>
       </c>
-      <c r="T133" s="2">
+      <c r="T133" s="12">
         <v>530.83000000000004</v>
       </c>
       <c r="U133" s="3">
@@ -11926,7 +11935,7 @@
       <c r="S134" s="2">
         <v>1</v>
       </c>
-      <c r="T134" s="2">
+      <c r="T134" s="12">
         <v>104.21</v>
       </c>
       <c r="U134" s="3">
@@ -12011,7 +12020,7 @@
       <c r="S135" s="2">
         <v>1</v>
       </c>
-      <c r="T135" s="2">
+      <c r="T135" s="12">
         <v>276.62</v>
       </c>
       <c r="U135" s="3">
@@ -12096,7 +12105,7 @@
       <c r="S136" s="2">
         <v>1</v>
       </c>
-      <c r="T136" s="2">
+      <c r="T136" s="12">
         <v>150.94</v>
       </c>
       <c r="U136" s="3">
@@ -12181,7 +12190,7 @@
       <c r="S137" s="2">
         <v>1</v>
       </c>
-      <c r="T137" s="2">
+      <c r="T137" s="12">
         <v>145.6</v>
       </c>
       <c r="U137" s="3">
@@ -12266,7 +12275,7 @@
       <c r="S138" s="2">
         <v>1</v>
       </c>
-      <c r="T138" s="4">
+      <c r="T138" s="12">
         <v>1680.87</v>
       </c>
       <c r="U138" s="3">
@@ -12351,7 +12360,7 @@
       <c r="S139" s="2">
         <v>1</v>
       </c>
-      <c r="T139" s="4">
+      <c r="T139" s="12">
         <v>3252.82</v>
       </c>
       <c r="U139" s="3">
@@ -12436,7 +12445,7 @@
       <c r="S140" s="2">
         <v>1</v>
       </c>
-      <c r="T140" s="2">
+      <c r="T140" s="12">
         <v>193.54</v>
       </c>
       <c r="U140" s="3">
@@ -12521,7 +12530,7 @@
       <c r="S141" s="2">
         <v>1</v>
       </c>
-      <c r="T141" s="2">
+      <c r="T141" s="12">
         <v>112.7</v>
       </c>
       <c r="U141" s="3">
@@ -12606,7 +12615,7 @@
       <c r="S142" s="2">
         <v>1</v>
       </c>
-      <c r="T142" s="2">
+      <c r="T142" s="12">
         <v>63.77</v>
       </c>
       <c r="U142" s="3">
@@ -12691,7 +12700,7 @@
       <c r="S143" s="2">
         <v>1</v>
       </c>
-      <c r="T143" s="2">
+      <c r="T143" s="12">
         <v>217.13</v>
       </c>
       <c r="U143" s="3">
@@ -12776,7 +12785,7 @@
       <c r="S144" s="2">
         <v>1</v>
       </c>
-      <c r="T144" s="4">
+      <c r="T144" s="12">
         <v>1274.22</v>
       </c>
       <c r="U144" s="3">
@@ -12861,7 +12870,7 @@
       <c r="S145" s="2">
         <v>1</v>
       </c>
-      <c r="T145" s="2">
+      <c r="T145" s="12">
         <v>695.25</v>
       </c>
       <c r="U145" s="3">
@@ -12946,7 +12955,7 @@
       <c r="S146" s="2">
         <v>1</v>
       </c>
-      <c r="T146" s="2">
+      <c r="T146" s="12">
         <v>952.79</v>
       </c>
       <c r="U146" s="3">
@@ -13031,7 +13040,7 @@
       <c r="S147" s="2">
         <v>1</v>
       </c>
-      <c r="T147" s="2">
+      <c r="T147" s="12">
         <v>794.69</v>
       </c>
       <c r="U147" s="3">
@@ -13116,7 +13125,7 @@
       <c r="S148" s="2">
         <v>1</v>
       </c>
-      <c r="T148" s="2">
+      <c r="T148" s="12">
         <v>965.29</v>
       </c>
       <c r="U148" s="3">
@@ -13201,7 +13210,7 @@
       <c r="S149" s="2">
         <v>1</v>
       </c>
-      <c r="T149" s="4">
+      <c r="T149" s="12">
         <v>3246.27</v>
       </c>
       <c r="U149" s="3">
@@ -13286,7 +13295,7 @@
       <c r="S150" s="2">
         <v>1</v>
       </c>
-      <c r="T150" s="4">
+      <c r="T150" s="12">
         <v>1305.3</v>
       </c>
       <c r="U150" s="3">
@@ -13371,7 +13380,7 @@
       <c r="S151" s="2">
         <v>1</v>
       </c>
-      <c r="T151" s="2">
+      <c r="T151" s="12">
         <v>502.69</v>
       </c>
       <c r="U151" s="3">
@@ -13456,7 +13465,7 @@
       <c r="S152" s="2">
         <v>1</v>
       </c>
-      <c r="T152" s="2">
+      <c r="T152" s="12">
         <v>629.91999999999996</v>
       </c>
       <c r="U152" s="3">
@@ -13541,7 +13550,7 @@
       <c r="S153" s="2">
         <v>1</v>
       </c>
-      <c r="T153" s="2">
+      <c r="T153" s="12">
         <v>433.53</v>
       </c>
       <c r="U153" s="3">
@@ -13626,7 +13635,7 @@
       <c r="S154" s="2">
         <v>1</v>
       </c>
-      <c r="T154" s="2">
+      <c r="T154" s="12">
         <v>155.72</v>
       </c>
       <c r="U154" s="3">
@@ -13651,6 +13660,2114 @@
       <c r="AA154" s="7">
         <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="155" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A155" s="9">
+        <v>45200</v>
+      </c>
+      <c r="B155" s="14">
+        <v>74</v>
+      </c>
+      <c r="C155" s="14">
+        <v>131</v>
+      </c>
+      <c r="D155" s="14">
+        <v>3</v>
+      </c>
+      <c r="E155" s="14">
+        <v>22</v>
+      </c>
+      <c r="F155" s="7">
+        <v>0.29730000000000001</v>
+      </c>
+      <c r="G155" s="14">
+        <v>18</v>
+      </c>
+      <c r="H155" s="14">
+        <v>2</v>
+      </c>
+      <c r="I155" s="14">
+        <v>9</v>
+      </c>
+      <c r="J155" s="14">
+        <v>8</v>
+      </c>
+      <c r="K155" s="7">
+        <v>0.1216</v>
+      </c>
+      <c r="L155" s="14">
+        <v>3</v>
+      </c>
+      <c r="M155" s="14">
+        <v>5</v>
+      </c>
+      <c r="N155" s="14">
+        <v>1</v>
+      </c>
+      <c r="O155" s="14">
+        <v>104.64</v>
+      </c>
+      <c r="P155" s="7">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="Q155" s="14">
+        <v>3</v>
+      </c>
+      <c r="R155" s="14">
+        <v>5</v>
+      </c>
+      <c r="S155" s="14">
+        <v>1</v>
+      </c>
+      <c r="T155" s="14">
+        <v>104.64</v>
+      </c>
+      <c r="U155" s="7">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="V155" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A156" s="9">
+        <v>45201</v>
+      </c>
+      <c r="B156" s="14">
+        <v>129</v>
+      </c>
+      <c r="C156" s="14">
+        <v>275</v>
+      </c>
+      <c r="D156" s="14">
+        <v>3</v>
+      </c>
+      <c r="E156" s="14">
+        <v>29</v>
+      </c>
+      <c r="F156" s="7">
+        <v>0.2248</v>
+      </c>
+      <c r="G156" s="14">
+        <v>31</v>
+      </c>
+      <c r="H156" s="14">
+        <v>1</v>
+      </c>
+      <c r="I156" s="14">
+        <v>81</v>
+      </c>
+      <c r="J156" s="14">
+        <v>162</v>
+      </c>
+      <c r="K156" s="7">
+        <v>0.62790000000000001</v>
+      </c>
+      <c r="L156" s="14">
+        <v>35</v>
+      </c>
+      <c r="M156" s="14">
+        <v>45</v>
+      </c>
+      <c r="N156" s="14">
+        <v>1</v>
+      </c>
+      <c r="O156" s="14">
+        <v>863.24</v>
+      </c>
+      <c r="P156" s="7">
+        <v>0.27129999999999999</v>
+      </c>
+      <c r="Q156" s="14">
+        <v>32</v>
+      </c>
+      <c r="R156" s="14">
+        <v>38</v>
+      </c>
+      <c r="S156" s="14">
+        <v>1</v>
+      </c>
+      <c r="T156" s="14">
+        <v>748.49</v>
+      </c>
+      <c r="U156" s="7">
+        <v>0.24809999999999999</v>
+      </c>
+      <c r="V156" s="7">
+        <v>0.9143</v>
+      </c>
+    </row>
+    <row r="157" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A157" s="9">
+        <v>45202</v>
+      </c>
+      <c r="B157" s="14">
+        <v>96</v>
+      </c>
+      <c r="C157" s="14">
+        <v>162</v>
+      </c>
+      <c r="D157" s="14">
+        <v>3</v>
+      </c>
+      <c r="E157" s="14">
+        <v>21</v>
+      </c>
+      <c r="F157" s="7">
+        <v>0.21879999999999999</v>
+      </c>
+      <c r="G157" s="14">
+        <v>35</v>
+      </c>
+      <c r="H157" s="14">
+        <v>2</v>
+      </c>
+      <c r="I157" s="14">
+        <v>43</v>
+      </c>
+      <c r="J157" s="14">
+        <v>72</v>
+      </c>
+      <c r="K157" s="7">
+        <v>0.44790000000000002</v>
+      </c>
+      <c r="L157" s="14">
+        <v>19</v>
+      </c>
+      <c r="M157" s="14">
+        <v>19</v>
+      </c>
+      <c r="N157" s="14">
+        <v>1</v>
+      </c>
+      <c r="O157" s="14">
+        <v>458.32</v>
+      </c>
+      <c r="P157" s="7">
+        <v>0.19789999999999999</v>
+      </c>
+      <c r="Q157" s="14">
+        <v>19</v>
+      </c>
+      <c r="R157" s="14">
+        <v>19</v>
+      </c>
+      <c r="S157" s="14">
+        <v>1</v>
+      </c>
+      <c r="T157" s="14">
+        <v>458.32</v>
+      </c>
+      <c r="U157" s="7">
+        <v>0.19789999999999999</v>
+      </c>
+      <c r="V157" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A158" s="9">
+        <v>45203</v>
+      </c>
+      <c r="B158" s="14">
+        <v>111</v>
+      </c>
+      <c r="C158" s="14">
+        <v>183</v>
+      </c>
+      <c r="D158" s="14">
+        <v>3</v>
+      </c>
+      <c r="E158" s="14">
+        <v>22</v>
+      </c>
+      <c r="F158" s="7">
+        <v>0.19819999999999999</v>
+      </c>
+      <c r="G158" s="14">
+        <v>21</v>
+      </c>
+      <c r="H158" s="14">
+        <v>0</v>
+      </c>
+      <c r="I158" s="14">
+        <v>78</v>
+      </c>
+      <c r="J158" s="14">
+        <v>116</v>
+      </c>
+      <c r="K158" s="7">
+        <v>0.70269999999999999</v>
+      </c>
+      <c r="L158" s="14">
+        <v>11</v>
+      </c>
+      <c r="M158" s="14">
+        <v>11</v>
+      </c>
+      <c r="N158" s="14">
+        <v>1</v>
+      </c>
+      <c r="O158" s="14">
+        <v>315.64999999999998</v>
+      </c>
+      <c r="P158" s="7">
+        <v>9.9099999999999994E-2</v>
+      </c>
+      <c r="Q158" s="14">
+        <v>9</v>
+      </c>
+      <c r="R158" s="14">
+        <v>9</v>
+      </c>
+      <c r="S158" s="14">
+        <v>1</v>
+      </c>
+      <c r="T158" s="14">
+        <v>243.85</v>
+      </c>
+      <c r="U158" s="7">
+        <v>8.1100000000000005E-2</v>
+      </c>
+      <c r="V158" s="7">
+        <v>0.81820000000000004</v>
+      </c>
+    </row>
+    <row r="159" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A159" s="9">
+        <v>45204</v>
+      </c>
+      <c r="B159" s="14">
+        <v>74</v>
+      </c>
+      <c r="C159" s="14">
+        <v>143</v>
+      </c>
+      <c r="D159" s="14">
+        <v>1</v>
+      </c>
+      <c r="E159" s="14">
+        <v>15</v>
+      </c>
+      <c r="F159" s="7">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="G159" s="14">
+        <v>17</v>
+      </c>
+      <c r="H159" s="14">
+        <v>1</v>
+      </c>
+      <c r="I159" s="14">
+        <v>48</v>
+      </c>
+      <c r="J159" s="14">
+        <v>90</v>
+      </c>
+      <c r="K159" s="7">
+        <v>0.64859999999999995</v>
+      </c>
+      <c r="L159" s="14">
+        <v>17</v>
+      </c>
+      <c r="M159" s="14">
+        <v>21</v>
+      </c>
+      <c r="N159" s="14">
+        <v>1</v>
+      </c>
+      <c r="O159" s="14">
+        <v>329.38</v>
+      </c>
+      <c r="P159" s="7">
+        <v>0.22969999999999999</v>
+      </c>
+      <c r="Q159" s="14">
+        <v>15</v>
+      </c>
+      <c r="R159" s="14">
+        <v>16</v>
+      </c>
+      <c r="S159" s="14">
+        <v>1</v>
+      </c>
+      <c r="T159" s="14">
+        <v>267.98</v>
+      </c>
+      <c r="U159" s="7">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="V159" s="7">
+        <v>0.88239999999999996</v>
+      </c>
+    </row>
+    <row r="160" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A160" s="9">
+        <v>45205</v>
+      </c>
+      <c r="B160" s="14">
+        <v>52</v>
+      </c>
+      <c r="C160" s="14">
+        <v>103</v>
+      </c>
+      <c r="D160" s="14">
+        <v>3</v>
+      </c>
+      <c r="E160" s="14">
+        <v>9</v>
+      </c>
+      <c r="F160" s="7">
+        <v>0.1731</v>
+      </c>
+      <c r="G160" s="14">
+        <v>17</v>
+      </c>
+      <c r="H160" s="14">
+        <v>1</v>
+      </c>
+      <c r="I160" s="14">
+        <v>20</v>
+      </c>
+      <c r="J160" s="14">
+        <v>27</v>
+      </c>
+      <c r="K160" s="7">
+        <v>0.3846</v>
+      </c>
+      <c r="L160" s="14">
+        <v>5</v>
+      </c>
+      <c r="M160" s="14">
+        <v>8</v>
+      </c>
+      <c r="N160" s="14">
+        <v>1</v>
+      </c>
+      <c r="O160" s="14">
+        <v>137.79</v>
+      </c>
+      <c r="P160" s="7">
+        <v>9.6199999999999994E-2</v>
+      </c>
+      <c r="Q160" s="14">
+        <v>5</v>
+      </c>
+      <c r="R160" s="14">
+        <v>8</v>
+      </c>
+      <c r="S160" s="14">
+        <v>1</v>
+      </c>
+      <c r="T160" s="14">
+        <v>137.79</v>
+      </c>
+      <c r="U160" s="7">
+        <v>9.6199999999999994E-2</v>
+      </c>
+      <c r="V160" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A161" s="9">
+        <v>45206</v>
+      </c>
+      <c r="B161" s="14">
+        <v>32</v>
+      </c>
+      <c r="C161" s="14">
+        <v>56</v>
+      </c>
+      <c r="D161" s="14">
+        <v>1</v>
+      </c>
+      <c r="E161" s="14">
+        <v>5</v>
+      </c>
+      <c r="F161" s="7">
+        <v>0.15620000000000001</v>
+      </c>
+      <c r="G161" s="14">
+        <v>9</v>
+      </c>
+      <c r="H161" s="14">
+        <v>0</v>
+      </c>
+      <c r="I161" s="14">
+        <v>9</v>
+      </c>
+      <c r="J161" s="14">
+        <v>8</v>
+      </c>
+      <c r="K161" s="7">
+        <v>0.28120000000000001</v>
+      </c>
+      <c r="L161" s="14">
+        <v>1</v>
+      </c>
+      <c r="M161" s="14">
+        <v>1</v>
+      </c>
+      <c r="N161" s="14">
+        <v>1</v>
+      </c>
+      <c r="O161" s="14">
+        <v>22.9</v>
+      </c>
+      <c r="P161" s="7">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="Q161" s="14">
+        <v>1</v>
+      </c>
+      <c r="R161" s="14">
+        <v>1</v>
+      </c>
+      <c r="S161" s="14">
+        <v>1</v>
+      </c>
+      <c r="T161" s="14">
+        <v>22.9</v>
+      </c>
+      <c r="U161" s="7">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="V161" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A162" s="9">
+        <v>45207</v>
+      </c>
+      <c r="B162" s="14">
+        <v>39</v>
+      </c>
+      <c r="C162" s="14">
+        <v>79</v>
+      </c>
+      <c r="D162" s="14">
+        <v>1</v>
+      </c>
+      <c r="E162" s="14">
+        <v>8</v>
+      </c>
+      <c r="F162" s="7">
+        <v>0.2051</v>
+      </c>
+      <c r="G162" s="14">
+        <v>16</v>
+      </c>
+      <c r="H162" s="14">
+        <v>1</v>
+      </c>
+      <c r="I162" s="14">
+        <v>5</v>
+      </c>
+      <c r="J162" s="14">
+        <v>8</v>
+      </c>
+      <c r="K162" s="7">
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="L162" s="14">
+        <v>1</v>
+      </c>
+      <c r="M162" s="14">
+        <v>1</v>
+      </c>
+      <c r="N162" s="14">
+        <v>1</v>
+      </c>
+      <c r="O162" s="14">
+        <v>38.28</v>
+      </c>
+      <c r="P162" s="7">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="Q162" s="14">
+        <v>1</v>
+      </c>
+      <c r="R162" s="14">
+        <v>1</v>
+      </c>
+      <c r="S162" s="14">
+        <v>1</v>
+      </c>
+      <c r="T162" s="14">
+        <v>38.28</v>
+      </c>
+      <c r="U162" s="7">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="V162" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A163" s="9">
+        <v>45208</v>
+      </c>
+      <c r="B163" s="14">
+        <v>160</v>
+      </c>
+      <c r="C163" s="14">
+        <v>374</v>
+      </c>
+      <c r="D163" s="14">
+        <v>3</v>
+      </c>
+      <c r="E163" s="14">
+        <v>33</v>
+      </c>
+      <c r="F163" s="7">
+        <v>0.20619999999999999</v>
+      </c>
+      <c r="G163" s="14">
+        <v>35</v>
+      </c>
+      <c r="H163" s="14">
+        <v>1</v>
+      </c>
+      <c r="I163" s="14">
+        <v>125</v>
+      </c>
+      <c r="J163" s="14">
+        <v>217</v>
+      </c>
+      <c r="K163" s="7">
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="L163" s="14">
+        <v>53</v>
+      </c>
+      <c r="M163" s="14">
+        <v>63</v>
+      </c>
+      <c r="N163" s="14">
+        <v>1</v>
+      </c>
+      <c r="O163" s="15">
+        <v>1124.7</v>
+      </c>
+      <c r="P163" s="7">
+        <v>0.33119999999999999</v>
+      </c>
+      <c r="Q163" s="14">
+        <v>51</v>
+      </c>
+      <c r="R163" s="14">
+        <v>57</v>
+      </c>
+      <c r="S163" s="14">
+        <v>1</v>
+      </c>
+      <c r="T163" s="15">
+        <v>1014</v>
+      </c>
+      <c r="U163" s="7">
+        <v>0.31869999999999998</v>
+      </c>
+      <c r="V163" s="7">
+        <v>0.96230000000000004</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A164" s="9">
+        <v>45209</v>
+      </c>
+      <c r="B164" s="14">
+        <v>507</v>
+      </c>
+      <c r="C164" s="14">
+        <v>1233</v>
+      </c>
+      <c r="D164" s="14">
+        <v>3</v>
+      </c>
+      <c r="E164" s="14">
+        <v>79</v>
+      </c>
+      <c r="F164" s="7">
+        <v>0.15579999999999999</v>
+      </c>
+      <c r="G164" s="14">
+        <v>106</v>
+      </c>
+      <c r="H164" s="14">
+        <v>4</v>
+      </c>
+      <c r="I164" s="14">
+        <v>519</v>
+      </c>
+      <c r="J164" s="14">
+        <v>1115</v>
+      </c>
+      <c r="K164" s="7">
+        <v>1.0237000000000001</v>
+      </c>
+      <c r="L164" s="14">
+        <v>199</v>
+      </c>
+      <c r="M164" s="14">
+        <v>217</v>
+      </c>
+      <c r="N164" s="14">
+        <v>2</v>
+      </c>
+      <c r="O164" s="15">
+        <v>3162.98</v>
+      </c>
+      <c r="P164" s="7">
+        <v>0.39250000000000002</v>
+      </c>
+      <c r="Q164" s="14">
+        <v>184</v>
+      </c>
+      <c r="R164" s="14">
+        <v>198</v>
+      </c>
+      <c r="S164" s="14">
+        <v>2</v>
+      </c>
+      <c r="T164" s="15">
+        <v>2732.79</v>
+      </c>
+      <c r="U164" s="7">
+        <v>0.3629</v>
+      </c>
+      <c r="V164" s="7">
+        <v>0.92459999999999998</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A165" s="9">
+        <v>45210</v>
+      </c>
+      <c r="B165" s="14">
+        <v>237</v>
+      </c>
+      <c r="C165" s="14">
+        <v>583</v>
+      </c>
+      <c r="D165" s="14">
+        <v>3</v>
+      </c>
+      <c r="E165" s="14">
+        <v>53</v>
+      </c>
+      <c r="F165" s="7">
+        <v>0.22359999999999999</v>
+      </c>
+      <c r="G165" s="14">
+        <v>44</v>
+      </c>
+      <c r="H165" s="14">
+        <v>4</v>
+      </c>
+      <c r="I165" s="14">
+        <v>203</v>
+      </c>
+      <c r="J165" s="14">
+        <v>426</v>
+      </c>
+      <c r="K165" s="7">
+        <v>0.85650000000000004</v>
+      </c>
+      <c r="L165" s="14">
+        <v>72</v>
+      </c>
+      <c r="M165" s="14">
+        <v>89</v>
+      </c>
+      <c r="N165" s="14">
+        <v>2</v>
+      </c>
+      <c r="O165" s="15">
+        <v>1417.32</v>
+      </c>
+      <c r="P165" s="7">
+        <v>0.30380000000000001</v>
+      </c>
+      <c r="Q165" s="14">
+        <v>68</v>
+      </c>
+      <c r="R165" s="14">
+        <v>81</v>
+      </c>
+      <c r="S165" s="14">
+        <v>2</v>
+      </c>
+      <c r="T165" s="15">
+        <v>1234.82</v>
+      </c>
+      <c r="U165" s="7">
+        <v>0.28689999999999999</v>
+      </c>
+      <c r="V165" s="7">
+        <v>0.94440000000000002</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A166" s="9">
+        <v>45211</v>
+      </c>
+      <c r="B166" s="14">
+        <v>72</v>
+      </c>
+      <c r="C166" s="14">
+        <v>141</v>
+      </c>
+      <c r="D166" s="14">
+        <v>3</v>
+      </c>
+      <c r="E166" s="14">
+        <v>22</v>
+      </c>
+      <c r="F166" s="7">
+        <v>0.30559999999999998</v>
+      </c>
+      <c r="G166" s="14">
+        <v>29</v>
+      </c>
+      <c r="H166" s="14">
+        <v>1</v>
+      </c>
+      <c r="I166" s="14">
+        <v>26</v>
+      </c>
+      <c r="J166" s="14">
+        <v>30</v>
+      </c>
+      <c r="K166" s="7">
+        <v>0.36109999999999998</v>
+      </c>
+      <c r="L166" s="14">
+        <v>4</v>
+      </c>
+      <c r="M166" s="14">
+        <v>4</v>
+      </c>
+      <c r="N166" s="14">
+        <v>1</v>
+      </c>
+      <c r="O166" s="14">
+        <v>97.6</v>
+      </c>
+      <c r="P166" s="7">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="Q166" s="14">
+        <v>6</v>
+      </c>
+      <c r="R166" s="14">
+        <v>6</v>
+      </c>
+      <c r="S166" s="14">
+        <v>1</v>
+      </c>
+      <c r="T166" s="14">
+        <v>130.65</v>
+      </c>
+      <c r="U166" s="7">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="V166" s="7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A167" s="9">
+        <v>45212</v>
+      </c>
+      <c r="B167" s="14">
+        <v>117</v>
+      </c>
+      <c r="C167" s="14">
+        <v>265</v>
+      </c>
+      <c r="D167" s="14">
+        <v>3</v>
+      </c>
+      <c r="E167" s="14">
+        <v>22</v>
+      </c>
+      <c r="F167" s="7">
+        <v>0.188</v>
+      </c>
+      <c r="G167" s="14">
+        <v>20</v>
+      </c>
+      <c r="H167" s="14">
+        <v>2</v>
+      </c>
+      <c r="I167" s="14">
+        <v>97</v>
+      </c>
+      <c r="J167" s="14">
+        <v>242</v>
+      </c>
+      <c r="K167" s="7">
+        <v>0.82909999999999995</v>
+      </c>
+      <c r="L167" s="14">
+        <v>38</v>
+      </c>
+      <c r="M167" s="14">
+        <v>48</v>
+      </c>
+      <c r="N167" s="14">
+        <v>1</v>
+      </c>
+      <c r="O167" s="14">
+        <v>913.86</v>
+      </c>
+      <c r="P167" s="7">
+        <v>0.32479999999999998</v>
+      </c>
+      <c r="Q167" s="14">
+        <v>35</v>
+      </c>
+      <c r="R167" s="14">
+        <v>41</v>
+      </c>
+      <c r="S167" s="14">
+        <v>1</v>
+      </c>
+      <c r="T167" s="14">
+        <v>772.79</v>
+      </c>
+      <c r="U167" s="7">
+        <v>0.29909999999999998</v>
+      </c>
+      <c r="V167" s="7">
+        <v>0.92110000000000003</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A168" s="9">
+        <v>45213</v>
+      </c>
+      <c r="B168" s="14">
+        <v>91</v>
+      </c>
+      <c r="C168" s="14">
+        <v>183</v>
+      </c>
+      <c r="D168" s="14">
+        <v>3</v>
+      </c>
+      <c r="E168" s="14">
+        <v>19</v>
+      </c>
+      <c r="F168" s="7">
+        <v>0.20880000000000001</v>
+      </c>
+      <c r="G168" s="14">
+        <v>27</v>
+      </c>
+      <c r="H168" s="14">
+        <v>1</v>
+      </c>
+      <c r="I168" s="14">
+        <v>62</v>
+      </c>
+      <c r="J168" s="14">
+        <v>99</v>
+      </c>
+      <c r="K168" s="7">
+        <v>0.68130000000000002</v>
+      </c>
+      <c r="L168" s="14">
+        <v>22</v>
+      </c>
+      <c r="M168" s="14">
+        <v>29</v>
+      </c>
+      <c r="N168" s="14">
+        <v>1</v>
+      </c>
+      <c r="O168" s="14">
+        <v>540.13</v>
+      </c>
+      <c r="P168" s="7">
+        <v>0.24179999999999999</v>
+      </c>
+      <c r="Q168" s="14">
+        <v>20</v>
+      </c>
+      <c r="R168" s="14">
+        <v>27</v>
+      </c>
+      <c r="S168" s="14">
+        <v>1</v>
+      </c>
+      <c r="T168" s="14">
+        <v>503.93</v>
+      </c>
+      <c r="U168" s="7">
+        <v>0.2198</v>
+      </c>
+      <c r="V168" s="7">
+        <v>0.90910000000000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A169" s="9">
+        <v>45214</v>
+      </c>
+      <c r="B169" s="14">
+        <v>106</v>
+      </c>
+      <c r="C169" s="14">
+        <v>203</v>
+      </c>
+      <c r="D169" s="14">
+        <v>3</v>
+      </c>
+      <c r="E169" s="14">
+        <v>23</v>
+      </c>
+      <c r="F169" s="7">
+        <v>0.217</v>
+      </c>
+      <c r="G169" s="14">
+        <v>34</v>
+      </c>
+      <c r="H169" s="14">
+        <v>0</v>
+      </c>
+      <c r="I169" s="14">
+        <v>43</v>
+      </c>
+      <c r="J169" s="14">
+        <v>63</v>
+      </c>
+      <c r="K169" s="7">
+        <v>0.40570000000000001</v>
+      </c>
+      <c r="L169" s="14">
+        <v>8</v>
+      </c>
+      <c r="M169" s="14">
+        <v>8</v>
+      </c>
+      <c r="N169" s="14">
+        <v>1</v>
+      </c>
+      <c r="O169" s="14">
+        <v>133.97999999999999</v>
+      </c>
+      <c r="P169" s="7">
+        <v>7.5499999999999998E-2</v>
+      </c>
+      <c r="Q169" s="14">
+        <v>8</v>
+      </c>
+      <c r="R169" s="14">
+        <v>8</v>
+      </c>
+      <c r="S169" s="14">
+        <v>1</v>
+      </c>
+      <c r="T169" s="14">
+        <v>133.97999999999999</v>
+      </c>
+      <c r="U169" s="7">
+        <v>7.5499999999999998E-2</v>
+      </c>
+      <c r="V169" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A170" s="9">
+        <v>45215</v>
+      </c>
+      <c r="B170" s="14">
+        <v>102</v>
+      </c>
+      <c r="C170" s="14">
+        <v>172</v>
+      </c>
+      <c r="D170" s="14">
+        <v>3</v>
+      </c>
+      <c r="E170" s="14">
+        <v>25</v>
+      </c>
+      <c r="F170" s="7">
+        <v>0.24510000000000001</v>
+      </c>
+      <c r="G170" s="14">
+        <v>17</v>
+      </c>
+      <c r="H170" s="14">
+        <v>1</v>
+      </c>
+      <c r="I170" s="14">
+        <v>28</v>
+      </c>
+      <c r="J170" s="14">
+        <v>33</v>
+      </c>
+      <c r="K170" s="7">
+        <v>0.27450000000000002</v>
+      </c>
+      <c r="L170" s="14">
+        <v>6</v>
+      </c>
+      <c r="M170" s="14">
+        <v>6</v>
+      </c>
+      <c r="N170" s="14">
+        <v>1</v>
+      </c>
+      <c r="O170" s="14">
+        <v>181.8</v>
+      </c>
+      <c r="P170" s="7">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="Q170" s="14">
+        <v>5</v>
+      </c>
+      <c r="R170" s="14">
+        <v>5</v>
+      </c>
+      <c r="S170" s="14">
+        <v>1</v>
+      </c>
+      <c r="T170" s="14">
+        <v>158.9</v>
+      </c>
+      <c r="U170" s="7">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="V170" s="7">
+        <v>0.83330000000000004</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A171" s="9">
+        <v>45216</v>
+      </c>
+      <c r="B171" s="14">
+        <v>87</v>
+      </c>
+      <c r="C171" s="14">
+        <v>189</v>
+      </c>
+      <c r="D171" s="14">
+        <v>3</v>
+      </c>
+      <c r="E171" s="14">
+        <v>21</v>
+      </c>
+      <c r="F171" s="7">
+        <v>0.2414</v>
+      </c>
+      <c r="G171" s="14">
+        <v>22</v>
+      </c>
+      <c r="H171" s="14">
+        <v>0</v>
+      </c>
+      <c r="I171" s="14">
+        <v>48</v>
+      </c>
+      <c r="J171" s="14">
+        <v>72</v>
+      </c>
+      <c r="K171" s="7">
+        <v>0.55169999999999997</v>
+      </c>
+      <c r="L171" s="14">
+        <v>11</v>
+      </c>
+      <c r="M171" s="14">
+        <v>12</v>
+      </c>
+      <c r="N171" s="14">
+        <v>1</v>
+      </c>
+      <c r="O171" s="14">
+        <v>232.85</v>
+      </c>
+      <c r="P171" s="7">
+        <v>0.12640000000000001</v>
+      </c>
+      <c r="Q171" s="14">
+        <v>9</v>
+      </c>
+      <c r="R171" s="14">
+        <v>10</v>
+      </c>
+      <c r="S171" s="14">
+        <v>1</v>
+      </c>
+      <c r="T171" s="14">
+        <v>196.65</v>
+      </c>
+      <c r="U171" s="7">
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="V171" s="7">
+        <v>0.81820000000000004</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A172" s="9">
+        <v>45217</v>
+      </c>
+      <c r="B172" s="14">
+        <v>138</v>
+      </c>
+      <c r="C172" s="14">
+        <v>375</v>
+      </c>
+      <c r="D172" s="14">
+        <v>5</v>
+      </c>
+      <c r="E172" s="14">
+        <v>31</v>
+      </c>
+      <c r="F172" s="7">
+        <v>0.22459999999999999</v>
+      </c>
+      <c r="G172" s="14">
+        <v>29</v>
+      </c>
+      <c r="H172" s="14">
+        <v>1</v>
+      </c>
+      <c r="I172" s="14">
+        <v>118</v>
+      </c>
+      <c r="J172" s="14">
+        <v>244</v>
+      </c>
+      <c r="K172" s="7">
+        <v>0.85509999999999997</v>
+      </c>
+      <c r="L172" s="14">
+        <v>27</v>
+      </c>
+      <c r="M172" s="14">
+        <v>33</v>
+      </c>
+      <c r="N172" s="14">
+        <v>2</v>
+      </c>
+      <c r="O172" s="14">
+        <v>635.41</v>
+      </c>
+      <c r="P172" s="7">
+        <v>0.19570000000000001</v>
+      </c>
+      <c r="Q172" s="14">
+        <v>24</v>
+      </c>
+      <c r="R172" s="14">
+        <v>29</v>
+      </c>
+      <c r="S172" s="14">
+        <v>2</v>
+      </c>
+      <c r="T172" s="14">
+        <v>548.55999999999995</v>
+      </c>
+      <c r="U172" s="7">
+        <v>0.1739</v>
+      </c>
+      <c r="V172" s="7">
+        <v>0.88890000000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A173" s="9">
+        <v>45218</v>
+      </c>
+      <c r="B173" s="14">
+        <v>68</v>
+      </c>
+      <c r="C173" s="14">
+        <v>121</v>
+      </c>
+      <c r="D173" s="14">
+        <v>3</v>
+      </c>
+      <c r="E173" s="14">
+        <v>15</v>
+      </c>
+      <c r="F173" s="7">
+        <v>0.22059999999999999</v>
+      </c>
+      <c r="G173" s="14">
+        <v>10</v>
+      </c>
+      <c r="H173" s="14">
+        <v>1</v>
+      </c>
+      <c r="I173" s="14">
+        <v>43</v>
+      </c>
+      <c r="J173" s="14">
+        <v>73</v>
+      </c>
+      <c r="K173" s="7">
+        <v>0.63239999999999996</v>
+      </c>
+      <c r="L173" s="14">
+        <v>10</v>
+      </c>
+      <c r="M173" s="14">
+        <v>10</v>
+      </c>
+      <c r="N173" s="14">
+        <v>1</v>
+      </c>
+      <c r="O173" s="14">
+        <v>199.8</v>
+      </c>
+      <c r="P173" s="7">
+        <v>0.14710000000000001</v>
+      </c>
+      <c r="Q173" s="14">
+        <v>8</v>
+      </c>
+      <c r="R173" s="14">
+        <v>8</v>
+      </c>
+      <c r="S173" s="14">
+        <v>1</v>
+      </c>
+      <c r="T173" s="14">
+        <v>146</v>
+      </c>
+      <c r="U173" s="7">
+        <v>0.1176</v>
+      </c>
+      <c r="V173" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A174" s="9">
+        <v>45219</v>
+      </c>
+      <c r="B174" s="14">
+        <v>47</v>
+      </c>
+      <c r="C174" s="14">
+        <v>77</v>
+      </c>
+      <c r="D174" s="14">
+        <v>3</v>
+      </c>
+      <c r="E174" s="14">
+        <v>16</v>
+      </c>
+      <c r="F174" s="7">
+        <v>0.34039999999999998</v>
+      </c>
+      <c r="G174" s="14">
+        <v>14</v>
+      </c>
+      <c r="H174" s="14">
+        <v>4</v>
+      </c>
+      <c r="I174" s="14">
+        <v>12</v>
+      </c>
+      <c r="J174" s="14">
+        <v>12</v>
+      </c>
+      <c r="K174" s="7">
+        <v>0.25530000000000003</v>
+      </c>
+      <c r="L174" s="14">
+        <v>0</v>
+      </c>
+      <c r="M174" s="14">
+        <v>0</v>
+      </c>
+      <c r="N174" s="14">
+        <v>0</v>
+      </c>
+      <c r="O174" s="14">
+        <v>0</v>
+      </c>
+      <c r="P174" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q174" s="14">
+        <v>1</v>
+      </c>
+      <c r="R174" s="14">
+        <v>1</v>
+      </c>
+      <c r="S174" s="14">
+        <v>1</v>
+      </c>
+      <c r="T174" s="14">
+        <v>22.9</v>
+      </c>
+      <c r="U174" s="7">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="V174" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A175" s="9">
+        <v>45220</v>
+      </c>
+      <c r="B175" s="14">
+        <v>30</v>
+      </c>
+      <c r="C175" s="14">
+        <v>55</v>
+      </c>
+      <c r="D175" s="14">
+        <v>3</v>
+      </c>
+      <c r="E175" s="14">
+        <v>11</v>
+      </c>
+      <c r="F175" s="7">
+        <v>0.36670000000000003</v>
+      </c>
+      <c r="G175" s="14">
+        <v>9</v>
+      </c>
+      <c r="H175" s="14">
+        <v>1</v>
+      </c>
+      <c r="I175" s="14">
+        <v>12</v>
+      </c>
+      <c r="J175" s="14">
+        <v>19</v>
+      </c>
+      <c r="K175" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="L175" s="14">
+        <v>1</v>
+      </c>
+      <c r="M175" s="14">
+        <v>1</v>
+      </c>
+      <c r="N175" s="14">
+        <v>1</v>
+      </c>
+      <c r="O175" s="14">
+        <v>10.9</v>
+      </c>
+      <c r="P175" s="7">
+        <v>3.3300000000000003E-2</v>
+      </c>
+      <c r="Q175" s="14">
+        <v>1</v>
+      </c>
+      <c r="R175" s="14">
+        <v>1</v>
+      </c>
+      <c r="S175" s="14">
+        <v>1</v>
+      </c>
+      <c r="T175" s="14">
+        <v>10.9</v>
+      </c>
+      <c r="U175" s="7">
+        <v>3.3300000000000003E-2</v>
+      </c>
+      <c r="V175" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A176" s="9">
+        <v>45221</v>
+      </c>
+      <c r="B176" s="14">
+        <v>56</v>
+      </c>
+      <c r="C176" s="14">
+        <v>109</v>
+      </c>
+      <c r="D176" s="14">
+        <v>4</v>
+      </c>
+      <c r="E176" s="14">
+        <v>12</v>
+      </c>
+      <c r="F176" s="7">
+        <v>0.21429999999999999</v>
+      </c>
+      <c r="G176" s="14">
+        <v>17</v>
+      </c>
+      <c r="H176" s="14">
+        <v>0</v>
+      </c>
+      <c r="I176" s="14">
+        <v>30</v>
+      </c>
+      <c r="J176" s="14">
+        <v>40</v>
+      </c>
+      <c r="K176" s="7">
+        <v>0.53569999999999995</v>
+      </c>
+      <c r="L176" s="14">
+        <v>2</v>
+      </c>
+      <c r="M176" s="14">
+        <v>2</v>
+      </c>
+      <c r="N176" s="14">
+        <v>1</v>
+      </c>
+      <c r="O176" s="14">
+        <v>19.8</v>
+      </c>
+      <c r="P176" s="7">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="Q176" s="14">
+        <v>2</v>
+      </c>
+      <c r="R176" s="14">
+        <v>2</v>
+      </c>
+      <c r="S176" s="14">
+        <v>1</v>
+      </c>
+      <c r="T176" s="14">
+        <v>19.8</v>
+      </c>
+      <c r="U176" s="7">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="V176" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A177" s="9">
+        <v>45222</v>
+      </c>
+      <c r="B177" s="14">
+        <v>61</v>
+      </c>
+      <c r="C177" s="14">
+        <v>110</v>
+      </c>
+      <c r="D177" s="14">
+        <v>3</v>
+      </c>
+      <c r="E177" s="14">
+        <v>11</v>
+      </c>
+      <c r="F177" s="7">
+        <v>0.18029999999999999</v>
+      </c>
+      <c r="G177" s="14">
+        <v>13</v>
+      </c>
+      <c r="H177" s="14">
+        <v>0</v>
+      </c>
+      <c r="I177" s="14">
+        <v>32</v>
+      </c>
+      <c r="J177" s="14">
+        <v>39</v>
+      </c>
+      <c r="K177" s="7">
+        <v>0.52459999999999996</v>
+      </c>
+      <c r="L177" s="14">
+        <v>3</v>
+      </c>
+      <c r="M177" s="14">
+        <v>3</v>
+      </c>
+      <c r="N177" s="14">
+        <v>1</v>
+      </c>
+      <c r="O177" s="14">
+        <v>69.66</v>
+      </c>
+      <c r="P177" s="7">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="Q177" s="14">
+        <v>3</v>
+      </c>
+      <c r="R177" s="14">
+        <v>3</v>
+      </c>
+      <c r="S177" s="14">
+        <v>1</v>
+      </c>
+      <c r="T177" s="14">
+        <v>69.66</v>
+      </c>
+      <c r="U177" s="7">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="V177" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A178" s="9">
+        <v>45223</v>
+      </c>
+      <c r="B178" s="14">
+        <v>70</v>
+      </c>
+      <c r="C178" s="14">
+        <v>142</v>
+      </c>
+      <c r="D178" s="14">
+        <v>3</v>
+      </c>
+      <c r="E178" s="14">
+        <v>23</v>
+      </c>
+      <c r="F178" s="7">
+        <v>0.3286</v>
+      </c>
+      <c r="G178" s="14">
+        <v>20</v>
+      </c>
+      <c r="H178" s="14">
+        <v>1</v>
+      </c>
+      <c r="I178" s="14">
+        <v>16</v>
+      </c>
+      <c r="J178" s="14">
+        <v>18</v>
+      </c>
+      <c r="K178" s="7">
+        <v>0.2286</v>
+      </c>
+      <c r="L178" s="14">
+        <v>4</v>
+      </c>
+      <c r="M178" s="14">
+        <v>4</v>
+      </c>
+      <c r="N178" s="14">
+        <v>1</v>
+      </c>
+      <c r="O178" s="14">
+        <v>61.6</v>
+      </c>
+      <c r="P178" s="7">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="Q178" s="14">
+        <v>4</v>
+      </c>
+      <c r="R178" s="14">
+        <v>4</v>
+      </c>
+      <c r="S178" s="14">
+        <v>1</v>
+      </c>
+      <c r="T178" s="14">
+        <v>61.6</v>
+      </c>
+      <c r="U178" s="7">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="V178" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A179" s="9">
+        <v>45224</v>
+      </c>
+      <c r="B179" s="14">
+        <v>142</v>
+      </c>
+      <c r="C179" s="14">
+        <v>360</v>
+      </c>
+      <c r="D179" s="14">
+        <v>3</v>
+      </c>
+      <c r="E179" s="14">
+        <v>25</v>
+      </c>
+      <c r="F179" s="7">
+        <v>0.17610000000000001</v>
+      </c>
+      <c r="G179" s="14">
+        <v>37</v>
+      </c>
+      <c r="H179" s="14">
+        <v>2</v>
+      </c>
+      <c r="I179" s="14">
+        <v>171</v>
+      </c>
+      <c r="J179" s="14">
+        <v>356</v>
+      </c>
+      <c r="K179" s="7">
+        <v>1.2041999999999999</v>
+      </c>
+      <c r="L179" s="14">
+        <v>62</v>
+      </c>
+      <c r="M179" s="14">
+        <v>66</v>
+      </c>
+      <c r="N179" s="14">
+        <v>2</v>
+      </c>
+      <c r="O179" s="15">
+        <v>1311.58</v>
+      </c>
+      <c r="P179" s="7">
+        <v>0.43659999999999999</v>
+      </c>
+      <c r="Q179" s="14">
+        <v>60</v>
+      </c>
+      <c r="R179" s="14">
+        <v>63</v>
+      </c>
+      <c r="S179" s="14">
+        <v>2</v>
+      </c>
+      <c r="T179" s="15">
+        <v>1198.8800000000001</v>
+      </c>
+      <c r="U179" s="7">
+        <v>0.42249999999999999</v>
+      </c>
+      <c r="V179" s="7">
+        <v>0.9677</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A180" s="9">
+        <v>45225</v>
+      </c>
+      <c r="B180" s="14">
+        <v>108</v>
+      </c>
+      <c r="C180" s="14">
+        <v>221</v>
+      </c>
+      <c r="D180" s="14">
+        <v>4</v>
+      </c>
+      <c r="E180" s="14">
+        <v>27</v>
+      </c>
+      <c r="F180" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="G180" s="14">
+        <v>17</v>
+      </c>
+      <c r="H180" s="14">
+        <v>1</v>
+      </c>
+      <c r="I180" s="14">
+        <v>77</v>
+      </c>
+      <c r="J180" s="14">
+        <v>115</v>
+      </c>
+      <c r="K180" s="7">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="L180" s="14">
+        <v>23</v>
+      </c>
+      <c r="M180" s="14">
+        <v>25</v>
+      </c>
+      <c r="N180" s="14">
+        <v>1</v>
+      </c>
+      <c r="O180" s="14">
+        <v>497.05</v>
+      </c>
+      <c r="P180" s="7">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="Q180" s="14">
+        <v>21</v>
+      </c>
+      <c r="R180" s="14">
+        <v>23</v>
+      </c>
+      <c r="S180" s="14">
+        <v>1</v>
+      </c>
+      <c r="T180" s="14">
+        <v>471.25</v>
+      </c>
+      <c r="U180" s="7">
+        <v>0.19439999999999999</v>
+      </c>
+      <c r="V180" s="7">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A181" s="9">
+        <v>45226</v>
+      </c>
+      <c r="B181" s="14">
+        <v>74</v>
+      </c>
+      <c r="C181" s="14">
+        <v>180</v>
+      </c>
+      <c r="D181" s="14">
+        <v>4</v>
+      </c>
+      <c r="E181" s="14">
+        <v>13</v>
+      </c>
+      <c r="F181" s="7">
+        <v>0.1757</v>
+      </c>
+      <c r="G181" s="14">
+        <v>19</v>
+      </c>
+      <c r="H181" s="14">
+        <v>1</v>
+      </c>
+      <c r="I181" s="14">
+        <v>56</v>
+      </c>
+      <c r="J181" s="14">
+        <v>108</v>
+      </c>
+      <c r="K181" s="7">
+        <v>0.75680000000000003</v>
+      </c>
+      <c r="L181" s="14">
+        <v>21</v>
+      </c>
+      <c r="M181" s="14">
+        <v>32</v>
+      </c>
+      <c r="N181" s="14">
+        <v>1</v>
+      </c>
+      <c r="O181" s="14">
+        <v>548.83000000000004</v>
+      </c>
+      <c r="P181" s="7">
+        <v>0.2838</v>
+      </c>
+      <c r="Q181" s="14">
+        <v>19</v>
+      </c>
+      <c r="R181" s="14">
+        <v>27</v>
+      </c>
+      <c r="S181" s="14">
+        <v>1</v>
+      </c>
+      <c r="T181" s="14">
+        <v>469.23</v>
+      </c>
+      <c r="U181" s="7">
+        <v>0.25679999999999997</v>
+      </c>
+      <c r="V181" s="7">
+        <v>0.90480000000000005</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A182" s="9">
+        <v>45227</v>
+      </c>
+      <c r="B182" s="14">
+        <v>53</v>
+      </c>
+      <c r="C182" s="14">
+        <v>86</v>
+      </c>
+      <c r="D182" s="14">
+        <v>3</v>
+      </c>
+      <c r="E182" s="14">
+        <v>16</v>
+      </c>
+      <c r="F182" s="7">
+        <v>0.3019</v>
+      </c>
+      <c r="G182" s="14">
+        <v>10</v>
+      </c>
+      <c r="H182" s="14">
+        <v>1</v>
+      </c>
+      <c r="I182" s="14">
+        <v>15</v>
+      </c>
+      <c r="J182" s="14">
+        <v>17</v>
+      </c>
+      <c r="K182" s="7">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="L182" s="14">
+        <v>2</v>
+      </c>
+      <c r="M182" s="14">
+        <v>2</v>
+      </c>
+      <c r="N182" s="14">
+        <v>1</v>
+      </c>
+      <c r="O182" s="14">
+        <v>25.8</v>
+      </c>
+      <c r="P182" s="7">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="Q182" s="14">
+        <v>2</v>
+      </c>
+      <c r="R182" s="14">
+        <v>2</v>
+      </c>
+      <c r="S182" s="14">
+        <v>1</v>
+      </c>
+      <c r="T182" s="14">
+        <v>25.8</v>
+      </c>
+      <c r="U182" s="7">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="V182" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A183" s="9">
+        <v>45228</v>
+      </c>
+      <c r="B183" s="14">
+        <v>78</v>
+      </c>
+      <c r="C183" s="14">
+        <v>133</v>
+      </c>
+      <c r="D183" s="14">
+        <v>3</v>
+      </c>
+      <c r="E183" s="14">
+        <v>29</v>
+      </c>
+      <c r="F183" s="7">
+        <v>0.37180000000000002</v>
+      </c>
+      <c r="G183" s="14">
+        <v>30</v>
+      </c>
+      <c r="H183" s="14">
+        <v>0</v>
+      </c>
+      <c r="I183" s="14">
+        <v>11</v>
+      </c>
+      <c r="J183" s="14">
+        <v>12</v>
+      </c>
+      <c r="K183" s="7">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="L183" s="14">
+        <v>5</v>
+      </c>
+      <c r="M183" s="14">
+        <v>6</v>
+      </c>
+      <c r="N183" s="14">
+        <v>1</v>
+      </c>
+      <c r="O183" s="14">
+        <v>140.9</v>
+      </c>
+      <c r="P183" s="7">
+        <v>6.4100000000000004E-2</v>
+      </c>
+      <c r="Q183" s="14">
+        <v>5</v>
+      </c>
+      <c r="R183" s="14">
+        <v>6</v>
+      </c>
+      <c r="S183" s="14">
+        <v>1</v>
+      </c>
+      <c r="T183" s="14">
+        <v>140.9</v>
+      </c>
+      <c r="U183" s="7">
+        <v>6.4100000000000004E-2</v>
+      </c>
+      <c r="V183" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A184" s="9">
+        <v>45229</v>
+      </c>
+      <c r="B184" s="14">
+        <v>88</v>
+      </c>
+      <c r="C184" s="14">
+        <v>144</v>
+      </c>
+      <c r="D184" s="14">
+        <v>3</v>
+      </c>
+      <c r="E184" s="14">
+        <v>29</v>
+      </c>
+      <c r="F184" s="7">
+        <v>0.32950000000000002</v>
+      </c>
+      <c r="G184" s="14">
+        <v>33</v>
+      </c>
+      <c r="H184" s="14">
+        <v>3</v>
+      </c>
+      <c r="I184" s="14">
+        <v>29</v>
+      </c>
+      <c r="J184" s="14">
+        <v>36</v>
+      </c>
+      <c r="K184" s="7">
+        <v>0.32950000000000002</v>
+      </c>
+      <c r="L184" s="14">
+        <v>11</v>
+      </c>
+      <c r="M184" s="14">
+        <v>12</v>
+      </c>
+      <c r="N184" s="14">
+        <v>1</v>
+      </c>
+      <c r="O184" s="14">
+        <v>313.81</v>
+      </c>
+      <c r="P184" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="Q184" s="14">
+        <v>11</v>
+      </c>
+      <c r="R184" s="14">
+        <v>12</v>
+      </c>
+      <c r="S184" s="14">
+        <v>1</v>
+      </c>
+      <c r="T184" s="14">
+        <v>313.81</v>
+      </c>
+      <c r="U184" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="V184" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A185" s="9">
+        <v>45230</v>
+      </c>
+      <c r="B185" s="14">
+        <v>122</v>
+      </c>
+      <c r="C185" s="14">
+        <v>282</v>
+      </c>
+      <c r="D185" s="14">
+        <v>4</v>
+      </c>
+      <c r="E185" s="14">
+        <v>24</v>
+      </c>
+      <c r="F185" s="7">
+        <v>0.19670000000000001</v>
+      </c>
+      <c r="G185" s="14">
+        <v>43</v>
+      </c>
+      <c r="H185" s="14">
+        <v>3</v>
+      </c>
+      <c r="I185" s="14">
+        <v>60</v>
+      </c>
+      <c r="J185" s="14">
+        <v>169</v>
+      </c>
+      <c r="K185" s="7">
+        <v>0.49180000000000001</v>
+      </c>
+      <c r="L185" s="14">
+        <v>15</v>
+      </c>
+      <c r="M185" s="14">
+        <v>26</v>
+      </c>
+      <c r="N185" s="14">
+        <v>2</v>
+      </c>
+      <c r="O185" s="14">
+        <v>743.54</v>
+      </c>
+      <c r="P185" s="7">
+        <v>0.123</v>
+      </c>
+      <c r="Q185" s="14">
+        <v>15</v>
+      </c>
+      <c r="R185" s="14">
+        <v>21</v>
+      </c>
+      <c r="S185" s="14">
+        <v>2</v>
+      </c>
+      <c r="T185" s="14">
+        <v>571.94000000000005</v>
+      </c>
+      <c r="U185" s="7">
+        <v>0.123</v>
+      </c>
+      <c r="V185" s="7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/MergedFile.xlsx
+++ b/MergedFile.xlsx
@@ -5,30 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\CiliLado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwlou\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9627A1E2-4341-43B3-9938-C2FBE14A6BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2DF485-6D78-4BB1-AA15-55A6CCE37D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -123,7 +110,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14409]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -158,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -192,11 +179,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -214,13 +231,27 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,19 +593,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y162" sqref="Y162"/>
+    <sheetView tabSelected="1" topLeftCell="G141" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K163" sqref="K163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" style="10" customWidth="1"/>
-    <col min="2" max="19" width="12" customWidth="1"/>
-    <col min="20" max="20" width="12" style="13" customWidth="1"/>
-    <col min="21" max="23" width="12" customWidth="1"/>
+    <col min="2" max="23" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="39.5" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -632,7 +661,7 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
@@ -657,7 +686,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="15.5" thickTop="1">
       <c r="A2" s="9">
         <v>45047</v>
       </c>
@@ -715,7 +744,7 @@
       <c r="S2" s="2">
         <v>0</v>
       </c>
-      <c r="T2" s="12">
+      <c r="T2" s="2">
         <v>0</v>
       </c>
       <c r="U2" s="3">
@@ -742,7 +771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27">
       <c r="A3" s="9">
         <v>45048</v>
       </c>
@@ -800,7 +829,7 @@
       <c r="S3" s="2">
         <v>1</v>
       </c>
-      <c r="T3" s="12">
+      <c r="T3" s="2">
         <v>58.9</v>
       </c>
       <c r="U3" s="3">
@@ -827,7 +856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27">
       <c r="A4" s="9">
         <v>45049</v>
       </c>
@@ -885,7 +914,7 @@
       <c r="S4" s="2">
         <v>0</v>
       </c>
-      <c r="T4" s="12">
+      <c r="T4" s="2">
         <v>0</v>
       </c>
       <c r="U4" s="3">
@@ -912,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27">
       <c r="A5" s="9">
         <v>45050</v>
       </c>
@@ -970,7 +999,7 @@
       <c r="S5" s="2">
         <v>0</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="2">
         <v>0</v>
       </c>
       <c r="U5" s="3">
@@ -997,7 +1026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27">
       <c r="A6" s="9">
         <v>45051</v>
       </c>
@@ -1055,7 +1084,7 @@
       <c r="S6" s="2">
         <v>0</v>
       </c>
-      <c r="T6" s="12">
+      <c r="T6" s="2">
         <v>0</v>
       </c>
       <c r="U6" s="3">
@@ -1082,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27">
       <c r="A7" s="9">
         <v>45052</v>
       </c>
@@ -1140,7 +1169,7 @@
       <c r="S7" s="2">
         <v>0</v>
       </c>
-      <c r="T7" s="12">
+      <c r="T7" s="2">
         <v>0</v>
       </c>
       <c r="U7" s="3">
@@ -1167,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27">
       <c r="A8" s="9">
         <v>45053</v>
       </c>
@@ -1225,7 +1254,7 @@
       <c r="S8" s="2">
         <v>0</v>
       </c>
-      <c r="T8" s="12">
+      <c r="T8" s="2">
         <v>0</v>
       </c>
       <c r="U8" s="3">
@@ -1252,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27">
       <c r="A9" s="9">
         <v>45054</v>
       </c>
@@ -1310,7 +1339,7 @@
       <c r="S9" s="2">
         <v>0</v>
       </c>
-      <c r="T9" s="12">
+      <c r="T9" s="2">
         <v>0</v>
       </c>
       <c r="U9" s="3">
@@ -1337,7 +1366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27">
       <c r="A10" s="9">
         <v>45055</v>
       </c>
@@ -1395,7 +1424,7 @@
       <c r="S10" s="2">
         <v>0</v>
       </c>
-      <c r="T10" s="12">
+      <c r="T10" s="2">
         <v>0</v>
       </c>
       <c r="U10" s="3">
@@ -1422,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27">
       <c r="A11" s="9">
         <v>45056</v>
       </c>
@@ -1480,7 +1509,7 @@
       <c r="S11" s="2">
         <v>0</v>
       </c>
-      <c r="T11" s="12">
+      <c r="T11" s="2">
         <v>0</v>
       </c>
       <c r="U11" s="3">
@@ -1507,7 +1536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27">
       <c r="A12" s="9">
         <v>45057</v>
       </c>
@@ -1565,7 +1594,7 @@
       <c r="S12" s="2">
         <v>1</v>
       </c>
-      <c r="T12" s="12">
+      <c r="T12" s="2">
         <v>51.9</v>
       </c>
       <c r="U12" s="3">
@@ -1592,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27">
       <c r="A13" s="9">
         <v>45058</v>
       </c>
@@ -1650,7 +1679,7 @@
       <c r="S13" s="2">
         <v>0</v>
       </c>
-      <c r="T13" s="12">
+      <c r="T13" s="2">
         <v>0</v>
       </c>
       <c r="U13" s="3">
@@ -1677,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27">
       <c r="A14" s="9">
         <v>45059</v>
       </c>
@@ -1735,7 +1764,7 @@
       <c r="S14" s="2">
         <v>0</v>
       </c>
-      <c r="T14" s="12">
+      <c r="T14" s="2">
         <v>0</v>
       </c>
       <c r="U14" s="3">
@@ -1762,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27">
       <c r="A15" s="9">
         <v>45060</v>
       </c>
@@ -1820,7 +1849,7 @@
       <c r="S15" s="2">
         <v>1</v>
       </c>
-      <c r="T15" s="12">
+      <c r="T15" s="2">
         <v>113.4</v>
       </c>
       <c r="U15" s="3">
@@ -1847,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27">
       <c r="A16" s="9">
         <v>45061</v>
       </c>
@@ -1905,7 +1934,7 @@
       <c r="S16" s="2">
         <v>1</v>
       </c>
-      <c r="T16" s="12">
+      <c r="T16" s="2">
         <v>17.899999999999999</v>
       </c>
       <c r="U16" s="3">
@@ -1932,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27">
       <c r="A17" s="9">
         <v>45062</v>
       </c>
@@ -1990,7 +2019,7 @@
       <c r="S17" s="2">
         <v>0</v>
       </c>
-      <c r="T17" s="12">
+      <c r="T17" s="2">
         <v>0</v>
       </c>
       <c r="U17" s="3">
@@ -2017,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27">
       <c r="A18" s="9">
         <v>45063</v>
       </c>
@@ -2075,7 +2104,7 @@
       <c r="S18" s="2">
         <v>1</v>
       </c>
-      <c r="T18" s="12">
+      <c r="T18" s="2">
         <v>17.899999999999999</v>
       </c>
       <c r="U18" s="3">
@@ -2102,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27">
       <c r="A19" s="9">
         <v>45064</v>
       </c>
@@ -2160,7 +2189,7 @@
       <c r="S19" s="2">
         <v>0</v>
       </c>
-      <c r="T19" s="12">
+      <c r="T19" s="2">
         <v>0</v>
       </c>
       <c r="U19" s="3">
@@ -2187,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27">
       <c r="A20" s="9">
         <v>45065</v>
       </c>
@@ -2245,7 +2274,7 @@
       <c r="S20" s="2">
         <v>0</v>
       </c>
-      <c r="T20" s="12">
+      <c r="T20" s="2">
         <v>0</v>
       </c>
       <c r="U20" s="3">
@@ -2272,7 +2301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27">
       <c r="A21" s="9">
         <v>45066</v>
       </c>
@@ -2330,7 +2359,7 @@
       <c r="S21" s="2">
         <v>0</v>
       </c>
-      <c r="T21" s="12">
+      <c r="T21" s="2">
         <v>0</v>
       </c>
       <c r="U21" s="3">
@@ -2357,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27">
       <c r="A22" s="9">
         <v>45067</v>
       </c>
@@ -2415,7 +2444,7 @@
       <c r="S22" s="2">
         <v>0</v>
       </c>
-      <c r="T22" s="12">
+      <c r="T22" s="2">
         <v>0</v>
       </c>
       <c r="U22" s="3">
@@ -2442,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27">
       <c r="A23" s="9">
         <v>45068</v>
       </c>
@@ -2500,7 +2529,7 @@
       <c r="S23" s="2">
         <v>0</v>
       </c>
-      <c r="T23" s="12">
+      <c r="T23" s="2">
         <v>0</v>
       </c>
       <c r="U23" s="3">
@@ -2527,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27">
       <c r="A24" s="9">
         <v>45069</v>
       </c>
@@ -2585,7 +2614,7 @@
       <c r="S24" s="2">
         <v>0</v>
       </c>
-      <c r="T24" s="12">
+      <c r="T24" s="2">
         <v>0</v>
       </c>
       <c r="U24" s="3">
@@ -2612,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27">
       <c r="A25" s="9">
         <v>45070</v>
       </c>
@@ -2670,7 +2699,7 @@
       <c r="S25" s="2">
         <v>0</v>
       </c>
-      <c r="T25" s="12">
+      <c r="T25" s="2">
         <v>0</v>
       </c>
       <c r="U25" s="3">
@@ -2697,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27">
       <c r="A26" s="9">
         <v>45071</v>
       </c>
@@ -2755,7 +2784,7 @@
       <c r="S26" s="2">
         <v>0</v>
       </c>
-      <c r="T26" s="12">
+      <c r="T26" s="2">
         <v>0</v>
       </c>
       <c r="U26" s="3">
@@ -2782,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27">
       <c r="A27" s="9">
         <v>45072</v>
       </c>
@@ -2840,7 +2869,7 @@
       <c r="S27" s="2">
         <v>0</v>
       </c>
-      <c r="T27" s="12">
+      <c r="T27" s="2">
         <v>0</v>
       </c>
       <c r="U27" s="3">
@@ -2867,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27">
       <c r="A28" s="9">
         <v>45073</v>
       </c>
@@ -2925,7 +2954,7 @@
       <c r="S28" s="2">
         <v>0</v>
       </c>
-      <c r="T28" s="12">
+      <c r="T28" s="2">
         <v>0</v>
       </c>
       <c r="U28" s="3">
@@ -2952,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27">
       <c r="A29" s="9">
         <v>45074</v>
       </c>
@@ -3010,7 +3039,7 @@
       <c r="S29" s="2">
         <v>1</v>
       </c>
-      <c r="T29" s="12">
+      <c r="T29" s="2">
         <v>22.9</v>
       </c>
       <c r="U29" s="3">
@@ -3037,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27">
       <c r="A30" s="9">
         <v>45075</v>
       </c>
@@ -3095,7 +3124,7 @@
       <c r="S30" s="2">
         <v>0</v>
       </c>
-      <c r="T30" s="12">
+      <c r="T30" s="2">
         <v>0</v>
       </c>
       <c r="U30" s="3">
@@ -3122,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27">
       <c r="A31" s="9">
         <v>45076</v>
       </c>
@@ -3180,7 +3209,7 @@
       <c r="S31" s="2">
         <v>0</v>
       </c>
-      <c r="T31" s="12">
+      <c r="T31" s="2">
         <v>0</v>
       </c>
       <c r="U31" s="3">
@@ -3207,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27">
       <c r="A32" s="9">
         <v>45077</v>
       </c>
@@ -3265,7 +3294,7 @@
       <c r="S32" s="2">
         <v>0</v>
       </c>
-      <c r="T32" s="12">
+      <c r="T32" s="2">
         <v>0</v>
       </c>
       <c r="U32" s="3">
@@ -3292,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27">
       <c r="A33" s="9">
         <v>45078</v>
       </c>
@@ -3350,7 +3379,7 @@
       <c r="S33" s="2">
         <v>0</v>
       </c>
-      <c r="T33" s="12">
+      <c r="T33" s="2">
         <v>0</v>
       </c>
       <c r="U33" s="3">
@@ -3377,7 +3406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27">
       <c r="A34" s="9">
         <v>45079</v>
       </c>
@@ -3435,7 +3464,7 @@
       <c r="S34" s="2">
         <v>0</v>
       </c>
-      <c r="T34" s="12">
+      <c r="T34" s="2">
         <v>0</v>
       </c>
       <c r="U34" s="3">
@@ -3462,7 +3491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27">
       <c r="A35" s="9">
         <v>45080</v>
       </c>
@@ -3520,7 +3549,7 @@
       <c r="S35" s="2">
         <v>0</v>
       </c>
-      <c r="T35" s="12">
+      <c r="T35" s="2">
         <v>0</v>
       </c>
       <c r="U35" s="3">
@@ -3547,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27">
       <c r="A36" s="9">
         <v>45081</v>
       </c>
@@ -3605,7 +3634,7 @@
       <c r="S36" s="2">
         <v>0</v>
       </c>
-      <c r="T36" s="12">
+      <c r="T36" s="2">
         <v>0</v>
       </c>
       <c r="U36" s="3">
@@ -3632,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27">
       <c r="A37" s="9">
         <v>45082</v>
       </c>
@@ -3690,7 +3719,7 @@
       <c r="S37" s="2">
         <v>1</v>
       </c>
-      <c r="T37" s="12">
+      <c r="T37" s="2">
         <v>22.9</v>
       </c>
       <c r="U37" s="3">
@@ -3717,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27">
       <c r="A38" s="9">
         <v>45083</v>
       </c>
@@ -3775,7 +3804,7 @@
       <c r="S38" s="2">
         <v>0</v>
       </c>
-      <c r="T38" s="12">
+      <c r="T38" s="2">
         <v>0</v>
       </c>
       <c r="U38" s="3">
@@ -3802,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27">
       <c r="A39" s="9">
         <v>45084</v>
       </c>
@@ -3860,7 +3889,7 @@
       <c r="S39" s="2">
         <v>0</v>
       </c>
-      <c r="T39" s="12">
+      <c r="T39" s="2">
         <v>0</v>
       </c>
       <c r="U39" s="3">
@@ -3887,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27">
       <c r="A40" s="9">
         <v>45085</v>
       </c>
@@ -3945,7 +3974,7 @@
       <c r="S40" s="2">
         <v>0</v>
       </c>
-      <c r="T40" s="12">
+      <c r="T40" s="2">
         <v>0</v>
       </c>
       <c r="U40" s="3">
@@ -3972,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27">
       <c r="A41" s="9">
         <v>45086</v>
       </c>
@@ -4030,7 +4059,7 @@
       <c r="S41" s="2">
         <v>0</v>
       </c>
-      <c r="T41" s="12">
+      <c r="T41" s="2">
         <v>0</v>
       </c>
       <c r="U41" s="3">
@@ -4057,7 +4086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27">
       <c r="A42" s="9">
         <v>45087</v>
       </c>
@@ -4115,7 +4144,7 @@
       <c r="S42" s="2">
         <v>0</v>
       </c>
-      <c r="T42" s="12">
+      <c r="T42" s="2">
         <v>0</v>
       </c>
       <c r="U42" s="3">
@@ -4142,7 +4171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27">
       <c r="A43" s="9">
         <v>45088</v>
       </c>
@@ -4200,7 +4229,7 @@
       <c r="S43" s="2">
         <v>0</v>
       </c>
-      <c r="T43" s="12">
+      <c r="T43" s="2">
         <v>0</v>
       </c>
       <c r="U43" s="3">
@@ -4227,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27">
       <c r="A44" s="9">
         <v>45089</v>
       </c>
@@ -4285,7 +4314,7 @@
       <c r="S44" s="2">
         <v>0</v>
       </c>
-      <c r="T44" s="12">
+      <c r="T44" s="2">
         <v>0</v>
       </c>
       <c r="U44" s="3">
@@ -4312,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27">
       <c r="A45" s="9">
         <v>45090</v>
       </c>
@@ -4370,7 +4399,7 @@
       <c r="S45" s="2">
         <v>0</v>
       </c>
-      <c r="T45" s="12">
+      <c r="T45" s="2">
         <v>0</v>
       </c>
       <c r="U45" s="3">
@@ -4397,7 +4426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27">
       <c r="A46" s="9">
         <v>45091</v>
       </c>
@@ -4455,7 +4484,7 @@
       <c r="S46" s="2">
         <v>0</v>
       </c>
-      <c r="T46" s="12">
+      <c r="T46" s="2">
         <v>0</v>
       </c>
       <c r="U46" s="3">
@@ -4482,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27">
       <c r="A47" s="9">
         <v>45092</v>
       </c>
@@ -4540,7 +4569,7 @@
       <c r="S47" s="2">
         <v>0</v>
       </c>
-      <c r="T47" s="12">
+      <c r="T47" s="2">
         <v>0</v>
       </c>
       <c r="U47" s="3">
@@ -4567,7 +4596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27">
       <c r="A48" s="9">
         <v>45093</v>
       </c>
@@ -4625,7 +4654,7 @@
       <c r="S48" s="2">
         <v>0</v>
       </c>
-      <c r="T48" s="12">
+      <c r="T48" s="2">
         <v>0</v>
       </c>
       <c r="U48" s="3">
@@ -4652,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27">
       <c r="A49" s="9">
         <v>45094</v>
       </c>
@@ -4710,7 +4739,7 @@
       <c r="S49" s="2">
         <v>1</v>
       </c>
-      <c r="T49" s="12">
+      <c r="T49" s="2">
         <v>81.8</v>
       </c>
       <c r="U49" s="3">
@@ -4737,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27">
       <c r="A50" s="9">
         <v>45095</v>
       </c>
@@ -4795,7 +4824,7 @@
       <c r="S50" s="2">
         <v>1</v>
       </c>
-      <c r="T50" s="12">
+      <c r="T50" s="2">
         <v>40.9</v>
       </c>
       <c r="U50" s="3">
@@ -4822,7 +4851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27">
       <c r="A51" s="9">
         <v>45096</v>
       </c>
@@ -4880,7 +4909,7 @@
       <c r="S51" s="2">
         <v>2</v>
       </c>
-      <c r="T51" s="12">
+      <c r="T51" s="2">
         <v>823.2</v>
       </c>
       <c r="U51" s="3">
@@ -4907,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27">
       <c r="A52" s="9">
         <v>45097</v>
       </c>
@@ -4965,7 +4994,7 @@
       <c r="S52" s="2">
         <v>1</v>
       </c>
-      <c r="T52" s="12">
+      <c r="T52" s="2">
         <v>456.85</v>
       </c>
       <c r="U52" s="3">
@@ -4992,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27">
       <c r="A53" s="9">
         <v>45098</v>
       </c>
@@ -5050,7 +5079,7 @@
       <c r="S53" s="2">
         <v>2</v>
       </c>
-      <c r="T53" s="12">
+      <c r="T53" s="2">
         <v>921.97</v>
       </c>
       <c r="U53" s="3">
@@ -5077,7 +5106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27">
       <c r="A54" s="9">
         <v>45099</v>
       </c>
@@ -5135,7 +5164,7 @@
       <c r="S54" s="2">
         <v>2</v>
       </c>
-      <c r="T54" s="12">
+      <c r="T54" s="4">
         <v>1491.01</v>
       </c>
       <c r="U54" s="3">
@@ -5162,7 +5191,7 @@
         <v>4.2553191489361701E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27">
       <c r="A55" s="9">
         <v>45100</v>
       </c>
@@ -5220,7 +5249,7 @@
       <c r="S55" s="2">
         <v>2</v>
       </c>
-      <c r="T55" s="12">
+      <c r="T55" s="4">
         <v>1444.74</v>
       </c>
       <c r="U55" s="3">
@@ -5247,7 +5276,7 @@
         <v>2.2222222222222223E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27">
       <c r="A56" s="9">
         <v>45101</v>
       </c>
@@ -5305,7 +5334,7 @@
       <c r="S56" s="2">
         <v>2</v>
       </c>
-      <c r="T56" s="12">
+      <c r="T56" s="4">
         <v>1275.9000000000001</v>
       </c>
       <c r="U56" s="3">
@@ -5332,7 +5361,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27">
       <c r="A57" s="9">
         <v>45102</v>
       </c>
@@ -5390,7 +5419,7 @@
       <c r="S57" s="2">
         <v>1</v>
       </c>
-      <c r="T57" s="12">
+      <c r="T57" s="2">
         <v>572.87</v>
       </c>
       <c r="U57" s="3">
@@ -5417,7 +5446,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27">
       <c r="A58" s="9">
         <v>45103</v>
       </c>
@@ -5475,7 +5504,7 @@
       <c r="S58" s="2">
         <v>1</v>
       </c>
-      <c r="T58" s="12">
+      <c r="T58" s="2">
         <v>324.10000000000002</v>
       </c>
       <c r="U58" s="3">
@@ -5502,7 +5531,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27">
       <c r="A59" s="9">
         <v>45104</v>
       </c>
@@ -5560,7 +5589,7 @@
       <c r="S59" s="2">
         <v>2</v>
       </c>
-      <c r="T59" s="12">
+      <c r="T59" s="2">
         <v>306.10000000000002</v>
       </c>
       <c r="U59" s="3">
@@ -5587,7 +5616,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27">
       <c r="A60" s="9">
         <v>45105</v>
       </c>
@@ -5645,7 +5674,7 @@
       <c r="S60" s="2">
         <v>1</v>
       </c>
-      <c r="T60" s="12">
+      <c r="T60" s="2">
         <v>153.6</v>
       </c>
       <c r="U60" s="3">
@@ -5672,7 +5701,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27">
       <c r="A61" s="9">
         <v>45106</v>
       </c>
@@ -5730,7 +5759,7 @@
       <c r="S61" s="2">
         <v>1</v>
       </c>
-      <c r="T61" s="12">
+      <c r="T61" s="2">
         <v>331.83</v>
       </c>
       <c r="U61" s="3">
@@ -5757,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27">
       <c r="A62" s="9">
         <v>45107</v>
       </c>
@@ -5815,7 +5844,7 @@
       <c r="S62" s="2">
         <v>1</v>
       </c>
-      <c r="T62" s="12">
+      <c r="T62" s="2">
         <v>501</v>
       </c>
       <c r="U62" s="3">
@@ -5842,7 +5871,7 @@
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27">
       <c r="A63" s="9">
         <v>45108</v>
       </c>
@@ -5900,7 +5929,7 @@
       <c r="S63" s="2">
         <v>1</v>
       </c>
-      <c r="T63" s="12">
+      <c r="T63" s="2">
         <v>623.29999999999995</v>
       </c>
       <c r="U63" s="3">
@@ -5927,7 +5956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27">
       <c r="A64" s="9">
         <v>45109</v>
       </c>
@@ -5985,7 +6014,7 @@
       <c r="S64" s="2">
         <v>2</v>
       </c>
-      <c r="T64" s="12">
+      <c r="T64" s="2">
         <v>287.7</v>
       </c>
       <c r="U64" s="3">
@@ -6012,7 +6041,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27">
       <c r="A65" s="9">
         <v>45110</v>
       </c>
@@ -6070,7 +6099,7 @@
       <c r="S65" s="2">
         <v>1</v>
       </c>
-      <c r="T65" s="12">
+      <c r="T65" s="2">
         <v>22.9</v>
       </c>
       <c r="U65" s="3">
@@ -6097,7 +6126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27">
       <c r="A66" s="9">
         <v>45111</v>
       </c>
@@ -6155,7 +6184,7 @@
       <c r="S66" s="2">
         <v>0</v>
       </c>
-      <c r="T66" s="12">
+      <c r="T66" s="2">
         <v>0</v>
       </c>
       <c r="U66" s="3">
@@ -6182,7 +6211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27">
       <c r="A67" s="9">
         <v>45112</v>
       </c>
@@ -6240,7 +6269,7 @@
       <c r="S67" s="2">
         <v>0</v>
       </c>
-      <c r="T67" s="12">
+      <c r="T67" s="2">
         <v>0</v>
       </c>
       <c r="U67" s="3">
@@ -6267,7 +6296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27">
       <c r="A68" s="9">
         <v>45113</v>
       </c>
@@ -6325,7 +6354,7 @@
       <c r="S68" s="2">
         <v>0</v>
       </c>
-      <c r="T68" s="12">
+      <c r="T68" s="2">
         <v>0</v>
       </c>
       <c r="U68" s="3">
@@ -6352,7 +6381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27">
       <c r="A69" s="9">
         <v>45114</v>
       </c>
@@ -6410,7 +6439,7 @@
       <c r="S69" s="2">
         <v>0</v>
       </c>
-      <c r="T69" s="12">
+      <c r="T69" s="2">
         <v>0</v>
       </c>
       <c r="U69" s="3">
@@ -6437,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27">
       <c r="A70" s="9">
         <v>45115</v>
       </c>
@@ -6495,7 +6524,7 @@
       <c r="S70" s="2">
         <v>0</v>
       </c>
-      <c r="T70" s="12">
+      <c r="T70" s="2">
         <v>0</v>
       </c>
       <c r="U70" s="3">
@@ -6522,7 +6551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27">
       <c r="A71" s="9">
         <v>45116</v>
       </c>
@@ -6580,7 +6609,7 @@
       <c r="S71" s="2">
         <v>0</v>
       </c>
-      <c r="T71" s="12">
+      <c r="T71" s="2">
         <v>0</v>
       </c>
       <c r="U71" s="3">
@@ -6607,7 +6636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27">
       <c r="A72" s="9">
         <v>45117</v>
       </c>
@@ -6665,7 +6694,7 @@
       <c r="S72" s="2">
         <v>2</v>
       </c>
-      <c r="T72" s="12">
+      <c r="T72" s="4">
         <v>2256.1</v>
       </c>
       <c r="U72" s="3">
@@ -6692,7 +6721,7 @@
         <v>0.11666666666666667</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27">
       <c r="A73" s="9">
         <v>45118</v>
       </c>
@@ -6750,7 +6779,7 @@
       <c r="S73" s="2">
         <v>1</v>
       </c>
-      <c r="T73" s="12">
+      <c r="T73" s="4">
         <v>1802.29</v>
       </c>
       <c r="U73" s="3">
@@ -6777,7 +6806,7 @@
         <v>0.10204081632653061</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27">
       <c r="A74" s="9">
         <v>45119</v>
       </c>
@@ -6835,7 +6864,7 @@
       <c r="S74" s="2">
         <v>1</v>
       </c>
-      <c r="T74" s="12">
+      <c r="T74" s="2">
         <v>255.2</v>
       </c>
       <c r="U74" s="3">
@@ -6862,7 +6891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27">
       <c r="A75" s="9">
         <v>45120</v>
       </c>
@@ -6920,7 +6949,7 @@
       <c r="S75" s="2">
         <v>1</v>
       </c>
-      <c r="T75" s="12">
+      <c r="T75" s="4">
         <v>1086.8</v>
       </c>
       <c r="U75" s="3">
@@ -6947,7 +6976,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27">
       <c r="A76" s="9">
         <v>45121</v>
       </c>
@@ -7005,7 +7034,7 @@
       <c r="S76" s="2">
         <v>1</v>
       </c>
-      <c r="T76" s="12">
+      <c r="T76" s="2">
         <v>340.5</v>
       </c>
       <c r="U76" s="3">
@@ -7032,7 +7061,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27">
       <c r="A77" s="9">
         <v>45122</v>
       </c>
@@ -7090,7 +7119,7 @@
       <c r="S77" s="2">
         <v>1</v>
       </c>
-      <c r="T77" s="12">
+      <c r="T77" s="2">
         <v>554.66999999999996</v>
       </c>
       <c r="U77" s="3">
@@ -7117,7 +7146,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27">
       <c r="A78" s="9">
         <v>45123</v>
       </c>
@@ -7175,7 +7204,7 @@
       <c r="S78" s="2">
         <v>1</v>
       </c>
-      <c r="T78" s="12">
+      <c r="T78" s="2">
         <v>264.5</v>
       </c>
       <c r="U78" s="3">
@@ -7202,7 +7231,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27">
       <c r="A79" s="9">
         <v>45124</v>
       </c>
@@ -7260,7 +7289,7 @@
       <c r="S79" s="2">
         <v>1</v>
       </c>
-      <c r="T79" s="12">
+      <c r="T79" s="2">
         <v>296.10000000000002</v>
       </c>
       <c r="U79" s="3">
@@ -7287,7 +7316,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27">
       <c r="A80" s="9">
         <v>45125</v>
       </c>
@@ -7345,7 +7374,7 @@
       <c r="S80" s="2">
         <v>1</v>
       </c>
-      <c r="T80" s="12">
+      <c r="T80" s="2">
         <v>500.26</v>
       </c>
       <c r="U80" s="3">
@@ -7372,7 +7401,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27">
       <c r="A81" s="9">
         <v>45126</v>
       </c>
@@ -7430,7 +7459,7 @@
       <c r="S81" s="2">
         <v>1</v>
       </c>
-      <c r="T81" s="12">
+      <c r="T81" s="2">
         <v>268.3</v>
       </c>
       <c r="U81" s="3">
@@ -7457,7 +7486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27">
       <c r="A82" s="9">
         <v>45127</v>
       </c>
@@ -7515,7 +7544,7 @@
       <c r="S82" s="2">
         <v>1</v>
       </c>
-      <c r="T82" s="12">
+      <c r="T82" s="2">
         <v>521.66999999999996</v>
       </c>
       <c r="U82" s="3">
@@ -7542,7 +7571,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27">
       <c r="A83" s="9">
         <v>45128</v>
       </c>
@@ -7600,7 +7629,7 @@
       <c r="S83" s="2">
         <v>1</v>
       </c>
-      <c r="T83" s="12">
+      <c r="T83" s="2">
         <v>344.5</v>
       </c>
       <c r="U83" s="3">
@@ -7627,7 +7656,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27">
       <c r="A84" s="9">
         <v>45129</v>
       </c>
@@ -7685,7 +7714,7 @@
       <c r="S84" s="2">
         <v>1</v>
       </c>
-      <c r="T84" s="12">
+      <c r="T84" s="2">
         <v>171.6</v>
       </c>
       <c r="U84" s="3">
@@ -7712,7 +7741,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27">
       <c r="A85" s="9">
         <v>45130</v>
       </c>
@@ -7770,7 +7799,7 @@
       <c r="S85" s="2">
         <v>1</v>
       </c>
-      <c r="T85" s="12">
+      <c r="T85" s="2">
         <v>503.52</v>
       </c>
       <c r="U85" s="3">
@@ -7797,7 +7826,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27">
       <c r="A86" s="9">
         <v>45131</v>
       </c>
@@ -7855,7 +7884,7 @@
       <c r="S86" s="2">
         <v>1</v>
       </c>
-      <c r="T86" s="12">
+      <c r="T86" s="2">
         <v>720.53</v>
       </c>
       <c r="U86" s="3">
@@ -7882,7 +7911,7 @@
         <v>0.23809523809523808</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27">
       <c r="A87" s="9">
         <v>45132</v>
       </c>
@@ -7940,7 +7969,7 @@
       <c r="S87" s="2">
         <v>1</v>
       </c>
-      <c r="T87" s="12">
+      <c r="T87" s="2">
         <v>372.86</v>
       </c>
       <c r="U87" s="3">
@@ -7967,7 +7996,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27">
       <c r="A88" s="9">
         <v>45133</v>
       </c>
@@ -8025,7 +8054,7 @@
       <c r="S88" s="2">
         <v>1</v>
       </c>
-      <c r="T88" s="12">
+      <c r="T88" s="2">
         <v>626.54999999999995</v>
       </c>
       <c r="U88" s="3">
@@ -8052,7 +8081,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27">
       <c r="A89" s="9">
         <v>45134</v>
       </c>
@@ -8110,7 +8139,7 @@
       <c r="S89" s="2">
         <v>1</v>
       </c>
-      <c r="T89" s="12">
+      <c r="T89" s="2">
         <v>145.6</v>
       </c>
       <c r="U89" s="3">
@@ -8137,7 +8166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27">
       <c r="A90" s="9">
         <v>45135</v>
       </c>
@@ -8195,7 +8224,7 @@
       <c r="S90" s="2">
         <v>1</v>
       </c>
-      <c r="T90" s="12">
+      <c r="T90" s="2">
         <v>458.19</v>
       </c>
       <c r="U90" s="3">
@@ -8222,7 +8251,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27">
       <c r="A91" s="9">
         <v>45136</v>
       </c>
@@ -8280,7 +8309,7 @@
       <c r="S91" s="2">
         <v>1</v>
       </c>
-      <c r="T91" s="12">
+      <c r="T91" s="2">
         <v>218.9</v>
       </c>
       <c r="U91" s="3">
@@ -8307,7 +8336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27">
       <c r="A92" s="9">
         <v>45137</v>
       </c>
@@ -8365,7 +8394,7 @@
       <c r="S92" s="2">
         <v>1</v>
       </c>
-      <c r="T92" s="12">
+      <c r="T92" s="2">
         <v>63.8</v>
       </c>
       <c r="U92" s="3">
@@ -8392,7 +8421,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27">
       <c r="A93" s="9">
         <v>45138</v>
       </c>
@@ -8450,7 +8479,7 @@
       <c r="S93" s="2">
         <v>1</v>
       </c>
-      <c r="T93" s="12">
+      <c r="T93" s="2">
         <v>224.5</v>
       </c>
       <c r="U93" s="3">
@@ -8477,7 +8506,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27">
       <c r="A94" s="9">
         <v>45139</v>
       </c>
@@ -8535,7 +8564,7 @@
       <c r="S94" s="2">
         <v>1</v>
       </c>
-      <c r="T94" s="12">
+      <c r="T94" s="2">
         <v>180.3</v>
       </c>
       <c r="U94" s="3">
@@ -8562,7 +8591,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27">
       <c r="A95" s="9">
         <v>45140</v>
       </c>
@@ -8620,7 +8649,7 @@
       <c r="S95" s="2">
         <v>1</v>
       </c>
-      <c r="T95" s="12">
+      <c r="T95" s="2">
         <v>449.9</v>
       </c>
       <c r="U95" s="3">
@@ -8647,7 +8676,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27">
       <c r="A96" s="9">
         <v>45141</v>
       </c>
@@ -8705,7 +8734,7 @@
       <c r="S96" s="2">
         <v>1</v>
       </c>
-      <c r="T96" s="12">
+      <c r="T96" s="2">
         <v>135.75</v>
       </c>
       <c r="U96" s="3">
@@ -8732,7 +8761,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27">
       <c r="A97" s="9">
         <v>45142</v>
       </c>
@@ -8790,7 +8819,7 @@
       <c r="S97" s="2">
         <v>1</v>
       </c>
-      <c r="T97" s="12">
+      <c r="T97" s="2">
         <v>197.55</v>
       </c>
       <c r="U97" s="3">
@@ -8817,7 +8846,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27">
       <c r="A98" s="9">
         <v>45143</v>
       </c>
@@ -8875,7 +8904,7 @@
       <c r="S98" s="2">
         <v>1</v>
       </c>
-      <c r="T98" s="12">
+      <c r="T98" s="2">
         <v>166.7</v>
       </c>
       <c r="U98" s="3">
@@ -8902,7 +8931,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27">
       <c r="A99" s="9">
         <v>45144</v>
       </c>
@@ -8960,7 +8989,7 @@
       <c r="S99" s="2">
         <v>1</v>
       </c>
-      <c r="T99" s="12">
+      <c r="T99" s="2">
         <v>199.6</v>
       </c>
       <c r="U99" s="3">
@@ -8987,7 +9016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:27">
       <c r="A100" s="9">
         <v>45145</v>
       </c>
@@ -9045,7 +9074,7 @@
       <c r="S100" s="2">
         <v>1</v>
       </c>
-      <c r="T100" s="12">
+      <c r="T100" s="2">
         <v>295.33</v>
       </c>
       <c r="U100" s="3">
@@ -9072,7 +9101,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27">
       <c r="A101" s="9">
         <v>45146</v>
       </c>
@@ -9130,7 +9159,7 @@
       <c r="S101" s="2">
         <v>1</v>
       </c>
-      <c r="T101" s="12">
+      <c r="T101" s="2">
         <v>539.86</v>
       </c>
       <c r="U101" s="3">
@@ -9157,7 +9186,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27">
       <c r="A102" s="9">
         <v>45147</v>
       </c>
@@ -9215,7 +9244,7 @@
       <c r="S102" s="2">
         <v>1</v>
       </c>
-      <c r="T102" s="12">
+      <c r="T102" s="2">
         <v>114.9</v>
       </c>
       <c r="U102" s="3">
@@ -9242,7 +9271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27">
       <c r="A103" s="9">
         <v>45148</v>
       </c>
@@ -9300,7 +9329,7 @@
       <c r="S103" s="2">
         <v>1</v>
       </c>
-      <c r="T103" s="12">
+      <c r="T103" s="2">
         <v>76.900000000000006</v>
       </c>
       <c r="U103" s="3">
@@ -9327,7 +9356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27">
       <c r="A104" s="9">
         <v>45149</v>
       </c>
@@ -9385,7 +9414,7 @@
       <c r="S104" s="2">
         <v>1</v>
       </c>
-      <c r="T104" s="12">
+      <c r="T104" s="2">
         <v>106.79</v>
       </c>
       <c r="U104" s="3">
@@ -9412,7 +9441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27">
       <c r="A105" s="9">
         <v>45150</v>
       </c>
@@ -9470,7 +9499,7 @@
       <c r="S105" s="2">
         <v>1</v>
       </c>
-      <c r="T105" s="12">
+      <c r="T105" s="2">
         <v>130.9</v>
       </c>
       <c r="U105" s="3">
@@ -9497,7 +9526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27">
       <c r="A106" s="9">
         <v>45151</v>
       </c>
@@ -9555,7 +9584,7 @@
       <c r="S106" s="2">
         <v>1</v>
       </c>
-      <c r="T106" s="12">
+      <c r="T106" s="2">
         <v>40.9</v>
       </c>
       <c r="U106" s="3">
@@ -9582,7 +9611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27">
       <c r="A107" s="9">
         <v>45152</v>
       </c>
@@ -9640,7 +9669,7 @@
       <c r="S107" s="2">
         <v>1</v>
       </c>
-      <c r="T107" s="12">
+      <c r="T107" s="2">
         <v>629.39</v>
       </c>
       <c r="U107" s="3">
@@ -9667,7 +9696,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27">
       <c r="A108" s="9">
         <v>45153</v>
       </c>
@@ -9725,7 +9754,7 @@
       <c r="S108" s="2">
         <v>1</v>
       </c>
-      <c r="T108" s="12">
+      <c r="T108" s="2">
         <v>128.82</v>
       </c>
       <c r="U108" s="3">
@@ -9752,7 +9781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:27">
       <c r="A109" s="9">
         <v>45154</v>
       </c>
@@ -9810,7 +9839,7 @@
       <c r="S109" s="2">
         <v>1</v>
       </c>
-      <c r="T109" s="12">
+      <c r="T109" s="2">
         <v>171.8</v>
       </c>
       <c r="U109" s="3">
@@ -9837,7 +9866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27">
       <c r="A110" s="9">
         <v>45155</v>
       </c>
@@ -9895,7 +9924,7 @@
       <c r="S110" s="2">
         <v>1</v>
       </c>
-      <c r="T110" s="12">
+      <c r="T110" s="2">
         <v>144</v>
       </c>
       <c r="U110" s="3">
@@ -9922,7 +9951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27">
       <c r="A111" s="9">
         <v>45156</v>
       </c>
@@ -9980,7 +10009,7 @@
       <c r="S111" s="2">
         <v>1</v>
       </c>
-      <c r="T111" s="12">
+      <c r="T111" s="2">
         <v>130.30000000000001</v>
       </c>
       <c r="U111" s="3">
@@ -10007,7 +10036,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27">
       <c r="A112" s="9">
         <v>45157</v>
       </c>
@@ -10065,7 +10094,7 @@
       <c r="S112" s="2">
         <v>1</v>
       </c>
-      <c r="T112" s="12">
+      <c r="T112" s="2">
         <v>112.9</v>
       </c>
       <c r="U112" s="3">
@@ -10092,7 +10121,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:27">
       <c r="A113" s="9">
         <v>45158</v>
       </c>
@@ -10150,7 +10179,7 @@
       <c r="S113" s="2">
         <v>1</v>
       </c>
-      <c r="T113" s="12">
+      <c r="T113" s="2">
         <v>144</v>
       </c>
       <c r="U113" s="3">
@@ -10177,7 +10206,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:27">
       <c r="A114" s="9">
         <v>45159</v>
       </c>
@@ -10235,7 +10264,7 @@
       <c r="S114" s="2">
         <v>1</v>
       </c>
-      <c r="T114" s="12">
+      <c r="T114" s="2">
         <v>45.8</v>
       </c>
       <c r="U114" s="3">
@@ -10262,7 +10291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:27">
       <c r="A115" s="9">
         <v>45160</v>
       </c>
@@ -10320,7 +10349,7 @@
       <c r="S115" s="2">
         <v>1</v>
       </c>
-      <c r="T115" s="12">
+      <c r="T115" s="2">
         <v>158.69999999999999</v>
       </c>
       <c r="U115" s="3">
@@ -10347,7 +10376,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:27">
       <c r="A116" s="9">
         <v>45161</v>
       </c>
@@ -10405,7 +10434,7 @@
       <c r="S116" s="2">
         <v>1</v>
       </c>
-      <c r="T116" s="12">
+      <c r="T116" s="2">
         <v>854.55</v>
       </c>
       <c r="U116" s="3">
@@ -10432,7 +10461,7 @@
         <v>0.21739130434782608</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:27">
       <c r="A117" s="9">
         <v>45162</v>
       </c>
@@ -10490,7 +10519,7 @@
       <c r="S117" s="2">
         <v>1</v>
       </c>
-      <c r="T117" s="12">
+      <c r="T117" s="2">
         <v>171.8</v>
       </c>
       <c r="U117" s="3">
@@ -10517,7 +10546,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:27">
       <c r="A118" s="9">
         <v>45163</v>
       </c>
@@ -10575,7 +10604,7 @@
       <c r="S118" s="2">
         <v>1</v>
       </c>
-      <c r="T118" s="12">
+      <c r="T118" s="2">
         <v>758.45</v>
       </c>
       <c r="U118" s="3">
@@ -10602,7 +10631,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:27">
       <c r="A119" s="9">
         <v>45164</v>
       </c>
@@ -10660,7 +10689,7 @@
       <c r="S119" s="2">
         <v>1</v>
       </c>
-      <c r="T119" s="12">
+      <c r="T119" s="2">
         <v>111.05</v>
       </c>
       <c r="U119" s="3">
@@ -10687,7 +10716,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:27">
       <c r="A120" s="9">
         <v>45165</v>
       </c>
@@ -10745,7 +10774,7 @@
       <c r="S120" s="2">
         <v>1</v>
       </c>
-      <c r="T120" s="12">
+      <c r="T120" s="2">
         <v>247.23</v>
       </c>
       <c r="U120" s="3">
@@ -10772,7 +10801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:27">
       <c r="A121" s="9">
         <v>45166</v>
       </c>
@@ -10830,7 +10859,7 @@
       <c r="S121" s="2">
         <v>1</v>
       </c>
-      <c r="T121" s="12">
+      <c r="T121" s="2">
         <v>359.27</v>
       </c>
       <c r="U121" s="3">
@@ -10857,7 +10886,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:27">
       <c r="A122" s="9">
         <v>45167</v>
       </c>
@@ -10915,7 +10944,7 @@
       <c r="S122" s="2">
         <v>1</v>
       </c>
-      <c r="T122" s="12">
+      <c r="T122" s="2">
         <v>51.4</v>
       </c>
       <c r="U122" s="3">
@@ -10942,7 +10971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:27">
       <c r="A123" s="9">
         <v>45168</v>
       </c>
@@ -11000,7 +11029,7 @@
       <c r="S123" s="2">
         <v>1</v>
       </c>
-      <c r="T123" s="12">
+      <c r="T123" s="2">
         <v>630.76</v>
       </c>
       <c r="U123" s="3">
@@ -11027,7 +11056,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:27">
       <c r="A124" s="9">
         <v>45169</v>
       </c>
@@ -11085,7 +11114,7 @@
       <c r="S124" s="2">
         <v>1</v>
       </c>
-      <c r="T124" s="12">
+      <c r="T124" s="2">
         <v>163.57</v>
       </c>
       <c r="U124" s="3">
@@ -11112,7 +11141,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:27">
       <c r="A125" s="9">
         <v>45170</v>
       </c>
@@ -11170,7 +11199,7 @@
       <c r="S125" s="2">
         <v>1</v>
       </c>
-      <c r="T125" s="12">
+      <c r="T125" s="2">
         <v>372.52</v>
       </c>
       <c r="U125" s="3">
@@ -11197,7 +11226,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:27">
       <c r="A126" s="9">
         <v>45171</v>
       </c>
@@ -11255,7 +11284,7 @@
       <c r="S126" s="2">
         <v>1</v>
       </c>
-      <c r="T126" s="12">
+      <c r="T126" s="2">
         <v>372.5</v>
       </c>
       <c r="U126" s="3">
@@ -11282,7 +11311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:27">
       <c r="A127" s="9">
         <v>45172</v>
       </c>
@@ -11340,7 +11369,7 @@
       <c r="S127" s="2">
         <v>1</v>
       </c>
-      <c r="T127" s="12">
+      <c r="T127" s="2">
         <v>271.39</v>
       </c>
       <c r="U127" s="3">
@@ -11367,7 +11396,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:27">
       <c r="A128" s="9">
         <v>45173</v>
       </c>
@@ -11425,7 +11454,7 @@
       <c r="S128" s="2">
         <v>1</v>
       </c>
-      <c r="T128" s="12">
+      <c r="T128" s="2">
         <v>118.57</v>
       </c>
       <c r="U128" s="3">
@@ -11452,7 +11481,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:27">
       <c r="A129" s="9">
         <v>45174</v>
       </c>
@@ -11510,7 +11539,7 @@
       <c r="S129" s="2">
         <v>1</v>
       </c>
-      <c r="T129" s="12">
+      <c r="T129" s="2">
         <v>340.7</v>
       </c>
       <c r="U129" s="3">
@@ -11537,7 +11566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:27">
       <c r="A130" s="9">
         <v>45175</v>
       </c>
@@ -11595,7 +11624,7 @@
       <c r="S130" s="2">
         <v>1</v>
       </c>
-      <c r="T130" s="12">
+      <c r="T130" s="2">
         <v>104.7</v>
       </c>
       <c r="U130" s="3">
@@ -11622,7 +11651,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:27">
       <c r="A131" s="9">
         <v>45176</v>
       </c>
@@ -11680,7 +11709,7 @@
       <c r="S131" s="2">
         <v>1</v>
       </c>
-      <c r="T131" s="12">
+      <c r="T131" s="2">
         <v>377.18</v>
       </c>
       <c r="U131" s="3">
@@ -11707,7 +11736,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:27">
       <c r="A132" s="9">
         <v>45177</v>
       </c>
@@ -11765,7 +11794,7 @@
       <c r="S132" s="2">
         <v>1</v>
       </c>
-      <c r="T132" s="12">
+      <c r="T132" s="2">
         <v>227.36</v>
       </c>
       <c r="U132" s="3">
@@ -11792,7 +11821,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:27">
       <c r="A133" s="9">
         <v>45178</v>
       </c>
@@ -11850,7 +11879,7 @@
       <c r="S133" s="2">
         <v>1</v>
       </c>
-      <c r="T133" s="12">
+      <c r="T133" s="2">
         <v>530.83000000000004</v>
       </c>
       <c r="U133" s="3">
@@ -11877,7 +11906,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:27">
       <c r="A134" s="9">
         <v>45179</v>
       </c>
@@ -11935,7 +11964,7 @@
       <c r="S134" s="2">
         <v>1</v>
       </c>
-      <c r="T134" s="12">
+      <c r="T134" s="2">
         <v>104.21</v>
       </c>
       <c r="U134" s="3">
@@ -11962,7 +11991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:27">
       <c r="A135" s="9">
         <v>45180</v>
       </c>
@@ -12020,7 +12049,7 @@
       <c r="S135" s="2">
         <v>1</v>
       </c>
-      <c r="T135" s="12">
+      <c r="T135" s="2">
         <v>276.62</v>
       </c>
       <c r="U135" s="3">
@@ -12047,7 +12076,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:27">
       <c r="A136" s="9">
         <v>45181</v>
       </c>
@@ -12105,7 +12134,7 @@
       <c r="S136" s="2">
         <v>1</v>
       </c>
-      <c r="T136" s="12">
+      <c r="T136" s="2">
         <v>150.94</v>
       </c>
       <c r="U136" s="3">
@@ -12132,7 +12161,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:27">
       <c r="A137" s="9">
         <v>45182</v>
       </c>
@@ -12190,7 +12219,7 @@
       <c r="S137" s="2">
         <v>1</v>
       </c>
-      <c r="T137" s="12">
+      <c r="T137" s="2">
         <v>145.6</v>
       </c>
       <c r="U137" s="3">
@@ -12217,7 +12246,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:27">
       <c r="A138" s="9">
         <v>45183</v>
       </c>
@@ -12275,7 +12304,7 @@
       <c r="S138" s="2">
         <v>1</v>
       </c>
-      <c r="T138" s="12">
+      <c r="T138" s="4">
         <v>1680.87</v>
       </c>
       <c r="U138" s="3">
@@ -12302,7 +12331,7 @@
         <v>0.22727272727272727</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:27">
       <c r="A139" s="9">
         <v>45184</v>
       </c>
@@ -12360,7 +12389,7 @@
       <c r="S139" s="2">
         <v>1</v>
       </c>
-      <c r="T139" s="12">
+      <c r="T139" s="4">
         <v>3252.82</v>
       </c>
       <c r="U139" s="3">
@@ -12387,7 +12416,7 @@
         <v>0.10160427807486631</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:27">
       <c r="A140" s="9">
         <v>45185</v>
       </c>
@@ -12445,7 +12474,7 @@
       <c r="S140" s="2">
         <v>1</v>
       </c>
-      <c r="T140" s="12">
+      <c r="T140" s="2">
         <v>193.54</v>
       </c>
       <c r="U140" s="3">
@@ -12472,7 +12501,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:27">
       <c r="A141" s="9">
         <v>45186</v>
       </c>
@@ -12530,7 +12559,7 @@
       <c r="S141" s="2">
         <v>1</v>
       </c>
-      <c r="T141" s="12">
+      <c r="T141" s="2">
         <v>112.7</v>
       </c>
       <c r="U141" s="3">
@@ -12557,7 +12586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:27">
       <c r="A142" s="9">
         <v>45187</v>
       </c>
@@ -12615,7 +12644,7 @@
       <c r="S142" s="2">
         <v>1</v>
       </c>
-      <c r="T142" s="12">
+      <c r="T142" s="2">
         <v>63.77</v>
       </c>
       <c r="U142" s="3">
@@ -12642,7 +12671,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:27">
       <c r="A143" s="9">
         <v>45188</v>
       </c>
@@ -12700,7 +12729,7 @@
       <c r="S143" s="2">
         <v>1</v>
       </c>
-      <c r="T143" s="12">
+      <c r="T143" s="2">
         <v>217.13</v>
       </c>
       <c r="U143" s="3">
@@ -12727,7 +12756,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:27">
       <c r="A144" s="9">
         <v>45189</v>
       </c>
@@ -12785,7 +12814,7 @@
       <c r="S144" s="2">
         <v>1</v>
       </c>
-      <c r="T144" s="12">
+      <c r="T144" s="4">
         <v>1274.22</v>
       </c>
       <c r="U144" s="3">
@@ -12812,7 +12841,7 @@
         <v>0.20289855072463769</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:27">
       <c r="A145" s="9">
         <v>45190</v>
       </c>
@@ -12870,7 +12899,7 @@
       <c r="S145" s="2">
         <v>1</v>
       </c>
-      <c r="T145" s="12">
+      <c r="T145" s="2">
         <v>695.25</v>
       </c>
       <c r="U145" s="3">
@@ -12897,7 +12926,7 @@
         <v>0.10526315789473684</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:27">
       <c r="A146" s="9">
         <v>45191</v>
       </c>
@@ -12955,7 +12984,7 @@
       <c r="S146" s="2">
         <v>1</v>
       </c>
-      <c r="T146" s="12">
+      <c r="T146" s="2">
         <v>952.79</v>
       </c>
       <c r="U146" s="3">
@@ -12982,7 +13011,7 @@
         <v>0.2807017543859649</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:27">
       <c r="A147" s="9">
         <v>45192</v>
       </c>
@@ -13040,7 +13069,7 @@
       <c r="S147" s="2">
         <v>1</v>
       </c>
-      <c r="T147" s="12">
+      <c r="T147" s="2">
         <v>794.69</v>
       </c>
       <c r="U147" s="3">
@@ -13067,7 +13096,7 @@
         <v>0.27272727272727271</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:27">
       <c r="A148" s="9">
         <v>45193</v>
       </c>
@@ -13125,7 +13154,7 @@
       <c r="S148" s="2">
         <v>1</v>
       </c>
-      <c r="T148" s="12">
+      <c r="T148" s="2">
         <v>965.29</v>
       </c>
       <c r="U148" s="3">
@@ -13152,7 +13181,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:27">
       <c r="A149" s="9">
         <v>45194</v>
       </c>
@@ -13210,7 +13239,7 @@
       <c r="S149" s="2">
         <v>1</v>
       </c>
-      <c r="T149" s="12">
+      <c r="T149" s="4">
         <v>3246.27</v>
       </c>
       <c r="U149" s="3">
@@ -13237,7 +13266,7 @@
         <v>0.2288135593220339</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:27">
       <c r="A150" s="9">
         <v>45195</v>
       </c>
@@ -13295,7 +13324,7 @@
       <c r="S150" s="2">
         <v>1</v>
       </c>
-      <c r="T150" s="12">
+      <c r="T150" s="4">
         <v>1305.3</v>
       </c>
       <c r="U150" s="3">
@@ -13322,7 +13351,7 @@
         <v>0.26027397260273971</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:27">
       <c r="A151" s="9">
         <v>45196</v>
       </c>
@@ -13380,7 +13409,7 @@
       <c r="S151" s="2">
         <v>1</v>
       </c>
-      <c r="T151" s="12">
+      <c r="T151" s="2">
         <v>502.69</v>
       </c>
       <c r="U151" s="3">
@@ -13407,7 +13436,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:27">
       <c r="A152" s="9">
         <v>45197</v>
       </c>
@@ -13465,7 +13494,7 @@
       <c r="S152" s="2">
         <v>1</v>
       </c>
-      <c r="T152" s="12">
+      <c r="T152" s="2">
         <v>629.91999999999996</v>
       </c>
       <c r="U152" s="3">
@@ -13492,7 +13521,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:27">
       <c r="A153" s="9">
         <v>45198</v>
       </c>
@@ -13550,7 +13579,7 @@
       <c r="S153" s="2">
         <v>1</v>
       </c>
-      <c r="T153" s="12">
+      <c r="T153" s="2">
         <v>433.53</v>
       </c>
       <c r="U153" s="3">
@@ -13577,7 +13606,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:27" ht="15.5" thickBot="1">
       <c r="A154" s="9">
         <v>45199</v>
       </c>
@@ -13635,7 +13664,7 @@
       <c r="S154" s="2">
         <v>1</v>
       </c>
-      <c r="T154" s="12">
+      <c r="T154" s="2">
         <v>155.72</v>
       </c>
       <c r="U154" s="3">
@@ -13662,2112 +13691,2577 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A155" s="9">
+    <row r="155" spans="1:27" ht="16" thickTop="1" thickBot="1">
+      <c r="A155" s="11">
         <v>45200</v>
       </c>
-      <c r="B155" s="14">
+      <c r="B155" s="12">
         <v>74</v>
       </c>
-      <c r="C155" s="14">
+      <c r="C155" s="12">
         <v>131</v>
       </c>
-      <c r="D155" s="14">
-        <v>3</v>
-      </c>
-      <c r="E155" s="14">
+      <c r="D155" s="12">
+        <v>3</v>
+      </c>
+      <c r="E155" s="12">
         <v>22</v>
       </c>
-      <c r="F155" s="7">
+      <c r="F155" s="13">
         <v>0.29730000000000001</v>
       </c>
-      <c r="G155" s="14">
+      <c r="G155" s="12">
         <v>18</v>
       </c>
-      <c r="H155" s="14">
+      <c r="H155" s="12">
         <v>2</v>
       </c>
-      <c r="I155" s="14">
+      <c r="I155" s="12">
         <v>9</v>
       </c>
-      <c r="J155" s="14">
+      <c r="J155" s="12">
         <v>8</v>
       </c>
-      <c r="K155" s="7">
+      <c r="K155" s="13">
         <v>0.1216</v>
       </c>
-      <c r="L155" s="14">
-        <v>3</v>
-      </c>
-      <c r="M155" s="14">
+      <c r="L155" s="12">
+        <v>3</v>
+      </c>
+      <c r="M155" s="12">
         <v>5</v>
       </c>
-      <c r="N155" s="14">
-        <v>1</v>
-      </c>
-      <c r="O155" s="14">
+      <c r="N155" s="12">
+        <v>1</v>
+      </c>
+      <c r="O155" s="12">
         <v>104.64</v>
       </c>
-      <c r="P155" s="7">
+      <c r="P155" s="13">
         <v>4.0500000000000001E-2</v>
       </c>
-      <c r="Q155" s="14">
-        <v>3</v>
-      </c>
-      <c r="R155" s="14">
+      <c r="Q155" s="12">
+        <v>3</v>
+      </c>
+      <c r="R155" s="12">
         <v>5</v>
       </c>
-      <c r="S155" s="14">
-        <v>1</v>
-      </c>
-      <c r="T155" s="14">
+      <c r="S155" s="12">
+        <v>1</v>
+      </c>
+      <c r="T155" s="12">
         <v>104.64</v>
       </c>
-      <c r="U155" s="7">
+      <c r="U155" s="13">
         <v>4.0500000000000001E-2</v>
       </c>
-      <c r="V155" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A156" s="9">
+      <c r="V155" s="13">
+        <v>1</v>
+      </c>
+      <c r="W155" s="15">
+        <v>3</v>
+      </c>
+      <c r="X155" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y155" s="15">
+        <v>2</v>
+      </c>
+      <c r="Z155" s="15">
+        <v>7</v>
+      </c>
+      <c r="AA155" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:27" ht="15.5" thickBot="1">
+      <c r="A156" s="14">
         <v>45201</v>
       </c>
-      <c r="B156" s="14">
+      <c r="B156" s="15">
         <v>129</v>
       </c>
-      <c r="C156" s="14">
+      <c r="C156" s="15">
         <v>275</v>
       </c>
-      <c r="D156" s="14">
-        <v>3</v>
-      </c>
-      <c r="E156" s="14">
+      <c r="D156" s="15">
+        <v>3</v>
+      </c>
+      <c r="E156" s="15">
         <v>29</v>
       </c>
-      <c r="F156" s="7">
+      <c r="F156" s="16">
         <v>0.2248</v>
       </c>
-      <c r="G156" s="14">
+      <c r="G156" s="15">
         <v>31</v>
       </c>
-      <c r="H156" s="14">
-        <v>1</v>
-      </c>
-      <c r="I156" s="14">
+      <c r="H156" s="15">
+        <v>1</v>
+      </c>
+      <c r="I156" s="15">
         <v>81</v>
       </c>
-      <c r="J156" s="14">
+      <c r="J156" s="15">
         <v>162</v>
       </c>
-      <c r="K156" s="7">
+      <c r="K156" s="16">
         <v>0.62790000000000001</v>
       </c>
-      <c r="L156" s="14">
+      <c r="L156" s="15">
         <v>35</v>
       </c>
-      <c r="M156" s="14">
+      <c r="M156" s="15">
         <v>45</v>
       </c>
-      <c r="N156" s="14">
-        <v>1</v>
-      </c>
-      <c r="O156" s="14">
+      <c r="N156" s="15">
+        <v>1</v>
+      </c>
+      <c r="O156" s="15">
         <v>863.24</v>
       </c>
-      <c r="P156" s="7">
+      <c r="P156" s="16">
         <v>0.27129999999999999</v>
       </c>
-      <c r="Q156" s="14">
+      <c r="Q156" s="15">
         <v>32</v>
       </c>
-      <c r="R156" s="14">
+      <c r="R156" s="15">
         <v>38</v>
       </c>
-      <c r="S156" s="14">
-        <v>1</v>
-      </c>
-      <c r="T156" s="14">
+      <c r="S156" s="15">
+        <v>1</v>
+      </c>
+      <c r="T156" s="15">
         <v>748.49</v>
       </c>
-      <c r="U156" s="7">
+      <c r="U156" s="16">
         <v>0.24809999999999999</v>
       </c>
-      <c r="V156" s="7">
+      <c r="V156" s="16">
         <v>0.9143</v>
       </c>
-    </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A157" s="9">
+      <c r="W156" s="15">
+        <v>32</v>
+      </c>
+      <c r="X156" s="15">
+        <v>22</v>
+      </c>
+      <c r="Y156" s="15">
+        <v>10</v>
+      </c>
+      <c r="Z156" s="15">
+        <v>50</v>
+      </c>
+      <c r="AA156" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:27" ht="15.5" thickBot="1">
+      <c r="A157" s="14">
         <v>45202</v>
       </c>
-      <c r="B157" s="14">
+      <c r="B157" s="15">
         <v>96</v>
       </c>
-      <c r="C157" s="14">
+      <c r="C157" s="15">
         <v>162</v>
       </c>
-      <c r="D157" s="14">
-        <v>3</v>
-      </c>
-      <c r="E157" s="14">
+      <c r="D157" s="15">
+        <v>3</v>
+      </c>
+      <c r="E157" s="15">
         <v>21</v>
       </c>
-      <c r="F157" s="7">
+      <c r="F157" s="16">
         <v>0.21879999999999999</v>
       </c>
-      <c r="G157" s="14">
+      <c r="G157" s="15">
         <v>35</v>
       </c>
-      <c r="H157" s="14">
+      <c r="H157" s="15">
         <v>2</v>
       </c>
-      <c r="I157" s="14">
+      <c r="I157" s="15">
         <v>43</v>
       </c>
-      <c r="J157" s="14">
+      <c r="J157" s="15">
         <v>72</v>
       </c>
-      <c r="K157" s="7">
+      <c r="K157" s="16">
         <v>0.44790000000000002</v>
       </c>
-      <c r="L157" s="14">
+      <c r="L157" s="15">
         <v>19</v>
       </c>
-      <c r="M157" s="14">
+      <c r="M157" s="15">
         <v>19</v>
       </c>
-      <c r="N157" s="14">
-        <v>1</v>
-      </c>
-      <c r="O157" s="14">
+      <c r="N157" s="15">
+        <v>1</v>
+      </c>
+      <c r="O157" s="15">
         <v>458.32</v>
       </c>
-      <c r="P157" s="7">
+      <c r="P157" s="16">
         <v>0.19789999999999999</v>
       </c>
-      <c r="Q157" s="14">
+      <c r="Q157" s="15">
         <v>19</v>
       </c>
-      <c r="R157" s="14">
+      <c r="R157" s="15">
         <v>19</v>
       </c>
-      <c r="S157" s="14">
-        <v>1</v>
-      </c>
-      <c r="T157" s="14">
+      <c r="S157" s="15">
+        <v>1</v>
+      </c>
+      <c r="T157" s="15">
         <v>458.32</v>
       </c>
-      <c r="U157" s="7">
+      <c r="U157" s="16">
         <v>0.19789999999999999</v>
       </c>
-      <c r="V157" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A158" s="9">
+      <c r="V157" s="16">
+        <v>1</v>
+      </c>
+      <c r="W157" s="15">
+        <v>19</v>
+      </c>
+      <c r="X157" s="15">
+        <v>15</v>
+      </c>
+      <c r="Y157" s="15">
+        <v>4</v>
+      </c>
+      <c r="Z157" s="15">
+        <v>26</v>
+      </c>
+      <c r="AA157" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:27" ht="15.5" thickBot="1">
+      <c r="A158" s="14">
         <v>45203</v>
       </c>
-      <c r="B158" s="14">
+      <c r="B158" s="15">
         <v>111</v>
       </c>
-      <c r="C158" s="14">
+      <c r="C158" s="15">
         <v>183</v>
       </c>
-      <c r="D158" s="14">
-        <v>3</v>
-      </c>
-      <c r="E158" s="14">
+      <c r="D158" s="15">
+        <v>3</v>
+      </c>
+      <c r="E158" s="15">
         <v>22</v>
       </c>
-      <c r="F158" s="7">
+      <c r="F158" s="16">
         <v>0.19819999999999999</v>
       </c>
-      <c r="G158" s="14">
+      <c r="G158" s="15">
         <v>21</v>
       </c>
-      <c r="H158" s="14">
-        <v>0</v>
-      </c>
-      <c r="I158" s="14">
+      <c r="H158" s="15">
+        <v>0</v>
+      </c>
+      <c r="I158" s="15">
         <v>78</v>
       </c>
-      <c r="J158" s="14">
+      <c r="J158" s="15">
         <v>116</v>
       </c>
-      <c r="K158" s="7">
+      <c r="K158" s="16">
         <v>0.70269999999999999</v>
       </c>
-      <c r="L158" s="14">
+      <c r="L158" s="15">
         <v>11</v>
       </c>
-      <c r="M158" s="14">
+      <c r="M158" s="15">
         <v>11</v>
       </c>
-      <c r="N158" s="14">
-        <v>1</v>
-      </c>
-      <c r="O158" s="14">
+      <c r="N158" s="15">
+        <v>1</v>
+      </c>
+      <c r="O158" s="15">
         <v>315.64999999999998</v>
       </c>
-      <c r="P158" s="7">
+      <c r="P158" s="16">
         <v>9.9099999999999994E-2</v>
       </c>
-      <c r="Q158" s="14">
+      <c r="Q158" s="15">
         <v>9</v>
       </c>
-      <c r="R158" s="14">
+      <c r="R158" s="15">
         <v>9</v>
       </c>
-      <c r="S158" s="14">
-        <v>1</v>
-      </c>
-      <c r="T158" s="14">
+      <c r="S158" s="15">
+        <v>1</v>
+      </c>
+      <c r="T158" s="15">
         <v>243.85</v>
       </c>
-      <c r="U158" s="7">
+      <c r="U158" s="16">
         <v>8.1100000000000005E-2</v>
       </c>
-      <c r="V158" s="7">
+      <c r="V158" s="16">
         <v>0.81820000000000004</v>
       </c>
-    </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A159" s="9">
+      <c r="W158" s="15">
+        <v>9</v>
+      </c>
+      <c r="X158" s="15">
+        <v>5</v>
+      </c>
+      <c r="Y158" s="15">
+        <v>4</v>
+      </c>
+      <c r="Z158" s="15">
+        <v>69</v>
+      </c>
+      <c r="AA158" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:27" ht="15.5" thickBot="1">
+      <c r="A159" s="14">
         <v>45204</v>
       </c>
-      <c r="B159" s="14">
+      <c r="B159" s="15">
         <v>74</v>
       </c>
-      <c r="C159" s="14">
+      <c r="C159" s="15">
         <v>143</v>
       </c>
-      <c r="D159" s="14">
-        <v>1</v>
-      </c>
-      <c r="E159" s="14">
+      <c r="D159" s="15">
+        <v>1</v>
+      </c>
+      <c r="E159" s="15">
         <v>15</v>
       </c>
-      <c r="F159" s="7">
+      <c r="F159" s="16">
         <v>0.20269999999999999</v>
       </c>
-      <c r="G159" s="14">
+      <c r="G159" s="15">
         <v>17</v>
       </c>
-      <c r="H159" s="14">
-        <v>1</v>
-      </c>
-      <c r="I159" s="14">
+      <c r="H159" s="15">
+        <v>1</v>
+      </c>
+      <c r="I159" s="15">
         <v>48</v>
       </c>
-      <c r="J159" s="14">
+      <c r="J159" s="15">
         <v>90</v>
       </c>
-      <c r="K159" s="7">
+      <c r="K159" s="16">
         <v>0.64859999999999995</v>
       </c>
-      <c r="L159" s="14">
+      <c r="L159" s="15">
         <v>17</v>
       </c>
-      <c r="M159" s="14">
+      <c r="M159" s="15">
         <v>21</v>
       </c>
-      <c r="N159" s="14">
-        <v>1</v>
-      </c>
-      <c r="O159" s="14">
+      <c r="N159" s="15">
+        <v>1</v>
+      </c>
+      <c r="O159" s="15">
         <v>329.38</v>
       </c>
-      <c r="P159" s="7">
+      <c r="P159" s="16">
         <v>0.22969999999999999</v>
       </c>
-      <c r="Q159" s="14">
+      <c r="Q159" s="15">
         <v>15</v>
       </c>
-      <c r="R159" s="14">
+      <c r="R159" s="15">
         <v>16</v>
       </c>
-      <c r="S159" s="14">
-        <v>1</v>
-      </c>
-      <c r="T159" s="14">
+      <c r="S159" s="15">
+        <v>1</v>
+      </c>
+      <c r="T159" s="15">
         <v>267.98</v>
       </c>
-      <c r="U159" s="7">
+      <c r="U159" s="16">
         <v>0.20269999999999999</v>
       </c>
-      <c r="V159" s="7">
+      <c r="V159" s="16">
         <v>0.88239999999999996</v>
       </c>
-    </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A160" s="9">
+      <c r="W159" s="15">
+        <v>15</v>
+      </c>
+      <c r="X159" s="15">
+        <v>9</v>
+      </c>
+      <c r="Y159" s="15">
+        <v>6</v>
+      </c>
+      <c r="Z159" s="15">
+        <v>34</v>
+      </c>
+      <c r="AA159" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:27" ht="15.5" thickBot="1">
+      <c r="A160" s="14">
         <v>45205</v>
       </c>
-      <c r="B160" s="14">
+      <c r="B160" s="15">
         <v>52</v>
       </c>
-      <c r="C160" s="14">
+      <c r="C160" s="15">
         <v>103</v>
       </c>
-      <c r="D160" s="14">
-        <v>3</v>
-      </c>
-      <c r="E160" s="14">
+      <c r="D160" s="15">
+        <v>3</v>
+      </c>
+      <c r="E160" s="15">
         <v>9</v>
       </c>
-      <c r="F160" s="7">
+      <c r="F160" s="16">
         <v>0.1731</v>
       </c>
-      <c r="G160" s="14">
+      <c r="G160" s="15">
         <v>17</v>
       </c>
-      <c r="H160" s="14">
-        <v>1</v>
-      </c>
-      <c r="I160" s="14">
+      <c r="H160" s="15">
+        <v>1</v>
+      </c>
+      <c r="I160" s="15">
         <v>20</v>
       </c>
-      <c r="J160" s="14">
+      <c r="J160" s="15">
         <v>27</v>
       </c>
-      <c r="K160" s="7">
+      <c r="K160" s="16">
         <v>0.3846</v>
       </c>
-      <c r="L160" s="14">
+      <c r="L160" s="15">
         <v>5</v>
       </c>
-      <c r="M160" s="14">
+      <c r="M160" s="15">
         <v>8</v>
       </c>
-      <c r="N160" s="14">
-        <v>1</v>
-      </c>
-      <c r="O160" s="14">
+      <c r="N160" s="15">
+        <v>1</v>
+      </c>
+      <c r="O160" s="15">
         <v>137.79</v>
       </c>
-      <c r="P160" s="7">
+      <c r="P160" s="16">
         <v>9.6199999999999994E-2</v>
       </c>
-      <c r="Q160" s="14">
+      <c r="Q160" s="15">
         <v>5</v>
       </c>
-      <c r="R160" s="14">
+      <c r="R160" s="15">
         <v>8</v>
       </c>
-      <c r="S160" s="14">
-        <v>1</v>
-      </c>
-      <c r="T160" s="14">
+      <c r="S160" s="15">
+        <v>1</v>
+      </c>
+      <c r="T160" s="15">
         <v>137.79</v>
       </c>
-      <c r="U160" s="7">
+      <c r="U160" s="16">
         <v>9.6199999999999994E-2</v>
       </c>
-      <c r="V160" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A161" s="9">
+      <c r="V160" s="16">
+        <v>1</v>
+      </c>
+      <c r="W160" s="15">
+        <v>5</v>
+      </c>
+      <c r="X160" s="15">
+        <v>3</v>
+      </c>
+      <c r="Y160" s="15">
+        <v>2</v>
+      </c>
+      <c r="Z160" s="15">
+        <v>16</v>
+      </c>
+      <c r="AA160" s="16">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27" ht="15.5" thickBot="1">
+      <c r="A161" s="14">
         <v>45206</v>
       </c>
-      <c r="B161" s="14">
+      <c r="B161" s="15">
         <v>32</v>
       </c>
-      <c r="C161" s="14">
+      <c r="C161" s="15">
         <v>56</v>
       </c>
-      <c r="D161" s="14">
-        <v>1</v>
-      </c>
-      <c r="E161" s="14">
+      <c r="D161" s="15">
+        <v>1</v>
+      </c>
+      <c r="E161" s="15">
         <v>5</v>
       </c>
-      <c r="F161" s="7">
+      <c r="F161" s="16">
         <v>0.15620000000000001</v>
       </c>
-      <c r="G161" s="14">
+      <c r="G161" s="15">
         <v>9</v>
       </c>
-      <c r="H161" s="14">
-        <v>0</v>
-      </c>
-      <c r="I161" s="14">
+      <c r="H161" s="15">
+        <v>0</v>
+      </c>
+      <c r="I161" s="15">
         <v>9</v>
       </c>
-      <c r="J161" s="14">
+      <c r="J161" s="15">
         <v>8</v>
       </c>
-      <c r="K161" s="7">
+      <c r="K161" s="16">
         <v>0.28120000000000001</v>
       </c>
-      <c r="L161" s="14">
-        <v>1</v>
-      </c>
-      <c r="M161" s="14">
-        <v>1</v>
-      </c>
-      <c r="N161" s="14">
-        <v>1</v>
-      </c>
-      <c r="O161" s="14">
+      <c r="L161" s="15">
+        <v>1</v>
+      </c>
+      <c r="M161" s="15">
+        <v>1</v>
+      </c>
+      <c r="N161" s="15">
+        <v>1</v>
+      </c>
+      <c r="O161" s="15">
         <v>22.9</v>
       </c>
-      <c r="P161" s="7">
+      <c r="P161" s="16">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="Q161" s="14">
-        <v>1</v>
-      </c>
-      <c r="R161" s="14">
-        <v>1</v>
-      </c>
-      <c r="S161" s="14">
-        <v>1</v>
-      </c>
-      <c r="T161" s="14">
+      <c r="Q161" s="15">
+        <v>1</v>
+      </c>
+      <c r="R161" s="15">
+        <v>1</v>
+      </c>
+      <c r="S161" s="15">
+        <v>1</v>
+      </c>
+      <c r="T161" s="15">
         <v>22.9</v>
       </c>
-      <c r="U161" s="7">
+      <c r="U161" s="16">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="V161" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A162" s="9">
+      <c r="V161" s="16">
+        <v>1</v>
+      </c>
+      <c r="W161" s="15">
+        <v>1</v>
+      </c>
+      <c r="X161" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y161" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z161" s="15">
+        <v>8</v>
+      </c>
+      <c r="AA161" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27" ht="15.5" thickBot="1">
+      <c r="A162" s="14">
         <v>45207</v>
       </c>
-      <c r="B162" s="14">
+      <c r="B162" s="15">
         <v>39</v>
       </c>
-      <c r="C162" s="14">
+      <c r="C162" s="15">
         <v>79</v>
       </c>
-      <c r="D162" s="14">
-        <v>1</v>
-      </c>
-      <c r="E162" s="14">
+      <c r="D162" s="15">
+        <v>1</v>
+      </c>
+      <c r="E162" s="15">
         <v>8</v>
       </c>
-      <c r="F162" s="7">
+      <c r="F162" s="16">
         <v>0.2051</v>
       </c>
-      <c r="G162" s="14">
+      <c r="G162" s="15">
         <v>16</v>
       </c>
-      <c r="H162" s="14">
-        <v>1</v>
-      </c>
-      <c r="I162" s="14">
+      <c r="H162" s="15">
+        <v>1</v>
+      </c>
+      <c r="I162" s="15">
         <v>5</v>
       </c>
-      <c r="J162" s="14">
+      <c r="J162" s="15">
         <v>8</v>
       </c>
-      <c r="K162" s="7">
+      <c r="K162" s="16">
         <v>0.12820000000000001</v>
       </c>
-      <c r="L162" s="14">
-        <v>1</v>
-      </c>
-      <c r="M162" s="14">
-        <v>1</v>
-      </c>
-      <c r="N162" s="14">
-        <v>1</v>
-      </c>
-      <c r="O162" s="14">
+      <c r="L162" s="15">
+        <v>1</v>
+      </c>
+      <c r="M162" s="15">
+        <v>1</v>
+      </c>
+      <c r="N162" s="15">
+        <v>1</v>
+      </c>
+      <c r="O162" s="15">
         <v>38.28</v>
       </c>
-      <c r="P162" s="7">
+      <c r="P162" s="16">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="Q162" s="14">
-        <v>1</v>
-      </c>
-      <c r="R162" s="14">
-        <v>1</v>
-      </c>
-      <c r="S162" s="14">
-        <v>1</v>
-      </c>
-      <c r="T162" s="14">
+      <c r="Q162" s="15">
+        <v>1</v>
+      </c>
+      <c r="R162" s="15">
+        <v>1</v>
+      </c>
+      <c r="S162" s="15">
+        <v>1</v>
+      </c>
+      <c r="T162" s="15">
         <v>38.28</v>
       </c>
-      <c r="U162" s="7">
+      <c r="U162" s="16">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="V162" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A163" s="9">
+      <c r="V162" s="16">
+        <v>1</v>
+      </c>
+      <c r="W162" s="15">
+        <v>1</v>
+      </c>
+      <c r="X162" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y162" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z162" s="15">
+        <v>6</v>
+      </c>
+      <c r="AA162" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27" ht="15.5" thickBot="1">
+      <c r="A163" s="14">
         <v>45208</v>
       </c>
-      <c r="B163" s="14">
+      <c r="B163" s="15">
         <v>160</v>
       </c>
-      <c r="C163" s="14">
+      <c r="C163" s="15">
         <v>374</v>
       </c>
-      <c r="D163" s="14">
-        <v>3</v>
-      </c>
-      <c r="E163" s="14">
+      <c r="D163" s="15">
+        <v>3</v>
+      </c>
+      <c r="E163" s="15">
         <v>33</v>
       </c>
-      <c r="F163" s="7">
+      <c r="F163" s="16">
         <v>0.20619999999999999</v>
       </c>
-      <c r="G163" s="14">
+      <c r="G163" s="15">
         <v>35</v>
       </c>
-      <c r="H163" s="14">
-        <v>1</v>
-      </c>
-      <c r="I163" s="14">
+      <c r="H163" s="15">
+        <v>1</v>
+      </c>
+      <c r="I163" s="15">
         <v>125</v>
       </c>
-      <c r="J163" s="14">
+      <c r="J163" s="15">
         <v>217</v>
       </c>
-      <c r="K163" s="7">
+      <c r="K163" s="16">
         <v>0.78120000000000001</v>
       </c>
-      <c r="L163" s="14">
+      <c r="L163" s="15">
         <v>53</v>
       </c>
-      <c r="M163" s="14">
+      <c r="M163" s="15">
         <v>63</v>
       </c>
-      <c r="N163" s="14">
-        <v>1</v>
-      </c>
-      <c r="O163" s="15">
+      <c r="N163" s="15">
+        <v>1</v>
+      </c>
+      <c r="O163" s="17">
         <v>1124.7</v>
       </c>
-      <c r="P163" s="7">
+      <c r="P163" s="16">
         <v>0.33119999999999999</v>
       </c>
-      <c r="Q163" s="14">
+      <c r="Q163" s="15">
         <v>51</v>
       </c>
-      <c r="R163" s="14">
+      <c r="R163" s="15">
         <v>57</v>
       </c>
-      <c r="S163" s="14">
-        <v>1</v>
-      </c>
-      <c r="T163" s="15">
+      <c r="S163" s="15">
+        <v>1</v>
+      </c>
+      <c r="T163" s="17">
         <v>1014</v>
       </c>
-      <c r="U163" s="7">
+      <c r="U163" s="16">
         <v>0.31869999999999998</v>
       </c>
-      <c r="V163" s="7">
+      <c r="V163" s="16">
         <v>0.96230000000000004</v>
       </c>
-    </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A164" s="9">
+      <c r="W163" s="15">
+        <v>51</v>
+      </c>
+      <c r="X163" s="15">
+        <v>30</v>
+      </c>
+      <c r="Y163" s="15">
+        <v>21</v>
+      </c>
+      <c r="Z163" s="15">
+        <v>77</v>
+      </c>
+      <c r="AA163" s="16">
+        <v>3.9199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27" ht="15.5" thickBot="1">
+      <c r="A164" s="14">
         <v>45209</v>
       </c>
-      <c r="B164" s="14">
+      <c r="B164" s="15">
         <v>507</v>
       </c>
-      <c r="C164" s="14">
+      <c r="C164" s="15">
         <v>1233</v>
       </c>
-      <c r="D164" s="14">
-        <v>3</v>
-      </c>
-      <c r="E164" s="14">
+      <c r="D164" s="15">
+        <v>3</v>
+      </c>
+      <c r="E164" s="15">
         <v>79</v>
       </c>
-      <c r="F164" s="7">
+      <c r="F164" s="16">
         <v>0.15579999999999999</v>
       </c>
-      <c r="G164" s="14">
+      <c r="G164" s="15">
         <v>106</v>
       </c>
-      <c r="H164" s="14">
+      <c r="H164" s="15">
         <v>4</v>
       </c>
-      <c r="I164" s="14">
+      <c r="I164" s="15">
         <v>519</v>
       </c>
-      <c r="J164" s="14">
+      <c r="J164" s="15">
         <v>1115</v>
       </c>
-      <c r="K164" s="7">
+      <c r="K164" s="16">
         <v>1.0237000000000001</v>
       </c>
-      <c r="L164" s="14">
+      <c r="L164" s="15">
         <v>199</v>
       </c>
-      <c r="M164" s="14">
+      <c r="M164" s="15">
         <v>217</v>
       </c>
-      <c r="N164" s="14">
+      <c r="N164" s="15">
         <v>2</v>
       </c>
-      <c r="O164" s="15">
+      <c r="O164" s="17">
         <v>3162.98</v>
       </c>
-      <c r="P164" s="7">
+      <c r="P164" s="16">
         <v>0.39250000000000002</v>
       </c>
-      <c r="Q164" s="14">
+      <c r="Q164" s="15">
         <v>184</v>
       </c>
-      <c r="R164" s="14">
+      <c r="R164" s="15">
         <v>198</v>
       </c>
-      <c r="S164" s="14">
+      <c r="S164" s="15">
         <v>2</v>
       </c>
-      <c r="T164" s="15">
+      <c r="T164" s="17">
         <v>2732.79</v>
       </c>
-      <c r="U164" s="7">
+      <c r="U164" s="16">
         <v>0.3629</v>
       </c>
-      <c r="V164" s="7">
+      <c r="V164" s="16">
         <v>0.92459999999999998</v>
       </c>
-    </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A165" s="9">
+      <c r="W164" s="15">
+        <v>184</v>
+      </c>
+      <c r="X164" s="15">
+        <v>117</v>
+      </c>
+      <c r="Y164" s="15">
+        <v>67</v>
+      </c>
+      <c r="Z164" s="15">
+        <v>338</v>
+      </c>
+      <c r="AA164" s="16">
+        <v>3.2599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27" ht="15.5" thickBot="1">
+      <c r="A165" s="14">
         <v>45210</v>
       </c>
-      <c r="B165" s="14">
+      <c r="B165" s="15">
         <v>237</v>
       </c>
-      <c r="C165" s="14">
+      <c r="C165" s="15">
         <v>583</v>
       </c>
-      <c r="D165" s="14">
-        <v>3</v>
-      </c>
-      <c r="E165" s="14">
+      <c r="D165" s="15">
+        <v>3</v>
+      </c>
+      <c r="E165" s="15">
         <v>53</v>
       </c>
-      <c r="F165" s="7">
+      <c r="F165" s="16">
         <v>0.22359999999999999</v>
       </c>
-      <c r="G165" s="14">
+      <c r="G165" s="15">
         <v>44</v>
       </c>
-      <c r="H165" s="14">
+      <c r="H165" s="15">
         <v>4</v>
       </c>
-      <c r="I165" s="14">
+      <c r="I165" s="15">
         <v>203</v>
       </c>
-      <c r="J165" s="14">
+      <c r="J165" s="15">
         <v>426</v>
       </c>
-      <c r="K165" s="7">
+      <c r="K165" s="16">
         <v>0.85650000000000004</v>
       </c>
-      <c r="L165" s="14">
+      <c r="L165" s="15">
         <v>72</v>
       </c>
-      <c r="M165" s="14">
+      <c r="M165" s="15">
         <v>89</v>
       </c>
-      <c r="N165" s="14">
+      <c r="N165" s="15">
         <v>2</v>
       </c>
-      <c r="O165" s="15">
+      <c r="O165" s="17">
         <v>1417.32</v>
       </c>
-      <c r="P165" s="7">
+      <c r="P165" s="16">
         <v>0.30380000000000001</v>
       </c>
-      <c r="Q165" s="14">
+      <c r="Q165" s="15">
         <v>68</v>
       </c>
-      <c r="R165" s="14">
+      <c r="R165" s="15">
         <v>81</v>
       </c>
-      <c r="S165" s="14">
+      <c r="S165" s="15">
         <v>2</v>
       </c>
-      <c r="T165" s="15">
+      <c r="T165" s="17">
         <v>1234.82</v>
       </c>
-      <c r="U165" s="7">
+      <c r="U165" s="16">
         <v>0.28689999999999999</v>
       </c>
-      <c r="V165" s="7">
+      <c r="V165" s="16">
         <v>0.94440000000000002</v>
       </c>
-    </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A166" s="9">
+      <c r="W165" s="15">
+        <v>68</v>
+      </c>
+      <c r="X165" s="15">
+        <v>41</v>
+      </c>
+      <c r="Y165" s="15">
+        <v>27</v>
+      </c>
+      <c r="Z165" s="15">
+        <v>137</v>
+      </c>
+      <c r="AA165" s="16">
+        <v>0.1176</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27" ht="15.5" thickBot="1">
+      <c r="A166" s="14">
         <v>45211</v>
       </c>
-      <c r="B166" s="14">
+      <c r="B166" s="15">
         <v>72</v>
       </c>
-      <c r="C166" s="14">
+      <c r="C166" s="15">
         <v>141</v>
       </c>
-      <c r="D166" s="14">
-        <v>3</v>
-      </c>
-      <c r="E166" s="14">
+      <c r="D166" s="15">
+        <v>3</v>
+      </c>
+      <c r="E166" s="15">
         <v>22</v>
       </c>
-      <c r="F166" s="7">
+      <c r="F166" s="16">
         <v>0.30559999999999998</v>
       </c>
-      <c r="G166" s="14">
+      <c r="G166" s="15">
         <v>29</v>
       </c>
-      <c r="H166" s="14">
-        <v>1</v>
-      </c>
-      <c r="I166" s="14">
+      <c r="H166" s="15">
+        <v>1</v>
+      </c>
+      <c r="I166" s="15">
         <v>26</v>
       </c>
-      <c r="J166" s="14">
+      <c r="J166" s="15">
         <v>30</v>
       </c>
-      <c r="K166" s="7">
+      <c r="K166" s="16">
         <v>0.36109999999999998</v>
       </c>
-      <c r="L166" s="14">
+      <c r="L166" s="15">
         <v>4</v>
       </c>
-      <c r="M166" s="14">
+      <c r="M166" s="15">
         <v>4</v>
       </c>
-      <c r="N166" s="14">
-        <v>1</v>
-      </c>
-      <c r="O166" s="14">
+      <c r="N166" s="15">
+        <v>1</v>
+      </c>
+      <c r="O166" s="15">
         <v>97.6</v>
       </c>
-      <c r="P166" s="7">
+      <c r="P166" s="16">
         <v>5.5599999999999997E-2</v>
       </c>
-      <c r="Q166" s="14">
+      <c r="Q166" s="15">
         <v>6</v>
       </c>
-      <c r="R166" s="14">
+      <c r="R166" s="15">
         <v>6</v>
       </c>
-      <c r="S166" s="14">
-        <v>1</v>
-      </c>
-      <c r="T166" s="14">
+      <c r="S166" s="15">
+        <v>1</v>
+      </c>
+      <c r="T166" s="15">
         <v>130.65</v>
       </c>
-      <c r="U166" s="7">
+      <c r="U166" s="16">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="V166" s="7">
+      <c r="V166" s="16">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A167" s="9">
+      <c r="W166" s="15">
+        <v>6</v>
+      </c>
+      <c r="X166" s="15">
+        <v>4</v>
+      </c>
+      <c r="Y166" s="15">
+        <v>2</v>
+      </c>
+      <c r="Z166" s="15">
+        <v>22</v>
+      </c>
+      <c r="AA166" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27" ht="15.5" thickBot="1">
+      <c r="A167" s="14">
         <v>45212</v>
       </c>
-      <c r="B167" s="14">
+      <c r="B167" s="15">
         <v>117</v>
       </c>
-      <c r="C167" s="14">
+      <c r="C167" s="15">
         <v>265</v>
       </c>
-      <c r="D167" s="14">
-        <v>3</v>
-      </c>
-      <c r="E167" s="14">
+      <c r="D167" s="15">
+        <v>3</v>
+      </c>
+      <c r="E167" s="15">
         <v>22</v>
       </c>
-      <c r="F167" s="7">
+      <c r="F167" s="16">
         <v>0.188</v>
       </c>
-      <c r="G167" s="14">
+      <c r="G167" s="15">
         <v>20</v>
       </c>
-      <c r="H167" s="14">
+      <c r="H167" s="15">
         <v>2</v>
       </c>
-      <c r="I167" s="14">
+      <c r="I167" s="15">
         <v>97</v>
       </c>
-      <c r="J167" s="14">
+      <c r="J167" s="15">
         <v>242</v>
       </c>
-      <c r="K167" s="7">
+      <c r="K167" s="16">
         <v>0.82909999999999995</v>
       </c>
-      <c r="L167" s="14">
+      <c r="L167" s="15">
         <v>38</v>
       </c>
-      <c r="M167" s="14">
+      <c r="M167" s="15">
         <v>48</v>
       </c>
-      <c r="N167" s="14">
-        <v>1</v>
-      </c>
-      <c r="O167" s="14">
+      <c r="N167" s="15">
+        <v>1</v>
+      </c>
+      <c r="O167" s="15">
         <v>913.86</v>
       </c>
-      <c r="P167" s="7">
+      <c r="P167" s="16">
         <v>0.32479999999999998</v>
       </c>
-      <c r="Q167" s="14">
+      <c r="Q167" s="15">
         <v>35</v>
       </c>
-      <c r="R167" s="14">
+      <c r="R167" s="15">
         <v>41</v>
       </c>
-      <c r="S167" s="14">
-        <v>1</v>
-      </c>
-      <c r="T167" s="14">
+      <c r="S167" s="15">
+        <v>1</v>
+      </c>
+      <c r="T167" s="15">
         <v>772.79</v>
       </c>
-      <c r="U167" s="7">
+      <c r="U167" s="16">
         <v>0.29909999999999998</v>
       </c>
-      <c r="V167" s="7">
+      <c r="V167" s="16">
         <v>0.92110000000000003</v>
       </c>
-    </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A168" s="9">
+      <c r="W167" s="15">
+        <v>35</v>
+      </c>
+      <c r="X167" s="15">
+        <v>23</v>
+      </c>
+      <c r="Y167" s="15">
+        <v>12</v>
+      </c>
+      <c r="Z167" s="15">
+        <v>64</v>
+      </c>
+      <c r="AA167" s="16">
+        <v>2.86E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27" ht="15.5" thickBot="1">
+      <c r="A168" s="14">
         <v>45213</v>
       </c>
-      <c r="B168" s="14">
+      <c r="B168" s="15">
         <v>91</v>
       </c>
-      <c r="C168" s="14">
+      <c r="C168" s="15">
         <v>183</v>
       </c>
-      <c r="D168" s="14">
-        <v>3</v>
-      </c>
-      <c r="E168" s="14">
+      <c r="D168" s="15">
+        <v>3</v>
+      </c>
+      <c r="E168" s="15">
         <v>19</v>
       </c>
-      <c r="F168" s="7">
+      <c r="F168" s="16">
         <v>0.20880000000000001</v>
       </c>
-      <c r="G168" s="14">
+      <c r="G168" s="15">
         <v>27</v>
       </c>
-      <c r="H168" s="14">
-        <v>1</v>
-      </c>
-      <c r="I168" s="14">
+      <c r="H168" s="15">
+        <v>1</v>
+      </c>
+      <c r="I168" s="15">
         <v>62</v>
       </c>
-      <c r="J168" s="14">
+      <c r="J168" s="15">
         <v>99</v>
       </c>
-      <c r="K168" s="7">
+      <c r="K168" s="16">
         <v>0.68130000000000002</v>
       </c>
-      <c r="L168" s="14">
+      <c r="L168" s="15">
         <v>22</v>
       </c>
-      <c r="M168" s="14">
+      <c r="M168" s="15">
         <v>29</v>
       </c>
-      <c r="N168" s="14">
-        <v>1</v>
-      </c>
-      <c r="O168" s="14">
+      <c r="N168" s="15">
+        <v>1</v>
+      </c>
+      <c r="O168" s="15">
         <v>540.13</v>
       </c>
-      <c r="P168" s="7">
+      <c r="P168" s="16">
         <v>0.24179999999999999</v>
       </c>
-      <c r="Q168" s="14">
+      <c r="Q168" s="15">
         <v>20</v>
       </c>
-      <c r="R168" s="14">
+      <c r="R168" s="15">
         <v>27</v>
       </c>
-      <c r="S168" s="14">
-        <v>1</v>
-      </c>
-      <c r="T168" s="14">
+      <c r="S168" s="15">
+        <v>1</v>
+      </c>
+      <c r="T168" s="15">
         <v>503.93</v>
       </c>
-      <c r="U168" s="7">
+      <c r="U168" s="16">
         <v>0.2198</v>
       </c>
-      <c r="V168" s="7">
+      <c r="V168" s="16">
         <v>0.90910000000000002</v>
       </c>
-    </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A169" s="9">
+      <c r="W168" s="15">
+        <v>20</v>
+      </c>
+      <c r="X168" s="15">
+        <v>12</v>
+      </c>
+      <c r="Y168" s="15">
+        <v>8</v>
+      </c>
+      <c r="Z168" s="15">
+        <v>42</v>
+      </c>
+      <c r="AA168" s="16">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27" ht="15.5" thickBot="1">
+      <c r="A169" s="14">
         <v>45214</v>
       </c>
-      <c r="B169" s="14">
+      <c r="B169" s="15">
         <v>106</v>
       </c>
-      <c r="C169" s="14">
+      <c r="C169" s="15">
         <v>203</v>
       </c>
-      <c r="D169" s="14">
-        <v>3</v>
-      </c>
-      <c r="E169" s="14">
+      <c r="D169" s="15">
+        <v>3</v>
+      </c>
+      <c r="E169" s="15">
         <v>23</v>
       </c>
-      <c r="F169" s="7">
+      <c r="F169" s="16">
         <v>0.217</v>
       </c>
-      <c r="G169" s="14">
+      <c r="G169" s="15">
         <v>34</v>
       </c>
-      <c r="H169" s="14">
-        <v>0</v>
-      </c>
-      <c r="I169" s="14">
+      <c r="H169" s="15">
+        <v>0</v>
+      </c>
+      <c r="I169" s="15">
         <v>43</v>
       </c>
-      <c r="J169" s="14">
+      <c r="J169" s="15">
         <v>63</v>
       </c>
-      <c r="K169" s="7">
+      <c r="K169" s="16">
         <v>0.40570000000000001</v>
       </c>
-      <c r="L169" s="14">
+      <c r="L169" s="15">
         <v>8</v>
       </c>
-      <c r="M169" s="14">
+      <c r="M169" s="15">
         <v>8</v>
       </c>
-      <c r="N169" s="14">
-        <v>1</v>
-      </c>
-      <c r="O169" s="14">
+      <c r="N169" s="15">
+        <v>1</v>
+      </c>
+      <c r="O169" s="15">
         <v>133.97999999999999</v>
       </c>
-      <c r="P169" s="7">
+      <c r="P169" s="16">
         <v>7.5499999999999998E-2</v>
       </c>
-      <c r="Q169" s="14">
+      <c r="Q169" s="15">
         <v>8</v>
       </c>
-      <c r="R169" s="14">
+      <c r="R169" s="15">
         <v>8</v>
       </c>
-      <c r="S169" s="14">
-        <v>1</v>
-      </c>
-      <c r="T169" s="14">
+      <c r="S169" s="15">
+        <v>1</v>
+      </c>
+      <c r="T169" s="15">
         <v>133.97999999999999</v>
       </c>
-      <c r="U169" s="7">
+      <c r="U169" s="16">
         <v>7.5499999999999998E-2</v>
       </c>
-      <c r="V169" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A170" s="9">
+      <c r="V169" s="16">
+        <v>1</v>
+      </c>
+      <c r="W169" s="15">
+        <v>8</v>
+      </c>
+      <c r="X169" s="15">
+        <v>4</v>
+      </c>
+      <c r="Y169" s="15">
+        <v>4</v>
+      </c>
+      <c r="Z169" s="15">
+        <v>35</v>
+      </c>
+      <c r="AA169" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:27" ht="15.5" thickBot="1">
+      <c r="A170" s="14">
         <v>45215</v>
       </c>
-      <c r="B170" s="14">
+      <c r="B170" s="15">
         <v>102</v>
       </c>
-      <c r="C170" s="14">
+      <c r="C170" s="15">
         <v>172</v>
       </c>
-      <c r="D170" s="14">
-        <v>3</v>
-      </c>
-      <c r="E170" s="14">
+      <c r="D170" s="15">
+        <v>3</v>
+      </c>
+      <c r="E170" s="15">
         <v>25</v>
       </c>
-      <c r="F170" s="7">
+      <c r="F170" s="16">
         <v>0.24510000000000001</v>
       </c>
-      <c r="G170" s="14">
+      <c r="G170" s="15">
         <v>17</v>
       </c>
-      <c r="H170" s="14">
-        <v>1</v>
-      </c>
-      <c r="I170" s="14">
+      <c r="H170" s="15">
+        <v>1</v>
+      </c>
+      <c r="I170" s="15">
         <v>28</v>
       </c>
-      <c r="J170" s="14">
+      <c r="J170" s="15">
         <v>33</v>
       </c>
-      <c r="K170" s="7">
+      <c r="K170" s="16">
         <v>0.27450000000000002</v>
       </c>
-      <c r="L170" s="14">
+      <c r="L170" s="15">
         <v>6</v>
       </c>
-      <c r="M170" s="14">
+      <c r="M170" s="15">
         <v>6</v>
       </c>
-      <c r="N170" s="14">
-        <v>1</v>
-      </c>
-      <c r="O170" s="14">
+      <c r="N170" s="15">
+        <v>1</v>
+      </c>
+      <c r="O170" s="15">
         <v>181.8</v>
       </c>
-      <c r="P170" s="7">
+      <c r="P170" s="16">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="Q170" s="14">
+      <c r="Q170" s="15">
         <v>5</v>
       </c>
-      <c r="R170" s="14">
+      <c r="R170" s="15">
         <v>5</v>
       </c>
-      <c r="S170" s="14">
-        <v>1</v>
-      </c>
-      <c r="T170" s="14">
+      <c r="S170" s="15">
+        <v>1</v>
+      </c>
+      <c r="T170" s="15">
         <v>158.9</v>
       </c>
-      <c r="U170" s="7">
+      <c r="U170" s="16">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="V170" s="7">
+      <c r="V170" s="16">
         <v>0.83330000000000004</v>
       </c>
-    </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A171" s="9">
+      <c r="W170" s="15">
+        <v>5</v>
+      </c>
+      <c r="X170" s="15">
+        <v>4</v>
+      </c>
+      <c r="Y170" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z170" s="15">
+        <v>24</v>
+      </c>
+      <c r="AA170" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27" ht="15.5" thickBot="1">
+      <c r="A171" s="14">
         <v>45216</v>
       </c>
-      <c r="B171" s="14">
+      <c r="B171" s="15">
         <v>87</v>
       </c>
-      <c r="C171" s="14">
+      <c r="C171" s="15">
         <v>189</v>
       </c>
-      <c r="D171" s="14">
-        <v>3</v>
-      </c>
-      <c r="E171" s="14">
+      <c r="D171" s="15">
+        <v>3</v>
+      </c>
+      <c r="E171" s="15">
         <v>21</v>
       </c>
-      <c r="F171" s="7">
+      <c r="F171" s="16">
         <v>0.2414</v>
       </c>
-      <c r="G171" s="14">
+      <c r="G171" s="15">
         <v>22</v>
       </c>
-      <c r="H171" s="14">
-        <v>0</v>
-      </c>
-      <c r="I171" s="14">
+      <c r="H171" s="15">
+        <v>0</v>
+      </c>
+      <c r="I171" s="15">
         <v>48</v>
       </c>
-      <c r="J171" s="14">
+      <c r="J171" s="15">
         <v>72</v>
       </c>
-      <c r="K171" s="7">
+      <c r="K171" s="16">
         <v>0.55169999999999997</v>
       </c>
-      <c r="L171" s="14">
+      <c r="L171" s="15">
         <v>11</v>
       </c>
-      <c r="M171" s="14">
+      <c r="M171" s="15">
         <v>12</v>
       </c>
-      <c r="N171" s="14">
-        <v>1</v>
-      </c>
-      <c r="O171" s="14">
+      <c r="N171" s="15">
+        <v>1</v>
+      </c>
+      <c r="O171" s="15">
         <v>232.85</v>
       </c>
-      <c r="P171" s="7">
+      <c r="P171" s="16">
         <v>0.12640000000000001</v>
       </c>
-      <c r="Q171" s="14">
+      <c r="Q171" s="15">
         <v>9</v>
       </c>
-      <c r="R171" s="14">
+      <c r="R171" s="15">
         <v>10</v>
       </c>
-      <c r="S171" s="14">
-        <v>1</v>
-      </c>
-      <c r="T171" s="14">
+      <c r="S171" s="15">
+        <v>1</v>
+      </c>
+      <c r="T171" s="15">
         <v>196.65</v>
       </c>
-      <c r="U171" s="7">
+      <c r="U171" s="16">
         <v>0.10340000000000001</v>
       </c>
-      <c r="V171" s="7">
+      <c r="V171" s="16">
         <v>0.81820000000000004</v>
       </c>
-    </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A172" s="9">
+      <c r="W171" s="15">
+        <v>9</v>
+      </c>
+      <c r="X171" s="15">
+        <v>6</v>
+      </c>
+      <c r="Y171" s="15">
+        <v>3</v>
+      </c>
+      <c r="Z171" s="15">
+        <v>39</v>
+      </c>
+      <c r="AA171" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:27" ht="15.5" thickBot="1">
+      <c r="A172" s="14">
         <v>45217</v>
       </c>
-      <c r="B172" s="14">
+      <c r="B172" s="15">
         <v>138</v>
       </c>
-      <c r="C172" s="14">
+      <c r="C172" s="15">
         <v>375</v>
       </c>
-      <c r="D172" s="14">
+      <c r="D172" s="15">
         <v>5</v>
       </c>
-      <c r="E172" s="14">
+      <c r="E172" s="15">
         <v>31</v>
       </c>
-      <c r="F172" s="7">
+      <c r="F172" s="16">
         <v>0.22459999999999999</v>
       </c>
-      <c r="G172" s="14">
+      <c r="G172" s="15">
         <v>29</v>
       </c>
-      <c r="H172" s="14">
-        <v>1</v>
-      </c>
-      <c r="I172" s="14">
+      <c r="H172" s="15">
+        <v>1</v>
+      </c>
+      <c r="I172" s="15">
         <v>118</v>
       </c>
-      <c r="J172" s="14">
+      <c r="J172" s="15">
         <v>244</v>
       </c>
-      <c r="K172" s="7">
+      <c r="K172" s="16">
         <v>0.85509999999999997</v>
       </c>
-      <c r="L172" s="14">
+      <c r="L172" s="15">
         <v>27</v>
       </c>
-      <c r="M172" s="14">
+      <c r="M172" s="15">
         <v>33</v>
       </c>
-      <c r="N172" s="14">
+      <c r="N172" s="15">
         <v>2</v>
       </c>
-      <c r="O172" s="14">
+      <c r="O172" s="15">
         <v>635.41</v>
       </c>
-      <c r="P172" s="7">
+      <c r="P172" s="16">
         <v>0.19570000000000001</v>
       </c>
-      <c r="Q172" s="14">
+      <c r="Q172" s="15">
         <v>24</v>
       </c>
-      <c r="R172" s="14">
+      <c r="R172" s="15">
         <v>29</v>
       </c>
-      <c r="S172" s="14">
+      <c r="S172" s="15">
         <v>2</v>
       </c>
-      <c r="T172" s="14">
+      <c r="T172" s="15">
         <v>548.55999999999995</v>
       </c>
-      <c r="U172" s="7">
+      <c r="U172" s="16">
         <v>0.1739</v>
       </c>
-      <c r="V172" s="7">
+      <c r="V172" s="16">
         <v>0.88890000000000002</v>
       </c>
-    </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A173" s="9">
+      <c r="W172" s="15">
+        <v>24</v>
+      </c>
+      <c r="X172" s="15">
+        <v>16</v>
+      </c>
+      <c r="Y172" s="15">
+        <v>8</v>
+      </c>
+      <c r="Z172" s="15">
+        <v>95</v>
+      </c>
+      <c r="AA172" s="16">
+        <v>4.1700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27" ht="15.5" thickBot="1">
+      <c r="A173" s="14">
         <v>45218</v>
       </c>
-      <c r="B173" s="14">
+      <c r="B173" s="15">
         <v>68</v>
       </c>
-      <c r="C173" s="14">
+      <c r="C173" s="15">
         <v>121</v>
       </c>
-      <c r="D173" s="14">
-        <v>3</v>
-      </c>
-      <c r="E173" s="14">
+      <c r="D173" s="15">
+        <v>3</v>
+      </c>
+      <c r="E173" s="15">
         <v>15</v>
       </c>
-      <c r="F173" s="7">
+      <c r="F173" s="16">
         <v>0.22059999999999999</v>
       </c>
-      <c r="G173" s="14">
+      <c r="G173" s="15">
         <v>10</v>
       </c>
-      <c r="H173" s="14">
-        <v>1</v>
-      </c>
-      <c r="I173" s="14">
+      <c r="H173" s="15">
+        <v>1</v>
+      </c>
+      <c r="I173" s="15">
         <v>43</v>
       </c>
-      <c r="J173" s="14">
+      <c r="J173" s="15">
         <v>73</v>
       </c>
-      <c r="K173" s="7">
+      <c r="K173" s="16">
         <v>0.63239999999999996</v>
       </c>
-      <c r="L173" s="14">
+      <c r="L173" s="15">
         <v>10</v>
       </c>
-      <c r="M173" s="14">
+      <c r="M173" s="15">
         <v>10</v>
       </c>
-      <c r="N173" s="14">
-        <v>1</v>
-      </c>
-      <c r="O173" s="14">
+      <c r="N173" s="15">
+        <v>1</v>
+      </c>
+      <c r="O173" s="15">
         <v>199.8</v>
       </c>
-      <c r="P173" s="7">
+      <c r="P173" s="16">
         <v>0.14710000000000001</v>
       </c>
-      <c r="Q173" s="14">
+      <c r="Q173" s="15">
         <v>8</v>
       </c>
-      <c r="R173" s="14">
+      <c r="R173" s="15">
         <v>8</v>
       </c>
-      <c r="S173" s="14">
-        <v>1</v>
-      </c>
-      <c r="T173" s="14">
+      <c r="S173" s="15">
+        <v>1</v>
+      </c>
+      <c r="T173" s="15">
         <v>146</v>
       </c>
-      <c r="U173" s="7">
+      <c r="U173" s="16">
         <v>0.1176</v>
       </c>
-      <c r="V173" s="7">
+      <c r="V173" s="16">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A174" s="9">
+      <c r="W173" s="15">
+        <v>9</v>
+      </c>
+      <c r="X173" s="15">
+        <v>5</v>
+      </c>
+      <c r="Y173" s="15">
+        <v>4</v>
+      </c>
+      <c r="Z173" s="15">
+        <v>35</v>
+      </c>
+      <c r="AA173" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:27" ht="15.5" thickBot="1">
+      <c r="A174" s="14">
         <v>45219</v>
       </c>
-      <c r="B174" s="14">
+      <c r="B174" s="15">
         <v>47</v>
       </c>
-      <c r="C174" s="14">
+      <c r="C174" s="15">
         <v>77</v>
       </c>
-      <c r="D174" s="14">
-        <v>3</v>
-      </c>
-      <c r="E174" s="14">
+      <c r="D174" s="15">
+        <v>3</v>
+      </c>
+      <c r="E174" s="15">
         <v>16</v>
       </c>
-      <c r="F174" s="7">
+      <c r="F174" s="16">
         <v>0.34039999999999998</v>
       </c>
-      <c r="G174" s="14">
+      <c r="G174" s="15">
         <v>14</v>
       </c>
-      <c r="H174" s="14">
+      <c r="H174" s="15">
         <v>4</v>
       </c>
-      <c r="I174" s="14">
+      <c r="I174" s="15">
         <v>12</v>
       </c>
-      <c r="J174" s="14">
+      <c r="J174" s="15">
         <v>12</v>
       </c>
-      <c r="K174" s="7">
+      <c r="K174" s="16">
         <v>0.25530000000000003</v>
       </c>
-      <c r="L174" s="14">
-        <v>0</v>
-      </c>
-      <c r="M174" s="14">
-        <v>0</v>
-      </c>
-      <c r="N174" s="14">
-        <v>0</v>
-      </c>
-      <c r="O174" s="14">
-        <v>0</v>
-      </c>
-      <c r="P174" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q174" s="14">
-        <v>1</v>
-      </c>
-      <c r="R174" s="14">
-        <v>1</v>
-      </c>
-      <c r="S174" s="14">
-        <v>1</v>
-      </c>
-      <c r="T174" s="14">
+      <c r="L174" s="15">
+        <v>0</v>
+      </c>
+      <c r="M174" s="15">
+        <v>0</v>
+      </c>
+      <c r="N174" s="15">
+        <v>0</v>
+      </c>
+      <c r="O174" s="15">
+        <v>0</v>
+      </c>
+      <c r="P174" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q174" s="15">
+        <v>1</v>
+      </c>
+      <c r="R174" s="15">
+        <v>1</v>
+      </c>
+      <c r="S174" s="15">
+        <v>1</v>
+      </c>
+      <c r="T174" s="15">
         <v>22.9</v>
       </c>
-      <c r="U174" s="7">
+      <c r="U174" s="16">
         <v>2.1299999999999999E-2</v>
       </c>
-      <c r="V174" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A175" s="9">
+      <c r="V174" s="16">
+        <v>0</v>
+      </c>
+      <c r="W174" s="15">
+        <v>0</v>
+      </c>
+      <c r="X174" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y174" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z174" s="15">
+        <v>14</v>
+      </c>
+      <c r="AA174" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:27" ht="15.5" thickBot="1">
+      <c r="A175" s="14">
         <v>45220</v>
       </c>
-      <c r="B175" s="14">
+      <c r="B175" s="15">
         <v>30</v>
       </c>
-      <c r="C175" s="14">
+      <c r="C175" s="15">
         <v>55</v>
       </c>
-      <c r="D175" s="14">
-        <v>3</v>
-      </c>
-      <c r="E175" s="14">
+      <c r="D175" s="15">
+        <v>3</v>
+      </c>
+      <c r="E175" s="15">
         <v>11</v>
       </c>
-      <c r="F175" s="7">
+      <c r="F175" s="16">
         <v>0.36670000000000003</v>
       </c>
-      <c r="G175" s="14">
+      <c r="G175" s="15">
         <v>9</v>
       </c>
-      <c r="H175" s="14">
-        <v>1</v>
-      </c>
-      <c r="I175" s="14">
+      <c r="H175" s="15">
+        <v>1</v>
+      </c>
+      <c r="I175" s="15">
         <v>12</v>
       </c>
-      <c r="J175" s="14">
+      <c r="J175" s="15">
         <v>19</v>
       </c>
-      <c r="K175" s="7">
+      <c r="K175" s="16">
         <v>0.4</v>
       </c>
-      <c r="L175" s="14">
-        <v>1</v>
-      </c>
-      <c r="M175" s="14">
-        <v>1</v>
-      </c>
-      <c r="N175" s="14">
-        <v>1</v>
-      </c>
-      <c r="O175" s="14">
+      <c r="L175" s="15">
+        <v>1</v>
+      </c>
+      <c r="M175" s="15">
+        <v>1</v>
+      </c>
+      <c r="N175" s="15">
+        <v>1</v>
+      </c>
+      <c r="O175" s="15">
         <v>10.9</v>
       </c>
-      <c r="P175" s="7">
+      <c r="P175" s="16">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="Q175" s="14">
-        <v>1</v>
-      </c>
-      <c r="R175" s="14">
-        <v>1</v>
-      </c>
-      <c r="S175" s="14">
-        <v>1</v>
-      </c>
-      <c r="T175" s="14">
+      <c r="Q175" s="15">
+        <v>1</v>
+      </c>
+      <c r="R175" s="15">
+        <v>1</v>
+      </c>
+      <c r="S175" s="15">
+        <v>1</v>
+      </c>
+      <c r="T175" s="15">
         <v>10.9</v>
       </c>
-      <c r="U175" s="7">
+      <c r="U175" s="16">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="V175" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A176" s="9">
+      <c r="V175" s="16">
+        <v>1</v>
+      </c>
+      <c r="W175" s="15">
+        <v>1</v>
+      </c>
+      <c r="X175" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y175" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z175" s="15">
+        <v>12</v>
+      </c>
+      <c r="AA175" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:27" ht="15.5" thickBot="1">
+      <c r="A176" s="14">
         <v>45221</v>
       </c>
-      <c r="B176" s="14">
+      <c r="B176" s="15">
         <v>56</v>
       </c>
-      <c r="C176" s="14">
+      <c r="C176" s="15">
         <v>109</v>
       </c>
-      <c r="D176" s="14">
+      <c r="D176" s="15">
         <v>4</v>
       </c>
-      <c r="E176" s="14">
+      <c r="E176" s="15">
         <v>12</v>
       </c>
-      <c r="F176" s="7">
+      <c r="F176" s="16">
         <v>0.21429999999999999</v>
       </c>
-      <c r="G176" s="14">
+      <c r="G176" s="15">
         <v>17</v>
       </c>
-      <c r="H176" s="14">
-        <v>0</v>
-      </c>
-      <c r="I176" s="14">
+      <c r="H176" s="15">
+        <v>0</v>
+      </c>
+      <c r="I176" s="15">
         <v>30</v>
       </c>
-      <c r="J176" s="14">
+      <c r="J176" s="15">
         <v>40</v>
       </c>
-      <c r="K176" s="7">
+      <c r="K176" s="16">
         <v>0.53569999999999995</v>
       </c>
-      <c r="L176" s="14">
+      <c r="L176" s="15">
         <v>2</v>
       </c>
-      <c r="M176" s="14">
+      <c r="M176" s="15">
         <v>2</v>
       </c>
-      <c r="N176" s="14">
-        <v>1</v>
-      </c>
-      <c r="O176" s="14">
+      <c r="N176" s="15">
+        <v>1</v>
+      </c>
+      <c r="O176" s="15">
         <v>19.8</v>
       </c>
-      <c r="P176" s="7">
+      <c r="P176" s="16">
         <v>3.5700000000000003E-2</v>
       </c>
-      <c r="Q176" s="14">
+      <c r="Q176" s="15">
         <v>2</v>
       </c>
-      <c r="R176" s="14">
+      <c r="R176" s="15">
         <v>2</v>
       </c>
-      <c r="S176" s="14">
-        <v>1</v>
-      </c>
-      <c r="T176" s="14">
+      <c r="S176" s="15">
+        <v>1</v>
+      </c>
+      <c r="T176" s="15">
         <v>19.8</v>
       </c>
-      <c r="U176" s="7">
+      <c r="U176" s="16">
         <v>3.5700000000000003E-2</v>
       </c>
-      <c r="V176" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A177" s="9">
+      <c r="V176" s="16">
+        <v>1</v>
+      </c>
+      <c r="W176" s="15">
+        <v>2</v>
+      </c>
+      <c r="X176" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y176" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z176" s="15">
+        <v>28</v>
+      </c>
+      <c r="AA176" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27" ht="15.5" thickBot="1">
+      <c r="A177" s="14">
         <v>45222</v>
       </c>
-      <c r="B177" s="14">
+      <c r="B177" s="15">
         <v>61</v>
       </c>
-      <c r="C177" s="14">
+      <c r="C177" s="15">
         <v>110</v>
       </c>
-      <c r="D177" s="14">
-        <v>3</v>
-      </c>
-      <c r="E177" s="14">
+      <c r="D177" s="15">
+        <v>3</v>
+      </c>
+      <c r="E177" s="15">
         <v>11</v>
       </c>
-      <c r="F177" s="7">
+      <c r="F177" s="16">
         <v>0.18029999999999999</v>
       </c>
-      <c r="G177" s="14">
+      <c r="G177" s="15">
         <v>13</v>
       </c>
-      <c r="H177" s="14">
-        <v>0</v>
-      </c>
-      <c r="I177" s="14">
+      <c r="H177" s="15">
+        <v>0</v>
+      </c>
+      <c r="I177" s="15">
         <v>32</v>
       </c>
-      <c r="J177" s="14">
+      <c r="J177" s="15">
         <v>39</v>
       </c>
-      <c r="K177" s="7">
+      <c r="K177" s="16">
         <v>0.52459999999999996</v>
       </c>
-      <c r="L177" s="14">
-        <v>3</v>
-      </c>
-      <c r="M177" s="14">
-        <v>3</v>
-      </c>
-      <c r="N177" s="14">
-        <v>1</v>
-      </c>
-      <c r="O177" s="14">
+      <c r="L177" s="15">
+        <v>3</v>
+      </c>
+      <c r="M177" s="15">
+        <v>3</v>
+      </c>
+      <c r="N177" s="15">
+        <v>1</v>
+      </c>
+      <c r="O177" s="15">
         <v>69.66</v>
       </c>
-      <c r="P177" s="7">
+      <c r="P177" s="16">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="Q177" s="14">
-        <v>3</v>
-      </c>
-      <c r="R177" s="14">
-        <v>3</v>
-      </c>
-      <c r="S177" s="14">
-        <v>1</v>
-      </c>
-      <c r="T177" s="14">
+      <c r="Q177" s="15">
+        <v>3</v>
+      </c>
+      <c r="R177" s="15">
+        <v>3</v>
+      </c>
+      <c r="S177" s="15">
+        <v>1</v>
+      </c>
+      <c r="T177" s="15">
         <v>69.66</v>
       </c>
-      <c r="U177" s="7">
+      <c r="U177" s="16">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="V177" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A178" s="9">
+      <c r="V177" s="16">
+        <v>1</v>
+      </c>
+      <c r="W177" s="15">
+        <v>3</v>
+      </c>
+      <c r="X177" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y177" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z177" s="15">
+        <v>29</v>
+      </c>
+      <c r="AA177" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:27" ht="15.5" thickBot="1">
+      <c r="A178" s="14">
         <v>45223</v>
       </c>
-      <c r="B178" s="14">
+      <c r="B178" s="15">
         <v>70</v>
       </c>
-      <c r="C178" s="14">
+      <c r="C178" s="15">
         <v>142</v>
       </c>
-      <c r="D178" s="14">
-        <v>3</v>
-      </c>
-      <c r="E178" s="14">
+      <c r="D178" s="15">
+        <v>3</v>
+      </c>
+      <c r="E178" s="15">
         <v>23</v>
       </c>
-      <c r="F178" s="7">
+      <c r="F178" s="16">
         <v>0.3286</v>
       </c>
-      <c r="G178" s="14">
+      <c r="G178" s="15">
         <v>20</v>
       </c>
-      <c r="H178" s="14">
-        <v>1</v>
-      </c>
-      <c r="I178" s="14">
+      <c r="H178" s="15">
+        <v>1</v>
+      </c>
+      <c r="I178" s="15">
         <v>16</v>
       </c>
-      <c r="J178" s="14">
+      <c r="J178" s="15">
         <v>18</v>
       </c>
-      <c r="K178" s="7">
+      <c r="K178" s="16">
         <v>0.2286</v>
       </c>
-      <c r="L178" s="14">
+      <c r="L178" s="15">
         <v>4</v>
       </c>
-      <c r="M178" s="14">
+      <c r="M178" s="15">
         <v>4</v>
       </c>
-      <c r="N178" s="14">
-        <v>1</v>
-      </c>
-      <c r="O178" s="14">
+      <c r="N178" s="15">
+        <v>1</v>
+      </c>
+      <c r="O178" s="15">
         <v>61.6</v>
       </c>
-      <c r="P178" s="7">
+      <c r="P178" s="16">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="Q178" s="14">
+      <c r="Q178" s="15">
         <v>4</v>
       </c>
-      <c r="R178" s="14">
+      <c r="R178" s="15">
         <v>4</v>
       </c>
-      <c r="S178" s="14">
-        <v>1</v>
-      </c>
-      <c r="T178" s="14">
+      <c r="S178" s="15">
+        <v>1</v>
+      </c>
+      <c r="T178" s="15">
         <v>61.6</v>
       </c>
-      <c r="U178" s="7">
+      <c r="U178" s="16">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="V178" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A179" s="9">
+      <c r="V178" s="16">
+        <v>1</v>
+      </c>
+      <c r="W178" s="15">
+        <v>4</v>
+      </c>
+      <c r="X178" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y178" s="15">
+        <v>3</v>
+      </c>
+      <c r="Z178" s="15">
+        <v>13</v>
+      </c>
+      <c r="AA178" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:27" ht="15.5" thickBot="1">
+      <c r="A179" s="14">
         <v>45224</v>
       </c>
-      <c r="B179" s="14">
+      <c r="B179" s="15">
         <v>142</v>
       </c>
-      <c r="C179" s="14">
+      <c r="C179" s="15">
         <v>360</v>
       </c>
-      <c r="D179" s="14">
-        <v>3</v>
-      </c>
-      <c r="E179" s="14">
+      <c r="D179" s="15">
+        <v>3</v>
+      </c>
+      <c r="E179" s="15">
         <v>25</v>
       </c>
-      <c r="F179" s="7">
+      <c r="F179" s="16">
         <v>0.17610000000000001</v>
       </c>
-      <c r="G179" s="14">
+      <c r="G179" s="15">
         <v>37</v>
       </c>
-      <c r="H179" s="14">
+      <c r="H179" s="15">
         <v>2</v>
       </c>
-      <c r="I179" s="14">
+      <c r="I179" s="15">
         <v>171</v>
       </c>
-      <c r="J179" s="14">
+      <c r="J179" s="15">
         <v>356</v>
       </c>
-      <c r="K179" s="7">
+      <c r="K179" s="16">
         <v>1.2041999999999999</v>
       </c>
-      <c r="L179" s="14">
+      <c r="L179" s="15">
         <v>62</v>
       </c>
-      <c r="M179" s="14">
+      <c r="M179" s="15">
         <v>66</v>
       </c>
-      <c r="N179" s="14">
+      <c r="N179" s="15">
         <v>2</v>
       </c>
-      <c r="O179" s="15">
+      <c r="O179" s="17">
         <v>1311.58</v>
       </c>
-      <c r="P179" s="7">
+      <c r="P179" s="16">
         <v>0.43659999999999999</v>
       </c>
-      <c r="Q179" s="14">
+      <c r="Q179" s="15">
         <v>60</v>
       </c>
-      <c r="R179" s="14">
+      <c r="R179" s="15">
         <v>63</v>
       </c>
-      <c r="S179" s="14">
+      <c r="S179" s="15">
         <v>2</v>
       </c>
-      <c r="T179" s="15">
+      <c r="T179" s="17">
         <v>1198.8800000000001</v>
       </c>
-      <c r="U179" s="7">
+      <c r="U179" s="16">
         <v>0.42249999999999999</v>
       </c>
-      <c r="V179" s="7">
+      <c r="V179" s="16">
         <v>0.9677</v>
       </c>
-    </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A180" s="9">
+      <c r="W179" s="15">
+        <v>60</v>
+      </c>
+      <c r="X179" s="15">
+        <v>39</v>
+      </c>
+      <c r="Y179" s="15">
+        <v>21</v>
+      </c>
+      <c r="Z179" s="15">
+        <v>112</v>
+      </c>
+      <c r="AA179" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:27" ht="15.5" thickBot="1">
+      <c r="A180" s="14">
         <v>45225</v>
       </c>
-      <c r="B180" s="14">
+      <c r="B180" s="15">
         <v>108</v>
       </c>
-      <c r="C180" s="14">
+      <c r="C180" s="15">
         <v>221</v>
       </c>
-      <c r="D180" s="14">
+      <c r="D180" s="15">
         <v>4</v>
       </c>
-      <c r="E180" s="14">
+      <c r="E180" s="15">
         <v>27</v>
       </c>
-      <c r="F180" s="7">
+      <c r="F180" s="16">
         <v>0.25</v>
       </c>
-      <c r="G180" s="14">
+      <c r="G180" s="15">
         <v>17</v>
       </c>
-      <c r="H180" s="14">
-        <v>1</v>
-      </c>
-      <c r="I180" s="14">
+      <c r="H180" s="15">
+        <v>1</v>
+      </c>
+      <c r="I180" s="15">
         <v>77</v>
       </c>
-      <c r="J180" s="14">
+      <c r="J180" s="15">
         <v>115</v>
       </c>
-      <c r="K180" s="7">
+      <c r="K180" s="16">
         <v>0.71299999999999997</v>
       </c>
-      <c r="L180" s="14">
+      <c r="L180" s="15">
         <v>23</v>
       </c>
-      <c r="M180" s="14">
+      <c r="M180" s="15">
         <v>25</v>
       </c>
-      <c r="N180" s="14">
-        <v>1</v>
-      </c>
-      <c r="O180" s="14">
+      <c r="N180" s="15">
+        <v>1</v>
+      </c>
+      <c r="O180" s="15">
         <v>497.05</v>
       </c>
-      <c r="P180" s="7">
+      <c r="P180" s="16">
         <v>0.21299999999999999</v>
       </c>
-      <c r="Q180" s="14">
+      <c r="Q180" s="15">
         <v>21</v>
       </c>
-      <c r="R180" s="14">
+      <c r="R180" s="15">
         <v>23</v>
       </c>
-      <c r="S180" s="14">
-        <v>1</v>
-      </c>
-      <c r="T180" s="14">
+      <c r="S180" s="15">
+        <v>1</v>
+      </c>
+      <c r="T180" s="15">
         <v>471.25</v>
       </c>
-      <c r="U180" s="7">
+      <c r="U180" s="16">
         <v>0.19439999999999999</v>
       </c>
-      <c r="V180" s="7">
+      <c r="V180" s="16">
         <v>0.91300000000000003</v>
       </c>
-    </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A181" s="9">
+      <c r="W180" s="15">
+        <v>21</v>
+      </c>
+      <c r="X180" s="15">
+        <v>14</v>
+      </c>
+      <c r="Y180" s="15">
+        <v>7</v>
+      </c>
+      <c r="Z180" s="15">
+        <v>57</v>
+      </c>
+      <c r="AA180" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:27" ht="15.5" thickBot="1">
+      <c r="A181" s="14">
         <v>45226</v>
       </c>
-      <c r="B181" s="14">
+      <c r="B181" s="15">
         <v>74</v>
       </c>
-      <c r="C181" s="14">
+      <c r="C181" s="15">
         <v>180</v>
       </c>
-      <c r="D181" s="14">
+      <c r="D181" s="15">
         <v>4</v>
       </c>
-      <c r="E181" s="14">
+      <c r="E181" s="15">
         <v>13</v>
       </c>
-      <c r="F181" s="7">
+      <c r="F181" s="16">
         <v>0.1757</v>
       </c>
-      <c r="G181" s="14">
+      <c r="G181" s="15">
         <v>19</v>
       </c>
-      <c r="H181" s="14">
-        <v>1</v>
-      </c>
-      <c r="I181" s="14">
+      <c r="H181" s="15">
+        <v>1</v>
+      </c>
+      <c r="I181" s="15">
         <v>56</v>
       </c>
-      <c r="J181" s="14">
+      <c r="J181" s="15">
         <v>108</v>
       </c>
-      <c r="K181" s="7">
+      <c r="K181" s="16">
         <v>0.75680000000000003</v>
       </c>
-      <c r="L181" s="14">
+      <c r="L181" s="15">
         <v>21</v>
       </c>
-      <c r="M181" s="14">
+      <c r="M181" s="15">
         <v>32</v>
       </c>
-      <c r="N181" s="14">
-        <v>1</v>
-      </c>
-      <c r="O181" s="14">
+      <c r="N181" s="15">
+        <v>1</v>
+      </c>
+      <c r="O181" s="15">
         <v>548.83000000000004</v>
       </c>
-      <c r="P181" s="7">
+      <c r="P181" s="16">
         <v>0.2838</v>
       </c>
-      <c r="Q181" s="14">
+      <c r="Q181" s="15">
         <v>19</v>
       </c>
-      <c r="R181" s="14">
+      <c r="R181" s="15">
         <v>27</v>
       </c>
-      <c r="S181" s="14">
-        <v>1</v>
-      </c>
-      <c r="T181" s="14">
+      <c r="S181" s="15">
+        <v>1</v>
+      </c>
+      <c r="T181" s="15">
         <v>469.23</v>
       </c>
-      <c r="U181" s="7">
+      <c r="U181" s="16">
         <v>0.25679999999999997</v>
       </c>
-      <c r="V181" s="7">
+      <c r="V181" s="16">
         <v>0.90480000000000005</v>
       </c>
-    </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A182" s="9">
+      <c r="W181" s="15">
+        <v>19</v>
+      </c>
+      <c r="X181" s="15">
+        <v>12</v>
+      </c>
+      <c r="Y181" s="15">
+        <v>7</v>
+      </c>
+      <c r="Z181" s="15">
+        <v>38</v>
+      </c>
+      <c r="AA181" s="16">
+        <v>0.21049999999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:27" ht="15.5" thickBot="1">
+      <c r="A182" s="14">
         <v>45227</v>
       </c>
-      <c r="B182" s="14">
+      <c r="B182" s="15">
         <v>53</v>
       </c>
-      <c r="C182" s="14">
+      <c r="C182" s="15">
         <v>86</v>
       </c>
-      <c r="D182" s="14">
-        <v>3</v>
-      </c>
-      <c r="E182" s="14">
+      <c r="D182" s="15">
+        <v>3</v>
+      </c>
+      <c r="E182" s="15">
         <v>16</v>
       </c>
-      <c r="F182" s="7">
+      <c r="F182" s="16">
         <v>0.3019</v>
       </c>
-      <c r="G182" s="14">
+      <c r="G182" s="15">
         <v>10</v>
       </c>
-      <c r="H182" s="14">
-        <v>1</v>
-      </c>
-      <c r="I182" s="14">
+      <c r="H182" s="15">
+        <v>1</v>
+      </c>
+      <c r="I182" s="15">
         <v>15</v>
       </c>
-      <c r="J182" s="14">
+      <c r="J182" s="15">
         <v>17</v>
       </c>
-      <c r="K182" s="7">
+      <c r="K182" s="16">
         <v>0.28299999999999997</v>
       </c>
-      <c r="L182" s="14">
+      <c r="L182" s="15">
         <v>2</v>
       </c>
-      <c r="M182" s="14">
+      <c r="M182" s="15">
         <v>2</v>
       </c>
-      <c r="N182" s="14">
-        <v>1</v>
-      </c>
-      <c r="O182" s="14">
+      <c r="N182" s="15">
+        <v>1</v>
+      </c>
+      <c r="O182" s="15">
         <v>25.8</v>
       </c>
-      <c r="P182" s="7">
+      <c r="P182" s="16">
         <v>3.7699999999999997E-2</v>
       </c>
-      <c r="Q182" s="14">
+      <c r="Q182" s="15">
         <v>2</v>
       </c>
-      <c r="R182" s="14">
+      <c r="R182" s="15">
         <v>2</v>
       </c>
-      <c r="S182" s="14">
-        <v>1</v>
-      </c>
-      <c r="T182" s="14">
+      <c r="S182" s="15">
+        <v>1</v>
+      </c>
+      <c r="T182" s="15">
         <v>25.8</v>
       </c>
-      <c r="U182" s="7">
+      <c r="U182" s="16">
         <v>3.7699999999999997E-2</v>
       </c>
-      <c r="V182" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A183" s="9">
+      <c r="V182" s="16">
+        <v>1</v>
+      </c>
+      <c r="W182" s="15">
+        <v>2</v>
+      </c>
+      <c r="X182" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y182" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z182" s="15">
+        <v>14</v>
+      </c>
+      <c r="AA182" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:27" ht="15.5" thickBot="1">
+      <c r="A183" s="14">
         <v>45228</v>
       </c>
-      <c r="B183" s="14">
+      <c r="B183" s="15">
         <v>78</v>
       </c>
-      <c r="C183" s="14">
+      <c r="C183" s="15">
         <v>133</v>
       </c>
-      <c r="D183" s="14">
-        <v>3</v>
-      </c>
-      <c r="E183" s="14">
+      <c r="D183" s="15">
+        <v>3</v>
+      </c>
+      <c r="E183" s="15">
         <v>29</v>
       </c>
-      <c r="F183" s="7">
+      <c r="F183" s="16">
         <v>0.37180000000000002</v>
       </c>
-      <c r="G183" s="14">
+      <c r="G183" s="15">
         <v>30</v>
       </c>
-      <c r="H183" s="14">
-        <v>0</v>
-      </c>
-      <c r="I183" s="14">
+      <c r="H183" s="15">
+        <v>0</v>
+      </c>
+      <c r="I183" s="15">
         <v>11</v>
       </c>
-      <c r="J183" s="14">
+      <c r="J183" s="15">
         <v>12</v>
       </c>
-      <c r="K183" s="7">
+      <c r="K183" s="16">
         <v>0.14099999999999999</v>
       </c>
-      <c r="L183" s="14">
+      <c r="L183" s="15">
         <v>5</v>
       </c>
-      <c r="M183" s="14">
+      <c r="M183" s="15">
         <v>6</v>
       </c>
-      <c r="N183" s="14">
-        <v>1</v>
-      </c>
-      <c r="O183" s="14">
+      <c r="N183" s="15">
+        <v>1</v>
+      </c>
+      <c r="O183" s="15">
         <v>140.9</v>
       </c>
-      <c r="P183" s="7">
+      <c r="P183" s="16">
         <v>6.4100000000000004E-2</v>
       </c>
-      <c r="Q183" s="14">
+      <c r="Q183" s="15">
         <v>5</v>
       </c>
-      <c r="R183" s="14">
+      <c r="R183" s="15">
         <v>6</v>
       </c>
-      <c r="S183" s="14">
-        <v>1</v>
-      </c>
-      <c r="T183" s="14">
+      <c r="S183" s="15">
+        <v>1</v>
+      </c>
+      <c r="T183" s="15">
         <v>140.9</v>
       </c>
-      <c r="U183" s="7">
+      <c r="U183" s="16">
         <v>6.4100000000000004E-2</v>
       </c>
-      <c r="V183" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A184" s="9">
+      <c r="V183" s="16">
+        <v>1</v>
+      </c>
+      <c r="W183" s="15">
+        <v>5</v>
+      </c>
+      <c r="X183" s="15">
+        <v>4</v>
+      </c>
+      <c r="Y183" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z183" s="15">
+        <v>6</v>
+      </c>
+      <c r="AA183" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:27" ht="15.5" thickBot="1">
+      <c r="A184" s="14">
         <v>45229</v>
       </c>
-      <c r="B184" s="14">
+      <c r="B184" s="15">
         <v>88</v>
       </c>
-      <c r="C184" s="14">
+      <c r="C184" s="15">
         <v>144</v>
       </c>
-      <c r="D184" s="14">
-        <v>3</v>
-      </c>
-      <c r="E184" s="14">
+      <c r="D184" s="15">
+        <v>3</v>
+      </c>
+      <c r="E184" s="15">
         <v>29</v>
       </c>
-      <c r="F184" s="7">
+      <c r="F184" s="16">
         <v>0.32950000000000002</v>
       </c>
-      <c r="G184" s="14">
+      <c r="G184" s="15">
         <v>33</v>
       </c>
-      <c r="H184" s="14">
-        <v>3</v>
-      </c>
-      <c r="I184" s="14">
+      <c r="H184" s="15">
+        <v>3</v>
+      </c>
+      <c r="I184" s="15">
         <v>29</v>
       </c>
-      <c r="J184" s="14">
+      <c r="J184" s="15">
         <v>36</v>
       </c>
-      <c r="K184" s="7">
+      <c r="K184" s="16">
         <v>0.32950000000000002</v>
       </c>
-      <c r="L184" s="14">
+      <c r="L184" s="15">
         <v>11</v>
       </c>
-      <c r="M184" s="14">
+      <c r="M184" s="15">
         <v>12</v>
       </c>
-      <c r="N184" s="14">
-        <v>1</v>
-      </c>
-      <c r="O184" s="14">
+      <c r="N184" s="15">
+        <v>1</v>
+      </c>
+      <c r="O184" s="15">
         <v>313.81</v>
       </c>
-      <c r="P184" s="7">
+      <c r="P184" s="16">
         <v>0.125</v>
       </c>
-      <c r="Q184" s="14">
+      <c r="Q184" s="15">
         <v>11</v>
       </c>
-      <c r="R184" s="14">
+      <c r="R184" s="15">
         <v>12</v>
       </c>
-      <c r="S184" s="14">
-        <v>1</v>
-      </c>
-      <c r="T184" s="14">
+      <c r="S184" s="15">
+        <v>1</v>
+      </c>
+      <c r="T184" s="15">
         <v>313.81</v>
       </c>
-      <c r="U184" s="7">
+      <c r="U184" s="16">
         <v>0.125</v>
       </c>
-      <c r="V184" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A185" s="9">
+      <c r="V184" s="16">
+        <v>1</v>
+      </c>
+      <c r="W184" s="15">
+        <v>11</v>
+      </c>
+      <c r="X184" s="15">
+        <v>7</v>
+      </c>
+      <c r="Y184" s="15">
+        <v>4</v>
+      </c>
+      <c r="Z184" s="15">
+        <v>20</v>
+      </c>
+      <c r="AA184" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:27" ht="15.5" thickBot="1">
+      <c r="A185" s="14">
         <v>45230</v>
       </c>
-      <c r="B185" s="14">
+      <c r="B185" s="15">
         <v>122</v>
       </c>
-      <c r="C185" s="14">
+      <c r="C185" s="15">
         <v>282</v>
       </c>
-      <c r="D185" s="14">
+      <c r="D185" s="15">
         <v>4</v>
       </c>
-      <c r="E185" s="14">
+      <c r="E185" s="15">
         <v>24</v>
       </c>
-      <c r="F185" s="7">
+      <c r="F185" s="16">
         <v>0.19670000000000001</v>
       </c>
-      <c r="G185" s="14">
+      <c r="G185" s="15">
         <v>43</v>
       </c>
-      <c r="H185" s="14">
-        <v>3</v>
-      </c>
-      <c r="I185" s="14">
+      <c r="H185" s="15">
+        <v>3</v>
+      </c>
+      <c r="I185" s="15">
         <v>60</v>
       </c>
-      <c r="J185" s="14">
+      <c r="J185" s="15">
         <v>169</v>
       </c>
-      <c r="K185" s="7">
+      <c r="K185" s="16">
         <v>0.49180000000000001</v>
       </c>
-      <c r="L185" s="14">
+      <c r="L185" s="15">
         <v>15</v>
       </c>
-      <c r="M185" s="14">
+      <c r="M185" s="15">
         <v>26</v>
       </c>
-      <c r="N185" s="14">
+      <c r="N185" s="15">
         <v>2</v>
       </c>
-      <c r="O185" s="14">
+      <c r="O185" s="15">
         <v>743.54</v>
       </c>
-      <c r="P185" s="7">
+      <c r="P185" s="16">
         <v>0.123</v>
       </c>
-      <c r="Q185" s="14">
+      <c r="Q185" s="15">
         <v>15</v>
       </c>
-      <c r="R185" s="14">
+      <c r="R185" s="15">
         <v>21</v>
       </c>
-      <c r="S185" s="14">
+      <c r="S185" s="15">
         <v>2</v>
       </c>
-      <c r="T185" s="14">
+      <c r="T185" s="15">
         <v>571.94000000000005</v>
       </c>
-      <c r="U185" s="7">
+      <c r="U185" s="16">
         <v>0.123</v>
       </c>
-      <c r="V185" s="7">
-        <v>1</v>
+      <c r="V185" s="16">
+        <v>1</v>
+      </c>
+      <c r="W185" s="15">
+        <v>15</v>
+      </c>
+      <c r="X185" s="15">
+        <v>9</v>
+      </c>
+      <c r="Y185" s="15">
+        <v>6</v>
+      </c>
+      <c r="Z185" s="15">
+        <v>49</v>
+      </c>
+      <c r="AA185" s="16">
+        <v>6.6699999999999995E-2</v>
       </c>
     </row>
   </sheetData>

--- a/MergedFile.xlsx
+++ b/MergedFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\CiliLado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F771228-D237-4F61-A15B-0C0DC516A7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BB9BA2-87B3-4907-941C-11774742FDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -185,7 +185,11 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,14 +531,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E149" sqref="E149"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="2" customWidth="1"/>
-    <col min="2" max="23" width="12" customWidth="1"/>
+    <col min="2" max="19" width="12" customWidth="1"/>
+    <col min="20" max="20" width="12" style="9" customWidth="1"/>
+    <col min="21" max="23" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -595,7 +601,7 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
@@ -672,7 +678,7 @@
       <c r="S2" s="3">
         <v>0</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="8">
         <v>0</v>
       </c>
       <c r="U2" s="5">
@@ -749,7 +755,7 @@
       <c r="S3" s="3">
         <v>1</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="8">
         <v>58.9</v>
       </c>
       <c r="U3" s="5">
@@ -826,7 +832,7 @@
       <c r="S4" s="3">
         <v>0</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="8">
         <v>0</v>
       </c>
       <c r="U4" s="5">
@@ -903,7 +909,7 @@
       <c r="S5" s="3">
         <v>0</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="8">
         <v>0</v>
       </c>
       <c r="U5" s="5">
@@ -980,7 +986,7 @@
       <c r="S6" s="3">
         <v>0</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="8">
         <v>0</v>
       </c>
       <c r="U6" s="5">
@@ -1057,7 +1063,7 @@
       <c r="S7" s="3">
         <v>0</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="8">
         <v>0</v>
       </c>
       <c r="U7" s="5">
@@ -1134,7 +1140,7 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="8">
         <v>0</v>
       </c>
       <c r="U8" s="5">
@@ -1211,7 +1217,7 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="8">
         <v>0</v>
       </c>
       <c r="U9" s="5">
@@ -1288,7 +1294,7 @@
       <c r="S10" s="3">
         <v>0</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="8">
         <v>0</v>
       </c>
       <c r="U10" s="5">
@@ -1365,7 +1371,7 @@
       <c r="S11" s="3">
         <v>0</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11" s="8">
         <v>0</v>
       </c>
       <c r="U11" s="5">
@@ -1442,7 +1448,7 @@
       <c r="S12" s="3">
         <v>1</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="8">
         <v>51.9</v>
       </c>
       <c r="U12" s="5">
@@ -1519,7 +1525,7 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-      <c r="T13" s="3">
+      <c r="T13" s="8">
         <v>0</v>
       </c>
       <c r="U13" s="5">
@@ -1596,7 +1602,7 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="8">
         <v>0</v>
       </c>
       <c r="U14" s="5">
@@ -1673,7 +1679,7 @@
       <c r="S15" s="3">
         <v>1</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15" s="8">
         <v>113.4</v>
       </c>
       <c r="U15" s="5">
@@ -1750,7 +1756,7 @@
       <c r="S16" s="3">
         <v>1</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T16" s="8">
         <v>17.899999999999999</v>
       </c>
       <c r="U16" s="5">
@@ -1827,7 +1833,7 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="8">
         <v>0</v>
       </c>
       <c r="U17" s="5">
@@ -1904,7 +1910,7 @@
       <c r="S18" s="3">
         <v>1</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="8">
         <v>17.899999999999999</v>
       </c>
       <c r="U18" s="5">
@@ -1981,7 +1987,7 @@
       <c r="S19" s="3">
         <v>0</v>
       </c>
-      <c r="T19" s="3">
+      <c r="T19" s="8">
         <v>0</v>
       </c>
       <c r="U19" s="5">
@@ -2058,7 +2064,7 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="8">
         <v>0</v>
       </c>
       <c r="U20" s="5">
@@ -2135,7 +2141,7 @@
       <c r="S21" s="3">
         <v>0</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="8">
         <v>0</v>
       </c>
       <c r="U21" s="5">
@@ -2212,7 +2218,7 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="8">
         <v>0</v>
       </c>
       <c r="U22" s="5">
@@ -2289,7 +2295,7 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T23" s="8">
         <v>0</v>
       </c>
       <c r="U23" s="5">
@@ -2366,7 +2372,7 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24" s="8">
         <v>0</v>
       </c>
       <c r="U24" s="5">
@@ -2443,7 +2449,7 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-      <c r="T25" s="3">
+      <c r="T25" s="8">
         <v>0</v>
       </c>
       <c r="U25" s="5">
@@ -2520,7 +2526,7 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26" s="8">
         <v>0</v>
       </c>
       <c r="U26" s="5">
@@ -2597,7 +2603,7 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-      <c r="T27" s="3">
+      <c r="T27" s="8">
         <v>0</v>
       </c>
       <c r="U27" s="5">
@@ -2674,7 +2680,7 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-      <c r="T28" s="3">
+      <c r="T28" s="8">
         <v>0</v>
       </c>
       <c r="U28" s="5">
@@ -2751,7 +2757,7 @@
       <c r="S29" s="3">
         <v>1</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="8">
         <v>22.9</v>
       </c>
       <c r="U29" s="5">
@@ -2828,7 +2834,7 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-      <c r="T30" s="3">
+      <c r="T30" s="8">
         <v>0</v>
       </c>
       <c r="U30" s="5">
@@ -2905,7 +2911,7 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-      <c r="T31" s="3">
+      <c r="T31" s="8">
         <v>0</v>
       </c>
       <c r="U31" s="5">
@@ -2982,7 +2988,7 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-      <c r="T32" s="3">
+      <c r="T32" s="8">
         <v>0</v>
       </c>
       <c r="U32" s="5">
@@ -3059,7 +3065,7 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-      <c r="T33" s="3">
+      <c r="T33" s="8">
         <v>0</v>
       </c>
       <c r="U33" s="5">
@@ -3136,7 +3142,7 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-      <c r="T34" s="3">
+      <c r="T34" s="8">
         <v>0</v>
       </c>
       <c r="U34" s="5">
@@ -3213,7 +3219,7 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-      <c r="T35" s="3">
+      <c r="T35" s="8">
         <v>0</v>
       </c>
       <c r="U35" s="5">
@@ -3290,7 +3296,7 @@
       <c r="S36" s="3">
         <v>0</v>
       </c>
-      <c r="T36" s="3">
+      <c r="T36" s="8">
         <v>0</v>
       </c>
       <c r="U36" s="5">
@@ -3367,7 +3373,7 @@
       <c r="S37" s="3">
         <v>1</v>
       </c>
-      <c r="T37" s="3">
+      <c r="T37" s="8">
         <v>22.9</v>
       </c>
       <c r="U37" s="5">
@@ -3444,7 +3450,7 @@
       <c r="S38" s="3">
         <v>0</v>
       </c>
-      <c r="T38" s="3">
+      <c r="T38" s="8">
         <v>0</v>
       </c>
       <c r="U38" s="5">
@@ -3521,7 +3527,7 @@
       <c r="S39" s="3">
         <v>0</v>
       </c>
-      <c r="T39" s="3">
+      <c r="T39" s="8">
         <v>0</v>
       </c>
       <c r="U39" s="5">
@@ -3598,7 +3604,7 @@
       <c r="S40" s="3">
         <v>0</v>
       </c>
-      <c r="T40" s="3">
+      <c r="T40" s="8">
         <v>0</v>
       </c>
       <c r="U40" s="5">
@@ -3675,7 +3681,7 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-      <c r="T41" s="3">
+      <c r="T41" s="8">
         <v>0</v>
       </c>
       <c r="U41" s="5">
@@ -3752,7 +3758,7 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-      <c r="T42" s="3">
+      <c r="T42" s="8">
         <v>0</v>
       </c>
       <c r="U42" s="5">
@@ -3829,7 +3835,7 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3">
+      <c r="T43" s="8">
         <v>0</v>
       </c>
       <c r="U43" s="5">
@@ -3906,7 +3912,7 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-      <c r="T44" s="3">
+      <c r="T44" s="8">
         <v>0</v>
       </c>
       <c r="U44" s="5">
@@ -3983,7 +3989,7 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3">
+      <c r="T45" s="8">
         <v>0</v>
       </c>
       <c r="U45" s="5">
@@ -4060,7 +4066,7 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-      <c r="T46" s="3">
+      <c r="T46" s="8">
         <v>0</v>
       </c>
       <c r="U46" s="5">
@@ -4137,7 +4143,7 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-      <c r="T47" s="3">
+      <c r="T47" s="8">
         <v>0</v>
       </c>
       <c r="U47" s="5">
@@ -4214,7 +4220,7 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-      <c r="T48" s="3">
+      <c r="T48" s="8">
         <v>0</v>
       </c>
       <c r="U48" s="5">
@@ -4291,7 +4297,7 @@
       <c r="S49" s="3">
         <v>1</v>
       </c>
-      <c r="T49" s="3">
+      <c r="T49" s="8">
         <v>81.8</v>
       </c>
       <c r="U49" s="5">
@@ -4368,7 +4374,7 @@
       <c r="S50" s="3">
         <v>1</v>
       </c>
-      <c r="T50" s="3">
+      <c r="T50" s="8">
         <v>40.9</v>
       </c>
       <c r="U50" s="5">
@@ -4445,7 +4451,7 @@
       <c r="S51" s="3">
         <v>2</v>
       </c>
-      <c r="T51" s="3">
+      <c r="T51" s="8">
         <v>823.2</v>
       </c>
       <c r="U51" s="5">
@@ -4522,7 +4528,7 @@
       <c r="S52" s="3">
         <v>1</v>
       </c>
-      <c r="T52" s="3">
+      <c r="T52" s="8">
         <v>456.85</v>
       </c>
       <c r="U52" s="5">
@@ -4599,7 +4605,7 @@
       <c r="S53" s="3">
         <v>2</v>
       </c>
-      <c r="T53" s="3">
+      <c r="T53" s="8">
         <v>921.97</v>
       </c>
       <c r="U53" s="5">
@@ -4676,7 +4682,7 @@
       <c r="S54" s="3">
         <v>2</v>
       </c>
-      <c r="T54" s="6">
+      <c r="T54" s="8">
         <v>1491.01</v>
       </c>
       <c r="U54" s="5">
@@ -4753,7 +4759,7 @@
       <c r="S55" s="3">
         <v>2</v>
       </c>
-      <c r="T55" s="6">
+      <c r="T55" s="8">
         <v>1444.74</v>
       </c>
       <c r="U55" s="5">
@@ -4830,7 +4836,7 @@
       <c r="S56" s="3">
         <v>2</v>
       </c>
-      <c r="T56" s="6">
+      <c r="T56" s="8">
         <v>1275.9000000000001</v>
       </c>
       <c r="U56" s="5">
@@ -4907,7 +4913,7 @@
       <c r="S57" s="3">
         <v>1</v>
       </c>
-      <c r="T57" s="3">
+      <c r="T57" s="8">
         <v>572.87</v>
       </c>
       <c r="U57" s="5">
@@ -4984,7 +4990,7 @@
       <c r="S58" s="3">
         <v>1</v>
       </c>
-      <c r="T58" s="3">
+      <c r="T58" s="8">
         <v>324.10000000000002</v>
       </c>
       <c r="U58" s="5">
@@ -5061,7 +5067,7 @@
       <c r="S59" s="3">
         <v>2</v>
       </c>
-      <c r="T59" s="3">
+      <c r="T59" s="8">
         <v>306.10000000000002</v>
       </c>
       <c r="U59" s="5">
@@ -5138,7 +5144,7 @@
       <c r="S60" s="3">
         <v>1</v>
       </c>
-      <c r="T60" s="3">
+      <c r="T60" s="8">
         <v>153.6</v>
       </c>
       <c r="U60" s="5">
@@ -5215,7 +5221,7 @@
       <c r="S61" s="3">
         <v>1</v>
       </c>
-      <c r="T61" s="3">
+      <c r="T61" s="8">
         <v>331.83</v>
       </c>
       <c r="U61" s="5">
@@ -5292,7 +5298,7 @@
       <c r="S62" s="3">
         <v>1</v>
       </c>
-      <c r="T62" s="3">
+      <c r="T62" s="8">
         <v>501</v>
       </c>
       <c r="U62" s="5">
@@ -5369,7 +5375,7 @@
       <c r="S63" s="3">
         <v>1</v>
       </c>
-      <c r="T63" s="3">
+      <c r="T63" s="8">
         <v>623.29999999999995</v>
       </c>
       <c r="U63" s="5">
@@ -5446,7 +5452,7 @@
       <c r="S64" s="3">
         <v>2</v>
       </c>
-      <c r="T64" s="3">
+      <c r="T64" s="8">
         <v>287.7</v>
       </c>
       <c r="U64" s="5">
@@ -5523,7 +5529,7 @@
       <c r="S65" s="3">
         <v>1</v>
       </c>
-      <c r="T65" s="3">
+      <c r="T65" s="8">
         <v>22.9</v>
       </c>
       <c r="U65" s="5">
@@ -5600,7 +5606,7 @@
       <c r="S66" s="3">
         <v>0</v>
       </c>
-      <c r="T66" s="3">
+      <c r="T66" s="8">
         <v>0</v>
       </c>
       <c r="U66" s="5">
@@ -5677,7 +5683,7 @@
       <c r="S67" s="3">
         <v>0</v>
       </c>
-      <c r="T67" s="3">
+      <c r="T67" s="8">
         <v>0</v>
       </c>
       <c r="U67" s="5">
@@ -5754,7 +5760,7 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-      <c r="T68" s="3">
+      <c r="T68" s="8">
         <v>0</v>
       </c>
       <c r="U68" s="5">
@@ -5831,7 +5837,7 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-      <c r="T69" s="3">
+      <c r="T69" s="8">
         <v>0</v>
       </c>
       <c r="U69" s="5">
@@ -5908,7 +5914,7 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-      <c r="T70" s="3">
+      <c r="T70" s="8">
         <v>0</v>
       </c>
       <c r="U70" s="5">
@@ -5985,7 +5991,7 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-      <c r="T71" s="3">
+      <c r="T71" s="8">
         <v>0</v>
       </c>
       <c r="U71" s="5">
@@ -6062,7 +6068,7 @@
       <c r="S72" s="3">
         <v>2</v>
       </c>
-      <c r="T72" s="6">
+      <c r="T72" s="8">
         <v>2256.1</v>
       </c>
       <c r="U72" s="5">
@@ -6139,7 +6145,7 @@
       <c r="S73" s="3">
         <v>1</v>
       </c>
-      <c r="T73" s="6">
+      <c r="T73" s="8">
         <v>1802.29</v>
       </c>
       <c r="U73" s="5">
@@ -6216,7 +6222,7 @@
       <c r="S74" s="3">
         <v>1</v>
       </c>
-      <c r="T74" s="3">
+      <c r="T74" s="8">
         <v>255.2</v>
       </c>
       <c r="U74" s="5">
@@ -6293,7 +6299,7 @@
       <c r="S75" s="3">
         <v>1</v>
       </c>
-      <c r="T75" s="6">
+      <c r="T75" s="8">
         <v>1086.8</v>
       </c>
       <c r="U75" s="5">
@@ -6370,7 +6376,7 @@
       <c r="S76" s="3">
         <v>1</v>
       </c>
-      <c r="T76" s="3">
+      <c r="T76" s="8">
         <v>340.5</v>
       </c>
       <c r="U76" s="5">
@@ -6447,7 +6453,7 @@
       <c r="S77" s="3">
         <v>1</v>
       </c>
-      <c r="T77" s="3">
+      <c r="T77" s="8">
         <v>554.66999999999996</v>
       </c>
       <c r="U77" s="5">
@@ -6524,7 +6530,7 @@
       <c r="S78" s="3">
         <v>1</v>
       </c>
-      <c r="T78" s="3">
+      <c r="T78" s="8">
         <v>264.5</v>
       </c>
       <c r="U78" s="5">
@@ -6601,7 +6607,7 @@
       <c r="S79" s="3">
         <v>1</v>
       </c>
-      <c r="T79" s="3">
+      <c r="T79" s="8">
         <v>296.10000000000002</v>
       </c>
       <c r="U79" s="5">
@@ -6678,7 +6684,7 @@
       <c r="S80" s="3">
         <v>1</v>
       </c>
-      <c r="T80" s="3">
+      <c r="T80" s="8">
         <v>500.26</v>
       </c>
       <c r="U80" s="5">
@@ -6755,7 +6761,7 @@
       <c r="S81" s="3">
         <v>1</v>
       </c>
-      <c r="T81" s="3">
+      <c r="T81" s="8">
         <v>268.3</v>
       </c>
       <c r="U81" s="5">
@@ -6832,7 +6838,7 @@
       <c r="S82" s="3">
         <v>1</v>
       </c>
-      <c r="T82" s="3">
+      <c r="T82" s="8">
         <v>521.66999999999996</v>
       </c>
       <c r="U82" s="5">
@@ -6909,7 +6915,7 @@
       <c r="S83" s="3">
         <v>1</v>
       </c>
-      <c r="T83" s="3">
+      <c r="T83" s="8">
         <v>344.5</v>
       </c>
       <c r="U83" s="5">
@@ -6986,7 +6992,7 @@
       <c r="S84" s="3">
         <v>1</v>
       </c>
-      <c r="T84" s="3">
+      <c r="T84" s="8">
         <v>171.6</v>
       </c>
       <c r="U84" s="5">
@@ -7063,7 +7069,7 @@
       <c r="S85" s="3">
         <v>1</v>
       </c>
-      <c r="T85" s="3">
+      <c r="T85" s="8">
         <v>503.52</v>
       </c>
       <c r="U85" s="5">
@@ -7140,7 +7146,7 @@
       <c r="S86" s="3">
         <v>1</v>
       </c>
-      <c r="T86" s="3">
+      <c r="T86" s="8">
         <v>720.53</v>
       </c>
       <c r="U86" s="5">
@@ -7217,7 +7223,7 @@
       <c r="S87" s="3">
         <v>1</v>
       </c>
-      <c r="T87" s="3">
+      <c r="T87" s="8">
         <v>372.86</v>
       </c>
       <c r="U87" s="5">
@@ -7294,7 +7300,7 @@
       <c r="S88" s="3">
         <v>1</v>
       </c>
-      <c r="T88" s="3">
+      <c r="T88" s="8">
         <v>626.54999999999995</v>
       </c>
       <c r="U88" s="5">
@@ -7371,7 +7377,7 @@
       <c r="S89" s="3">
         <v>1</v>
       </c>
-      <c r="T89" s="3">
+      <c r="T89" s="8">
         <v>145.6</v>
       </c>
       <c r="U89" s="5">
@@ -7448,7 +7454,7 @@
       <c r="S90" s="3">
         <v>1</v>
       </c>
-      <c r="T90" s="3">
+      <c r="T90" s="8">
         <v>458.19</v>
       </c>
       <c r="U90" s="5">
@@ -7525,7 +7531,7 @@
       <c r="S91" s="3">
         <v>1</v>
       </c>
-      <c r="T91" s="3">
+      <c r="T91" s="8">
         <v>218.9</v>
       </c>
       <c r="U91" s="5">
@@ -7602,7 +7608,7 @@
       <c r="S92" s="3">
         <v>1</v>
       </c>
-      <c r="T92" s="3">
+      <c r="T92" s="8">
         <v>63.8</v>
       </c>
       <c r="U92" s="5">
@@ -7679,7 +7685,7 @@
       <c r="S93" s="3">
         <v>1</v>
       </c>
-      <c r="T93" s="3">
+      <c r="T93" s="8">
         <v>224.5</v>
       </c>
       <c r="U93" s="5">
@@ -7756,7 +7762,7 @@
       <c r="S94" s="3">
         <v>1</v>
       </c>
-      <c r="T94" s="3">
+      <c r="T94" s="8">
         <v>180.3</v>
       </c>
       <c r="U94" s="5">
@@ -7833,7 +7839,7 @@
       <c r="S95" s="3">
         <v>1</v>
       </c>
-      <c r="T95" s="3">
+      <c r="T95" s="8">
         <v>449.9</v>
       </c>
       <c r="U95" s="5">
@@ -7910,7 +7916,7 @@
       <c r="S96" s="3">
         <v>1</v>
       </c>
-      <c r="T96" s="3">
+      <c r="T96" s="8">
         <v>135.75</v>
       </c>
       <c r="U96" s="5">
@@ -7987,7 +7993,7 @@
       <c r="S97" s="3">
         <v>1</v>
       </c>
-      <c r="T97" s="3">
+      <c r="T97" s="8">
         <v>197.55</v>
       </c>
       <c r="U97" s="5">
@@ -8064,7 +8070,7 @@
       <c r="S98" s="3">
         <v>1</v>
       </c>
-      <c r="T98" s="3">
+      <c r="T98" s="8">
         <v>166.7</v>
       </c>
       <c r="U98" s="5">
@@ -8141,7 +8147,7 @@
       <c r="S99" s="3">
         <v>1</v>
       </c>
-      <c r="T99" s="3">
+      <c r="T99" s="8">
         <v>199.6</v>
       </c>
       <c r="U99" s="5">
@@ -8218,7 +8224,7 @@
       <c r="S100" s="3">
         <v>1</v>
       </c>
-      <c r="T100" s="3">
+      <c r="T100" s="8">
         <v>295.33</v>
       </c>
       <c r="U100" s="5">
@@ -8295,7 +8301,7 @@
       <c r="S101" s="3">
         <v>1</v>
       </c>
-      <c r="T101" s="3">
+      <c r="T101" s="8">
         <v>539.86</v>
       </c>
       <c r="U101" s="5">
@@ -8372,7 +8378,7 @@
       <c r="S102" s="3">
         <v>1</v>
       </c>
-      <c r="T102" s="3">
+      <c r="T102" s="8">
         <v>114.9</v>
       </c>
       <c r="U102" s="5">
@@ -8449,7 +8455,7 @@
       <c r="S103" s="3">
         <v>1</v>
       </c>
-      <c r="T103" s="3">
+      <c r="T103" s="8">
         <v>76.900000000000006</v>
       </c>
       <c r="U103" s="5">
@@ -8526,7 +8532,7 @@
       <c r="S104" s="3">
         <v>1</v>
       </c>
-      <c r="T104" s="3">
+      <c r="T104" s="8">
         <v>106.79</v>
       </c>
       <c r="U104" s="5">
@@ -8603,7 +8609,7 @@
       <c r="S105" s="3">
         <v>1</v>
       </c>
-      <c r="T105" s="3">
+      <c r="T105" s="8">
         <v>130.9</v>
       </c>
       <c r="U105" s="5">
@@ -8680,7 +8686,7 @@
       <c r="S106" s="3">
         <v>1</v>
       </c>
-      <c r="T106" s="3">
+      <c r="T106" s="8">
         <v>40.9</v>
       </c>
       <c r="U106" s="5">
@@ -8757,7 +8763,7 @@
       <c r="S107" s="3">
         <v>1</v>
       </c>
-      <c r="T107" s="3">
+      <c r="T107" s="8">
         <v>629.39</v>
       </c>
       <c r="U107" s="5">
@@ -8834,7 +8840,7 @@
       <c r="S108" s="3">
         <v>1</v>
       </c>
-      <c r="T108" s="3">
+      <c r="T108" s="8">
         <v>128.82</v>
       </c>
       <c r="U108" s="5">
@@ -8911,7 +8917,7 @@
       <c r="S109" s="3">
         <v>1</v>
       </c>
-      <c r="T109" s="3">
+      <c r="T109" s="8">
         <v>171.8</v>
       </c>
       <c r="U109" s="5">
@@ -8988,7 +8994,7 @@
       <c r="S110" s="3">
         <v>1</v>
       </c>
-      <c r="T110" s="3">
+      <c r="T110" s="8">
         <v>144</v>
       </c>
       <c r="U110" s="5">
@@ -9065,7 +9071,7 @@
       <c r="S111" s="3">
         <v>1</v>
       </c>
-      <c r="T111" s="3">
+      <c r="T111" s="8">
         <v>130.30000000000001</v>
       </c>
       <c r="U111" s="5">
@@ -9142,7 +9148,7 @@
       <c r="S112" s="3">
         <v>1</v>
       </c>
-      <c r="T112" s="3">
+      <c r="T112" s="8">
         <v>112.9</v>
       </c>
       <c r="U112" s="5">
@@ -9219,7 +9225,7 @@
       <c r="S113" s="3">
         <v>1</v>
       </c>
-      <c r="T113" s="3">
+      <c r="T113" s="8">
         <v>144</v>
       </c>
       <c r="U113" s="5">
@@ -9296,7 +9302,7 @@
       <c r="S114" s="3">
         <v>1</v>
       </c>
-      <c r="T114" s="3">
+      <c r="T114" s="8">
         <v>45.8</v>
       </c>
       <c r="U114" s="5">
@@ -9373,7 +9379,7 @@
       <c r="S115" s="3">
         <v>1</v>
       </c>
-      <c r="T115" s="3">
+      <c r="T115" s="8">
         <v>158.69999999999999</v>
       </c>
       <c r="U115" s="5">
@@ -9450,7 +9456,7 @@
       <c r="S116" s="3">
         <v>1</v>
       </c>
-      <c r="T116" s="3">
+      <c r="T116" s="8">
         <v>854.55</v>
       </c>
       <c r="U116" s="5">
@@ -9527,7 +9533,7 @@
       <c r="S117" s="3">
         <v>1</v>
       </c>
-      <c r="T117" s="3">
+      <c r="T117" s="8">
         <v>171.8</v>
       </c>
       <c r="U117" s="5">
@@ -9604,7 +9610,7 @@
       <c r="S118" s="3">
         <v>1</v>
       </c>
-      <c r="T118" s="3">
+      <c r="T118" s="8">
         <v>758.45</v>
       </c>
       <c r="U118" s="5">
@@ -9681,7 +9687,7 @@
       <c r="S119" s="3">
         <v>1</v>
       </c>
-      <c r="T119" s="3">
+      <c r="T119" s="8">
         <v>111.05</v>
       </c>
       <c r="U119" s="5">
@@ -9758,7 +9764,7 @@
       <c r="S120" s="3">
         <v>1</v>
       </c>
-      <c r="T120" s="3">
+      <c r="T120" s="8">
         <v>247.23</v>
       </c>
       <c r="U120" s="5">
@@ -9835,7 +9841,7 @@
       <c r="S121" s="3">
         <v>1</v>
       </c>
-      <c r="T121" s="3">
+      <c r="T121" s="8">
         <v>359.27</v>
       </c>
       <c r="U121" s="5">
@@ -9912,7 +9918,7 @@
       <c r="S122" s="3">
         <v>1</v>
       </c>
-      <c r="T122" s="3">
+      <c r="T122" s="8">
         <v>51.4</v>
       </c>
       <c r="U122" s="5">
@@ -9989,7 +9995,7 @@
       <c r="S123" s="3">
         <v>1</v>
       </c>
-      <c r="T123" s="3">
+      <c r="T123" s="8">
         <v>630.76</v>
       </c>
       <c r="U123" s="5">
@@ -10066,7 +10072,7 @@
       <c r="S124" s="3">
         <v>1</v>
       </c>
-      <c r="T124" s="3">
+      <c r="T124" s="8">
         <v>163.57</v>
       </c>
       <c r="U124" s="5">
@@ -10143,7 +10149,7 @@
       <c r="S125" s="3">
         <v>1</v>
       </c>
-      <c r="T125" s="3">
+      <c r="T125" s="8">
         <v>372.52</v>
       </c>
       <c r="U125" s="5">
@@ -10220,7 +10226,7 @@
       <c r="S126" s="3">
         <v>1</v>
       </c>
-      <c r="T126" s="3">
+      <c r="T126" s="8">
         <v>372.5</v>
       </c>
       <c r="U126" s="5">
@@ -10297,7 +10303,7 @@
       <c r="S127" s="3">
         <v>1</v>
       </c>
-      <c r="T127" s="3">
+      <c r="T127" s="8">
         <v>271.39</v>
       </c>
       <c r="U127" s="5">
@@ -10374,7 +10380,7 @@
       <c r="S128" s="3">
         <v>1</v>
       </c>
-      <c r="T128" s="3">
+      <c r="T128" s="8">
         <v>118.57</v>
       </c>
       <c r="U128" s="5">
@@ -10451,7 +10457,7 @@
       <c r="S129" s="3">
         <v>1</v>
       </c>
-      <c r="T129" s="3">
+      <c r="T129" s="8">
         <v>340.7</v>
       </c>
       <c r="U129" s="5">
@@ -10528,7 +10534,7 @@
       <c r="S130" s="3">
         <v>1</v>
       </c>
-      <c r="T130" s="3">
+      <c r="T130" s="8">
         <v>104.7</v>
       </c>
       <c r="U130" s="5">
@@ -10605,7 +10611,7 @@
       <c r="S131" s="3">
         <v>1</v>
       </c>
-      <c r="T131" s="3">
+      <c r="T131" s="8">
         <v>377.18</v>
       </c>
       <c r="U131" s="5">
@@ -10682,7 +10688,7 @@
       <c r="S132" s="3">
         <v>1</v>
       </c>
-      <c r="T132" s="3">
+      <c r="T132" s="8">
         <v>227.36</v>
       </c>
       <c r="U132" s="5">
@@ -10759,7 +10765,7 @@
       <c r="S133" s="3">
         <v>1</v>
       </c>
-      <c r="T133" s="3">
+      <c r="T133" s="8">
         <v>530.83000000000004</v>
       </c>
       <c r="U133" s="5">
@@ -10836,7 +10842,7 @@
       <c r="S134" s="3">
         <v>1</v>
       </c>
-      <c r="T134" s="3">
+      <c r="T134" s="8">
         <v>104.21</v>
       </c>
       <c r="U134" s="5">
@@ -10913,7 +10919,7 @@
       <c r="S135" s="3">
         <v>1</v>
       </c>
-      <c r="T135" s="3">
+      <c r="T135" s="8">
         <v>276.62</v>
       </c>
       <c r="U135" s="5">
@@ -10990,7 +10996,7 @@
       <c r="S136" s="3">
         <v>1</v>
       </c>
-      <c r="T136" s="3">
+      <c r="T136" s="8">
         <v>150.94</v>
       </c>
       <c r="U136" s="5">
@@ -11067,7 +11073,7 @@
       <c r="S137" s="3">
         <v>1</v>
       </c>
-      <c r="T137" s="3">
+      <c r="T137" s="8">
         <v>145.6</v>
       </c>
       <c r="U137" s="5">
@@ -11144,7 +11150,7 @@
       <c r="S138" s="3">
         <v>1</v>
       </c>
-      <c r="T138" s="6">
+      <c r="T138" s="8">
         <v>1680.87</v>
       </c>
       <c r="U138" s="5">
@@ -11221,7 +11227,7 @@
       <c r="S139" s="3">
         <v>1</v>
       </c>
-      <c r="T139" s="6">
+      <c r="T139" s="8">
         <v>3252.82</v>
       </c>
       <c r="U139" s="5">
@@ -11298,7 +11304,7 @@
       <c r="S140" s="3">
         <v>1</v>
       </c>
-      <c r="T140" s="3">
+      <c r="T140" s="8">
         <v>193.54</v>
       </c>
       <c r="U140" s="5">
@@ -11375,7 +11381,7 @@
       <c r="S141" s="3">
         <v>1</v>
       </c>
-      <c r="T141" s="3">
+      <c r="T141" s="8">
         <v>112.7</v>
       </c>
       <c r="U141" s="5">
@@ -11452,7 +11458,7 @@
       <c r="S142" s="3">
         <v>1</v>
       </c>
-      <c r="T142" s="3">
+      <c r="T142" s="8">
         <v>63.77</v>
       </c>
       <c r="U142" s="5">
@@ -11529,7 +11535,7 @@
       <c r="S143" s="3">
         <v>1</v>
       </c>
-      <c r="T143" s="3">
+      <c r="T143" s="8">
         <v>217.13</v>
       </c>
       <c r="U143" s="5">
@@ -11606,7 +11612,7 @@
       <c r="S144" s="3">
         <v>1</v>
       </c>
-      <c r="T144" s="6">
+      <c r="T144" s="8">
         <v>1274.22</v>
       </c>
       <c r="U144" s="5">
@@ -11683,7 +11689,7 @@
       <c r="S145" s="3">
         <v>1</v>
       </c>
-      <c r="T145" s="3">
+      <c r="T145" s="8">
         <v>695.25</v>
       </c>
       <c r="U145" s="5">
@@ -11760,7 +11766,7 @@
       <c r="S146" s="3">
         <v>1</v>
       </c>
-      <c r="T146" s="3">
+      <c r="T146" s="8">
         <v>952.79</v>
       </c>
       <c r="U146" s="5">
@@ -11837,7 +11843,7 @@
       <c r="S147" s="3">
         <v>1</v>
       </c>
-      <c r="T147" s="3">
+      <c r="T147" s="8">
         <v>794.69</v>
       </c>
       <c r="U147" s="5">
@@ -11914,7 +11920,7 @@
       <c r="S148" s="3">
         <v>1</v>
       </c>
-      <c r="T148" s="3">
+      <c r="T148" s="8">
         <v>965.29</v>
       </c>
       <c r="U148" s="5">
@@ -11991,7 +11997,7 @@
       <c r="S149" s="3">
         <v>1</v>
       </c>
-      <c r="T149" s="6">
+      <c r="T149" s="8">
         <v>3246.27</v>
       </c>
       <c r="U149" s="5">
@@ -12068,7 +12074,7 @@
       <c r="S150" s="3">
         <v>1</v>
       </c>
-      <c r="T150" s="6">
+      <c r="T150" s="8">
         <v>1305.3</v>
       </c>
       <c r="U150" s="5">
@@ -12145,7 +12151,7 @@
       <c r="S151" s="3">
         <v>1</v>
       </c>
-      <c r="T151" s="3">
+      <c r="T151" s="8">
         <v>502.69</v>
       </c>
       <c r="U151" s="5">
@@ -12222,7 +12228,7 @@
       <c r="S152" s="3">
         <v>1</v>
       </c>
-      <c r="T152" s="3">
+      <c r="T152" s="8">
         <v>629.91999999999996</v>
       </c>
       <c r="U152" s="5">
@@ -12299,7 +12305,7 @@
       <c r="S153" s="3">
         <v>1</v>
       </c>
-      <c r="T153" s="3">
+      <c r="T153" s="8">
         <v>433.53</v>
       </c>
       <c r="U153" s="5">
@@ -12376,7 +12382,7 @@
       <c r="S154" s="3">
         <v>1</v>
       </c>
-      <c r="T154" s="3">
+      <c r="T154" s="8">
         <v>155.72</v>
       </c>
       <c r="U154" s="5">
@@ -12399,61 +12405,61 @@
       <c r="A155" s="4">
         <v>45200</v>
       </c>
-      <c r="B155" s="7">
+      <c r="B155" s="3">
         <v>74</v>
       </c>
-      <c r="C155" s="7">
+      <c r="C155" s="3">
         <v>131</v>
       </c>
-      <c r="D155" s="7">
-        <v>3</v>
-      </c>
-      <c r="E155" s="7">
+      <c r="D155" s="3">
+        <v>3</v>
+      </c>
+      <c r="E155" s="3">
         <v>22</v>
       </c>
       <c r="F155" s="5">
         <v>0.29730000000000001</v>
       </c>
-      <c r="G155" s="7">
+      <c r="G155" s="3">
         <v>18</v>
       </c>
-      <c r="H155" s="7">
+      <c r="H155" s="3">
         <v>2</v>
       </c>
-      <c r="I155" s="7">
+      <c r="I155" s="3">
         <v>9</v>
       </c>
-      <c r="J155" s="7">
+      <c r="J155" s="3">
         <v>8</v>
       </c>
       <c r="K155" s="5">
         <v>0.1216</v>
       </c>
-      <c r="L155" s="7">
-        <v>3</v>
-      </c>
-      <c r="M155" s="7">
+      <c r="L155" s="3">
+        <v>3</v>
+      </c>
+      <c r="M155" s="3">
         <v>5</v>
       </c>
-      <c r="N155" s="7">
-        <v>1</v>
-      </c>
-      <c r="O155" s="7">
+      <c r="N155" s="3">
+        <v>1</v>
+      </c>
+      <c r="O155" s="3">
         <v>104.64</v>
       </c>
       <c r="P155" s="5">
         <v>4.0500000000000001E-2</v>
       </c>
-      <c r="Q155" s="7">
-        <v>3</v>
-      </c>
-      <c r="R155" s="7">
+      <c r="Q155" s="3">
+        <v>3</v>
+      </c>
+      <c r="R155" s="3">
         <v>5</v>
       </c>
-      <c r="S155" s="7">
-        <v>1</v>
-      </c>
-      <c r="T155" s="7">
+      <c r="S155" s="3">
+        <v>1</v>
+      </c>
+      <c r="T155" s="8">
         <v>104.64</v>
       </c>
       <c r="U155" s="5">
@@ -12476,61 +12482,61 @@
       <c r="A156" s="4">
         <v>45201</v>
       </c>
-      <c r="B156" s="7">
+      <c r="B156" s="3">
         <v>129</v>
       </c>
-      <c r="C156" s="7">
+      <c r="C156" s="3">
         <v>275</v>
       </c>
-      <c r="D156" s="7">
-        <v>3</v>
-      </c>
-      <c r="E156" s="7">
+      <c r="D156" s="3">
+        <v>3</v>
+      </c>
+      <c r="E156" s="3">
         <v>29</v>
       </c>
       <c r="F156" s="5">
         <v>0.2248</v>
       </c>
-      <c r="G156" s="7">
+      <c r="G156" s="3">
         <v>31</v>
       </c>
-      <c r="H156" s="7">
-        <v>1</v>
-      </c>
-      <c r="I156" s="7">
+      <c r="H156" s="3">
+        <v>1</v>
+      </c>
+      <c r="I156" s="3">
         <v>81</v>
       </c>
-      <c r="J156" s="7">
+      <c r="J156" s="3">
         <v>162</v>
       </c>
       <c r="K156" s="5">
         <v>0.62790000000000001</v>
       </c>
-      <c r="L156" s="7">
+      <c r="L156" s="3">
         <v>35</v>
       </c>
-      <c r="M156" s="7">
+      <c r="M156" s="3">
         <v>45</v>
       </c>
-      <c r="N156" s="7">
-        <v>1</v>
-      </c>
-      <c r="O156" s="7">
+      <c r="N156" s="3">
+        <v>1</v>
+      </c>
+      <c r="O156" s="3">
         <v>863.24</v>
       </c>
       <c r="P156" s="5">
         <v>0.27129999999999999</v>
       </c>
-      <c r="Q156" s="7">
+      <c r="Q156" s="3">
         <v>32</v>
       </c>
-      <c r="R156" s="7">
+      <c r="R156" s="3">
         <v>38</v>
       </c>
-      <c r="S156" s="7">
-        <v>1</v>
-      </c>
-      <c r="T156" s="7">
+      <c r="S156" s="3">
+        <v>1</v>
+      </c>
+      <c r="T156" s="8">
         <v>748.49</v>
       </c>
       <c r="U156" s="5">
@@ -12553,61 +12559,61 @@
       <c r="A157" s="4">
         <v>45202</v>
       </c>
-      <c r="B157" s="7">
+      <c r="B157" s="3">
         <v>96</v>
       </c>
-      <c r="C157" s="7">
+      <c r="C157" s="3">
         <v>162</v>
       </c>
-      <c r="D157" s="7">
-        <v>3</v>
-      </c>
-      <c r="E157" s="7">
+      <c r="D157" s="3">
+        <v>3</v>
+      </c>
+      <c r="E157" s="3">
         <v>21</v>
       </c>
       <c r="F157" s="5">
         <v>0.21879999999999999</v>
       </c>
-      <c r="G157" s="7">
+      <c r="G157" s="3">
         <v>35</v>
       </c>
-      <c r="H157" s="7">
+      <c r="H157" s="3">
         <v>2</v>
       </c>
-      <c r="I157" s="7">
+      <c r="I157" s="3">
         <v>43</v>
       </c>
-      <c r="J157" s="7">
+      <c r="J157" s="3">
         <v>72</v>
       </c>
       <c r="K157" s="5">
         <v>0.44790000000000002</v>
       </c>
-      <c r="L157" s="7">
+      <c r="L157" s="3">
         <v>19</v>
       </c>
-      <c r="M157" s="7">
+      <c r="M157" s="3">
         <v>19</v>
       </c>
-      <c r="N157" s="7">
-        <v>1</v>
-      </c>
-      <c r="O157" s="7">
+      <c r="N157" s="3">
+        <v>1</v>
+      </c>
+      <c r="O157" s="3">
         <v>458.32</v>
       </c>
       <c r="P157" s="5">
         <v>0.19789999999999999</v>
       </c>
-      <c r="Q157" s="7">
+      <c r="Q157" s="3">
         <v>19</v>
       </c>
-      <c r="R157" s="7">
+      <c r="R157" s="3">
         <v>19</v>
       </c>
-      <c r="S157" s="7">
-        <v>1</v>
-      </c>
-      <c r="T157" s="7">
+      <c r="S157" s="3">
+        <v>1</v>
+      </c>
+      <c r="T157" s="8">
         <v>458.32</v>
       </c>
       <c r="U157" s="5">
@@ -12630,61 +12636,61 @@
       <c r="A158" s="4">
         <v>45203</v>
       </c>
-      <c r="B158" s="7">
+      <c r="B158" s="3">
         <v>111</v>
       </c>
-      <c r="C158" s="7">
+      <c r="C158" s="3">
         <v>183</v>
       </c>
-      <c r="D158" s="7">
-        <v>3</v>
-      </c>
-      <c r="E158" s="7">
+      <c r="D158" s="3">
+        <v>3</v>
+      </c>
+      <c r="E158" s="3">
         <v>22</v>
       </c>
       <c r="F158" s="5">
         <v>0.19819999999999999</v>
       </c>
-      <c r="G158" s="7">
+      <c r="G158" s="3">
         <v>21</v>
       </c>
-      <c r="H158" s="7">
-        <v>0</v>
-      </c>
-      <c r="I158" s="7">
+      <c r="H158" s="3">
+        <v>0</v>
+      </c>
+      <c r="I158" s="3">
         <v>78</v>
       </c>
-      <c r="J158" s="7">
+      <c r="J158" s="3">
         <v>116</v>
       </c>
       <c r="K158" s="5">
         <v>0.70269999999999999</v>
       </c>
-      <c r="L158" s="7">
+      <c r="L158" s="3">
         <v>11</v>
       </c>
-      <c r="M158" s="7">
+      <c r="M158" s="3">
         <v>11</v>
       </c>
-      <c r="N158" s="7">
-        <v>1</v>
-      </c>
-      <c r="O158" s="7">
+      <c r="N158" s="3">
+        <v>1</v>
+      </c>
+      <c r="O158" s="3">
         <v>315.64999999999998</v>
       </c>
       <c r="P158" s="5">
         <v>9.9099999999999994E-2</v>
       </c>
-      <c r="Q158" s="7">
+      <c r="Q158" s="3">
         <v>9</v>
       </c>
-      <c r="R158" s="7">
+      <c r="R158" s="3">
         <v>9</v>
       </c>
-      <c r="S158" s="7">
-        <v>1</v>
-      </c>
-      <c r="T158" s="7">
+      <c r="S158" s="3">
+        <v>1</v>
+      </c>
+      <c r="T158" s="8">
         <v>243.85</v>
       </c>
       <c r="U158" s="5">
@@ -12707,61 +12713,61 @@
       <c r="A159" s="4">
         <v>45204</v>
       </c>
-      <c r="B159" s="7">
+      <c r="B159" s="3">
         <v>74</v>
       </c>
-      <c r="C159" s="7">
+      <c r="C159" s="3">
         <v>143</v>
       </c>
-      <c r="D159" s="7">
-        <v>1</v>
-      </c>
-      <c r="E159" s="7">
+      <c r="D159" s="3">
+        <v>1</v>
+      </c>
+      <c r="E159" s="3">
         <v>15</v>
       </c>
       <c r="F159" s="5">
         <v>0.20269999999999999</v>
       </c>
-      <c r="G159" s="7">
+      <c r="G159" s="3">
         <v>17</v>
       </c>
-      <c r="H159" s="7">
-        <v>1</v>
-      </c>
-      <c r="I159" s="7">
+      <c r="H159" s="3">
+        <v>1</v>
+      </c>
+      <c r="I159" s="3">
         <v>48</v>
       </c>
-      <c r="J159" s="7">
+      <c r="J159" s="3">
         <v>90</v>
       </c>
       <c r="K159" s="5">
         <v>0.64859999999999995</v>
       </c>
-      <c r="L159" s="7">
+      <c r="L159" s="3">
         <v>17</v>
       </c>
-      <c r="M159" s="7">
+      <c r="M159" s="3">
         <v>21</v>
       </c>
-      <c r="N159" s="7">
-        <v>1</v>
-      </c>
-      <c r="O159" s="7">
+      <c r="N159" s="3">
+        <v>1</v>
+      </c>
+      <c r="O159" s="3">
         <v>329.38</v>
       </c>
       <c r="P159" s="5">
         <v>0.22969999999999999</v>
       </c>
-      <c r="Q159" s="7">
+      <c r="Q159" s="3">
         <v>15</v>
       </c>
-      <c r="R159" s="7">
+      <c r="R159" s="3">
         <v>16</v>
       </c>
-      <c r="S159" s="7">
-        <v>1</v>
-      </c>
-      <c r="T159" s="7">
+      <c r="S159" s="3">
+        <v>1</v>
+      </c>
+      <c r="T159" s="8">
         <v>267.98</v>
       </c>
       <c r="U159" s="5">
@@ -12784,61 +12790,61 @@
       <c r="A160" s="4">
         <v>45205</v>
       </c>
-      <c r="B160" s="7">
+      <c r="B160" s="3">
         <v>52</v>
       </c>
-      <c r="C160" s="7">
+      <c r="C160" s="3">
         <v>103</v>
       </c>
-      <c r="D160" s="7">
-        <v>3</v>
-      </c>
-      <c r="E160" s="7">
+      <c r="D160" s="3">
+        <v>3</v>
+      </c>
+      <c r="E160" s="3">
         <v>9</v>
       </c>
       <c r="F160" s="5">
         <v>0.1731</v>
       </c>
-      <c r="G160" s="7">
+      <c r="G160" s="3">
         <v>17</v>
       </c>
-      <c r="H160" s="7">
-        <v>1</v>
-      </c>
-      <c r="I160" s="7">
+      <c r="H160" s="3">
+        <v>1</v>
+      </c>
+      <c r="I160" s="3">
         <v>20</v>
       </c>
-      <c r="J160" s="7">
+      <c r="J160" s="3">
         <v>27</v>
       </c>
       <c r="K160" s="5">
         <v>0.3846</v>
       </c>
-      <c r="L160" s="7">
+      <c r="L160" s="3">
         <v>5</v>
       </c>
-      <c r="M160" s="7">
+      <c r="M160" s="3">
         <v>8</v>
       </c>
-      <c r="N160" s="7">
-        <v>1</v>
-      </c>
-      <c r="O160" s="7">
+      <c r="N160" s="3">
+        <v>1</v>
+      </c>
+      <c r="O160" s="3">
         <v>137.79</v>
       </c>
       <c r="P160" s="5">
         <v>9.6199999999999994E-2</v>
       </c>
-      <c r="Q160" s="7">
+      <c r="Q160" s="3">
         <v>5</v>
       </c>
-      <c r="R160" s="7">
+      <c r="R160" s="3">
         <v>8</v>
       </c>
-      <c r="S160" s="7">
-        <v>1</v>
-      </c>
-      <c r="T160" s="7">
+      <c r="S160" s="3">
+        <v>1</v>
+      </c>
+      <c r="T160" s="8">
         <v>137.79</v>
       </c>
       <c r="U160" s="5">
@@ -12861,61 +12867,61 @@
       <c r="A161" s="4">
         <v>45206</v>
       </c>
-      <c r="B161" s="7">
+      <c r="B161" s="3">
         <v>32</v>
       </c>
-      <c r="C161" s="7">
+      <c r="C161" s="3">
         <v>56</v>
       </c>
-      <c r="D161" s="7">
-        <v>1</v>
-      </c>
-      <c r="E161" s="7">
+      <c r="D161" s="3">
+        <v>1</v>
+      </c>
+      <c r="E161" s="3">
         <v>5</v>
       </c>
       <c r="F161" s="5">
         <v>0.15620000000000001</v>
       </c>
-      <c r="G161" s="7">
+      <c r="G161" s="3">
         <v>9</v>
       </c>
-      <c r="H161" s="7">
-        <v>0</v>
-      </c>
-      <c r="I161" s="7">
+      <c r="H161" s="3">
+        <v>0</v>
+      </c>
+      <c r="I161" s="3">
         <v>9</v>
       </c>
-      <c r="J161" s="7">
+      <c r="J161" s="3">
         <v>8</v>
       </c>
       <c r="K161" s="5">
         <v>0.28120000000000001</v>
       </c>
-      <c r="L161" s="7">
-        <v>1</v>
-      </c>
-      <c r="M161" s="7">
-        <v>1</v>
-      </c>
-      <c r="N161" s="7">
-        <v>1</v>
-      </c>
-      <c r="O161" s="7">
+      <c r="L161" s="3">
+        <v>1</v>
+      </c>
+      <c r="M161" s="3">
+        <v>1</v>
+      </c>
+      <c r="N161" s="3">
+        <v>1</v>
+      </c>
+      <c r="O161" s="3">
         <v>22.9</v>
       </c>
       <c r="P161" s="5">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="Q161" s="7">
-        <v>1</v>
-      </c>
-      <c r="R161" s="7">
-        <v>1</v>
-      </c>
-      <c r="S161" s="7">
-        <v>1</v>
-      </c>
-      <c r="T161" s="7">
+      <c r="Q161" s="3">
+        <v>1</v>
+      </c>
+      <c r="R161" s="3">
+        <v>1</v>
+      </c>
+      <c r="S161" s="3">
+        <v>1</v>
+      </c>
+      <c r="T161" s="8">
         <v>22.9</v>
       </c>
       <c r="U161" s="5">
@@ -12938,61 +12944,61 @@
       <c r="A162" s="4">
         <v>45207</v>
       </c>
-      <c r="B162" s="7">
+      <c r="B162" s="3">
         <v>39</v>
       </c>
-      <c r="C162" s="7">
+      <c r="C162" s="3">
         <v>79</v>
       </c>
-      <c r="D162" s="7">
-        <v>1</v>
-      </c>
-      <c r="E162" s="7">
+      <c r="D162" s="3">
+        <v>1</v>
+      </c>
+      <c r="E162" s="3">
         <v>8</v>
       </c>
       <c r="F162" s="5">
         <v>0.2051</v>
       </c>
-      <c r="G162" s="7">
+      <c r="G162" s="3">
         <v>16</v>
       </c>
-      <c r="H162" s="7">
-        <v>1</v>
-      </c>
-      <c r="I162" s="7">
+      <c r="H162" s="3">
+        <v>1</v>
+      </c>
+      <c r="I162" s="3">
         <v>5</v>
       </c>
-      <c r="J162" s="7">
+      <c r="J162" s="3">
         <v>8</v>
       </c>
       <c r="K162" s="5">
         <v>0.12820000000000001</v>
       </c>
-      <c r="L162" s="7">
-        <v>1</v>
-      </c>
-      <c r="M162" s="7">
-        <v>1</v>
-      </c>
-      <c r="N162" s="7">
-        <v>1</v>
-      </c>
-      <c r="O162" s="7">
+      <c r="L162" s="3">
+        <v>1</v>
+      </c>
+      <c r="M162" s="3">
+        <v>1</v>
+      </c>
+      <c r="N162" s="3">
+        <v>1</v>
+      </c>
+      <c r="O162" s="3">
         <v>38.28</v>
       </c>
       <c r="P162" s="5">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="Q162" s="7">
-        <v>1</v>
-      </c>
-      <c r="R162" s="7">
-        <v>1</v>
-      </c>
-      <c r="S162" s="7">
-        <v>1</v>
-      </c>
-      <c r="T162" s="7">
+      <c r="Q162" s="3">
+        <v>1</v>
+      </c>
+      <c r="R162" s="3">
+        <v>1</v>
+      </c>
+      <c r="S162" s="3">
+        <v>1</v>
+      </c>
+      <c r="T162" s="8">
         <v>38.28</v>
       </c>
       <c r="U162" s="5">
@@ -13015,43 +13021,43 @@
       <c r="A163" s="4">
         <v>45208</v>
       </c>
-      <c r="B163" s="7">
+      <c r="B163" s="3">
         <v>160</v>
       </c>
-      <c r="C163" s="7">
+      <c r="C163" s="3">
         <v>374</v>
       </c>
-      <c r="D163" s="7">
-        <v>3</v>
-      </c>
-      <c r="E163" s="7">
+      <c r="D163" s="3">
+        <v>3</v>
+      </c>
+      <c r="E163" s="3">
         <v>33</v>
       </c>
       <c r="F163" s="5">
         <v>0.20619999999999999</v>
       </c>
-      <c r="G163" s="7">
+      <c r="G163" s="3">
         <v>35</v>
       </c>
-      <c r="H163" s="7">
-        <v>1</v>
-      </c>
-      <c r="I163" s="7">
+      <c r="H163" s="3">
+        <v>1</v>
+      </c>
+      <c r="I163" s="3">
         <v>125</v>
       </c>
-      <c r="J163" s="7">
+      <c r="J163" s="3">
         <v>217</v>
       </c>
       <c r="K163" s="5">
         <v>0.78120000000000001</v>
       </c>
-      <c r="L163" s="7">
+      <c r="L163" s="3">
         <v>53</v>
       </c>
-      <c r="M163" s="7">
+      <c r="M163" s="3">
         <v>63</v>
       </c>
-      <c r="N163" s="7">
+      <c r="N163" s="3">
         <v>1</v>
       </c>
       <c r="O163" s="6">
@@ -13060,16 +13066,16 @@
       <c r="P163" s="5">
         <v>0.33119999999999999</v>
       </c>
-      <c r="Q163" s="7">
+      <c r="Q163" s="3">
         <v>51</v>
       </c>
-      <c r="R163" s="7">
+      <c r="R163" s="3">
         <v>57</v>
       </c>
-      <c r="S163" s="7">
-        <v>1</v>
-      </c>
-      <c r="T163" s="6">
+      <c r="S163" s="3">
+        <v>1</v>
+      </c>
+      <c r="T163" s="8">
         <v>1014</v>
       </c>
       <c r="U163" s="5">
@@ -13092,43 +13098,43 @@
       <c r="A164" s="4">
         <v>45209</v>
       </c>
-      <c r="B164" s="7">
+      <c r="B164" s="3">
         <v>507</v>
       </c>
-      <c r="C164" s="7">
+      <c r="C164" s="3">
         <v>1233</v>
       </c>
-      <c r="D164" s="7">
-        <v>3</v>
-      </c>
-      <c r="E164" s="7">
+      <c r="D164" s="3">
+        <v>3</v>
+      </c>
+      <c r="E164" s="3">
         <v>79</v>
       </c>
       <c r="F164" s="5">
         <v>0.15579999999999999</v>
       </c>
-      <c r="G164" s="7">
+      <c r="G164" s="3">
         <v>106</v>
       </c>
-      <c r="H164" s="7">
+      <c r="H164" s="3">
         <v>4</v>
       </c>
-      <c r="I164" s="7">
+      <c r="I164" s="3">
         <v>519</v>
       </c>
-      <c r="J164" s="7">
+      <c r="J164" s="3">
         <v>1115</v>
       </c>
       <c r="K164" s="5">
         <v>1.0237000000000001</v>
       </c>
-      <c r="L164" s="7">
+      <c r="L164" s="3">
         <v>199</v>
       </c>
-      <c r="M164" s="7">
+      <c r="M164" s="3">
         <v>217</v>
       </c>
-      <c r="N164" s="7">
+      <c r="N164" s="3">
         <v>2</v>
       </c>
       <c r="O164" s="6">
@@ -13137,16 +13143,16 @@
       <c r="P164" s="5">
         <v>0.39250000000000002</v>
       </c>
-      <c r="Q164" s="7">
+      <c r="Q164" s="3">
         <v>184</v>
       </c>
-      <c r="R164" s="7">
+      <c r="R164" s="3">
         <v>198</v>
       </c>
-      <c r="S164" s="7">
+      <c r="S164" s="3">
         <v>2</v>
       </c>
-      <c r="T164" s="6">
+      <c r="T164" s="8">
         <v>2732.79</v>
       </c>
       <c r="U164" s="5">
@@ -13169,43 +13175,43 @@
       <c r="A165" s="4">
         <v>45210</v>
       </c>
-      <c r="B165" s="7">
+      <c r="B165" s="3">
         <v>237</v>
       </c>
-      <c r="C165" s="7">
+      <c r="C165" s="3">
         <v>583</v>
       </c>
-      <c r="D165" s="7">
-        <v>3</v>
-      </c>
-      <c r="E165" s="7">
+      <c r="D165" s="3">
+        <v>3</v>
+      </c>
+      <c r="E165" s="3">
         <v>53</v>
       </c>
       <c r="F165" s="5">
         <v>0.22359999999999999</v>
       </c>
-      <c r="G165" s="7">
+      <c r="G165" s="3">
         <v>44</v>
       </c>
-      <c r="H165" s="7">
+      <c r="H165" s="3">
         <v>4</v>
       </c>
-      <c r="I165" s="7">
+      <c r="I165" s="3">
         <v>203</v>
       </c>
-      <c r="J165" s="7">
+      <c r="J165" s="3">
         <v>426</v>
       </c>
       <c r="K165" s="5">
         <v>0.85650000000000004</v>
       </c>
-      <c r="L165" s="7">
+      <c r="L165" s="3">
         <v>72</v>
       </c>
-      <c r="M165" s="7">
+      <c r="M165" s="3">
         <v>89</v>
       </c>
-      <c r="N165" s="7">
+      <c r="N165" s="3">
         <v>2</v>
       </c>
       <c r="O165" s="6">
@@ -13214,16 +13220,16 @@
       <c r="P165" s="5">
         <v>0.30380000000000001</v>
       </c>
-      <c r="Q165" s="7">
+      <c r="Q165" s="3">
         <v>68</v>
       </c>
-      <c r="R165" s="7">
+      <c r="R165" s="3">
         <v>81</v>
       </c>
-      <c r="S165" s="7">
+      <c r="S165" s="3">
         <v>2</v>
       </c>
-      <c r="T165" s="6">
+      <c r="T165" s="8">
         <v>1234.82</v>
       </c>
       <c r="U165" s="5">
@@ -13246,61 +13252,61 @@
       <c r="A166" s="4">
         <v>45211</v>
       </c>
-      <c r="B166" s="7">
+      <c r="B166" s="3">
         <v>72</v>
       </c>
-      <c r="C166" s="7">
+      <c r="C166" s="3">
         <v>141</v>
       </c>
-      <c r="D166" s="7">
-        <v>3</v>
-      </c>
-      <c r="E166" s="7">
+      <c r="D166" s="3">
+        <v>3</v>
+      </c>
+      <c r="E166" s="3">
         <v>22</v>
       </c>
       <c r="F166" s="5">
         <v>0.30559999999999998</v>
       </c>
-      <c r="G166" s="7">
+      <c r="G166" s="3">
         <v>29</v>
       </c>
-      <c r="H166" s="7">
-        <v>1</v>
-      </c>
-      <c r="I166" s="7">
+      <c r="H166" s="3">
+        <v>1</v>
+      </c>
+      <c r="I166" s="3">
         <v>26</v>
       </c>
-      <c r="J166" s="7">
+      <c r="J166" s="3">
         <v>30</v>
       </c>
       <c r="K166" s="5">
         <v>0.36109999999999998</v>
       </c>
-      <c r="L166" s="7">
+      <c r="L166" s="3">
         <v>4</v>
       </c>
-      <c r="M166" s="7">
+      <c r="M166" s="3">
         <v>4</v>
       </c>
-      <c r="N166" s="7">
-        <v>1</v>
-      </c>
-      <c r="O166" s="7">
+      <c r="N166" s="3">
+        <v>1</v>
+      </c>
+      <c r="O166" s="3">
         <v>97.6</v>
       </c>
       <c r="P166" s="5">
         <v>5.5599999999999997E-2</v>
       </c>
-      <c r="Q166" s="7">
+      <c r="Q166" s="3">
         <v>6</v>
       </c>
-      <c r="R166" s="7">
+      <c r="R166" s="3">
         <v>6</v>
       </c>
-      <c r="S166" s="7">
-        <v>1</v>
-      </c>
-      <c r="T166" s="7">
+      <c r="S166" s="3">
+        <v>1</v>
+      </c>
+      <c r="T166" s="8">
         <v>130.65</v>
       </c>
       <c r="U166" s="5">
@@ -13323,61 +13329,61 @@
       <c r="A167" s="4">
         <v>45212</v>
       </c>
-      <c r="B167" s="7">
+      <c r="B167" s="3">
         <v>117</v>
       </c>
-      <c r="C167" s="7">
+      <c r="C167" s="3">
         <v>265</v>
       </c>
-      <c r="D167" s="7">
-        <v>3</v>
-      </c>
-      <c r="E167" s="7">
+      <c r="D167" s="3">
+        <v>3</v>
+      </c>
+      <c r="E167" s="3">
         <v>22</v>
       </c>
       <c r="F167" s="5">
         <v>0.188</v>
       </c>
-      <c r="G167" s="7">
+      <c r="G167" s="3">
         <v>20</v>
       </c>
-      <c r="H167" s="7">
+      <c r="H167" s="3">
         <v>2</v>
       </c>
-      <c r="I167" s="7">
+      <c r="I167" s="3">
         <v>97</v>
       </c>
-      <c r="J167" s="7">
+      <c r="J167" s="3">
         <v>242</v>
       </c>
       <c r="K167" s="5">
         <v>0.82909999999999995</v>
       </c>
-      <c r="L167" s="7">
+      <c r="L167" s="3">
         <v>38</v>
       </c>
-      <c r="M167" s="7">
+      <c r="M167" s="3">
         <v>48</v>
       </c>
-      <c r="N167" s="7">
-        <v>1</v>
-      </c>
-      <c r="O167" s="7">
+      <c r="N167" s="3">
+        <v>1</v>
+      </c>
+      <c r="O167" s="3">
         <v>913.86</v>
       </c>
       <c r="P167" s="5">
         <v>0.32479999999999998</v>
       </c>
-      <c r="Q167" s="7">
+      <c r="Q167" s="3">
         <v>35</v>
       </c>
-      <c r="R167" s="7">
+      <c r="R167" s="3">
         <v>41</v>
       </c>
-      <c r="S167" s="7">
-        <v>1</v>
-      </c>
-      <c r="T167" s="7">
+      <c r="S167" s="3">
+        <v>1</v>
+      </c>
+      <c r="T167" s="8">
         <v>772.79</v>
       </c>
       <c r="U167" s="5">
@@ -13400,61 +13406,61 @@
       <c r="A168" s="4">
         <v>45213</v>
       </c>
-      <c r="B168" s="7">
+      <c r="B168" s="3">
         <v>91</v>
       </c>
-      <c r="C168" s="7">
+      <c r="C168" s="3">
         <v>183</v>
       </c>
-      <c r="D168" s="7">
-        <v>3</v>
-      </c>
-      <c r="E168" s="7">
+      <c r="D168" s="3">
+        <v>3</v>
+      </c>
+      <c r="E168" s="3">
         <v>19</v>
       </c>
       <c r="F168" s="5">
         <v>0.20880000000000001</v>
       </c>
-      <c r="G168" s="7">
+      <c r="G168" s="3">
         <v>27</v>
       </c>
-      <c r="H168" s="7">
-        <v>1</v>
-      </c>
-      <c r="I168" s="7">
+      <c r="H168" s="3">
+        <v>1</v>
+      </c>
+      <c r="I168" s="3">
         <v>62</v>
       </c>
-      <c r="J168" s="7">
+      <c r="J168" s="3">
         <v>99</v>
       </c>
       <c r="K168" s="5">
         <v>0.68130000000000002</v>
       </c>
-      <c r="L168" s="7">
+      <c r="L168" s="3">
         <v>22</v>
       </c>
-      <c r="M168" s="7">
+      <c r="M168" s="3">
         <v>29</v>
       </c>
-      <c r="N168" s="7">
-        <v>1</v>
-      </c>
-      <c r="O168" s="7">
+      <c r="N168" s="3">
+        <v>1</v>
+      </c>
+      <c r="O168" s="3">
         <v>540.13</v>
       </c>
       <c r="P168" s="5">
         <v>0.24179999999999999</v>
       </c>
-      <c r="Q168" s="7">
+      <c r="Q168" s="3">
         <v>20</v>
       </c>
-      <c r="R168" s="7">
+      <c r="R168" s="3">
         <v>27</v>
       </c>
-      <c r="S168" s="7">
-        <v>1</v>
-      </c>
-      <c r="T168" s="7">
+      <c r="S168" s="3">
+        <v>1</v>
+      </c>
+      <c r="T168" s="8">
         <v>503.93</v>
       </c>
       <c r="U168" s="5">
@@ -13477,61 +13483,61 @@
       <c r="A169" s="4">
         <v>45214</v>
       </c>
-      <c r="B169" s="7">
+      <c r="B169" s="3">
         <v>106</v>
       </c>
-      <c r="C169" s="7">
+      <c r="C169" s="3">
         <v>203</v>
       </c>
-      <c r="D169" s="7">
-        <v>3</v>
-      </c>
-      <c r="E169" s="7">
+      <c r="D169" s="3">
+        <v>3</v>
+      </c>
+      <c r="E169" s="3">
         <v>23</v>
       </c>
       <c r="F169" s="5">
         <v>0.217</v>
       </c>
-      <c r="G169" s="7">
+      <c r="G169" s="3">
         <v>34</v>
       </c>
-      <c r="H169" s="7">
-        <v>0</v>
-      </c>
-      <c r="I169" s="7">
+      <c r="H169" s="3">
+        <v>0</v>
+      </c>
+      <c r="I169" s="3">
         <v>43</v>
       </c>
-      <c r="J169" s="7">
+      <c r="J169" s="3">
         <v>63</v>
       </c>
       <c r="K169" s="5">
         <v>0.40570000000000001</v>
       </c>
-      <c r="L169" s="7">
+      <c r="L169" s="3">
         <v>8</v>
       </c>
-      <c r="M169" s="7">
+      <c r="M169" s="3">
         <v>8</v>
       </c>
-      <c r="N169" s="7">
-        <v>1</v>
-      </c>
-      <c r="O169" s="7">
+      <c r="N169" s="3">
+        <v>1</v>
+      </c>
+      <c r="O169" s="3">
         <v>133.97999999999999</v>
       </c>
       <c r="P169" s="5">
         <v>7.5499999999999998E-2</v>
       </c>
-      <c r="Q169" s="7">
+      <c r="Q169" s="3">
         <v>8</v>
       </c>
-      <c r="R169" s="7">
+      <c r="R169" s="3">
         <v>8</v>
       </c>
-      <c r="S169" s="7">
-        <v>1</v>
-      </c>
-      <c r="T169" s="7">
+      <c r="S169" s="3">
+        <v>1</v>
+      </c>
+      <c r="T169" s="8">
         <v>133.97999999999999</v>
       </c>
       <c r="U169" s="5">
@@ -13554,61 +13560,61 @@
       <c r="A170" s="4">
         <v>45215</v>
       </c>
-      <c r="B170" s="7">
+      <c r="B170" s="3">
         <v>102</v>
       </c>
-      <c r="C170" s="7">
+      <c r="C170" s="3">
         <v>172</v>
       </c>
-      <c r="D170" s="7">
-        <v>3</v>
-      </c>
-      <c r="E170" s="7">
+      <c r="D170" s="3">
+        <v>3</v>
+      </c>
+      <c r="E170" s="3">
         <v>25</v>
       </c>
       <c r="F170" s="5">
         <v>0.24510000000000001</v>
       </c>
-      <c r="G170" s="7">
+      <c r="G170" s="3">
         <v>17</v>
       </c>
-      <c r="H170" s="7">
-        <v>1</v>
-      </c>
-      <c r="I170" s="7">
+      <c r="H170" s="3">
+        <v>1</v>
+      </c>
+      <c r="I170" s="3">
         <v>28</v>
       </c>
-      <c r="J170" s="7">
+      <c r="J170" s="3">
         <v>33</v>
       </c>
       <c r="K170" s="5">
         <v>0.27450000000000002</v>
       </c>
-      <c r="L170" s="7">
+      <c r="L170" s="3">
         <v>6</v>
       </c>
-      <c r="M170" s="7">
+      <c r="M170" s="3">
         <v>6</v>
       </c>
-      <c r="N170" s="7">
-        <v>1</v>
-      </c>
-      <c r="O170" s="7">
+      <c r="N170" s="3">
+        <v>1</v>
+      </c>
+      <c r="O170" s="3">
         <v>181.8</v>
       </c>
       <c r="P170" s="5">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="Q170" s="7">
+      <c r="Q170" s="3">
         <v>5</v>
       </c>
-      <c r="R170" s="7">
+      <c r="R170" s="3">
         <v>5</v>
       </c>
-      <c r="S170" s="7">
-        <v>1</v>
-      </c>
-      <c r="T170" s="7">
+      <c r="S170" s="3">
+        <v>1</v>
+      </c>
+      <c r="T170" s="8">
         <v>158.9</v>
       </c>
       <c r="U170" s="5">
@@ -13631,61 +13637,61 @@
       <c r="A171" s="4">
         <v>45216</v>
       </c>
-      <c r="B171" s="7">
+      <c r="B171" s="3">
         <v>87</v>
       </c>
-      <c r="C171" s="7">
+      <c r="C171" s="3">
         <v>189</v>
       </c>
-      <c r="D171" s="7">
-        <v>3</v>
-      </c>
-      <c r="E171" s="7">
+      <c r="D171" s="3">
+        <v>3</v>
+      </c>
+      <c r="E171" s="3">
         <v>21</v>
       </c>
       <c r="F171" s="5">
         <v>0.2414</v>
       </c>
-      <c r="G171" s="7">
+      <c r="G171" s="3">
         <v>22</v>
       </c>
-      <c r="H171" s="7">
-        <v>0</v>
-      </c>
-      <c r="I171" s="7">
+      <c r="H171" s="3">
+        <v>0</v>
+      </c>
+      <c r="I171" s="3">
         <v>48</v>
       </c>
-      <c r="J171" s="7">
+      <c r="J171" s="3">
         <v>72</v>
       </c>
       <c r="K171" s="5">
         <v>0.55169999999999997</v>
       </c>
-      <c r="L171" s="7">
+      <c r="L171" s="3">
         <v>11</v>
       </c>
-      <c r="M171" s="7">
+      <c r="M171" s="3">
         <v>12</v>
       </c>
-      <c r="N171" s="7">
-        <v>1</v>
-      </c>
-      <c r="O171" s="7">
+      <c r="N171" s="3">
+        <v>1</v>
+      </c>
+      <c r="O171" s="3">
         <v>232.85</v>
       </c>
       <c r="P171" s="5">
         <v>0.12640000000000001</v>
       </c>
-      <c r="Q171" s="7">
+      <c r="Q171" s="3">
         <v>9</v>
       </c>
-      <c r="R171" s="7">
+      <c r="R171" s="3">
         <v>10</v>
       </c>
-      <c r="S171" s="7">
-        <v>1</v>
-      </c>
-      <c r="T171" s="7">
+      <c r="S171" s="3">
+        <v>1</v>
+      </c>
+      <c r="T171" s="8">
         <v>196.65</v>
       </c>
       <c r="U171" s="5">
@@ -13708,61 +13714,61 @@
       <c r="A172" s="4">
         <v>45217</v>
       </c>
-      <c r="B172" s="7">
+      <c r="B172" s="3">
         <v>138</v>
       </c>
-      <c r="C172" s="7">
+      <c r="C172" s="3">
         <v>375</v>
       </c>
-      <c r="D172" s="7">
+      <c r="D172" s="3">
         <v>5</v>
       </c>
-      <c r="E172" s="7">
+      <c r="E172" s="3">
         <v>31</v>
       </c>
       <c r="F172" s="5">
         <v>0.22459999999999999</v>
       </c>
-      <c r="G172" s="7">
+      <c r="G172" s="3">
         <v>29</v>
       </c>
-      <c r="H172" s="7">
-        <v>1</v>
-      </c>
-      <c r="I172" s="7">
+      <c r="H172" s="3">
+        <v>1</v>
+      </c>
+      <c r="I172" s="3">
         <v>118</v>
       </c>
-      <c r="J172" s="7">
+      <c r="J172" s="3">
         <v>244</v>
       </c>
       <c r="K172" s="5">
         <v>0.85509999999999997</v>
       </c>
-      <c r="L172" s="7">
+      <c r="L172" s="3">
         <v>27</v>
       </c>
-      <c r="M172" s="7">
+      <c r="M172" s="3">
         <v>33</v>
       </c>
-      <c r="N172" s="7">
+      <c r="N172" s="3">
         <v>2</v>
       </c>
-      <c r="O172" s="7">
+      <c r="O172" s="3">
         <v>635.41</v>
       </c>
       <c r="P172" s="5">
         <v>0.19570000000000001</v>
       </c>
-      <c r="Q172" s="7">
+      <c r="Q172" s="3">
         <v>24</v>
       </c>
-      <c r="R172" s="7">
+      <c r="R172" s="3">
         <v>29</v>
       </c>
-      <c r="S172" s="7">
+      <c r="S172" s="3">
         <v>2</v>
       </c>
-      <c r="T172" s="7">
+      <c r="T172" s="8">
         <v>548.55999999999995</v>
       </c>
       <c r="U172" s="5">
@@ -13785,61 +13791,61 @@
       <c r="A173" s="4">
         <v>45218</v>
       </c>
-      <c r="B173" s="7">
+      <c r="B173" s="3">
         <v>68</v>
       </c>
-      <c r="C173" s="7">
+      <c r="C173" s="3">
         <v>121</v>
       </c>
-      <c r="D173" s="7">
-        <v>3</v>
-      </c>
-      <c r="E173" s="7">
+      <c r="D173" s="3">
+        <v>3</v>
+      </c>
+      <c r="E173" s="3">
         <v>15</v>
       </c>
       <c r="F173" s="5">
         <v>0.22059999999999999</v>
       </c>
-      <c r="G173" s="7">
+      <c r="G173" s="3">
         <v>10</v>
       </c>
-      <c r="H173" s="7">
-        <v>1</v>
-      </c>
-      <c r="I173" s="7">
+      <c r="H173" s="3">
+        <v>1</v>
+      </c>
+      <c r="I173" s="3">
         <v>43</v>
       </c>
-      <c r="J173" s="7">
+      <c r="J173" s="3">
         <v>73</v>
       </c>
       <c r="K173" s="5">
         <v>0.63239999999999996</v>
       </c>
-      <c r="L173" s="7">
+      <c r="L173" s="3">
         <v>10</v>
       </c>
-      <c r="M173" s="7">
+      <c r="M173" s="3">
         <v>10</v>
       </c>
-      <c r="N173" s="7">
-        <v>1</v>
-      </c>
-      <c r="O173" s="7">
+      <c r="N173" s="3">
+        <v>1</v>
+      </c>
+      <c r="O173" s="3">
         <v>199.8</v>
       </c>
       <c r="P173" s="5">
         <v>0.14710000000000001</v>
       </c>
-      <c r="Q173" s="7">
+      <c r="Q173" s="3">
         <v>8</v>
       </c>
-      <c r="R173" s="7">
+      <c r="R173" s="3">
         <v>8</v>
       </c>
-      <c r="S173" s="7">
-        <v>1</v>
-      </c>
-      <c r="T173" s="7">
+      <c r="S173" s="3">
+        <v>1</v>
+      </c>
+      <c r="T173" s="8">
         <v>146</v>
       </c>
       <c r="U173" s="5">
@@ -13862,61 +13868,61 @@
       <c r="A174" s="4">
         <v>45219</v>
       </c>
-      <c r="B174" s="7">
+      <c r="B174" s="3">
         <v>47</v>
       </c>
-      <c r="C174" s="7">
+      <c r="C174" s="3">
         <v>77</v>
       </c>
-      <c r="D174" s="7">
-        <v>3</v>
-      </c>
-      <c r="E174" s="7">
+      <c r="D174" s="3">
+        <v>3</v>
+      </c>
+      <c r="E174" s="3">
         <v>16</v>
       </c>
       <c r="F174" s="5">
         <v>0.34039999999999998</v>
       </c>
-      <c r="G174" s="7">
+      <c r="G174" s="3">
         <v>14</v>
       </c>
-      <c r="H174" s="7">
+      <c r="H174" s="3">
         <v>4</v>
       </c>
-      <c r="I174" s="7">
+      <c r="I174" s="3">
         <v>12</v>
       </c>
-      <c r="J174" s="7">
+      <c r="J174" s="3">
         <v>12</v>
       </c>
       <c r="K174" s="5">
         <v>0.25530000000000003</v>
       </c>
-      <c r="L174" s="7">
-        <v>0</v>
-      </c>
-      <c r="M174" s="7">
-        <v>0</v>
-      </c>
-      <c r="N174" s="7">
-        <v>0</v>
-      </c>
-      <c r="O174" s="7">
+      <c r="L174" s="3">
+        <v>0</v>
+      </c>
+      <c r="M174" s="3">
+        <v>0</v>
+      </c>
+      <c r="N174" s="3">
+        <v>0</v>
+      </c>
+      <c r="O174" s="3">
         <v>0</v>
       </c>
       <c r="P174" s="5">
         <v>0</v>
       </c>
-      <c r="Q174" s="7">
-        <v>1</v>
-      </c>
-      <c r="R174" s="7">
-        <v>1</v>
-      </c>
-      <c r="S174" s="7">
-        <v>1</v>
-      </c>
-      <c r="T174" s="7">
+      <c r="Q174" s="3">
+        <v>1</v>
+      </c>
+      <c r="R174" s="3">
+        <v>1</v>
+      </c>
+      <c r="S174" s="3">
+        <v>1</v>
+      </c>
+      <c r="T174" s="8">
         <v>22.9</v>
       </c>
       <c r="U174" s="5">
@@ -13939,61 +13945,61 @@
       <c r="A175" s="4">
         <v>45220</v>
       </c>
-      <c r="B175" s="7">
+      <c r="B175" s="3">
         <v>30</v>
       </c>
-      <c r="C175" s="7">
+      <c r="C175" s="3">
         <v>55</v>
       </c>
-      <c r="D175" s="7">
-        <v>3</v>
-      </c>
-      <c r="E175" s="7">
+      <c r="D175" s="3">
+        <v>3</v>
+      </c>
+      <c r="E175" s="3">
         <v>11</v>
       </c>
       <c r="F175" s="5">
         <v>0.36670000000000003</v>
       </c>
-      <c r="G175" s="7">
+      <c r="G175" s="3">
         <v>9</v>
       </c>
-      <c r="H175" s="7">
-        <v>1</v>
-      </c>
-      <c r="I175" s="7">
+      <c r="H175" s="3">
+        <v>1</v>
+      </c>
+      <c r="I175" s="3">
         <v>12</v>
       </c>
-      <c r="J175" s="7">
+      <c r="J175" s="3">
         <v>19</v>
       </c>
       <c r="K175" s="5">
         <v>0.4</v>
       </c>
-      <c r="L175" s="7">
-        <v>1</v>
-      </c>
-      <c r="M175" s="7">
-        <v>1</v>
-      </c>
-      <c r="N175" s="7">
-        <v>1</v>
-      </c>
-      <c r="O175" s="7">
+      <c r="L175" s="3">
+        <v>1</v>
+      </c>
+      <c r="M175" s="3">
+        <v>1</v>
+      </c>
+      <c r="N175" s="3">
+        <v>1</v>
+      </c>
+      <c r="O175" s="3">
         <v>10.9</v>
       </c>
       <c r="P175" s="5">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="Q175" s="7">
-        <v>1</v>
-      </c>
-      <c r="R175" s="7">
-        <v>1</v>
-      </c>
-      <c r="S175" s="7">
-        <v>1</v>
-      </c>
-      <c r="T175" s="7">
+      <c r="Q175" s="3">
+        <v>1</v>
+      </c>
+      <c r="R175" s="3">
+        <v>1</v>
+      </c>
+      <c r="S175" s="3">
+        <v>1</v>
+      </c>
+      <c r="T175" s="8">
         <v>10.9</v>
       </c>
       <c r="U175" s="5">
@@ -14016,61 +14022,61 @@
       <c r="A176" s="4">
         <v>45221</v>
       </c>
-      <c r="B176" s="7">
+      <c r="B176" s="3">
         <v>56</v>
       </c>
-      <c r="C176" s="7">
+      <c r="C176" s="3">
         <v>109</v>
       </c>
-      <c r="D176" s="7">
+      <c r="D176" s="3">
         <v>4</v>
       </c>
-      <c r="E176" s="7">
+      <c r="E176" s="3">
         <v>12</v>
       </c>
       <c r="F176" s="5">
         <v>0.21429999999999999</v>
       </c>
-      <c r="G176" s="7">
+      <c r="G176" s="3">
         <v>17</v>
       </c>
-      <c r="H176" s="7">
-        <v>0</v>
-      </c>
-      <c r="I176" s="7">
+      <c r="H176" s="3">
+        <v>0</v>
+      </c>
+      <c r="I176" s="3">
         <v>30</v>
       </c>
-      <c r="J176" s="7">
+      <c r="J176" s="3">
         <v>40</v>
       </c>
       <c r="K176" s="5">
         <v>0.53569999999999995</v>
       </c>
-      <c r="L176" s="7">
+      <c r="L176" s="3">
         <v>2</v>
       </c>
-      <c r="M176" s="7">
+      <c r="M176" s="3">
         <v>2</v>
       </c>
-      <c r="N176" s="7">
-        <v>1</v>
-      </c>
-      <c r="O176" s="7">
+      <c r="N176" s="3">
+        <v>1</v>
+      </c>
+      <c r="O176" s="3">
         <v>19.8</v>
       </c>
       <c r="P176" s="5">
         <v>3.5700000000000003E-2</v>
       </c>
-      <c r="Q176" s="7">
+      <c r="Q176" s="3">
         <v>2</v>
       </c>
-      <c r="R176" s="7">
+      <c r="R176" s="3">
         <v>2</v>
       </c>
-      <c r="S176" s="7">
-        <v>1</v>
-      </c>
-      <c r="T176" s="7">
+      <c r="S176" s="3">
+        <v>1</v>
+      </c>
+      <c r="T176" s="8">
         <v>19.8</v>
       </c>
       <c r="U176" s="5">
@@ -14093,61 +14099,61 @@
       <c r="A177" s="4">
         <v>45222</v>
       </c>
-      <c r="B177" s="7">
+      <c r="B177" s="3">
         <v>61</v>
       </c>
-      <c r="C177" s="7">
+      <c r="C177" s="3">
         <v>110</v>
       </c>
-      <c r="D177" s="7">
-        <v>3</v>
-      </c>
-      <c r="E177" s="7">
+      <c r="D177" s="3">
+        <v>3</v>
+      </c>
+      <c r="E177" s="3">
         <v>11</v>
       </c>
       <c r="F177" s="5">
         <v>0.18029999999999999</v>
       </c>
-      <c r="G177" s="7">
+      <c r="G177" s="3">
         <v>13</v>
       </c>
-      <c r="H177" s="7">
-        <v>0</v>
-      </c>
-      <c r="I177" s="7">
+      <c r="H177" s="3">
+        <v>0</v>
+      </c>
+      <c r="I177" s="3">
         <v>32</v>
       </c>
-      <c r="J177" s="7">
+      <c r="J177" s="3">
         <v>39</v>
       </c>
       <c r="K177" s="5">
         <v>0.52459999999999996</v>
       </c>
-      <c r="L177" s="7">
-        <v>3</v>
-      </c>
-      <c r="M177" s="7">
-        <v>3</v>
-      </c>
-      <c r="N177" s="7">
-        <v>1</v>
-      </c>
-      <c r="O177" s="7">
+      <c r="L177" s="3">
+        <v>3</v>
+      </c>
+      <c r="M177" s="3">
+        <v>3</v>
+      </c>
+      <c r="N177" s="3">
+        <v>1</v>
+      </c>
+      <c r="O177" s="3">
         <v>69.66</v>
       </c>
       <c r="P177" s="5">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="Q177" s="7">
-        <v>3</v>
-      </c>
-      <c r="R177" s="7">
-        <v>3</v>
-      </c>
-      <c r="S177" s="7">
-        <v>1</v>
-      </c>
-      <c r="T177" s="7">
+      <c r="Q177" s="3">
+        <v>3</v>
+      </c>
+      <c r="R177" s="3">
+        <v>3</v>
+      </c>
+      <c r="S177" s="3">
+        <v>1</v>
+      </c>
+      <c r="T177" s="8">
         <v>69.66</v>
       </c>
       <c r="U177" s="5">
@@ -14170,61 +14176,61 @@
       <c r="A178" s="4">
         <v>45223</v>
       </c>
-      <c r="B178" s="7">
+      <c r="B178" s="3">
         <v>70</v>
       </c>
-      <c r="C178" s="7">
+      <c r="C178" s="3">
         <v>142</v>
       </c>
-      <c r="D178" s="7">
-        <v>3</v>
-      </c>
-      <c r="E178" s="7">
+      <c r="D178" s="3">
+        <v>3</v>
+      </c>
+      <c r="E178" s="3">
         <v>23</v>
       </c>
       <c r="F178" s="5">
         <v>0.3286</v>
       </c>
-      <c r="G178" s="7">
+      <c r="G178" s="3">
         <v>20</v>
       </c>
-      <c r="H178" s="7">
-        <v>1</v>
-      </c>
-      <c r="I178" s="7">
+      <c r="H178" s="3">
+        <v>1</v>
+      </c>
+      <c r="I178" s="3">
         <v>16</v>
       </c>
-      <c r="J178" s="7">
+      <c r="J178" s="3">
         <v>18</v>
       </c>
       <c r="K178" s="5">
         <v>0.2286</v>
       </c>
-      <c r="L178" s="7">
+      <c r="L178" s="3">
         <v>4</v>
       </c>
-      <c r="M178" s="7">
+      <c r="M178" s="3">
         <v>4</v>
       </c>
-      <c r="N178" s="7">
-        <v>1</v>
-      </c>
-      <c r="O178" s="7">
+      <c r="N178" s="3">
+        <v>1</v>
+      </c>
+      <c r="O178" s="3">
         <v>61.6</v>
       </c>
       <c r="P178" s="5">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="Q178" s="7">
+      <c r="Q178" s="3">
         <v>4</v>
       </c>
-      <c r="R178" s="7">
+      <c r="R178" s="3">
         <v>4</v>
       </c>
-      <c r="S178" s="7">
-        <v>1</v>
-      </c>
-      <c r="T178" s="7">
+      <c r="S178" s="3">
+        <v>1</v>
+      </c>
+      <c r="T178" s="8">
         <v>61.6</v>
       </c>
       <c r="U178" s="5">
@@ -14247,43 +14253,43 @@
       <c r="A179" s="4">
         <v>45224</v>
       </c>
-      <c r="B179" s="7">
+      <c r="B179" s="3">
         <v>142</v>
       </c>
-      <c r="C179" s="7">
+      <c r="C179" s="3">
         <v>360</v>
       </c>
-      <c r="D179" s="7">
-        <v>3</v>
-      </c>
-      <c r="E179" s="7">
+      <c r="D179" s="3">
+        <v>3</v>
+      </c>
+      <c r="E179" s="3">
         <v>25</v>
       </c>
       <c r="F179" s="5">
         <v>0.17610000000000001</v>
       </c>
-      <c r="G179" s="7">
+      <c r="G179" s="3">
         <v>37</v>
       </c>
-      <c r="H179" s="7">
+      <c r="H179" s="3">
         <v>2</v>
       </c>
-      <c r="I179" s="7">
+      <c r="I179" s="3">
         <v>171</v>
       </c>
-      <c r="J179" s="7">
+      <c r="J179" s="3">
         <v>356</v>
       </c>
       <c r="K179" s="5">
         <v>1.2041999999999999</v>
       </c>
-      <c r="L179" s="7">
+      <c r="L179" s="3">
         <v>62</v>
       </c>
-      <c r="M179" s="7">
+      <c r="M179" s="3">
         <v>66</v>
       </c>
-      <c r="N179" s="7">
+      <c r="N179" s="3">
         <v>2</v>
       </c>
       <c r="O179" s="6">
@@ -14292,16 +14298,16 @@
       <c r="P179" s="5">
         <v>0.43659999999999999</v>
       </c>
-      <c r="Q179" s="7">
+      <c r="Q179" s="3">
         <v>60</v>
       </c>
-      <c r="R179" s="7">
+      <c r="R179" s="3">
         <v>63</v>
       </c>
-      <c r="S179" s="7">
+      <c r="S179" s="3">
         <v>2</v>
       </c>
-      <c r="T179" s="6">
+      <c r="T179" s="8">
         <v>1198.8800000000001</v>
       </c>
       <c r="U179" s="5">
@@ -14324,61 +14330,61 @@
       <c r="A180" s="4">
         <v>45225</v>
       </c>
-      <c r="B180" s="7">
+      <c r="B180" s="3">
         <v>108</v>
       </c>
-      <c r="C180" s="7">
+      <c r="C180" s="3">
         <v>221</v>
       </c>
-      <c r="D180" s="7">
+      <c r="D180" s="3">
         <v>4</v>
       </c>
-      <c r="E180" s="7">
+      <c r="E180" s="3">
         <v>27</v>
       </c>
       <c r="F180" s="5">
         <v>0.25</v>
       </c>
-      <c r="G180" s="7">
+      <c r="G180" s="3">
         <v>17</v>
       </c>
-      <c r="H180" s="7">
-        <v>1</v>
-      </c>
-      <c r="I180" s="7">
+      <c r="H180" s="3">
+        <v>1</v>
+      </c>
+      <c r="I180" s="3">
         <v>77</v>
       </c>
-      <c r="J180" s="7">
+      <c r="J180" s="3">
         <v>115</v>
       </c>
       <c r="K180" s="5">
         <v>0.71299999999999997</v>
       </c>
-      <c r="L180" s="7">
+      <c r="L180" s="3">
         <v>23</v>
       </c>
-      <c r="M180" s="7">
+      <c r="M180" s="3">
         <v>25</v>
       </c>
-      <c r="N180" s="7">
-        <v>1</v>
-      </c>
-      <c r="O180" s="7">
+      <c r="N180" s="3">
+        <v>1</v>
+      </c>
+      <c r="O180" s="3">
         <v>497.05</v>
       </c>
       <c r="P180" s="5">
         <v>0.21299999999999999</v>
       </c>
-      <c r="Q180" s="7">
+      <c r="Q180" s="3">
         <v>21</v>
       </c>
-      <c r="R180" s="7">
+      <c r="R180" s="3">
         <v>23</v>
       </c>
-      <c r="S180" s="7">
-        <v>1</v>
-      </c>
-      <c r="T180" s="7">
+      <c r="S180" s="3">
+        <v>1</v>
+      </c>
+      <c r="T180" s="8">
         <v>471.25</v>
       </c>
       <c r="U180" s="5">
@@ -14401,61 +14407,61 @@
       <c r="A181" s="4">
         <v>45226</v>
       </c>
-      <c r="B181" s="7">
+      <c r="B181" s="3">
         <v>74</v>
       </c>
-      <c r="C181" s="7">
+      <c r="C181" s="3">
         <v>180</v>
       </c>
-      <c r="D181" s="7">
+      <c r="D181" s="3">
         <v>4</v>
       </c>
-      <c r="E181" s="7">
+      <c r="E181" s="3">
         <v>13</v>
       </c>
       <c r="F181" s="5">
         <v>0.1757</v>
       </c>
-      <c r="G181" s="7">
+      <c r="G181" s="3">
         <v>19</v>
       </c>
-      <c r="H181" s="7">
-        <v>1</v>
-      </c>
-      <c r="I181" s="7">
+      <c r="H181" s="3">
+        <v>1</v>
+      </c>
+      <c r="I181" s="3">
         <v>56</v>
       </c>
-      <c r="J181" s="7">
+      <c r="J181" s="3">
         <v>108</v>
       </c>
       <c r="K181" s="5">
         <v>0.75680000000000003</v>
       </c>
-      <c r="L181" s="7">
+      <c r="L181" s="3">
         <v>21</v>
       </c>
-      <c r="M181" s="7">
+      <c r="M181" s="3">
         <v>32</v>
       </c>
-      <c r="N181" s="7">
-        <v>1</v>
-      </c>
-      <c r="O181" s="7">
+      <c r="N181" s="3">
+        <v>1</v>
+      </c>
+      <c r="O181" s="3">
         <v>548.83000000000004</v>
       </c>
       <c r="P181" s="5">
         <v>0.2838</v>
       </c>
-      <c r="Q181" s="7">
+      <c r="Q181" s="3">
         <v>19</v>
       </c>
-      <c r="R181" s="7">
+      <c r="R181" s="3">
         <v>27</v>
       </c>
-      <c r="S181" s="7">
-        <v>1</v>
-      </c>
-      <c r="T181" s="7">
+      <c r="S181" s="3">
+        <v>1</v>
+      </c>
+      <c r="T181" s="8">
         <v>469.23</v>
       </c>
       <c r="U181" s="5">
@@ -14478,61 +14484,61 @@
       <c r="A182" s="4">
         <v>45227</v>
       </c>
-      <c r="B182" s="7">
+      <c r="B182" s="3">
         <v>53</v>
       </c>
-      <c r="C182" s="7">
+      <c r="C182" s="3">
         <v>86</v>
       </c>
-      <c r="D182" s="7">
-        <v>3</v>
-      </c>
-      <c r="E182" s="7">
+      <c r="D182" s="3">
+        <v>3</v>
+      </c>
+      <c r="E182" s="3">
         <v>16</v>
       </c>
       <c r="F182" s="5">
         <v>0.3019</v>
       </c>
-      <c r="G182" s="7">
+      <c r="G182" s="3">
         <v>10</v>
       </c>
-      <c r="H182" s="7">
-        <v>1</v>
-      </c>
-      <c r="I182" s="7">
+      <c r="H182" s="3">
+        <v>1</v>
+      </c>
+      <c r="I182" s="3">
         <v>15</v>
       </c>
-      <c r="J182" s="7">
+      <c r="J182" s="3">
         <v>17</v>
       </c>
       <c r="K182" s="5">
         <v>0.28299999999999997</v>
       </c>
-      <c r="L182" s="7">
+      <c r="L182" s="3">
         <v>2</v>
       </c>
-      <c r="M182" s="7">
+      <c r="M182" s="3">
         <v>2</v>
       </c>
-      <c r="N182" s="7">
-        <v>1</v>
-      </c>
-      <c r="O182" s="7">
+      <c r="N182" s="3">
+        <v>1</v>
+      </c>
+      <c r="O182" s="3">
         <v>25.8</v>
       </c>
       <c r="P182" s="5">
         <v>3.7699999999999997E-2</v>
       </c>
-      <c r="Q182" s="7">
+      <c r="Q182" s="3">
         <v>2</v>
       </c>
-      <c r="R182" s="7">
+      <c r="R182" s="3">
         <v>2</v>
       </c>
-      <c r="S182" s="7">
-        <v>1</v>
-      </c>
-      <c r="T182" s="7">
+      <c r="S182" s="3">
+        <v>1</v>
+      </c>
+      <c r="T182" s="8">
         <v>25.8</v>
       </c>
       <c r="U182" s="5">
@@ -14555,61 +14561,61 @@
       <c r="A183" s="4">
         <v>45228</v>
       </c>
-      <c r="B183" s="7">
+      <c r="B183" s="3">
         <v>78</v>
       </c>
-      <c r="C183" s="7">
+      <c r="C183" s="3">
         <v>133</v>
       </c>
-      <c r="D183" s="7">
-        <v>3</v>
-      </c>
-      <c r="E183" s="7">
+      <c r="D183" s="3">
+        <v>3</v>
+      </c>
+      <c r="E183" s="3">
         <v>29</v>
       </c>
       <c r="F183" s="5">
         <v>0.37180000000000002</v>
       </c>
-      <c r="G183" s="7">
+      <c r="G183" s="3">
         <v>30</v>
       </c>
-      <c r="H183" s="7">
-        <v>0</v>
-      </c>
-      <c r="I183" s="7">
+      <c r="H183" s="3">
+        <v>0</v>
+      </c>
+      <c r="I183" s="3">
         <v>11</v>
       </c>
-      <c r="J183" s="7">
+      <c r="J183" s="3">
         <v>12</v>
       </c>
       <c r="K183" s="5">
         <v>0.14099999999999999</v>
       </c>
-      <c r="L183" s="7">
+      <c r="L183" s="3">
         <v>5</v>
       </c>
-      <c r="M183" s="7">
+      <c r="M183" s="3">
         <v>6</v>
       </c>
-      <c r="N183" s="7">
-        <v>1</v>
-      </c>
-      <c r="O183" s="7">
+      <c r="N183" s="3">
+        <v>1</v>
+      </c>
+      <c r="O183" s="3">
         <v>140.9</v>
       </c>
       <c r="P183" s="5">
         <v>6.4100000000000004E-2</v>
       </c>
-      <c r="Q183" s="7">
+      <c r="Q183" s="3">
         <v>5</v>
       </c>
-      <c r="R183" s="7">
+      <c r="R183" s="3">
         <v>6</v>
       </c>
-      <c r="S183" s="7">
-        <v>1</v>
-      </c>
-      <c r="T183" s="7">
+      <c r="S183" s="3">
+        <v>1</v>
+      </c>
+      <c r="T183" s="8">
         <v>140.9</v>
       </c>
       <c r="U183" s="5">
@@ -14632,61 +14638,61 @@
       <c r="A184" s="4">
         <v>45229</v>
       </c>
-      <c r="B184" s="7">
+      <c r="B184" s="3">
         <v>88</v>
       </c>
-      <c r="C184" s="7">
+      <c r="C184" s="3">
         <v>144</v>
       </c>
-      <c r="D184" s="7">
-        <v>3</v>
-      </c>
-      <c r="E184" s="7">
+      <c r="D184" s="3">
+        <v>3</v>
+      </c>
+      <c r="E184" s="3">
         <v>29</v>
       </c>
       <c r="F184" s="5">
         <v>0.32950000000000002</v>
       </c>
-      <c r="G184" s="7">
+      <c r="G184" s="3">
         <v>33</v>
       </c>
-      <c r="H184" s="7">
-        <v>3</v>
-      </c>
-      <c r="I184" s="7">
+      <c r="H184" s="3">
+        <v>3</v>
+      </c>
+      <c r="I184" s="3">
         <v>29</v>
       </c>
-      <c r="J184" s="7">
+      <c r="J184" s="3">
         <v>36</v>
       </c>
       <c r="K184" s="5">
         <v>0.32950000000000002</v>
       </c>
-      <c r="L184" s="7">
+      <c r="L184" s="3">
         <v>11</v>
       </c>
-      <c r="M184" s="7">
+      <c r="M184" s="3">
         <v>12</v>
       </c>
-      <c r="N184" s="7">
-        <v>1</v>
-      </c>
-      <c r="O184" s="7">
+      <c r="N184" s="3">
+        <v>1</v>
+      </c>
+      <c r="O184" s="3">
         <v>313.81</v>
       </c>
       <c r="P184" s="5">
         <v>0.125</v>
       </c>
-      <c r="Q184" s="7">
+      <c r="Q184" s="3">
         <v>11</v>
       </c>
-      <c r="R184" s="7">
+      <c r="R184" s="3">
         <v>12</v>
       </c>
-      <c r="S184" s="7">
-        <v>1</v>
-      </c>
-      <c r="T184" s="7">
+      <c r="S184" s="3">
+        <v>1</v>
+      </c>
+      <c r="T184" s="8">
         <v>313.81</v>
       </c>
       <c r="U184" s="5">
@@ -14709,61 +14715,61 @@
       <c r="A185" s="4">
         <v>45230</v>
       </c>
-      <c r="B185" s="7">
+      <c r="B185" s="3">
         <v>122</v>
       </c>
-      <c r="C185" s="7">
+      <c r="C185" s="3">
         <v>282</v>
       </c>
-      <c r="D185" s="7">
+      <c r="D185" s="3">
         <v>4</v>
       </c>
-      <c r="E185" s="7">
+      <c r="E185" s="3">
         <v>24</v>
       </c>
       <c r="F185" s="5">
         <v>0.19670000000000001</v>
       </c>
-      <c r="G185" s="7">
+      <c r="G185" s="3">
         <v>43</v>
       </c>
-      <c r="H185" s="7">
-        <v>3</v>
-      </c>
-      <c r="I185" s="7">
+      <c r="H185" s="3">
+        <v>3</v>
+      </c>
+      <c r="I185" s="3">
         <v>60</v>
       </c>
-      <c r="J185" s="7">
+      <c r="J185" s="3">
         <v>169</v>
       </c>
       <c r="K185" s="5">
         <v>0.49180000000000001</v>
       </c>
-      <c r="L185" s="7">
+      <c r="L185" s="3">
         <v>15</v>
       </c>
-      <c r="M185" s="7">
+      <c r="M185" s="3">
         <v>26</v>
       </c>
-      <c r="N185" s="7">
+      <c r="N185" s="3">
         <v>2</v>
       </c>
-      <c r="O185" s="7">
+      <c r="O185" s="3">
         <v>743.54</v>
       </c>
       <c r="P185" s="5">
         <v>0.123</v>
       </c>
-      <c r="Q185" s="7">
+      <c r="Q185" s="3">
         <v>15</v>
       </c>
-      <c r="R185" s="7">
+      <c r="R185" s="3">
         <v>21</v>
       </c>
-      <c r="S185" s="7">
+      <c r="S185" s="3">
         <v>2</v>
       </c>
-      <c r="T185" s="7">
+      <c r="T185" s="8">
         <v>571.94000000000005</v>
       </c>
       <c r="U185" s="5">

--- a/MergedFile.xlsx
+++ b/MergedFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\CiliLado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BB9BA2-87B3-4907-941C-11774742FDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE5EDAE-376E-4D90-A63B-2D1DE5FDC8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+    <sheetView tabSelected="1" topLeftCell="L174" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S194" sqref="S194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -14790,7 +14790,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/MergedFile.xlsx
+++ b/MergedFile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\CiliLado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emily\Desktop\Data Analytics &amp; Machine Learning\DAML Asgn\ChiliLado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE5EDAE-376E-4D90-A63B-2D1DE5FDC8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7AE909-D794-4D87-8894-F537FABC4724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="16044" windowHeight="9840" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
@@ -101,13 +101,13 @@
     <t>Conversion Rate (Placed to Confirmed)</t>
   </si>
   <si>
-    <t>Numbers of buyers</t>
+    <t>Number of buyers</t>
   </si>
   <si>
-    <t>Numbers of new buyers</t>
+    <t>Number of new buyers</t>
   </si>
   <si>
-    <t>Numbers of existing buyers</t>
+    <t>Number of existing buyers</t>
   </si>
 </sst>
 </file>
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L174" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S194" sqref="S194"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
